--- a/assets/guncel_deneme_bonuslari_listesi.xlsx
+++ b/assets/guncel_deneme_bonuslari_listesi.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cengi\Desktop\test\Deneme Bonusu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E4F56D-25BC-4F0F-BD12-CCA778FBF2C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BF5A89-DD75-4AED-B443-AA8E5EA01909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6873D136-33D6-4EA7-A334-AB6FD8B7CD44}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{6873D136-33D6-4EA7-A334-AB6FD8B7CD44}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sayfa1!$A$1:$C$439</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sayfa1!$A$1:$C$423</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,17 +39,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="580">
-  <si>
-    <t>acarbet</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="575">
   <si>
     <t>acrobet</t>
   </si>
   <si>
-    <t>ajaxbet</t>
-  </si>
-  <si>
     <t>alobet</t>
   </si>
   <si>
@@ -62,9 +56,6 @@
     <t>anadoluslot</t>
   </si>
   <si>
-    <t>antikbet</t>
-  </si>
-  <si>
     <t>aresbet</t>
   </si>
   <si>
@@ -92,9 +83,6 @@
     <t>bahisabi</t>
   </si>
   <si>
-    <t>bahiscim</t>
-  </si>
-  <si>
     <t>bahisfair</t>
   </si>
   <si>
@@ -110,24 +98,12 @@
     <t>bahisvebahis</t>
   </si>
   <si>
-    <t>bahix</t>
-  </si>
-  <si>
-    <t>balbet</t>
-  </si>
-  <si>
     <t>bankobet</t>
   </si>
   <si>
-    <t>barbibet</t>
-  </si>
-  <si>
     <t>bayconticasino</t>
   </si>
   <si>
-    <t>bayspin</t>
-  </si>
-  <si>
     <t>baywin</t>
   </si>
   <si>
@@ -152,9 +128,6 @@
     <t>betbetin</t>
   </si>
   <si>
-    <t>betbey</t>
-  </si>
-  <si>
     <t>betbom</t>
   </si>
   <si>
@@ -167,12 +140,6 @@
     <t>betci</t>
   </si>
   <si>
-    <t>betcio</t>
-  </si>
-  <si>
-    <t>betenerji</t>
-  </si>
-  <si>
     <t>betewin</t>
   </si>
   <si>
@@ -197,12 +164,6 @@
     <t>betigma</t>
   </si>
   <si>
-    <t>betine</t>
-  </si>
-  <si>
-    <t>betium</t>
-  </si>
-  <si>
     <t>betkanyon</t>
   </si>
   <si>
@@ -215,9 +176,6 @@
     <t>betkom</t>
   </si>
   <si>
-    <t>betlesene</t>
-  </si>
-  <si>
     <t>betlike</t>
   </si>
   <si>
@@ -248,9 +206,6 @@
     <t>betorder</t>
   </si>
   <si>
-    <t>betorspin</t>
-  </si>
-  <si>
     <t>betosfer</t>
   </si>
   <si>
@@ -269,9 +224,6 @@
     <t>betpir</t>
   </si>
   <si>
-    <t>betpon</t>
-  </si>
-  <si>
     <t>betpuan</t>
   </si>
   <si>
@@ -326,9 +278,6 @@
     <t>betturkey</t>
   </si>
   <si>
-    <t>betvakti</t>
-  </si>
-  <si>
     <t>betturka</t>
   </si>
   <si>
@@ -344,12 +293,6 @@
     <t>betyoner</t>
   </si>
   <si>
-    <t>beygirbet</t>
-  </si>
-  <si>
-    <t>bircasino</t>
-  </si>
-  <si>
     <t>bonisa</t>
   </si>
   <si>
@@ -368,15 +311,9 @@
     <t>candycasino</t>
   </si>
   <si>
-    <t>cashanem</t>
-  </si>
-  <si>
     <t>cashwin</t>
   </si>
   <si>
-    <t>casiblu</t>
-  </si>
-  <si>
     <t>casicosta</t>
   </si>
   <si>
@@ -401,15 +338,9 @@
     <t>casinra</t>
   </si>
   <si>
-    <t>casipol</t>
-  </si>
-  <si>
     <t>casival</t>
   </si>
   <si>
-    <t>casivera</t>
-  </si>
-  <si>
     <t>cedabet</t>
   </si>
   <si>
@@ -419,18 +350,9 @@
     <t>cepbahis</t>
   </si>
   <si>
-    <t>chamadabet</t>
-  </si>
-  <si>
-    <t>cimbombey</t>
-  </si>
-  <si>
     <t>cratosroyalbet</t>
   </si>
   <si>
-    <t>çarkbet</t>
-  </si>
-  <si>
     <t>damabet</t>
   </si>
   <si>
@@ -452,12 +374,6 @@
     <t>efesbetcasino</t>
   </si>
   <si>
-    <t>efsanebahis</t>
-  </si>
-  <si>
-    <t>elitbahis</t>
-  </si>
-  <si>
     <t>enbet</t>
   </si>
   <si>
@@ -470,9 +386,6 @@
     <t>epikbahis</t>
   </si>
   <si>
-    <t>esascasino</t>
-  </si>
-  <si>
     <t>esbet</t>
   </si>
   <si>
@@ -488,9 +401,6 @@
     <t>favorislot</t>
   </si>
   <si>
-    <t>fenerbey</t>
-  </si>
-  <si>
     <t>fenomenbet</t>
   </si>
   <si>
@@ -524,9 +434,6 @@
     <t>gettobet</t>
   </si>
   <si>
-    <t>girnecasino</t>
-  </si>
-  <si>
     <t>goatbahis</t>
   </si>
   <si>
@@ -545,9 +452,6 @@
     <t>gorabet</t>
   </si>
   <si>
-    <t>grandbetting</t>
-  </si>
-  <si>
     <t>grandoperabet</t>
   </si>
   <si>
@@ -593,9 +497,6 @@
     <t>ikimisli</t>
   </si>
   <si>
-    <t>ilkbahis</t>
-  </si>
-  <si>
     <t>imajbet</t>
   </si>
   <si>
@@ -617,18 +518,9 @@
     <t>kareasbet</t>
   </si>
   <si>
-    <t>karebet</t>
-  </si>
-  <si>
     <t>kargabet</t>
   </si>
   <si>
-    <t>kartalbey</t>
-  </si>
-  <si>
-    <t>kayapremiumcasino</t>
-  </si>
-  <si>
     <t>kazandra</t>
   </si>
   <si>
@@ -1115,15 +1007,9 @@
     <t>bahiscasino</t>
   </si>
   <si>
-    <t>betlist</t>
-  </si>
-  <si>
     <t>betroz</t>
   </si>
   <si>
-    <t>goley90</t>
-  </si>
-  <si>
     <t>livebahis</t>
   </si>
   <si>
@@ -1145,171 +1031,33 @@
     <t>noktabet</t>
   </si>
   <si>
-    <t>250tl yatırımlı maks 5k çekim</t>
-  </si>
-  <si>
-    <t>500tl yatırımlı maks 2k çekim</t>
-  </si>
-  <si>
-    <t>100tl yatırımlı maks 1k çekim</t>
-  </si>
-  <si>
     <t>yatırımsız maks 300tl çekim</t>
   </si>
   <si>
-    <t>yatırımsız maks 250tl çekim</t>
-  </si>
-  <si>
-    <t>150tl yatırım maks 300tl çekim</t>
-  </si>
-  <si>
-    <t>100tl yatırımlı maks 500 çekim</t>
-  </si>
-  <si>
-    <t>yatırımsız maks 500tl çekim</t>
-  </si>
-  <si>
-    <t>yatırımsız maks 1k çekim</t>
-  </si>
-  <si>
-    <t>100tl yatırılım maks 300tl çekim</t>
-  </si>
-  <si>
-    <t>1k yatırımlı maks bonusun 20 katı çekim</t>
-  </si>
-  <si>
-    <t>500tl yatırımlı maks çekim sınırı yok.</t>
-  </si>
-  <si>
-    <t>yatırımsız maks 10k çekim</t>
-  </si>
-  <si>
-    <t>250tl yatırımlı maks 1k çekim</t>
-  </si>
-  <si>
     <t>250tl yatırımlı maks 500tl çekim</t>
   </si>
   <si>
     <t>şartlar canlı destekte</t>
   </si>
   <si>
-    <t>500tl yatırımlı maks 1k çekim. Anapara çekim sınırı yok.</t>
-  </si>
-  <si>
-    <t>yatırımsız maks 400tl çekim</t>
-  </si>
-  <si>
-    <t>100tl yatırımlı maks 300tl çekim</t>
-  </si>
-  <si>
-    <t>100tl yatırımlı maks 500tl çekim</t>
-  </si>
-  <si>
-    <t>300tl yatırımlı maks 500tl çekim. Ana para kalıyor</t>
-  </si>
-  <si>
-    <t>200tl yatırımlı maks 1k çekim</t>
-  </si>
-  <si>
-    <t>yatırımsız maks 150tl çekim</t>
-  </si>
-  <si>
-    <t>yatırım kadar deneme min-maks 10 katı çekim</t>
-  </si>
-  <si>
-    <t>250tl yatırımlı maks 2.5k çekim</t>
-  </si>
-  <si>
-    <t>100tl yatırımlı maks 200tl çekim</t>
-  </si>
-  <si>
-    <t>100tl yatırımlı maks 350tl çekim</t>
-  </si>
-  <si>
-    <t>1k yatırımlı maks 2.5k çekim</t>
-  </si>
-  <si>
-    <t>yatırımsız maks 2.5k çekim</t>
-  </si>
-  <si>
-    <t>yatırımsız min 500tl maks sınırsız çekim</t>
-  </si>
-  <si>
     <t>2fa bonusu. Yatırımsız bonus tutarının maks 25 katı çekim</t>
   </si>
   <si>
-    <t>100tl yatırımlı maks 250tl çekim</t>
-  </si>
-  <si>
-    <t>200tl yatırımlı maks 500tl çekim</t>
-  </si>
-  <si>
-    <t>yatırımsız min 500tl maks 10k çekim</t>
-  </si>
-  <si>
-    <t>300tl yatırımlı maks 3k çekim</t>
-  </si>
-  <si>
-    <t>500tl yatırımlı maks 1k çekim.</t>
-  </si>
-  <si>
-    <t>yatırımsız 2.5k üstü %10u çekim yapılabilir. Sınırsız çekim</t>
-  </si>
-  <si>
     <t>telegram bonusu. Yatırımsız sınırsız çekim</t>
   </si>
   <si>
     <t>400tl yatırımlı maks çekim sınırı yok.</t>
   </si>
   <si>
-    <t>100tl yatırımlı maks 500tl çekim. Anapara ile devam</t>
-  </si>
-  <si>
-    <t>yatırımsız maks 2k çekim</t>
-  </si>
-  <si>
-    <t>100tl yatırımlı maks 400tl çekim. Anapara ile devam</t>
-  </si>
-  <si>
-    <t>tg bonusu. Yatırımsız maks 500tl çekim</t>
-  </si>
-  <si>
-    <t>1k yatırımlı maks 2k çekim</t>
-  </si>
-  <si>
-    <t>50tl yatırımlı maks 600tl çekim</t>
-  </si>
-  <si>
-    <t>yatırımsız maks 200tl çekim</t>
-  </si>
-  <si>
-    <t>500tl yatırımlı maks yatırımın 10katı çekim</t>
-  </si>
-  <si>
-    <t>bonus kazancı kadar yatırım+ana para çevrimi sonrası sınırsız çekim</t>
-  </si>
-  <si>
     <t>yatırımlı</t>
   </si>
   <si>
     <t>yatırımsız</t>
   </si>
   <si>
-    <t>min 100tl maks 1k çekim</t>
-  </si>
-  <si>
-    <t>tg bonusu 250tl yatırımlı maks 500tl çekim</t>
-  </si>
-  <si>
     <t>maks 500tl çekim</t>
   </si>
   <si>
-    <t>min 500 maks 1k çekim</t>
-  </si>
-  <si>
-    <t>150tl yatırımlı maks 300 çekim</t>
-  </si>
-  <si>
     <t>bonus bakiyesinin %10 kadar sınırsız çekim</t>
   </si>
   <si>
@@ -1319,54 +1067,15 @@
     <t>tg bonusu maks 500tl çekim</t>
   </si>
   <si>
-    <t>250tl yatırımlı maks 750tl çekim</t>
-  </si>
-  <si>
     <t>maks 1k çekim</t>
   </si>
   <si>
-    <t>sınırsız çekim</t>
-  </si>
-  <si>
-    <t>maks 10k çekim</t>
-  </si>
-  <si>
-    <t>min 250tl maks bonus bakiyesinin %10 kadar sınırsız çekim</t>
-  </si>
-  <si>
-    <t>200tl yatırımlı maks 400tl çekim</t>
-  </si>
-  <si>
-    <t>min 200tl maks 1500tl çekim</t>
-  </si>
-  <si>
-    <t>250tl yatırılım maks 500tl çekim</t>
-  </si>
-  <si>
     <t>maks 250tl çekim</t>
   </si>
   <si>
-    <t>100tl yatırımlı maks 1000tl çekim</t>
-  </si>
-  <si>
-    <t>min 200tl maks 1k çekim</t>
-  </si>
-  <si>
     <t>maks 200tl çekim</t>
   </si>
   <si>
-    <t>tg bonusu fs kazancının maks 25katı çekim</t>
-  </si>
-  <si>
-    <t>min 500tl maks 5k çekim</t>
-  </si>
-  <si>
-    <t>min 100tl maks 250tl çekim</t>
-  </si>
-  <si>
-    <t>250tl yatırımlı maks 500tl çekim. Anapara ile devam</t>
-  </si>
-  <si>
     <t>maks 600tl çekim</t>
   </si>
   <si>
@@ -1517,9 +1226,6 @@
     <t>durum</t>
   </si>
   <si>
-    <t>golden90</t>
-  </si>
-  <si>
     <t>mekanbahis</t>
   </si>
   <si>
@@ -1541,12 +1247,6 @@
     <t>kktcbet</t>
   </si>
   <si>
-    <t>alevcasino</t>
-  </si>
-  <si>
-    <t>maks 500tl çekim email doğrulama bonusu</t>
-  </si>
-  <si>
     <t>betchaplin</t>
   </si>
   <si>
@@ -1568,21 +1268,12 @@
     <t>betforce</t>
   </si>
   <si>
-    <t>300tl yatırım maks 500tl çekim</t>
-  </si>
-  <si>
-    <t>adacasino</t>
-  </si>
-  <si>
     <t>vadicasino</t>
   </si>
   <si>
     <t>hanedanbet</t>
   </si>
   <si>
-    <t>dahibet</t>
-  </si>
-  <si>
     <t>safirbet</t>
   </si>
   <si>
@@ -1604,33 +1295,21 @@
     <t>heybet</t>
   </si>
   <si>
-    <t>bahisoyna</t>
-  </si>
-  <si>
     <t>loyalbahis</t>
   </si>
   <si>
     <t>realbahis</t>
   </si>
   <si>
-    <t>hızlıbahis</t>
-  </si>
-  <si>
     <t>kalitebet</t>
   </si>
   <si>
-    <t>250tl yatırım maks 1k çekim. Anapara ile devam</t>
-  </si>
-  <si>
     <t>maritbet</t>
   </si>
   <si>
     <t>efsino</t>
   </si>
   <si>
-    <t>300tl yatırım maks 600tl çekim</t>
-  </si>
-  <si>
     <t>bewins</t>
   </si>
   <si>
@@ -1643,12 +1322,6 @@
     <t>100tl yatırım 1100tl çekim</t>
   </si>
   <si>
-    <t>casinodünya</t>
-  </si>
-  <si>
-    <t>maks 333tl çekim</t>
-  </si>
-  <si>
     <t>türkbet</t>
   </si>
   <si>
@@ -1718,9 +1391,6 @@
     <t>casinopark</t>
   </si>
   <si>
-    <t>ganyanbet</t>
-  </si>
-  <si>
     <t>ironbet</t>
   </si>
   <si>
@@ -1745,9 +1415,6 @@
     <t>betadonis</t>
   </si>
   <si>
-    <t>100tl yatırımlı maks 10k çekim</t>
-  </si>
-  <si>
     <t>bahibom</t>
   </si>
   <si>
@@ -1775,10 +1442,328 @@
     <t>1k yatır maks 2k çekim</t>
   </si>
   <si>
-    <t>casipot</t>
-  </si>
-  <si>
     <t>akcebet</t>
+  </si>
+  <si>
+    <t>1king</t>
+  </si>
+  <si>
+    <t>b1bahis</t>
+  </si>
+  <si>
+    <t>bahiscom</t>
+  </si>
+  <si>
+    <t>bahisdeyiz</t>
+  </si>
+  <si>
+    <t>1 yatırımlı. Maks 1.5k çekim</t>
+  </si>
+  <si>
+    <t>500tl yatırımlı. Maks 1k çekim</t>
+  </si>
+  <si>
+    <t>250tl yatırımlı. Maks 5k çekim</t>
+  </si>
+  <si>
+    <t>250tl yatırımlı. Maks 500 çekim</t>
+  </si>
+  <si>
+    <t>250tl yatırımlı. Maks 1k çekim</t>
+  </si>
+  <si>
+    <t>Maks 300tl çekim</t>
+  </si>
+  <si>
+    <t>Maks 1000tl çekim</t>
+  </si>
+  <si>
+    <t>Maks 1k çekim</t>
+  </si>
+  <si>
+    <t>Maks 250tl çekim</t>
+  </si>
+  <si>
+    <t>Maks 500tl çekim</t>
+  </si>
+  <si>
+    <t>100tl yatırımlı. Maks 300tl çekim</t>
+  </si>
+  <si>
+    <t>1k yatırımlı. Maks 2k çekim</t>
+  </si>
+  <si>
+    <t>200tl yatırımlı. Maks 2k çekim</t>
+  </si>
+  <si>
+    <t>Maks 3k çekim</t>
+  </si>
+  <si>
+    <t>Maks 10k çekim</t>
+  </si>
+  <si>
+    <t>Maks 1k çekim. (telegram bonusu)</t>
+  </si>
+  <si>
+    <t>500tl yatırımlı. Maks 1ktl çekim</t>
+  </si>
+  <si>
+    <t>baymavi</t>
+  </si>
+  <si>
+    <t>1k yatırımlı. Maks 3k çekim</t>
+  </si>
+  <si>
+    <t>300tl yatırımlı. Maks 500tl çekim. Ana para kalıyor.</t>
+  </si>
+  <si>
+    <t>beinwon</t>
+  </si>
+  <si>
+    <t>200tl yatırımlı. Maks 1k çekim</t>
+  </si>
+  <si>
+    <t>500tl yatırımlı. Min 1k çekim</t>
+  </si>
+  <si>
+    <t>bet10bet</t>
+  </si>
+  <si>
+    <t>Kazanca göre yatırım yaparak maks 500k çekim</t>
+  </si>
+  <si>
+    <t>100tl yatırımlı. Maks 10k çekim</t>
+  </si>
+  <si>
+    <t>betasus</t>
+  </si>
+  <si>
+    <t>Maks 2k çekim</t>
+  </si>
+  <si>
+    <t>Maks 150tl çekim</t>
+  </si>
+  <si>
+    <t>Yatırım kadar deneme min-maks 10 katı çekim</t>
+  </si>
+  <si>
+    <t>1k yatırımlı. Maks 1.5k çekim</t>
+  </si>
+  <si>
+    <t>100tl yatırımlı. Maks 1k çekim</t>
+  </si>
+  <si>
+    <t>100tl yatırımlı. Maks 500tl çekim</t>
+  </si>
+  <si>
+    <t>500tl yatırımlı. Maks 700tl çekim</t>
+  </si>
+  <si>
+    <t>250tl yatırımlı. Maks 500tl çekim</t>
+  </si>
+  <si>
+    <t>betiton</t>
+  </si>
+  <si>
+    <t>1k yatırımlı. Maks 5k çekim</t>
+  </si>
+  <si>
+    <t>1k yatırımlı. Maks 2.5k çekim</t>
+  </si>
+  <si>
+    <t>betkong</t>
+  </si>
+  <si>
+    <t>betkorner</t>
+  </si>
+  <si>
+    <t>Maks 2.5k çekim</t>
+  </si>
+  <si>
+    <t>betnef</t>
+  </si>
+  <si>
+    <t>Min 500tl maks sınırsız çekim</t>
+  </si>
+  <si>
+    <t>Min 1k maks 2.5k çekim. Çekim kadar yatırım.</t>
+  </si>
+  <si>
+    <t>100tl yatırımlı. Maks 250tl çekim</t>
+  </si>
+  <si>
+    <t>500tl yatırımlı. Maks 1.5k çekim</t>
+  </si>
+  <si>
+    <t>200tl yatırımlı. Maks 500tl çekim</t>
+  </si>
+  <si>
+    <t>Min 500tl maks 10k çekim</t>
+  </si>
+  <si>
+    <t>300tl yatırımlı. Sınırsız çekim.</t>
+  </si>
+  <si>
+    <t>500tl yatırımlı. Maks 1k çekim.</t>
+  </si>
+  <si>
+    <t>2.5k üstü %10u çekim yapılabilir. Sınırsız çekim</t>
+  </si>
+  <si>
+    <t>betsilin</t>
+  </si>
+  <si>
+    <t>1k yatırım. 500tl çekim. 1k anapara ile devam</t>
+  </si>
+  <si>
+    <t>Maks 5k çekim</t>
+  </si>
+  <si>
+    <t>carkbet</t>
+  </si>
+  <si>
+    <t>casinobest</t>
+  </si>
+  <si>
+    <t>300tl yatırımlı. Min 3k maks sınır yok</t>
+  </si>
+  <si>
+    <t>500 tl yatırımlı. Maks 1k çekim. Anapara il devam</t>
+  </si>
+  <si>
+    <t>casinovoya</t>
+  </si>
+  <si>
+    <t>casinowon</t>
+  </si>
+  <si>
+    <t>cassinox</t>
+  </si>
+  <si>
+    <t>500tl yatırımlı. 500tl çekim anapara ile devam</t>
+  </si>
+  <si>
+    <t>500tl yatırımlı. Min 500 maks sınırsız çekim</t>
+  </si>
+  <si>
+    <t>celticbet</t>
+  </si>
+  <si>
+    <t>100tl yatırımlı. Maks 5k çekim</t>
+  </si>
+  <si>
+    <t>100tl yatırımlı. Maks 600tl çekim</t>
+  </si>
+  <si>
+    <t>Maks 200tl çekim</t>
+  </si>
+  <si>
+    <t>500tl yatırımlı. Maks yatırımın 10katı çekim</t>
+  </si>
+  <si>
+    <t>300tl yatırım. Maks 600tl çekim</t>
+  </si>
+  <si>
+    <t>Min 1k maks sınırsız. Bonus kazancı kadar yatırım.</t>
+  </si>
+  <si>
+    <t>exonbet</t>
+  </si>
+  <si>
+    <t>150tl yatırımlı. Maks 300 çekim</t>
+  </si>
+  <si>
+    <t>fifabahis</t>
+  </si>
+  <si>
+    <t>Çekim için 1 yatırım şart. Sınırsız çekim</t>
+  </si>
+  <si>
+    <t>gamben</t>
+  </si>
+  <si>
+    <t>Bonus kazancı kadar yatırım. Min 3 maks 15 katı çekim</t>
+  </si>
+  <si>
+    <t>yaıtırmlı</t>
+  </si>
+  <si>
+    <t>%10 kadar sınırsız çekim</t>
+  </si>
+  <si>
+    <t>200tl yatırımlı. Maks 400tl çekim</t>
+  </si>
+  <si>
+    <t>250tl yatırımlı. Maks 500tl çekim. Anapara ile devam</t>
+  </si>
+  <si>
+    <t>250tl yatırılım. Maks 500tl çekim</t>
+  </si>
+  <si>
+    <t>100 yatırımlı. Maks 250tl çekim. Anapara ile devam</t>
+  </si>
+  <si>
+    <t>250tl yatırımlı. Maks 1000tl çekim</t>
+  </si>
+  <si>
+    <t>hizlibahis</t>
+  </si>
+  <si>
+    <t>hilbet</t>
+  </si>
+  <si>
+    <t>Telegram Bonusu. 500tl yatırımlı. 500tl çek. Anapara ile devam</t>
+  </si>
+  <si>
+    <t>200tl bonus kazancı ile sınırsız çekim</t>
+  </si>
+  <si>
+    <t>Telegram bonusu fs kazancının maks 25katı çekim</t>
+  </si>
+  <si>
+    <t>100tl yatırım. Maks 300tl çekim</t>
+  </si>
+  <si>
+    <t>hojabet</t>
+  </si>
+  <si>
+    <t>holeybet</t>
+  </si>
+  <si>
+    <t>hugobet</t>
+  </si>
+  <si>
+    <t>2.5k yatırımlı. Maks 5k çekim</t>
+  </si>
+  <si>
+    <t>hullbet</t>
+  </si>
+  <si>
+    <t>500tl yatırımlı. Min -maks 2k çekim</t>
+  </si>
+  <si>
+    <t>Min 1k maks 5k çekim</t>
+  </si>
+  <si>
+    <t>ispor</t>
+  </si>
+  <si>
+    <t>janticasino</t>
+  </si>
+  <si>
+    <t>1k yatırımlı. 1.5k çekim. Anapara ile devam</t>
+  </si>
+  <si>
+    <t>Kasino</t>
+  </si>
+  <si>
+    <t>100tl yatırımlı. Maks 1100tl çekim</t>
+  </si>
+  <si>
+    <t>100tl yatırım. Maks 500tl çekim</t>
+  </si>
+  <si>
+    <t>Maks 100tl çekim</t>
   </si>
 </sst>
 </file>
@@ -2212,11 +2197,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27721E89-84FA-4F74-A1D2-3BF8AA3929A4}">
-  <dimension ref="A1:C439"/>
+  <dimension ref="A1:C423"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <pane ySplit="1" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B234" sqref="B234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2228,90 +2213,90 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>366</v>
+        <v>328</v>
       </c>
       <c r="B1" t="s">
-        <v>490</v>
+        <v>393</v>
       </c>
       <c r="C1" t="s">
-        <v>491</v>
+        <v>394</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>468</v>
       </c>
       <c r="B2" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="C2" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>368</v>
+        <v>474</v>
       </c>
       <c r="C3" t="s">
-        <v>416</v>
+        <v>336</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>510</v>
+        <v>467</v>
       </c>
       <c r="B4" t="s">
-        <v>437</v>
+        <v>475</v>
       </c>
       <c r="C4" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>369</v>
+        <v>476</v>
       </c>
       <c r="C5" t="s">
-        <v>416</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>579</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>573</v>
+        <v>477</v>
       </c>
       <c r="C6" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>500</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>501</v>
+        <v>478</v>
       </c>
       <c r="C7" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>370</v>
+        <v>479</v>
       </c>
       <c r="C8" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2319,10 +2304,10 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>371</v>
+        <v>480</v>
       </c>
       <c r="C9" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2330,76 +2315,76 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>371</v>
+        <v>481</v>
       </c>
       <c r="C10" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>376</v>
+        <v>479</v>
       </c>
       <c r="C11" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>372</v>
+        <v>480</v>
       </c>
       <c r="C12" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>373</v>
+        <v>481</v>
       </c>
       <c r="C13" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>375</v>
+        <v>482</v>
       </c>
       <c r="C14" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>376</v>
+        <v>479</v>
       </c>
       <c r="C15" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>469</v>
       </c>
       <c r="B16" t="s">
-        <v>372</v>
+        <v>483</v>
       </c>
       <c r="C16" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2407,4547 +2392,4386 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>375</v>
+        <v>484</v>
       </c>
       <c r="C17" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>458</v>
       </c>
       <c r="B18" t="s">
-        <v>377</v>
+        <v>479</v>
       </c>
       <c r="C18" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>376</v>
+        <v>481</v>
       </c>
       <c r="C19" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>379</v>
+        <v>484</v>
       </c>
       <c r="C20" t="s">
-        <v>416</v>
+        <v>336</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>569</v>
+        <v>399</v>
       </c>
       <c r="B21" t="s">
-        <v>427</v>
+        <v>481</v>
       </c>
       <c r="C21" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="B22" t="s">
-        <v>378</v>
-      </c>
-      <c r="C22" t="s">
-        <v>416</v>
+        <v>332</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>321</v>
       </c>
       <c r="B23" t="s">
-        <v>379</v>
+        <v>479</v>
       </c>
       <c r="C23" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>497</v>
+        <v>470</v>
       </c>
       <c r="B24" t="s">
-        <v>420</v>
+        <v>485</v>
       </c>
       <c r="C24" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>89</v>
+        <v>471</v>
       </c>
       <c r="B25" t="s">
-        <v>383</v>
+        <v>481</v>
+      </c>
+      <c r="C25" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>357</v>
+        <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>376</v>
+        <v>486</v>
       </c>
       <c r="C26" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>371</v>
+        <v>476</v>
       </c>
       <c r="C27" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>380</v>
+        <v>479</v>
       </c>
       <c r="C28" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B29" t="s">
-        <v>381</v>
+        <v>472</v>
       </c>
       <c r="C29" t="s">
-        <v>416</v>
+        <v>336</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>318</v>
       </c>
       <c r="B30" t="s">
-        <v>376</v>
+        <v>480</v>
       </c>
       <c r="C30" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B31" t="s">
-        <v>382</v>
+        <v>487</v>
       </c>
       <c r="C31" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>521</v>
+        <v>424</v>
       </c>
       <c r="B32" t="s">
-        <v>420</v>
+        <v>477</v>
       </c>
       <c r="C32" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>354</v>
+        <v>19</v>
       </c>
       <c r="B33" t="s">
-        <v>372</v>
+        <v>473</v>
       </c>
       <c r="C33" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>383</v>
+        <v>488</v>
+      </c>
+      <c r="C34" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>23</v>
+        <v>489</v>
       </c>
       <c r="B35" t="s">
-        <v>383</v>
+        <v>490</v>
+      </c>
+      <c r="C35" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B36" t="s">
-        <v>384</v>
+        <v>491</v>
       </c>
       <c r="C36" t="s">
-        <v>416</v>
+        <v>336</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>531</v>
+        <v>492</v>
       </c>
       <c r="B37" t="s">
-        <v>424</v>
+        <v>481</v>
       </c>
       <c r="C37" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B38" t="s">
-        <v>385</v>
+        <v>479</v>
       </c>
       <c r="C38" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B39" t="s">
-        <v>386</v>
+        <v>493</v>
       </c>
       <c r="C39" t="s">
-        <v>416</v>
+        <v>336</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B40" t="s">
-        <v>382</v>
+        <v>494</v>
       </c>
       <c r="C40" t="s">
-        <v>416</v>
+        <v>336</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B41" t="s">
-        <v>387</v>
+        <v>479</v>
       </c>
       <c r="C41" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>29</v>
+        <v>495</v>
       </c>
       <c r="B42" t="s">
-        <v>388</v>
+        <v>496</v>
       </c>
       <c r="C42" t="s">
-        <v>416</v>
+        <v>336</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>30</v>
+        <v>457</v>
       </c>
       <c r="B43" t="s">
-        <v>376</v>
+        <v>497</v>
       </c>
       <c r="C43" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B44" t="s">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="C44" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>32</v>
+        <v>498</v>
       </c>
       <c r="B45" t="s">
-        <v>375</v>
+        <v>499</v>
       </c>
       <c r="C45" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B46" t="s">
-        <v>376</v>
+        <v>483</v>
       </c>
       <c r="C46" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>567</v>
+        <v>415</v>
       </c>
       <c r="B47" t="s">
-        <v>568</v>
+        <v>479</v>
       </c>
       <c r="C47" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B48" t="s">
-        <v>390</v>
+        <v>501</v>
       </c>
       <c r="C48" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B49" t="s">
-        <v>383</v>
+        <v>479</v>
+      </c>
+      <c r="C49" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B50" t="s">
-        <v>371</v>
-      </c>
-      <c r="C50" t="s">
-        <v>417</v>
+        <v>332</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>518</v>
+        <v>402</v>
       </c>
       <c r="B51" t="s">
-        <v>420</v>
+        <v>386</v>
       </c>
       <c r="C51" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B52" t="s">
-        <v>391</v>
+        <v>479</v>
       </c>
       <c r="C52" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="B53" t="s">
-        <v>376</v>
-      </c>
-      <c r="C53" t="s">
-        <v>417</v>
+        <v>332</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="B54" t="s">
-        <v>383</v>
+        <v>332</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>502</v>
+        <v>464</v>
       </c>
       <c r="B55" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C55" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B56" t="s">
-        <v>376</v>
+        <v>481</v>
       </c>
       <c r="C56" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B57" t="s">
-        <v>392</v>
+        <v>480</v>
       </c>
       <c r="C57" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>88</v>
+        <v>408</v>
       </c>
       <c r="B58" t="s">
-        <v>383</v>
+        <v>502</v>
+      </c>
+      <c r="C58" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="B59" t="s">
-        <v>383</v>
+        <v>503</v>
+      </c>
+      <c r="C59" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B60" t="s">
-        <v>371</v>
+        <v>481</v>
       </c>
       <c r="C60" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>575</v>
+        <v>37</v>
       </c>
       <c r="B61" t="s">
-        <v>420</v>
+        <v>504</v>
       </c>
       <c r="C61" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B62" t="s">
-        <v>375</v>
+        <v>505</v>
       </c>
       <c r="C62" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="B63" t="s">
-        <v>372</v>
-      </c>
-      <c r="C63" t="s">
-        <v>417</v>
+        <v>332</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>508</v>
+        <v>39</v>
       </c>
       <c r="B64" t="s">
-        <v>509</v>
+        <v>330</v>
       </c>
       <c r="C64" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B65" t="s">
-        <v>370</v>
+        <v>506</v>
       </c>
       <c r="C65" t="s">
-        <v>416</v>
+        <v>336</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>47</v>
+        <v>507</v>
       </c>
       <c r="B66" t="s">
-        <v>375</v>
+        <v>508</v>
       </c>
       <c r="C66" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B67" t="s">
-        <v>387</v>
+        <v>481</v>
       </c>
       <c r="C67" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B68" t="s">
-        <v>393</v>
+        <v>479</v>
       </c>
       <c r="C68" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="B69" t="s">
-        <v>383</v>
+        <v>509</v>
+      </c>
+      <c r="C69" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B70" t="s">
-        <v>371</v>
+        <v>481</v>
       </c>
       <c r="C70" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>51</v>
+        <v>510</v>
       </c>
       <c r="B71" t="s">
-        <v>382</v>
+        <v>479</v>
       </c>
       <c r="C71" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>52</v>
+        <v>511</v>
       </c>
       <c r="B72" t="s">
-        <v>394</v>
+        <v>480</v>
       </c>
       <c r="C72" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B73" t="s">
-        <v>375</v>
+        <v>512</v>
       </c>
       <c r="C73" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B74" t="s">
-        <v>375</v>
+        <v>479</v>
       </c>
       <c r="C74" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B75" t="s">
-        <v>376</v>
+        <v>481</v>
       </c>
       <c r="C75" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B76" t="s">
-        <v>395</v>
+        <v>479</v>
       </c>
       <c r="C76" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B77" t="s">
-        <v>375</v>
+        <v>504</v>
       </c>
       <c r="C77" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B78" t="s">
-        <v>372</v>
-      </c>
-      <c r="C78" t="s">
-        <v>417</v>
+        <v>332</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>59</v>
+        <v>513</v>
       </c>
       <c r="B79" t="s">
-        <v>396</v>
+        <v>479</v>
       </c>
       <c r="C79" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>358</v>
+        <v>50</v>
       </c>
       <c r="B80" t="s">
-        <v>375</v>
+        <v>481</v>
       </c>
       <c r="C80" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>60</v>
+        <v>447</v>
       </c>
       <c r="B81" t="s">
-        <v>375</v>
+        <v>338</v>
       </c>
       <c r="C81" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>61</v>
+        <v>448</v>
       </c>
       <c r="B82" t="s">
-        <v>372</v>
+        <v>352</v>
       </c>
       <c r="C82" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B83" t="s">
-        <v>376</v>
+        <v>514</v>
       </c>
       <c r="C83" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B84" t="s">
-        <v>387</v>
+        <v>506</v>
       </c>
       <c r="C84" t="s">
-        <v>416</v>
+        <v>336</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="B85" t="s">
-        <v>383</v>
+        <v>515</v>
+      </c>
+      <c r="C85" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B86" t="s">
-        <v>375</v>
+        <v>333</v>
       </c>
       <c r="C86" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>556</v>
+        <v>55</v>
       </c>
       <c r="B87" t="s">
-        <v>420</v>
+        <v>516</v>
       </c>
       <c r="C87" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>557</v>
+        <v>56</v>
       </c>
       <c r="B88" t="s">
-        <v>449</v>
+        <v>517</v>
       </c>
       <c r="C88" t="s">
-        <v>416</v>
+        <v>336</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B89" t="s">
-        <v>397</v>
+        <v>518</v>
       </c>
       <c r="C89" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B90" t="s">
-        <v>382</v>
+        <v>481</v>
       </c>
       <c r="C90" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B91" t="s">
-        <v>375</v>
-      </c>
-      <c r="C91" t="s">
-        <v>417</v>
+        <v>332</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B92" t="s">
-        <v>398</v>
-      </c>
-      <c r="C92" t="s">
-        <v>417</v>
+        <v>332</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B93" t="s">
-        <v>388</v>
+        <v>519</v>
       </c>
       <c r="C93" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B94" t="s">
-        <v>399</v>
+        <v>520</v>
       </c>
       <c r="C94" t="s">
-        <v>416</v>
+        <v>336</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B95" t="s">
-        <v>375</v>
+        <v>481</v>
       </c>
       <c r="C95" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B96" t="s">
-        <v>400</v>
+        <v>504</v>
       </c>
       <c r="C96" t="s">
-        <v>416</v>
+        <v>336</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B97" t="s">
-        <v>375</v>
+        <v>502</v>
       </c>
       <c r="C97" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>84</v>
+        <v>322</v>
       </c>
       <c r="B98" t="s">
-        <v>383</v>
+        <v>521</v>
+      </c>
+      <c r="C98" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="B99" t="s">
-        <v>383</v>
+        <v>522</v>
+      </c>
+      <c r="C99" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B100" t="s">
-        <v>401</v>
+        <v>481</v>
       </c>
       <c r="C100" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B101" t="s">
-        <v>372</v>
+        <v>481</v>
       </c>
       <c r="C101" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>76</v>
+        <v>523</v>
       </c>
       <c r="B102" t="s">
-        <v>371</v>
+        <v>481</v>
       </c>
       <c r="C102" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B103" t="s">
-        <v>372</v>
+        <v>512</v>
       </c>
       <c r="C103" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>78</v>
+        <v>455</v>
       </c>
       <c r="B104" t="s">
-        <v>387</v>
+        <v>508</v>
       </c>
       <c r="C104" t="s">
-        <v>416</v>
+        <v>336</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B105" t="s">
-        <v>402</v>
+        <v>334</v>
       </c>
       <c r="C105" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>359</v>
+        <v>429</v>
       </c>
       <c r="B106" t="s">
-        <v>403</v>
+        <v>481</v>
       </c>
       <c r="C106" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B107" t="s">
-        <v>404</v>
+        <v>335</v>
       </c>
       <c r="C107" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B108" t="s">
-        <v>375</v>
+        <v>481</v>
       </c>
       <c r="C108" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B109" t="s">
-        <v>375</v>
+        <v>480</v>
       </c>
       <c r="C109" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B110" t="s">
-        <v>396</v>
+        <v>479</v>
       </c>
       <c r="C110" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>565</v>
+        <v>437</v>
       </c>
       <c r="B111" t="s">
-        <v>427</v>
+        <v>480</v>
       </c>
       <c r="C111" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B112" t="s">
-        <v>405</v>
-      </c>
-      <c r="C112" t="s">
-        <v>417</v>
+        <v>332</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>538</v>
+        <v>435</v>
       </c>
       <c r="B113" t="s">
-        <v>437</v>
+        <v>473</v>
       </c>
       <c r="C113" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="B114" t="s">
-        <v>406</v>
+        <v>479</v>
       </c>
       <c r="C114" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="B115" t="s">
-        <v>375</v>
+        <v>481</v>
       </c>
       <c r="C115" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="B116" t="s">
-        <v>372</v>
+        <v>481</v>
       </c>
       <c r="C116" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>94</v>
+        <v>423</v>
       </c>
       <c r="B117" t="s">
-        <v>376</v>
+        <v>502</v>
       </c>
       <c r="C117" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B118" t="s">
-        <v>375</v>
+        <v>481</v>
       </c>
       <c r="C118" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>546</v>
+        <v>85</v>
       </c>
       <c r="B119" t="s">
-        <v>434</v>
+        <v>524</v>
       </c>
       <c r="C119" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="B120" t="s">
-        <v>383</v>
+        <v>479</v>
+      </c>
+      <c r="C120" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>544</v>
+        <v>87</v>
       </c>
       <c r="B121" t="s">
-        <v>442</v>
+        <v>473</v>
       </c>
       <c r="C121" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B122" t="s">
-        <v>376</v>
+        <v>518</v>
       </c>
       <c r="C122" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B123" t="s">
-        <v>375</v>
+        <v>525</v>
       </c>
       <c r="C123" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>100</v>
+        <v>526</v>
       </c>
       <c r="B124" t="s">
-        <v>375</v>
+        <v>473</v>
       </c>
       <c r="C124" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>530</v>
+        <v>90</v>
       </c>
       <c r="B125" t="s">
-        <v>507</v>
+        <v>525</v>
       </c>
       <c r="C125" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B126" t="s">
-        <v>386</v>
+        <v>502</v>
       </c>
       <c r="C126" t="s">
-        <v>416</v>
+        <v>336</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B127" t="s">
-        <v>382</v>
+        <v>481</v>
       </c>
       <c r="C127" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B128" t="s">
-        <v>375</v>
+        <v>481</v>
       </c>
       <c r="C128" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>104</v>
+        <v>527</v>
       </c>
       <c r="B129" t="s">
-        <v>407</v>
+        <v>528</v>
       </c>
       <c r="C129" t="s">
-        <v>416</v>
+        <v>336</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B130" t="s">
-        <v>376</v>
+        <v>481</v>
       </c>
       <c r="C130" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B131" t="s">
-        <v>375</v>
+        <v>481</v>
       </c>
       <c r="C131" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B132" t="s">
-        <v>400</v>
+        <v>506</v>
       </c>
       <c r="C132" t="s">
-        <v>416</v>
+        <v>336</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B133" t="s">
-        <v>380</v>
+        <v>529</v>
       </c>
       <c r="C133" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>109</v>
+        <v>449</v>
       </c>
       <c r="B134" t="s">
-        <v>371</v>
+        <v>343</v>
       </c>
       <c r="C134" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>110</v>
+        <v>530</v>
       </c>
       <c r="B135" t="s">
-        <v>408</v>
+        <v>483</v>
       </c>
       <c r="C135" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>111</v>
+        <v>531</v>
       </c>
       <c r="B136" t="s">
-        <v>375</v>
+        <v>481</v>
       </c>
       <c r="C136" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="B137" t="s">
-        <v>386</v>
+        <v>473</v>
       </c>
       <c r="C137" t="s">
-        <v>416</v>
+        <v>336</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="B138" t="s">
-        <v>372</v>
+        <v>481</v>
       </c>
       <c r="C138" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>114</v>
+        <v>532</v>
       </c>
       <c r="B139" t="s">
-        <v>375</v>
+        <v>533</v>
       </c>
       <c r="C139" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="B140" t="s">
-        <v>372</v>
+        <v>534</v>
       </c>
       <c r="C140" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>534</v>
+        <v>101</v>
       </c>
       <c r="B141" t="s">
-        <v>535</v>
+        <v>481</v>
       </c>
       <c r="C141" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>116</v>
+        <v>535</v>
       </c>
       <c r="B142" t="s">
-        <v>385</v>
+        <v>536</v>
       </c>
       <c r="C142" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="B143" t="s">
-        <v>382</v>
+        <v>483</v>
       </c>
       <c r="C143" t="s">
-        <v>416</v>
+        <v>336</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="B144" t="s">
-        <v>407</v>
+        <v>479</v>
       </c>
       <c r="C144" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>558</v>
+        <v>104</v>
       </c>
       <c r="B145" t="s">
-        <v>434</v>
+        <v>537</v>
       </c>
       <c r="C145" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="B146" t="s">
-        <v>409</v>
+        <v>481</v>
       </c>
       <c r="C146" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>120</v>
+        <v>319</v>
       </c>
       <c r="B147" t="s">
-        <v>410</v>
+        <v>479</v>
       </c>
       <c r="C147" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>578</v>
+        <v>106</v>
       </c>
       <c r="B148" t="s">
-        <v>427</v>
+        <v>538</v>
       </c>
       <c r="C148" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>121</v>
+        <v>430</v>
       </c>
       <c r="B149" t="s">
-        <v>407</v>
+        <v>480</v>
       </c>
       <c r="C149" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="B150" t="s">
-        <v>376</v>
+        <v>481</v>
       </c>
       <c r="C150" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="B151" t="s">
-        <v>382</v>
+        <v>481</v>
       </c>
       <c r="C151" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="B152" t="s">
-        <v>375</v>
+        <v>539</v>
       </c>
       <c r="C152" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="B153" t="s">
-        <v>411</v>
+        <v>479</v>
       </c>
       <c r="C153" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>126</v>
+        <v>422</v>
       </c>
       <c r="B154" t="s">
-        <v>376</v>
+        <v>540</v>
       </c>
       <c r="C154" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>127</v>
+        <v>438</v>
       </c>
       <c r="B155" t="s">
-        <v>371</v>
+        <v>342</v>
       </c>
       <c r="C155" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="B156" t="s">
-        <v>376</v>
+        <v>481</v>
       </c>
       <c r="C156" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="B157" t="s">
-        <v>403</v>
+        <v>480</v>
       </c>
       <c r="C157" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>513</v>
+        <v>113</v>
       </c>
       <c r="B158" t="s">
-        <v>460</v>
+        <v>541</v>
       </c>
       <c r="C158" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="B159" t="s">
-        <v>412</v>
+        <v>479</v>
       </c>
       <c r="C159" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="B160" t="s">
-        <v>375</v>
+        <v>473</v>
       </c>
       <c r="C160" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>355</v>
+        <v>542</v>
       </c>
       <c r="B161" t="s">
-        <v>403</v>
+        <v>481</v>
       </c>
       <c r="C161" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B162" t="s">
-        <v>413</v>
+        <v>479</v>
       </c>
       <c r="C162" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>539</v>
+        <v>117</v>
       </c>
       <c r="B163" t="s">
-        <v>434</v>
+        <v>543</v>
       </c>
       <c r="C163" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>133</v>
+        <v>413</v>
       </c>
       <c r="B164" t="s">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="C164" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B165" t="s">
-        <v>376</v>
+        <v>481</v>
       </c>
       <c r="C165" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="B166" t="s">
-        <v>414</v>
+        <v>339</v>
       </c>
       <c r="C166" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B167" t="s">
-        <v>375</v>
+        <v>341</v>
       </c>
       <c r="C167" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="B168" t="s">
-        <v>375</v>
+        <v>340</v>
       </c>
       <c r="C168" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>528</v>
+        <v>544</v>
       </c>
       <c r="B169" t="s">
-        <v>529</v>
+        <v>481</v>
       </c>
       <c r="C169" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>547</v>
+        <v>412</v>
       </c>
       <c r="B170" t="s">
-        <v>427</v>
+        <v>481</v>
       </c>
       <c r="C170" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="B171" t="s">
-        <v>411</v>
+        <v>506</v>
       </c>
       <c r="C171" t="s">
-        <v>416</v>
+        <v>336</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="B172" t="s">
-        <v>375</v>
+        <v>479</v>
       </c>
       <c r="C172" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B173" t="s">
-        <v>372</v>
+        <v>545</v>
       </c>
       <c r="C173" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="B174" t="s">
-        <v>415</v>
+        <v>481</v>
       </c>
       <c r="C174" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>142</v>
+        <v>546</v>
       </c>
       <c r="B175" t="s">
-        <v>418</v>
+        <v>547</v>
       </c>
       <c r="C175" t="s">
-        <v>417</v>
+        <v>548</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="B176" t="s">
-        <v>419</v>
+        <v>339</v>
       </c>
       <c r="C176" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="B177" t="s">
-        <v>420</v>
+        <v>506</v>
       </c>
       <c r="C177" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="B178" t="s">
-        <v>421</v>
+        <v>486</v>
       </c>
       <c r="C178" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="B179" t="s">
-        <v>422</v>
+        <v>479</v>
       </c>
       <c r="C179" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>516</v>
+        <v>130</v>
       </c>
       <c r="B180" t="s">
-        <v>452</v>
+        <v>549</v>
       </c>
       <c r="C180" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="B181" t="s">
-        <v>387</v>
+        <v>550</v>
       </c>
       <c r="C181" t="s">
-        <v>416</v>
+        <v>336</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="B182" t="s">
-        <v>423</v>
+        <v>506</v>
       </c>
       <c r="C182" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="B183" t="s">
-        <v>424</v>
+        <v>551</v>
       </c>
       <c r="C183" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="B184" t="s">
-        <v>425</v>
+        <v>479</v>
       </c>
       <c r="C184" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="B185" t="s">
-        <v>424</v>
+        <v>479</v>
       </c>
       <c r="C185" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>515</v>
+        <v>136</v>
       </c>
       <c r="B186" t="s">
-        <v>420</v>
-      </c>
-      <c r="C186" t="s">
-        <v>417</v>
+        <v>332</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="B187" t="s">
-        <v>426</v>
+        <v>552</v>
       </c>
       <c r="C187" t="s">
-        <v>416</v>
+        <v>336</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="B188" t="s">
-        <v>427</v>
+        <v>479</v>
       </c>
       <c r="C188" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="B189" t="s">
-        <v>428</v>
+        <v>553</v>
       </c>
       <c r="C189" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>155</v>
+        <v>410</v>
       </c>
       <c r="B190" t="s">
-        <v>424</v>
+        <v>477</v>
       </c>
       <c r="C190" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="B191" t="s">
-        <v>423</v>
+        <v>343</v>
       </c>
       <c r="C191" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="B192" t="s">
-        <v>382</v>
+        <v>554</v>
       </c>
       <c r="C192" t="s">
-        <v>416</v>
+        <v>336</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="B193" t="s">
-        <v>429</v>
+        <v>479</v>
       </c>
       <c r="C193" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>159</v>
+        <v>417</v>
       </c>
       <c r="B194" t="s">
-        <v>418</v>
+        <v>338</v>
       </c>
       <c r="C194" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B195" t="s">
-        <v>420</v>
+        <v>560</v>
       </c>
       <c r="C195" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="B196" t="s">
-        <v>430</v>
+        <v>481</v>
       </c>
       <c r="C196" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>161</v>
+        <v>556</v>
       </c>
       <c r="B197" t="s">
-        <v>424</v>
+        <v>557</v>
       </c>
       <c r="C197" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="B198" t="s">
-        <v>431</v>
+        <v>479</v>
       </c>
       <c r="C198" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>163</v>
+        <v>416</v>
       </c>
       <c r="B199" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="C199" t="s">
-        <v>416</v>
+        <v>336</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="B200" t="s">
-        <v>382</v>
+        <v>558</v>
       </c>
       <c r="C200" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="B201" t="s">
-        <v>420</v>
+        <v>559</v>
       </c>
       <c r="C201" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>492</v>
+        <v>147</v>
       </c>
       <c r="B202" t="s">
-        <v>383</v>
+        <v>331</v>
+      </c>
+      <c r="C202" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>166</v>
+        <v>561</v>
       </c>
       <c r="B203" t="s">
-        <v>383</v>
+        <v>481</v>
+      </c>
+      <c r="C203" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>360</v>
+        <v>562</v>
       </c>
       <c r="B204" t="s">
-        <v>403</v>
+        <v>483</v>
       </c>
       <c r="C204" t="s">
-        <v>416</v>
+        <v>336</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>167</v>
+        <v>563</v>
       </c>
       <c r="B205" t="s">
-        <v>383</v>
+        <v>564</v>
+      </c>
+      <c r="C205" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>168</v>
+        <v>565</v>
       </c>
       <c r="B206" t="s">
-        <v>432</v>
+        <v>566</v>
       </c>
       <c r="C206" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>169</v>
+        <v>439</v>
       </c>
       <c r="B207" t="s">
-        <v>433</v>
+        <v>479</v>
       </c>
       <c r="C207" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="B208" t="s">
-        <v>427</v>
+        <v>479</v>
       </c>
       <c r="C208" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="B209" t="s">
-        <v>434</v>
+        <v>567</v>
       </c>
       <c r="C209" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>512</v>
+        <v>150</v>
       </c>
       <c r="B210" t="s">
-        <v>424</v>
+        <v>481</v>
       </c>
       <c r="C210" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="B211" t="s">
-        <v>434</v>
+        <v>479</v>
       </c>
       <c r="C211" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="B212" t="s">
-        <v>435</v>
-      </c>
-      <c r="C212" t="s">
-        <v>416</v>
+        <v>332</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="B213" t="s">
-        <v>427</v>
-      </c>
-      <c r="C213" t="s">
-        <v>417</v>
+        <v>332</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>520</v>
+        <v>450</v>
       </c>
       <c r="B214" t="s">
-        <v>420</v>
+        <v>560</v>
       </c>
       <c r="C214" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>524</v>
+        <v>568</v>
       </c>
       <c r="B215" t="s">
-        <v>448</v>
+        <v>500</v>
       </c>
       <c r="C215" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>175</v>
+        <v>404</v>
       </c>
       <c r="B216" t="s">
-        <v>420</v>
+        <v>481</v>
       </c>
       <c r="C216" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="B217" t="s">
-        <v>436</v>
+        <v>506</v>
       </c>
       <c r="C217" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>519</v>
+        <v>569</v>
       </c>
       <c r="B218" t="s">
-        <v>466</v>
+        <v>504</v>
       </c>
       <c r="C218" t="s">
-        <v>416</v>
+        <v>336</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="B219" t="s">
-        <v>437</v>
-      </c>
-      <c r="C219" t="s">
-        <v>417</v>
+        <v>332</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>178</v>
+        <v>451</v>
       </c>
       <c r="B220" t="s">
-        <v>438</v>
+        <v>479</v>
       </c>
       <c r="C220" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="B221" t="s">
-        <v>382</v>
+        <v>480</v>
       </c>
       <c r="C221" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>548</v>
+        <v>157</v>
       </c>
       <c r="B222" t="s">
-        <v>427</v>
+        <v>481</v>
       </c>
       <c r="C222" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>180</v>
+        <v>420</v>
       </c>
       <c r="B223" t="s">
-        <v>434</v>
+        <v>570</v>
       </c>
       <c r="C223" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="B224" t="s">
-        <v>439</v>
+        <v>479</v>
       </c>
       <c r="C224" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="B225" t="s">
-        <v>420</v>
+        <v>479</v>
       </c>
       <c r="C225" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>183</v>
+        <v>571</v>
       </c>
       <c r="B226" t="s">
-        <v>427</v>
+        <v>338</v>
       </c>
       <c r="C226" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>184</v>
+        <v>454</v>
       </c>
       <c r="B227" t="s">
-        <v>440</v>
+        <v>479</v>
       </c>
       <c r="C227" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="B228" t="s">
-        <v>383</v>
+        <v>572</v>
+      </c>
+      <c r="C228" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="B229" t="s">
-        <v>383</v>
+        <v>573</v>
+      </c>
+      <c r="C229" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>560</v>
+        <v>162</v>
       </c>
       <c r="B230" t="s">
-        <v>448</v>
+        <v>479</v>
       </c>
       <c r="C230" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>504</v>
+        <v>401</v>
       </c>
       <c r="B231" t="s">
-        <v>420</v>
+        <v>479</v>
       </c>
       <c r="C231" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="B232" t="s">
-        <v>403</v>
+        <v>574</v>
       </c>
       <c r="C232" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="B233" t="s">
-        <v>383</v>
+        <v>342</v>
+      </c>
+      <c r="C233" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>561</v>
+        <v>165</v>
       </c>
       <c r="B234" t="s">
-        <v>420</v>
+        <v>349</v>
       </c>
       <c r="C234" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="B235" t="s">
-        <v>434</v>
+        <v>344</v>
       </c>
       <c r="C235" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="B236" t="s">
-        <v>424</v>
+        <v>350</v>
       </c>
       <c r="C236" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>525</v>
+        <v>168</v>
       </c>
       <c r="B237" t="s">
-        <v>526</v>
-      </c>
-      <c r="C237" t="s">
-        <v>416</v>
+        <v>332</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>191</v>
+        <v>406</v>
       </c>
       <c r="B238" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="C238" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="B239" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="C239" t="s">
-        <v>416</v>
+        <v>336</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="B240" t="s">
-        <v>441</v>
-      </c>
-      <c r="C240" t="s">
-        <v>416</v>
+        <v>332</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="B241" t="s">
-        <v>424</v>
+        <v>352</v>
       </c>
       <c r="C241" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>564</v>
+        <v>425</v>
       </c>
       <c r="B242" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C242" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>195</v>
+        <v>323</v>
       </c>
       <c r="B243" t="s">
-        <v>442</v>
+        <v>347</v>
       </c>
       <c r="C243" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="B244" t="s">
-        <v>443</v>
+        <v>348</v>
       </c>
       <c r="C244" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="B245" t="s">
-        <v>444</v>
+        <v>349</v>
       </c>
       <c r="C245" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>198</v>
+        <v>431</v>
       </c>
       <c r="B246" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="C246" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>499</v>
+        <v>418</v>
       </c>
       <c r="B247" t="s">
-        <v>427</v>
+        <v>342</v>
       </c>
       <c r="C247" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="B248" t="s">
-        <v>445</v>
+        <v>353</v>
       </c>
       <c r="C248" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="B249" t="s">
-        <v>427</v>
+        <v>354</v>
       </c>
       <c r="C249" t="s">
-        <v>416</v>
+        <v>336</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>201</v>
+        <v>403</v>
       </c>
       <c r="B250" t="s">
-        <v>446</v>
+        <v>338</v>
       </c>
       <c r="C250" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="B251" t="s">
-        <v>437</v>
+        <v>338</v>
       </c>
       <c r="C251" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="B252" t="s">
-        <v>447</v>
+        <v>355</v>
       </c>
       <c r="C252" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="B253" t="s">
-        <v>383</v>
+        <v>338</v>
+      </c>
+      <c r="C253" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>506</v>
+        <v>179</v>
       </c>
       <c r="B254" t="s">
-        <v>507</v>
+        <v>338</v>
       </c>
       <c r="C254" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>205</v>
+        <v>421</v>
       </c>
       <c r="B255" t="s">
-        <v>448</v>
+        <v>383</v>
       </c>
       <c r="C255" t="s">
-        <v>416</v>
+        <v>336</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="B256" t="s">
-        <v>383</v>
+        <v>356</v>
+      </c>
+      <c r="C256" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="B257" t="s">
-        <v>449</v>
-      </c>
-      <c r="C257" t="s">
-        <v>416</v>
+        <v>332</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>532</v>
+        <v>456</v>
       </c>
       <c r="B258" t="s">
-        <v>533</v>
+        <v>332</v>
       </c>
       <c r="C258" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>361</v>
+        <v>324</v>
       </c>
       <c r="B259" t="s">
-        <v>444</v>
+        <v>357</v>
       </c>
       <c r="C259" t="s">
-        <v>416</v>
+        <v>336</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="B260" t="s">
-        <v>445</v>
+        <v>358</v>
       </c>
       <c r="C260" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="B261" t="s">
-        <v>446</v>
+        <v>358</v>
       </c>
       <c r="C261" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>540</v>
+        <v>184</v>
       </c>
       <c r="B262" t="s">
-        <v>541</v>
+        <v>338</v>
       </c>
       <c r="C262" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>522</v>
+        <v>185</v>
       </c>
       <c r="B263" t="s">
-        <v>427</v>
+        <v>344</v>
       </c>
       <c r="C263" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="B264" t="s">
-        <v>450</v>
+        <v>342</v>
       </c>
       <c r="C264" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="B265" t="s">
-        <v>451</v>
+        <v>348</v>
       </c>
       <c r="C265" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>503</v>
+        <v>395</v>
       </c>
       <c r="B266" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="C266" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="B267" t="s">
-        <v>420</v>
+        <v>355</v>
       </c>
       <c r="C267" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="B268" t="s">
-        <v>452</v>
+        <v>355</v>
       </c>
       <c r="C268" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="B269" t="s">
-        <v>420</v>
+        <v>350</v>
       </c>
       <c r="C269" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="B270" t="s">
-        <v>420</v>
+        <v>338</v>
       </c>
       <c r="C270" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>527</v>
+        <v>192</v>
       </c>
       <c r="B271" t="s">
-        <v>480</v>
+        <v>338</v>
       </c>
       <c r="C271" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="B272" t="s">
-        <v>453</v>
+        <v>357</v>
       </c>
       <c r="C272" t="s">
-        <v>416</v>
+        <v>336</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="B273" t="s">
-        <v>383</v>
+        <v>342</v>
+      </c>
+      <c r="C273" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>566</v>
+        <v>195</v>
       </c>
       <c r="B274" t="s">
-        <v>383</v>
+        <v>342</v>
       </c>
       <c r="C274" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>362</v>
+        <v>397</v>
       </c>
       <c r="B275" t="s">
-        <v>454</v>
+        <v>398</v>
       </c>
       <c r="C275" t="s">
-        <v>416</v>
+        <v>336</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="B276" t="s">
-        <v>455</v>
+        <v>338</v>
       </c>
       <c r="C276" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="B277" t="s">
-        <v>455</v>
-      </c>
-      <c r="C277" t="s">
-        <v>417</v>
+        <v>332</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="B278" t="s">
-        <v>420</v>
+        <v>338</v>
       </c>
       <c r="C278" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="B279" t="s">
-        <v>437</v>
+        <v>343</v>
       </c>
       <c r="C279" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="B280" t="s">
-        <v>427</v>
+        <v>338</v>
       </c>
       <c r="C280" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="B281" t="s">
-        <v>445</v>
-      </c>
-      <c r="C281" t="s">
-        <v>417</v>
+        <v>332</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>493</v>
+        <v>202</v>
       </c>
       <c r="B282" t="s">
-        <v>494</v>
-      </c>
-      <c r="C282" t="s">
-        <v>417</v>
+        <v>332</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="B283" t="s">
-        <v>452</v>
+        <v>359</v>
       </c>
       <c r="C283" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="B284" t="s">
-        <v>452</v>
+        <v>358</v>
       </c>
       <c r="C284" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="B285" t="s">
-        <v>447</v>
+        <v>342</v>
       </c>
       <c r="C285" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="B286" t="s">
-        <v>420</v>
+        <v>343</v>
       </c>
       <c r="C286" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="B287" t="s">
-        <v>420</v>
+        <v>347</v>
       </c>
       <c r="C287" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="B288" t="s">
-        <v>454</v>
+        <v>347</v>
       </c>
       <c r="C288" t="s">
-        <v>416</v>
+        <v>336</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="B289" t="s">
-        <v>427</v>
+        <v>343</v>
       </c>
       <c r="C289" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>231</v>
+        <v>329</v>
       </c>
       <c r="B290" t="s">
-        <v>427</v>
+        <v>338</v>
       </c>
       <c r="C290" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>495</v>
+        <v>210</v>
       </c>
       <c r="B291" t="s">
-        <v>496</v>
+        <v>360</v>
       </c>
       <c r="C291" t="s">
-        <v>416</v>
+        <v>336</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="B292" t="s">
-        <v>420</v>
+        <v>342</v>
       </c>
       <c r="C292" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="B293" t="s">
-        <v>383</v>
+        <v>338</v>
+      </c>
+      <c r="C293" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="B294" t="s">
-        <v>420</v>
+        <v>343</v>
       </c>
       <c r="C294" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>235</v>
+        <v>433</v>
       </c>
       <c r="B295" t="s">
         <v>434</v>
       </c>
       <c r="C295" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="B296" t="s">
-        <v>420</v>
+        <v>338</v>
       </c>
       <c r="C296" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="B297" t="s">
-        <v>383</v>
+        <v>345</v>
+      </c>
+      <c r="C297" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="B298" t="s">
-        <v>383</v>
+        <v>355</v>
+      </c>
+      <c r="C298" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>239</v>
+        <v>440</v>
       </c>
       <c r="B299" t="s">
-        <v>456</v>
+        <v>338</v>
       </c>
       <c r="C299" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="B300" t="s">
-        <v>455</v>
+        <v>361</v>
       </c>
       <c r="C300" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="B301" t="s">
-        <v>427</v>
+        <v>362</v>
       </c>
       <c r="C301" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="B302" t="s">
-        <v>434</v>
+        <v>342</v>
       </c>
       <c r="C302" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="B303" t="s">
-        <v>444</v>
+        <v>340</v>
       </c>
       <c r="C303" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="B304" t="s">
-        <v>444</v>
+        <v>338</v>
       </c>
       <c r="C304" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="B305" t="s">
-        <v>434</v>
+        <v>341</v>
       </c>
       <c r="C305" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>367</v>
+        <v>223</v>
       </c>
       <c r="B306" t="s">
-        <v>420</v>
+        <v>363</v>
       </c>
       <c r="C306" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="B307" t="s">
-        <v>457</v>
+        <v>355</v>
       </c>
       <c r="C307" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="B308" t="s">
-        <v>427</v>
+        <v>350</v>
       </c>
       <c r="C308" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>248</v>
+        <v>405</v>
       </c>
       <c r="B309" t="s">
-        <v>420</v>
+        <v>344</v>
       </c>
       <c r="C309" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="B310" t="s">
-        <v>434</v>
+        <v>364</v>
       </c>
       <c r="C310" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>542</v>
+        <v>227</v>
       </c>
       <c r="B311" t="s">
-        <v>543</v>
+        <v>365</v>
       </c>
       <c r="C311" t="s">
-        <v>416</v>
+        <v>336</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="B312" t="s">
-        <v>420</v>
+        <v>366</v>
       </c>
       <c r="C312" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>251</v>
+        <v>452</v>
       </c>
       <c r="B313" t="s">
-        <v>442</v>
+        <v>343</v>
       </c>
       <c r="C313" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="B314" t="s">
-        <v>452</v>
+        <v>367</v>
       </c>
       <c r="C314" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>549</v>
+        <v>320</v>
       </c>
       <c r="B315" t="s">
-        <v>420</v>
+        <v>338</v>
       </c>
       <c r="C315" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="B316" t="s">
-        <v>458</v>
+        <v>368</v>
       </c>
       <c r="C316" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="B317" t="s">
-        <v>459</v>
+        <v>367</v>
       </c>
       <c r="C317" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>255</v>
+        <v>232</v>
       </c>
       <c r="B318" t="s">
-        <v>427</v>
+        <v>342</v>
       </c>
       <c r="C318" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>256</v>
+        <v>233</v>
       </c>
       <c r="B319" t="s">
-        <v>424</v>
+        <v>369</v>
       </c>
       <c r="C319" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>257</v>
+        <v>400</v>
       </c>
       <c r="B320" t="s">
-        <v>420</v>
+        <v>338</v>
       </c>
       <c r="C320" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="B321" t="s">
-        <v>425</v>
-      </c>
-      <c r="C321" t="s">
-        <v>417</v>
+        <v>332</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="B322" t="s">
-        <v>460</v>
+        <v>338</v>
       </c>
       <c r="C322" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="B323" t="s">
-        <v>452</v>
+        <v>355</v>
       </c>
       <c r="C323" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>261</v>
+        <v>419</v>
       </c>
       <c r="B324" t="s">
-        <v>447</v>
+        <v>338</v>
       </c>
       <c r="C324" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>505</v>
+        <v>237</v>
       </c>
       <c r="B325" t="s">
-        <v>437</v>
-      </c>
-      <c r="C325" t="s">
-        <v>417</v>
+        <v>332</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="B326" t="s">
-        <v>461</v>
+        <v>342</v>
       </c>
       <c r="C326" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="B327" t="s">
-        <v>462</v>
-      </c>
-      <c r="C327" t="s">
-        <v>416</v>
+        <v>332</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="B328" t="s">
-        <v>463</v>
+        <v>370</v>
       </c>
       <c r="C328" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>562</v>
+        <v>241</v>
       </c>
       <c r="B329" t="s">
-        <v>434</v>
+        <v>371</v>
       </c>
       <c r="C329" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="B330" t="s">
-        <v>464</v>
+        <v>342</v>
       </c>
       <c r="C330" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>356</v>
+        <v>243</v>
       </c>
       <c r="B331" t="s">
-        <v>420</v>
+        <v>338</v>
       </c>
       <c r="C331" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>266</v>
+        <v>442</v>
       </c>
       <c r="B332" t="s">
-        <v>465</v>
+        <v>338</v>
       </c>
       <c r="C332" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="B333" t="s">
-        <v>464</v>
+        <v>347</v>
       </c>
       <c r="C333" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="B334" t="s">
-        <v>427</v>
+        <v>372</v>
       </c>
       <c r="C334" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="B335" t="s">
-        <v>466</v>
+        <v>373</v>
       </c>
       <c r="C335" t="s">
-        <v>416</v>
+        <v>336</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>498</v>
+        <v>428</v>
       </c>
       <c r="B336" t="s">
-        <v>420</v>
+        <v>344</v>
       </c>
       <c r="C336" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="B337" t="s">
-        <v>383</v>
+        <v>363</v>
+      </c>
+      <c r="C337" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>271</v>
+        <v>411</v>
       </c>
       <c r="B338" t="s">
-        <v>420</v>
+        <v>338</v>
       </c>
       <c r="C338" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="B339" t="s">
-        <v>452</v>
+        <v>338</v>
       </c>
       <c r="C339" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>523</v>
+        <v>249</v>
       </c>
       <c r="B340" t="s">
-        <v>420</v>
+        <v>343</v>
       </c>
       <c r="C340" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="B341" t="s">
-        <v>383</v>
+        <v>347</v>
+      </c>
+      <c r="C341" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="B342" t="s">
-        <v>427</v>
+        <v>343</v>
       </c>
       <c r="C342" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="B343" t="s">
-        <v>383</v>
+        <v>371</v>
+      </c>
+      <c r="C343" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>276</v>
+        <v>253</v>
       </c>
       <c r="B344" t="s">
-        <v>467</v>
+        <v>350</v>
       </c>
       <c r="C344" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
       <c r="B345" t="s">
-        <v>468</v>
+        <v>343</v>
       </c>
       <c r="C345" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>278</v>
+        <v>255</v>
       </c>
       <c r="B346" t="s">
-        <v>427</v>
+        <v>371</v>
       </c>
       <c r="C346" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>279</v>
+        <v>459</v>
       </c>
       <c r="B347" t="s">
-        <v>420</v>
+        <v>342</v>
       </c>
       <c r="C347" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>551</v>
+        <v>256</v>
       </c>
       <c r="B348" t="s">
-        <v>420</v>
+        <v>347</v>
       </c>
       <c r="C348" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="B349" t="s">
-        <v>444</v>
+        <v>374</v>
       </c>
       <c r="C349" t="s">
-        <v>416</v>
+        <v>336</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>281</v>
+        <v>465</v>
       </c>
       <c r="B350" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C350" t="s">
-        <v>416</v>
+        <v>336</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="B351" t="s">
-        <v>470</v>
+        <v>375</v>
       </c>
       <c r="C351" t="s">
-        <v>416</v>
+        <v>336</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>537</v>
+        <v>259</v>
       </c>
       <c r="B352" t="s">
-        <v>437</v>
+        <v>376</v>
       </c>
       <c r="C352" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="B353" t="s">
-        <v>460</v>
+        <v>338</v>
       </c>
       <c r="C353" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>514</v>
+        <v>261</v>
       </c>
       <c r="B354" t="s">
-        <v>420</v>
+        <v>377</v>
       </c>
       <c r="C354" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="B355" t="s">
-        <v>420</v>
+        <v>378</v>
       </c>
       <c r="C355" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="B356" t="s">
-        <v>434</v>
+        <v>347</v>
       </c>
       <c r="C356" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="B357" t="s">
-        <v>444</v>
+        <v>346</v>
       </c>
       <c r="C357" t="s">
-        <v>416</v>
+        <v>336</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>287</v>
+        <v>460</v>
       </c>
       <c r="B358" t="s">
-        <v>434</v>
+        <v>363</v>
       </c>
       <c r="C358" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>288</v>
+        <v>443</v>
       </c>
       <c r="B359" t="s">
-        <v>468</v>
+        <v>338</v>
       </c>
       <c r="C359" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
       <c r="B360" t="s">
-        <v>447</v>
+        <v>358</v>
       </c>
       <c r="C360" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="B361" t="s">
-        <v>434</v>
+        <v>379</v>
       </c>
       <c r="C361" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="B362" t="s">
-        <v>468</v>
+        <v>351</v>
       </c>
       <c r="C362" t="s">
-        <v>416</v>
+        <v>336</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>570</v>
+        <v>325</v>
       </c>
       <c r="B363" t="s">
-        <v>427</v>
+        <v>342</v>
       </c>
       <c r="C363" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="B364" t="s">
-        <v>444</v>
+        <v>338</v>
       </c>
       <c r="C364" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="B365" t="s">
-        <v>471</v>
+        <v>338</v>
       </c>
       <c r="C365" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>576</v>
+        <v>270</v>
       </c>
       <c r="B366" t="s">
-        <v>577</v>
+        <v>343</v>
       </c>
       <c r="C366" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
       <c r="B367" t="s">
-        <v>472</v>
+        <v>338</v>
       </c>
       <c r="C367" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="B368" t="s">
-        <v>473</v>
+        <v>380</v>
       </c>
       <c r="C368" t="s">
-        <v>416</v>
+        <v>336</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="B369" t="s">
-        <v>420</v>
-      </c>
-      <c r="C369" t="s">
-        <v>417</v>
+        <v>332</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="B370" t="s">
-        <v>474</v>
-      </c>
-      <c r="C370" t="s">
-        <v>417</v>
+        <v>332</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="B371" t="s">
-        <v>475</v>
+        <v>381</v>
       </c>
       <c r="C371" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="B372" t="s">
-        <v>444</v>
+        <v>342</v>
       </c>
       <c r="C372" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="B373" t="s">
-        <v>443</v>
+        <v>382</v>
       </c>
       <c r="C373" t="s">
-        <v>416</v>
+        <v>336</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>571</v>
+        <v>277</v>
       </c>
       <c r="B374" t="s">
-        <v>460</v>
-      </c>
-      <c r="C374" t="s">
-        <v>417</v>
+        <v>332</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>552</v>
+        <v>278</v>
       </c>
       <c r="B375" t="s">
-        <v>420</v>
+        <v>338</v>
       </c>
       <c r="C375" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>301</v>
+        <v>461</v>
       </c>
       <c r="B376" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="C376" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>302</v>
+        <v>279</v>
       </c>
       <c r="B377" t="s">
-        <v>476</v>
+        <v>383</v>
       </c>
       <c r="C377" t="s">
-        <v>416</v>
+        <v>336</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>303</v>
+        <v>327</v>
       </c>
       <c r="B378" t="s">
-        <v>448</v>
+        <v>342</v>
       </c>
       <c r="C378" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>363</v>
+        <v>280</v>
       </c>
       <c r="B379" t="s">
-        <v>427</v>
-      </c>
-      <c r="C379" t="s">
-        <v>417</v>
+        <v>332</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="B380" t="s">
-        <v>420</v>
+        <v>384</v>
       </c>
       <c r="C380" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="B381" t="s">
-        <v>420</v>
+        <v>385</v>
       </c>
       <c r="C381" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
       <c r="B382" t="s">
-        <v>434</v>
+        <v>340</v>
       </c>
       <c r="C382" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
       <c r="B383" t="s">
-        <v>420</v>
+        <v>386</v>
       </c>
       <c r="C383" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>364</v>
+        <v>285</v>
       </c>
       <c r="B384" t="s">
-        <v>477</v>
-      </c>
-      <c r="C384" t="s">
-        <v>416</v>
+        <v>332</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="B385" t="s">
-        <v>383</v>
+        <v>343</v>
+      </c>
+      <c r="C385" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="B386" t="s">
-        <v>383</v>
+        <v>351</v>
+      </c>
+      <c r="C386" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="B387" t="s">
-        <v>478</v>
-      </c>
-      <c r="C387" t="s">
-        <v>416</v>
+        <v>332</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>311</v>
+        <v>453</v>
       </c>
       <c r="B388" t="s">
-        <v>427</v>
+        <v>357</v>
       </c>
       <c r="C388" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>312</v>
+        <v>427</v>
       </c>
       <c r="B389" t="s">
-        <v>479</v>
+        <v>338</v>
       </c>
       <c r="C389" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>313</v>
+        <v>289</v>
       </c>
       <c r="B390" t="s">
-        <v>383</v>
+        <v>387</v>
+      </c>
+      <c r="C390" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>314</v>
+        <v>290</v>
       </c>
       <c r="B391" t="s">
-        <v>420</v>
+        <v>388</v>
       </c>
       <c r="C391" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>572</v>
+        <v>409</v>
       </c>
       <c r="B392" t="s">
-        <v>573</v>
+        <v>343</v>
       </c>
       <c r="C392" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="B393" t="s">
-        <v>480</v>
+        <v>387</v>
       </c>
       <c r="C393" t="s">
-        <v>416</v>
+        <v>336</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>365</v>
+        <v>292</v>
       </c>
       <c r="B394" t="s">
-        <v>427</v>
+        <v>369</v>
       </c>
       <c r="C394" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>316</v>
+        <v>293</v>
       </c>
       <c r="B395" t="s">
-        <v>383</v>
+        <v>389</v>
+      </c>
+      <c r="C395" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>317</v>
+        <v>294</v>
       </c>
       <c r="B396" t="s">
-        <v>481</v>
-      </c>
-      <c r="C396" t="s">
-        <v>416</v>
+        <v>332</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="B397" t="s">
-        <v>482</v>
-      </c>
-      <c r="C397" t="s">
-        <v>416</v>
+        <v>332</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>319</v>
+        <v>296</v>
       </c>
       <c r="B398" t="s">
-        <v>424</v>
-      </c>
-      <c r="C398" t="s">
-        <v>417</v>
+        <v>332</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>320</v>
+        <v>297</v>
       </c>
       <c r="B399" t="s">
-        <v>483</v>
+        <v>375</v>
       </c>
       <c r="C399" t="s">
-        <v>416</v>
+        <v>336</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
       <c r="B400" t="s">
-        <v>383</v>
+        <v>350</v>
+      </c>
+      <c r="C400" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
       <c r="B401" t="s">
-        <v>434</v>
+        <v>347</v>
       </c>
       <c r="C401" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>323</v>
+        <v>300</v>
       </c>
       <c r="B402" t="s">
-        <v>448</v>
+        <v>349</v>
       </c>
       <c r="C402" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>324</v>
+        <v>436</v>
       </c>
       <c r="B403" t="s">
-        <v>383</v>
+        <v>441</v>
+      </c>
+      <c r="C403" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>563</v>
+        <v>301</v>
       </c>
       <c r="B404" t="s">
-        <v>454</v>
+        <v>343</v>
       </c>
       <c r="C404" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>536</v>
+        <v>463</v>
       </c>
       <c r="B405" t="s">
-        <v>420</v>
+        <v>338</v>
       </c>
       <c r="C405" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>325</v>
+        <v>302</v>
       </c>
       <c r="B406" t="s">
-        <v>484</v>
+        <v>352</v>
       </c>
       <c r="C406" t="s">
-        <v>416</v>
+        <v>336</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>326</v>
+        <v>303</v>
       </c>
       <c r="B407" t="s">
-        <v>485</v>
+        <v>338</v>
       </c>
       <c r="C407" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>511</v>
+        <v>304</v>
       </c>
       <c r="B408" t="s">
-        <v>434</v>
-      </c>
-      <c r="C408" t="s">
-        <v>417</v>
+        <v>332</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="B409" t="s">
-        <v>484</v>
+        <v>338</v>
       </c>
       <c r="C409" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="B410" t="s">
-        <v>466</v>
+        <v>390</v>
       </c>
       <c r="C410" t="s">
-        <v>416</v>
+        <v>336</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>329</v>
+        <v>444</v>
       </c>
       <c r="B411" t="s">
-        <v>486</v>
+        <v>445</v>
       </c>
       <c r="C411" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>330</v>
+        <v>307</v>
       </c>
       <c r="B412" t="s">
-        <v>383</v>
+        <v>391</v>
+      </c>
+      <c r="C412" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="B413" t="s">
-        <v>383</v>
+        <v>342</v>
+      </c>
+      <c r="C413" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>332</v>
+        <v>309</v>
       </c>
       <c r="B414" t="s">
-        <v>383</v>
+        <v>343</v>
+      </c>
+      <c r="C414" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>333</v>
+        <v>310</v>
       </c>
       <c r="B415" t="s">
-        <v>472</v>
+        <v>338</v>
       </c>
       <c r="C415" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>334</v>
+        <v>311</v>
       </c>
       <c r="B416" t="s">
-        <v>447</v>
+        <v>342</v>
       </c>
       <c r="C416" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>335</v>
+        <v>312</v>
       </c>
       <c r="B417" t="s">
-        <v>444</v>
+        <v>342</v>
       </c>
       <c r="C417" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>336</v>
+        <v>313</v>
       </c>
       <c r="B418" t="s">
-        <v>446</v>
+        <v>392</v>
       </c>
       <c r="C418" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>545</v>
+        <v>446</v>
       </c>
       <c r="B419" t="s">
-        <v>550</v>
+        <v>414</v>
       </c>
       <c r="C419" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>337</v>
+        <v>314</v>
       </c>
       <c r="B420" t="s">
-        <v>434</v>
+        <v>342</v>
       </c>
       <c r="C420" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>574</v>
+        <v>315</v>
       </c>
       <c r="B421" t="s">
-        <v>420</v>
+        <v>371</v>
       </c>
       <c r="C421" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
+        <v>316</v>
+      </c>
+      <c r="B422" t="s">
         <v>338</v>
       </c>
-      <c r="B422" t="s">
-        <v>449</v>
-      </c>
       <c r="C422" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>339</v>
+        <v>317</v>
       </c>
       <c r="B423" t="s">
-        <v>420</v>
+        <v>338</v>
       </c>
       <c r="C423" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A424" t="s">
-        <v>340</v>
-      </c>
-      <c r="B424" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A425" t="s">
-        <v>341</v>
-      </c>
-      <c r="B425" t="s">
-        <v>420</v>
-      </c>
-      <c r="C425" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A426" t="s">
-        <v>342</v>
-      </c>
-      <c r="B426" t="s">
-        <v>487</v>
-      </c>
-      <c r="C426" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A427" t="s">
-        <v>553</v>
-      </c>
-      <c r="B427" t="s">
-        <v>554</v>
-      </c>
-      <c r="C427" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A428" t="s">
-        <v>343</v>
-      </c>
-      <c r="B428" t="s">
-        <v>488</v>
-      </c>
-      <c r="C428" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A429" t="s">
-        <v>344</v>
-      </c>
-      <c r="B429" t="s">
-        <v>427</v>
-      </c>
-      <c r="C429" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A430" t="s">
-        <v>345</v>
-      </c>
-      <c r="B430" t="s">
-        <v>434</v>
-      </c>
-      <c r="C430" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A431" t="s">
-        <v>346</v>
-      </c>
-      <c r="B431" t="s">
-        <v>420</v>
-      </c>
-      <c r="C431" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A432" t="s">
-        <v>347</v>
-      </c>
-      <c r="B432" t="s">
-        <v>427</v>
-      </c>
-      <c r="C432" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A433" t="s">
-        <v>348</v>
-      </c>
-      <c r="B433" t="s">
-        <v>427</v>
-      </c>
-      <c r="C433" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A434" t="s">
-        <v>349</v>
-      </c>
-      <c r="B434" t="s">
-        <v>489</v>
-      </c>
-      <c r="C434" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A435" t="s">
-        <v>555</v>
-      </c>
-      <c r="B435" t="s">
-        <v>517</v>
-      </c>
-      <c r="C435" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A436" t="s">
-        <v>350</v>
-      </c>
-      <c r="B436" t="s">
-        <v>427</v>
-      </c>
-      <c r="C436" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A437" t="s">
-        <v>351</v>
-      </c>
-      <c r="B437" t="s">
-        <v>468</v>
-      </c>
-      <c r="C437" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A438" t="s">
-        <v>352</v>
-      </c>
-      <c r="B438" t="s">
-        <v>420</v>
-      </c>
-      <c r="C438" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A439" t="s">
-        <v>353</v>
-      </c>
-      <c r="B439" t="s">
-        <v>420</v>
-      </c>
-      <c r="C439" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C439" xr:uid="{27721E89-84FA-4F74-A1D2-3BF8AA3929A4}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C439">
-      <sortCondition ref="A1:A428"/>
+  <autoFilter ref="A1:C423" xr:uid="{27721E89-84FA-4F74-A1D2-3BF8AA3929A4}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C423">
+      <sortCondition ref="A1:A412"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:A1048576">
@@ -6955,12 +6779,12 @@
     <cfRule type="duplicateValues" dxfId="4" priority="2"/>
     <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A368">
-    <cfRule type="duplicateValues" dxfId="2" priority="1035"/>
+  <conditionalFormatting sqref="A353:A1048576 A1:A2">
+    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A369:A1048576 A1">
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
+  <conditionalFormatting sqref="A3:A352">
+    <cfRule type="duplicateValues" dxfId="0" priority="1585"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/guncel_deneme_bonuslari_listesi.xlsx
+++ b/assets/guncel_deneme_bonuslari_listesi.xlsx
@@ -8,57 +8,80 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cengi\Desktop\test\Deneme Bonusu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BF5A89-DD75-4AED-B443-AA8E5EA01909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC46F4DE-200E-46B4-8478-6A9BE9F0135F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{6873D136-33D6-4EA7-A334-AB6FD8B7CD44}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CD7B2693-F8D1-429F-9AB3-DB64ACA5183F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
+    <sheet name="guncel_deneme_bonuslari_listesi" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sayfa1!$A$1:$C$423</definedName>
-  </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="552">
+  <si>
+    <t>1king</t>
+  </si>
+  <si>
+    <t>maks 750tl çekim</t>
+  </si>
+  <si>
+    <t>yatırımsız</t>
+  </si>
   <si>
     <t>acrobet</t>
   </si>
   <si>
+    <t>250tl yatırımlı. Maks 5k çekim</t>
+  </si>
+  <si>
+    <t>yatırımlı</t>
+  </si>
+  <si>
+    <t>akcebet</t>
+  </si>
+  <si>
+    <t>250tl yatırımlı. Maks 500 çekim</t>
+  </si>
+  <si>
     <t>alobet</t>
   </si>
   <si>
+    <t>250tl yatırımlı. Maks 1k çekim</t>
+  </si>
+  <si>
     <t>altaybet</t>
   </si>
   <si>
+    <t>Maks 300tl çekim</t>
+  </si>
+  <si>
     <t>amgbahis</t>
   </si>
   <si>
+    <t>Maks 1000tl çekim</t>
+  </si>
+  <si>
+    <t>amkbet</t>
+  </si>
+  <si>
+    <t>Maks 1k çekim</t>
+  </si>
+  <si>
     <t>anadoluslot</t>
   </si>
   <si>
+    <t>Maks 250tl çekim</t>
+  </si>
+  <si>
     <t>aresbet</t>
   </si>
   <si>
+    <t>Maks 500tl çekim</t>
+  </si>
+  <si>
     <t>asyabahis</t>
   </si>
   <si>
@@ -71,21 +94,57 @@
     <t>atosbet</t>
   </si>
   <si>
+    <t>100tl yatırımlı. Maks 300tl çekim</t>
+  </si>
+  <si>
     <t>avrupabet</t>
   </si>
   <si>
+    <t>b1bahis</t>
+  </si>
+  <si>
+    <t>1k yatırımlı. Maks 2k çekim</t>
+  </si>
+  <si>
     <t>babilonbet</t>
   </si>
   <si>
+    <t>200tl yatırımlı. Maks 2k çekim</t>
+  </si>
+  <si>
+    <t>bahibom</t>
+  </si>
+  <si>
     <t>bahis1000</t>
   </si>
   <si>
     <t>bahisabi</t>
   </si>
   <si>
+    <t>bahisal</t>
+  </si>
+  <si>
+    <t>bahisbudur</t>
+  </si>
+  <si>
+    <t>bahiscasino</t>
+  </si>
+  <si>
+    <t>bahiscom</t>
+  </si>
+  <si>
+    <t>Maks 3k çekim</t>
+  </si>
+  <si>
+    <t>bahisdeyiz</t>
+  </si>
+  <si>
     <t>bahisfair</t>
   </si>
   <si>
+    <t>Maks 10k çekim</t>
+  </si>
+  <si>
     <t>bahisfanatik</t>
   </si>
   <si>
@@ -95,75 +154,192 @@
     <t>bahiso</t>
   </si>
   <si>
+    <t>1 yatırımlı. Maks 1.5k çekim</t>
+  </si>
+  <si>
+    <t>bahispal</t>
+  </si>
+  <si>
     <t>bahisvebahis</t>
   </si>
   <si>
+    <t>Maks 1k çekim. (telegram bonusu)</t>
+  </si>
+  <si>
+    <t>balinabet</t>
+  </si>
+  <si>
     <t>bankobet</t>
   </si>
   <si>
+    <t>500tl yatırımlı. Maks 1k çekim</t>
+  </si>
+  <si>
     <t>bayconticasino</t>
   </si>
   <si>
+    <t>500tl yatırımlı. Maks 1ktl çekim</t>
+  </si>
+  <si>
+    <t>baymavi</t>
+  </si>
+  <si>
+    <t>1k yatırımlı. Maks 3k çekim</t>
+  </si>
+  <si>
     <t>baywin</t>
   </si>
   <si>
+    <t>300tl yatırımlı. Maks 500tl çekim. Ana para kalıyor.</t>
+  </si>
+  <si>
+    <t>beinwon</t>
+  </si>
+  <si>
     <t>bekabet</t>
   </si>
   <si>
     <t>benebet</t>
   </si>
   <si>
+    <t>200tl yatırımlı. Maks 1k çekim</t>
+  </si>
+  <si>
     <t>benimbahis</t>
   </si>
   <si>
-    <t>amkbet</t>
+    <t>500tl yatırımlı. Min 1k çekim</t>
   </si>
   <si>
     <t>berlinbet</t>
   </si>
   <si>
+    <t>bet10bet</t>
+  </si>
+  <si>
+    <t>Kazanca göre yatırım yaparak maks 500k çekim</t>
+  </si>
+  <si>
+    <t>betadonis</t>
+  </si>
+  <si>
+    <t>100tl yatırımlı. Maks 10k çekim</t>
+  </si>
+  <si>
     <t>betamiral</t>
   </si>
   <si>
+    <t>Maks 150tl çekim</t>
+  </si>
+  <si>
+    <t>betasus</t>
+  </si>
+  <si>
+    <t>Maks 2k çekim</t>
+  </si>
+  <si>
     <t>betbetin</t>
   </si>
   <si>
+    <t>betbigo</t>
+  </si>
+  <si>
     <t>betbom</t>
   </si>
   <si>
+    <t>Yatırım kadar deneme min-maks 10 katı çekim</t>
+  </si>
+  <si>
     <t>betbox</t>
   </si>
   <si>
-    <t>betbulls</t>
+    <t>betchaplin</t>
+  </si>
+  <si>
+    <t>250tl yatırım maks 1k çekim</t>
   </si>
   <si>
     <t>betci</t>
   </si>
   <si>
+    <t>betcup</t>
+  </si>
+  <si>
+    <t>500 yatırımlı. Maks 2.5k çekim</t>
+  </si>
+  <si>
+    <t>betebet</t>
+  </si>
+  <si>
+    <t>Maks 2.5k çekim</t>
+  </si>
+  <si>
+    <t>betesbet</t>
+  </si>
+  <si>
     <t>betewin</t>
   </si>
   <si>
     <t>betexper</t>
   </si>
   <si>
+    <t>betforce</t>
+  </si>
+  <si>
+    <t>1k yatırımlı. Maks 1.5k çekim</t>
+  </si>
+  <si>
     <t>betgar</t>
   </si>
   <si>
+    <t>100tl yatırımlı. Maks 1k çekim</t>
+  </si>
+  <si>
     <t>betgaranti</t>
   </si>
   <si>
     <t>betgit</t>
   </si>
   <si>
+    <t>100tl yatırımlı. Maks 500tl çekim</t>
+  </si>
+  <si>
     <t>betgross</t>
   </si>
   <si>
+    <t>500tl yatırımlı. Maks 700tl çekim</t>
+  </si>
+  <si>
+    <t>bethand</t>
+  </si>
+  <si>
+    <t>Telegram bonusu. Maks 1k çekim</t>
+  </si>
+  <si>
     <t>betibenz</t>
   </si>
   <si>
+    <t>yatırımsız maks 300tl çekim</t>
+  </si>
+  <si>
     <t>betigma</t>
   </si>
   <si>
+    <t>250tl yatırımlı. Maks 500tl çekim</t>
+  </si>
+  <si>
+    <t>betiton</t>
+  </si>
+  <si>
+    <t>1k yatırımlı. Maks 5k çekim</t>
+  </si>
+  <si>
+    <t>betjolly</t>
+  </si>
+  <si>
+    <t>%10 kadar maks çekim sınırsız.</t>
+  </si>
+  <si>
     <t>betkanyon</t>
   </si>
   <si>
@@ -173,9 +349,18 @@
     <t>betkolik</t>
   </si>
   <si>
+    <t>1k yatırımlı. Maks 2.5k çekim</t>
+  </si>
+  <si>
     <t>betkom</t>
   </si>
   <si>
+    <t>betkong</t>
+  </si>
+  <si>
+    <t>betkorner</t>
+  </si>
+  <si>
     <t>betlike</t>
   </si>
   <si>
@@ -191,39 +376,93 @@
     <t>betmatik</t>
   </si>
   <si>
+    <t>betmoon</t>
+  </si>
+  <si>
+    <t>Maks 200tl çekim</t>
+  </si>
+  <si>
+    <t>betnef</t>
+  </si>
+  <si>
     <t>betnis</t>
   </si>
   <si>
+    <t>betnixe</t>
+  </si>
+  <si>
+    <t>maks 500tl çekim</t>
+  </si>
+  <si>
+    <t>betofbahis</t>
+  </si>
+  <si>
+    <t>200tl yatırım maks 500tl çekim</t>
+  </si>
+  <si>
     <t>betoffice</t>
   </si>
   <si>
+    <t>Min 500tl maks sınırsız çekim</t>
+  </si>
+  <si>
     <t>betokeys</t>
   </si>
   <si>
     <t>betorbet</t>
   </si>
   <si>
+    <t>Min 1k maks 2.5k çekim. Çekim kadar yatırım.</t>
+  </si>
+  <si>
     <t>betorder</t>
   </si>
   <si>
+    <t>2fa bonusu. Yatırımsız bonus tutarının maks 25 katı çekim</t>
+  </si>
+  <si>
     <t>betosfer</t>
   </si>
   <si>
+    <t>100tl yatırımlı. Maks 250tl çekim</t>
+  </si>
+  <si>
     <t>betovis</t>
   </si>
   <si>
+    <t>500tl yatırımlı. Maks 1.5k çekim</t>
+  </si>
+  <si>
     <t>betparibu</t>
   </si>
   <si>
+    <t>200tl yatırımlı. Maks 500tl çekim</t>
+  </si>
+  <si>
     <t>betpark</t>
   </si>
   <si>
+    <t>betpas</t>
+  </si>
+  <si>
+    <t>Bonus kazancı kadar yatırım. Maks 1k çekim</t>
+  </si>
+  <si>
+    <t>betper</t>
+  </si>
+  <si>
     <t>betpipo</t>
   </si>
   <si>
+    <t>Min 500tl maks 10k çekim</t>
+  </si>
+  <si>
     <t>betpir</t>
   </si>
   <si>
+    <t>300tl yatırımlı. Sınırsız çekim.</t>
+  </si>
+  <si>
     <t>betpuan</t>
   </si>
   <si>
@@ -233,57 +472,69 @@
     <t>betredi</t>
   </si>
   <si>
+    <t>betroz</t>
+  </si>
+  <si>
+    <t>500tl yatırımlı. Maks 1k çekim.</t>
+  </si>
+  <si>
     <t>betrupi</t>
   </si>
   <si>
+    <t>2.5k üstü %10u çekim yapılabilir. Sınırsız çekim</t>
+  </si>
+  <si>
     <t>betsalvador</t>
   </si>
   <si>
     <t>betsat</t>
   </si>
   <si>
-    <t>betper</t>
-  </si>
-  <si>
-    <t>betpas</t>
-  </si>
-  <si>
-    <t>betmoon</t>
-  </si>
-  <si>
-    <t>bethand</t>
-  </si>
-  <si>
-    <t>betebet</t>
-  </si>
-  <si>
-    <t>betcup</t>
-  </si>
-  <si>
-    <t>bahisbudur</t>
+    <t>betsilin</t>
   </si>
   <si>
     <t>betsin</t>
   </si>
   <si>
+    <t>betslio</t>
+  </si>
+  <si>
     <t>betsnice</t>
   </si>
   <si>
+    <t>telegram bonusu. Yatırımsız sınırsız çekim</t>
+  </si>
+  <si>
+    <t>betsobet</t>
+  </si>
+  <si>
     <t>betspin</t>
   </si>
   <si>
+    <t>400tl yatırımlı maks çekim sınırı yok.</t>
+  </si>
+  <si>
     <t>betticket</t>
   </si>
   <si>
+    <t>betturka</t>
+  </si>
+  <si>
     <t>betturkey</t>
   </si>
   <si>
-    <t>betturka</t>
+    <t>betvast</t>
+  </si>
+  <si>
+    <t>betvino</t>
   </si>
   <si>
     <t>betvole</t>
   </si>
   <si>
+    <t>betvoy</t>
+  </si>
+  <si>
     <t>betwild</t>
   </si>
   <si>
@@ -293,12 +544,18 @@
     <t>betyoner</t>
   </si>
   <si>
+    <t>bewins</t>
+  </si>
+  <si>
     <t>bonisa</t>
   </si>
   <si>
     <t>botegabahis</t>
   </si>
   <si>
+    <t>1k yatırım. 500tl çekim. 1k anapara ile devam</t>
+  </si>
+  <si>
     <t>bovbet</t>
   </si>
   <si>
@@ -311,6 +568,12 @@
     <t>candycasino</t>
   </si>
   <si>
+    <t>Maks 5k çekim</t>
+  </si>
+  <si>
+    <t>carkbet</t>
+  </si>
+  <si>
     <t>cashwin</t>
   </si>
   <si>
@@ -323,6 +586,12 @@
     <t>casinoas</t>
   </si>
   <si>
+    <t>casinobest</t>
+  </si>
+  <si>
+    <t>300tl yatırımlı. Min 3k maks sınır yok</t>
+  </si>
+  <si>
     <t>casinoburada</t>
   </si>
   <si>
@@ -335,18 +604,42 @@
     <t>casinomilyon</t>
   </si>
   <si>
+    <t>500 tl yatırımlı. Maks 1k çekim. Anapara il devam</t>
+  </si>
+  <si>
+    <t>casinovoya</t>
+  </si>
+  <si>
+    <t>casinowon</t>
+  </si>
+  <si>
     <t>casinra</t>
   </si>
   <si>
     <t>casival</t>
   </si>
   <si>
+    <t>cassinox</t>
+  </si>
+  <si>
+    <t>500tl yatırımlı. 500tl çekim anapara ile devam</t>
+  </si>
+  <si>
     <t>cedabet</t>
   </si>
   <si>
+    <t>500tl yatırımlı. Min 500 maks sınırsız çekim</t>
+  </si>
+  <si>
     <t>celtabet</t>
   </si>
   <si>
+    <t>celticbet</t>
+  </si>
+  <si>
+    <t>100tl yatırımlı. Maks 5k çekim</t>
+  </si>
+  <si>
     <t>cepbahis</t>
   </si>
   <si>
@@ -356,24 +649,45 @@
     <t>damabet</t>
   </si>
   <si>
+    <t>100tl yatırımlı. Maks 600tl çekim</t>
+  </si>
+  <si>
     <t>dedebet</t>
   </si>
   <si>
+    <t>deltabahis</t>
+  </si>
+  <si>
     <t>dengebet</t>
   </si>
   <si>
+    <t>deobet</t>
+  </si>
+  <si>
     <t>dinamobet</t>
   </si>
   <si>
     <t>dodobet</t>
   </si>
   <si>
-    <t>editörbet</t>
+    <t>editorbet</t>
+  </si>
+  <si>
+    <t>500tl yatırımlı. Maks yatırımın 10katı çekim</t>
   </si>
   <si>
     <t>efesbetcasino</t>
   </si>
   <si>
+    <t>efsino</t>
+  </si>
+  <si>
+    <t>300tl yatırım. Maks 600tl çekim</t>
+  </si>
+  <si>
+    <t>elexbet</t>
+  </si>
+  <si>
     <t>enbet</t>
   </si>
   <si>
@@ -383,30 +697,51 @@
     <t>enobahis</t>
   </si>
   <si>
+    <t>Min 1k maks sınırsız. Bonus kazancı kadar yatırım.</t>
+  </si>
+  <si>
     <t>epikbahis</t>
   </si>
   <si>
     <t>esbet</t>
   </si>
   <si>
+    <t>exonbet</t>
+  </si>
+  <si>
     <t>extrabet</t>
   </si>
   <si>
     <t>eyfelcasino</t>
   </si>
   <si>
+    <t>150tl yatırımlı. Maks 300 çekim</t>
+  </si>
+  <si>
+    <t>favoribahis</t>
+  </si>
+  <si>
     <t>favorisen</t>
   </si>
   <si>
     <t>favorislot</t>
   </si>
   <si>
+    <t>%10 kadar sınırsız çekim</t>
+  </si>
+  <si>
     <t>fenomenbet</t>
   </si>
   <si>
     <t>festwin</t>
   </si>
   <si>
+    <t>fifabahis</t>
+  </si>
+  <si>
+    <t>fikstürbet</t>
+  </si>
+  <si>
     <t>fitcas</t>
   </si>
   <si>
@@ -416,12 +751,27 @@
     <t>fraga</t>
   </si>
   <si>
+    <t>Çekim için 1 yatırım şart. Sınırsız çekim</t>
+  </si>
+  <si>
     <t>gamabet</t>
   </si>
   <si>
+    <t>gamben</t>
+  </si>
+  <si>
+    <t>Bonus kazancı kadar yatırım. Min 3 maks 15 katı çekim</t>
+  </si>
+  <si>
+    <t>yaıtırmlı</t>
+  </si>
+  <si>
     <t>gambizo</t>
   </si>
   <si>
+    <t>bonus bakiyesinin %10 kadar sınırsız çekim</t>
+  </si>
+  <si>
     <t>gambleron</t>
   </si>
   <si>
@@ -437,52 +787,127 @@
     <t>goatbahis</t>
   </si>
   <si>
+    <t>200tl yatırımlı. Maks 400tl çekim</t>
+  </si>
+  <si>
     <t>gobahis</t>
   </si>
   <si>
     <t>gobeti</t>
   </si>
   <si>
+    <t>250tl yatırımlı. Maks 500tl çekim. Anapara ile devam</t>
+  </si>
+  <si>
     <t>golbet</t>
   </si>
   <si>
+    <t>goldenbahis</t>
+  </si>
+  <si>
+    <t>1k yatırılımlı. Maks 5k çekim</t>
+  </si>
+  <si>
     <t>golegol</t>
   </si>
   <si>
     <t>gorabet</t>
   </si>
   <si>
+    <t>500tl yatırımlı. Maks 2.5k çekim</t>
+  </si>
+  <si>
     <t>grandoperabet</t>
   </si>
   <si>
+    <t>250tl yatırılım. Maks 500tl çekim</t>
+  </si>
+  <si>
     <t>grandpashabet</t>
   </si>
   <si>
     <t>grbets</t>
   </si>
   <si>
+    <t>100 yatırımlı. Maks 250tl çekim. Anapara ile devam</t>
+  </si>
+  <si>
+    <t>hanedanbet</t>
+  </si>
+  <si>
+    <t>harbibahis</t>
+  </si>
+  <si>
     <t>havanabet</t>
   </si>
   <si>
+    <t>maks 250tl çekim</t>
+  </si>
+  <si>
     <t>hayalbahis</t>
   </si>
   <si>
+    <t>250tl yatırımlı. Maks 1000tl çekim</t>
+  </si>
+  <si>
     <t>hepyek</t>
   </si>
   <si>
+    <t>heybet</t>
+  </si>
+  <si>
     <t>hilarionbet</t>
   </si>
   <si>
+    <t>hilbet</t>
+  </si>
+  <si>
+    <t>Telegram Bonusu. 500tl yatırımlı. 500tl çek. Anapara ile devam</t>
+  </si>
+  <si>
     <t>hiltonbet</t>
   </si>
   <si>
+    <t>hipbet</t>
+  </si>
+  <si>
     <t>hitbet</t>
   </si>
   <si>
+    <t>200tl bonus kazancı ile sınırsız çekim</t>
+  </si>
+  <si>
     <t>hititbet</t>
   </si>
   <si>
-    <t>hobitbet</t>
+    <t>Telegram bonusu fs kazancının maks 25katı çekim</t>
+  </si>
+  <si>
+    <t>hizlibahis</t>
+  </si>
+  <si>
+    <t>100tl yatırım. Maks 300tl çekim</t>
+  </si>
+  <si>
+    <t>hojabet</t>
+  </si>
+  <si>
+    <t>holeybet</t>
+  </si>
+  <si>
+    <t>hugobet</t>
+  </si>
+  <si>
+    <t>2.5k yatırımlı. Maks 5k çekim</t>
+  </si>
+  <si>
+    <t>hullbet</t>
+  </si>
+  <si>
+    <t>500tl yatırımlı. Min -maks 2k çekim</t>
+  </si>
+  <si>
+    <t>huqqabet</t>
   </si>
   <si>
     <t>ibizabet</t>
@@ -491,6 +916,9 @@
     <t>icebahis</t>
   </si>
   <si>
+    <t>Min 1k maks 5k çekim</t>
+  </si>
+  <si>
     <t>ikasbet</t>
   </si>
   <si>
@@ -503,10 +931,22 @@
     <t>interbahis</t>
   </si>
   <si>
+    <t>ironbet</t>
+  </si>
+  <si>
+    <t>ispor</t>
+  </si>
+  <si>
+    <t>istinyecasino</t>
+  </si>
+  <si>
     <t>jackbom</t>
   </si>
   <si>
-    <t>jasminbet</t>
+    <t>janticasino</t>
+  </si>
+  <si>
+    <t>jojova</t>
   </si>
   <si>
     <t>joybet</t>
@@ -515,24 +955,48 @@
     <t>jugoobet</t>
   </si>
   <si>
+    <t>kalitebet</t>
+  </si>
+  <si>
+    <t>1k yatırımlı. 1.5k çekim. Anapara ile devam</t>
+  </si>
+  <si>
     <t>kareasbet</t>
   </si>
   <si>
     <t>kargabet</t>
   </si>
   <si>
+    <t>Kasino</t>
+  </si>
+  <si>
+    <t>katla</t>
+  </si>
+  <si>
     <t>kazandra</t>
   </si>
   <si>
+    <t>100tl yatırımlı. Maks 1100tl çekim</t>
+  </si>
+  <si>
     <t>kingbetting</t>
   </si>
   <si>
+    <t>100tl yatırım. Maks 500tl çekim</t>
+  </si>
+  <si>
     <t>kingroyal</t>
   </si>
   <si>
+    <t>kktcbet</t>
+  </si>
+  <si>
     <t>kolaybet</t>
   </si>
   <si>
+    <t>Maks 100tl çekim</t>
+  </si>
+  <si>
     <t>konseycasino</t>
   </si>
   <si>
@@ -545,33 +1009,72 @@
     <t>kuponbet</t>
   </si>
   <si>
+    <t>500tl yatırımlı. 1k çekim.</t>
+  </si>
+  <si>
     <t>kuzeycasino</t>
   </si>
   <si>
-    <t>lambobahis</t>
-  </si>
-  <si>
     <t>levabet</t>
   </si>
   <si>
+    <t>lidyabet</t>
+  </si>
+  <si>
+    <t>2k yatırımlı. Maks 2.5k çekim</t>
+  </si>
+  <si>
     <t>ligobet</t>
   </si>
   <si>
+    <t>200tl yatırım. Maks 500tl çekim</t>
+  </si>
+  <si>
+    <t>limanbet</t>
+  </si>
+  <si>
+    <t>250tl yatırımlı. Maks 1250tl çekim</t>
+  </si>
+  <si>
     <t>lordbahis</t>
   </si>
   <si>
     <t>lordcasino</t>
   </si>
   <si>
+    <t>Maks 400tl çekim</t>
+  </si>
+  <si>
+    <t>lukscasino</t>
+  </si>
+  <si>
     <t>luluslot</t>
   </si>
   <si>
+    <t>100tl yatırım. Maks 250tl çekim</t>
+  </si>
+  <si>
     <t>luxbet</t>
   </si>
   <si>
+    <t>mackolikbet</t>
+  </si>
+  <si>
+    <t>madambet</t>
+  </si>
+  <si>
     <t>madridbet</t>
   </si>
   <si>
+    <t>madridking</t>
+  </si>
+  <si>
+    <t>majorx</t>
+  </si>
+  <si>
+    <t>makrobet</t>
+  </si>
+  <si>
     <t>maksibet</t>
   </si>
   <si>
@@ -581,12 +1084,30 @@
     <t>mariobet</t>
   </si>
   <si>
+    <t>maritbet</t>
+  </si>
+  <si>
+    <t>100tl yatırım. Maks 400tl çekim</t>
+  </si>
+  <si>
     <t>markaj</t>
   </si>
   <si>
+    <t>1k yatırım 2k çekim</t>
+  </si>
+  <si>
     <t>marsbahis</t>
   </si>
   <si>
+    <t>Telegram bonusu. Maks 5k çekim</t>
+  </si>
+  <si>
+    <t>maskebet</t>
+  </si>
+  <si>
+    <t>250tl yatırım. Maks 500tl çekim</t>
+  </si>
+  <si>
     <t>masterbetting</t>
   </si>
   <si>
@@ -596,15 +1117,15 @@
     <t>maximcasino</t>
   </si>
   <si>
-    <t>maxroyalcasino</t>
-  </si>
-  <si>
     <t>maxwin</t>
   </si>
   <si>
     <t>medusabahis</t>
   </si>
   <si>
+    <t>mekanbahis</t>
+  </si>
+  <si>
     <t>mercurecasino</t>
   </si>
   <si>
@@ -623,7 +1144,13 @@
     <t>meritqueen</t>
   </si>
   <si>
-    <t>meritroyalcasino</t>
+    <t>250tl yatırım maks 500tl çekim</t>
+  </si>
+  <si>
+    <t>meritslot</t>
+  </si>
+  <si>
+    <t>merkezbahis</t>
   </si>
   <si>
     <t>mersobahis</t>
@@ -635,36 +1162,57 @@
     <t>milanobet</t>
   </si>
   <si>
+    <t>300tl yatırımlı. Maks 1.5k çekim</t>
+  </si>
+  <si>
     <t>milosbet</t>
   </si>
   <si>
-    <t>milyonluk</t>
+    <t>misliwin</t>
   </si>
   <si>
     <t>mistycasino</t>
   </si>
   <si>
+    <t>mobilcasino</t>
+  </si>
+  <si>
+    <t>1k yatırımlı. Min-Maks 7.5k çekim</t>
+  </si>
+  <si>
+    <t>modabet</t>
+  </si>
+  <si>
     <t>modelbahis</t>
   </si>
   <si>
-    <t>mokkabet</t>
-  </si>
-  <si>
-    <t>moldebet</t>
+    <t>1k yatırımlı. 1k çekim. Anapara ile devam</t>
   </si>
   <si>
     <t>mrgamb</t>
   </si>
   <si>
+    <t>Min 250tl yatırım. Yatırım kadar çekim sınırsız</t>
+  </si>
+  <si>
     <t>napolibet</t>
   </si>
   <si>
+    <t>navacasino</t>
+  </si>
+  <si>
+    <t>nerobet</t>
+  </si>
+  <si>
     <t>nesilbet</t>
   </si>
   <si>
     <t>netbahis</t>
   </si>
   <si>
+    <t>ngsbahis</t>
+  </si>
+  <si>
     <t>nisanbet</t>
   </si>
   <si>
@@ -674,6 +1222,9 @@
     <t>odden</t>
   </si>
   <si>
+    <t>100tl yatırım. Maks 250tl çekim. Anapara ile devam</t>
+  </si>
+  <si>
     <t>olabahis</t>
   </si>
   <si>
@@ -695,33 +1246,60 @@
     <t>otobet</t>
   </si>
   <si>
+    <t>Maks 800tl çekim</t>
+  </si>
+  <si>
     <t>palacebet</t>
   </si>
   <si>
+    <t>200tl yatırımlı. Maks 850tl çekim</t>
+  </si>
+  <si>
     <t>palazzobet</t>
   </si>
   <si>
     <t>palermocasino</t>
   </si>
   <si>
+    <t>maks 300tl çekim</t>
+  </si>
+  <si>
     <t>parmabet</t>
   </si>
   <si>
     <t>parolambet</t>
   </si>
   <si>
+    <t>Telegram bonusu. Maks 500tl çekim</t>
+  </si>
+  <si>
+    <t>pasacasino</t>
+  </si>
+  <si>
     <t>pashagaming</t>
   </si>
   <si>
-    <t>paşacasino</t>
+    <t>Maks 1500tl çekim</t>
   </si>
   <si>
     <t>piabellacasino</t>
   </si>
   <si>
+    <t>piacasinobet</t>
+  </si>
+  <si>
     <t>pinbahis</t>
   </si>
   <si>
+    <t>200tl yatırımlı. Maks 1200tl çekim</t>
+  </si>
+  <si>
+    <t>pinco</t>
+  </si>
+  <si>
+    <t>Belge doğrulama bonusu. Sınırsız çekim</t>
+  </si>
+  <si>
     <t>pisabet</t>
   </si>
   <si>
@@ -731,6 +1309,12 @@
     <t>polobet</t>
   </si>
   <si>
+    <t>Maks 2500tl çekim</t>
+  </si>
+  <si>
+    <t>portbet</t>
+  </si>
+  <si>
     <t>portobet</t>
   </si>
   <si>
@@ -740,18 +1324,36 @@
     <t>prensbet</t>
   </si>
   <si>
+    <t>Maks 1.5k çekim</t>
+  </si>
+  <si>
     <t>primebahis</t>
   </si>
   <si>
+    <t>privebet</t>
+  </si>
+  <si>
+    <t>prizmabet</t>
+  </si>
+  <si>
     <t>pulibet</t>
   </si>
   <si>
+    <t>puntobahis</t>
+  </si>
+  <si>
     <t>radissonbet</t>
   </si>
   <si>
+    <t>ramadabet</t>
+  </si>
+  <si>
     <t>rbet</t>
   </si>
   <si>
+    <t>realbahis</t>
+  </si>
+  <si>
     <t>redwin</t>
   </si>
   <si>
@@ -764,49 +1366,61 @@
     <t>retrobet</t>
   </si>
   <si>
+    <t>100tl yatırım. Maks 1200tl çekim</t>
+  </si>
+  <si>
     <t>reynabet</t>
   </si>
   <si>
+    <t>250tl yatırım. Maks 500 çekim</t>
+  </si>
+  <si>
     <t>rinabet</t>
   </si>
   <si>
     <t>risebet</t>
   </si>
   <si>
+    <t>roketbahis</t>
+  </si>
+  <si>
     <t>roketbet</t>
   </si>
   <si>
     <t>romabet</t>
   </si>
   <si>
+    <t>250tl yatırım. Maks 1250tl çekim</t>
+  </si>
+  <si>
     <t>ronabet</t>
   </si>
   <si>
+    <t>routebet</t>
+  </si>
+  <si>
     <t>royalbet</t>
   </si>
   <si>
+    <t>safirbet</t>
+  </si>
+  <si>
     <t>sahabet</t>
   </si>
   <si>
     <t>sahibet</t>
   </si>
   <si>
-    <t>salamisbahis</t>
-  </si>
-  <si>
-    <t>saltbahis</t>
-  </si>
-  <si>
-    <t>sapphirepalace</t>
-  </si>
-  <si>
     <t>savoycasino</t>
   </si>
   <si>
+    <t>setrabet</t>
+  </si>
+  <si>
     <t>sezonbahis</t>
   </si>
   <si>
-    <t>sheratonbet</t>
+    <t>siyahbet</t>
   </si>
   <si>
     <t>slotday</t>
@@ -815,7 +1429,19 @@
     <t>slotdünyası</t>
   </si>
   <si>
-    <t>slotin</t>
+    <t>Min 1 adet yatırım. Maks 500tl çekim</t>
+  </si>
+  <si>
+    <t>slotella</t>
+  </si>
+  <si>
+    <t>slotpin</t>
+  </si>
+  <si>
+    <t>250 yatırımlı. Maks 1k çekim</t>
+  </si>
+  <si>
+    <t>slotsaray</t>
   </si>
   <si>
     <t>smartbahis</t>
@@ -830,40 +1456,58 @@
     <t>sonbahis</t>
   </si>
   <si>
+    <t>Telegram bonusu. Maks 250tl çekim</t>
+  </si>
+  <si>
     <t>sosabet</t>
   </si>
   <si>
     <t>spinco</t>
   </si>
   <si>
+    <t>100tl yatırım. Maks 1k çekim</t>
+  </si>
+  <si>
+    <t>spinvbet</t>
+  </si>
+  <si>
+    <t>starora</t>
+  </si>
+  <si>
     <t>starzbet</t>
   </si>
   <si>
-    <t>stilbet</t>
+    <t>Maks 750tl çekim</t>
   </si>
   <si>
     <t>stonebahis</t>
   </si>
   <si>
-    <t>superbetin</t>
+    <t>superbet</t>
   </si>
   <si>
     <t>supertotobet</t>
   </si>
   <si>
-    <t>süratbet</t>
+    <t>suratbet</t>
   </si>
   <si>
     <t>tambet</t>
   </si>
   <si>
-    <t>tenusbet</t>
+    <t>tarabet</t>
+  </si>
+  <si>
+    <t>tarafbet</t>
+  </si>
+  <si>
+    <t>teosbet</t>
   </si>
   <si>
     <t>teslabahis</t>
   </si>
   <si>
-    <t>thecasino</t>
+    <t>tiklabet</t>
   </si>
   <si>
     <t>tikobet</t>
@@ -872,28 +1516,37 @@
     <t>timebet</t>
   </si>
   <si>
+    <t>250tl yatırım. Maks 3k çekim</t>
+  </si>
+  <si>
     <t>tiosbet</t>
   </si>
   <si>
+    <t>Maks 20k çekim</t>
+  </si>
+  <si>
     <t>tipobet</t>
   </si>
   <si>
+    <t>titabet</t>
+  </si>
+  <si>
     <t>titobet</t>
   </si>
   <si>
+    <t>tlcasino</t>
+  </si>
+  <si>
     <t>tokyobet</t>
   </si>
   <si>
-    <t>tombet</t>
-  </si>
-  <si>
-    <t>tophillbet</t>
-  </si>
-  <si>
-    <t>trabzonbey</t>
-  </si>
-  <si>
-    <t>trbet</t>
+    <t>500tl yatırımlı. Maks 1k çelim</t>
+  </si>
+  <si>
+    <t>totembet</t>
+  </si>
+  <si>
+    <t>trinkbet</t>
   </si>
   <si>
     <t>truvabet</t>
@@ -902,24 +1555,33 @@
     <t>trwin</t>
   </si>
   <si>
-    <t>tuccobet</t>
-  </si>
-  <si>
     <t>tulipbet</t>
   </si>
   <si>
+    <t>turbobahis</t>
+  </si>
+  <si>
+    <t>türkbet</t>
+  </si>
+  <si>
     <t>ultrabet</t>
   </si>
   <si>
+    <t>1k yatırım maks 5k çekim</t>
+  </si>
+  <si>
     <t>ultraslot</t>
   </si>
   <si>
-    <t>vaycasino</t>
+    <t>Maks 150$ çekim</t>
   </si>
   <si>
     <t>vegabet</t>
   </si>
   <si>
+    <t>200tl yatırım. Maks 1k çekim</t>
+  </si>
+  <si>
     <t>venombet</t>
   </si>
   <si>
@@ -929,25 +1591,28 @@
     <t>verabet</t>
   </si>
   <si>
+    <t>500tl yatırımlım. Maks 1k çekim</t>
+  </si>
+  <si>
     <t>vevobahis</t>
   </si>
   <si>
-    <t>vidobet</t>
-  </si>
-  <si>
     <t>vippark</t>
   </si>
   <si>
     <t>virabet</t>
   </si>
   <si>
+    <t>1k yatırımlı. Anapara çevrimi sonrası sınırsız</t>
+  </si>
+  <si>
     <t>vitrinbet</t>
   </si>
   <si>
-    <t>vizyonbet</t>
-  </si>
-  <si>
-    <t>voinbet</t>
+    <t>vizebet</t>
+  </si>
+  <si>
+    <t>vocobet</t>
   </si>
   <si>
     <t>wbahis</t>
@@ -956,12 +1621,12 @@
     <t>winbir</t>
   </si>
   <si>
+    <t>wingamb</t>
+  </si>
+  <si>
     <t>winxbet</t>
   </si>
   <si>
-    <t>wojobet</t>
-  </si>
-  <si>
     <t>xbahis</t>
   </si>
   <si>
@@ -971,806 +1636,53 @@
     <t>yakabet</t>
   </si>
   <si>
-    <t>yazıtura</t>
-  </si>
-  <si>
     <t>yedibahis</t>
   </si>
   <si>
+    <t>yoncabet</t>
+  </si>
+  <si>
+    <t>500tl yatırımlı. Maks 750tl çekim</t>
+  </si>
+  <si>
     <t>zbahis</t>
   </si>
   <si>
     <t>zegnabet</t>
   </si>
   <si>
+    <t>250tl yatırımlı. Maks sınırsız</t>
+  </si>
+  <si>
+    <t>zenbet</t>
+  </si>
+  <si>
+    <t>zenginsin</t>
+  </si>
+  <si>
+    <t>Maks 15k çekim</t>
+  </si>
+  <si>
     <t>zirvebet</t>
   </si>
   <si>
-    <t>zlot</t>
-  </si>
-  <si>
     <t>zumabet</t>
   </si>
   <si>
-    <t>zurihbet</t>
-  </si>
-  <si>
-    <t>bahispal</t>
-  </si>
-  <si>
-    <t>deltabahis</t>
-  </si>
-  <si>
-    <t>portbet</t>
-  </si>
-  <si>
-    <t>bahiscasino</t>
-  </si>
-  <si>
-    <t>betroz</t>
-  </si>
-  <si>
-    <t>livebahis</t>
-  </si>
-  <si>
-    <t>maskebet</t>
-  </si>
-  <si>
-    <t>superbet</t>
-  </si>
-  <si>
-    <t>telebet</t>
-  </si>
-  <si>
-    <t>tlcasino</t>
-  </si>
-  <si>
-    <t>site_name</t>
-  </si>
-  <si>
-    <t>noktabet</t>
-  </si>
-  <si>
-    <t>yatırımsız maks 300tl çekim</t>
-  </si>
-  <si>
-    <t>250tl yatırımlı maks 500tl çekim</t>
-  </si>
-  <si>
-    <t>şartlar canlı destekte</t>
-  </si>
-  <si>
-    <t>2fa bonusu. Yatırımsız bonus tutarının maks 25 katı çekim</t>
-  </si>
-  <si>
-    <t>telegram bonusu. Yatırımsız sınırsız çekim</t>
-  </si>
-  <si>
-    <t>400tl yatırımlı maks çekim sınırı yok.</t>
-  </si>
-  <si>
-    <t>yatırımlı</t>
-  </si>
-  <si>
-    <t>yatırımsız</t>
-  </si>
-  <si>
-    <t>maks 500tl çekim</t>
-  </si>
-  <si>
-    <t>bonus bakiyesinin %10 kadar sınırsız çekim</t>
-  </si>
-  <si>
-    <t>maks 300tl çekim</t>
-  </si>
-  <si>
-    <t>tg bonusu maks 500tl çekim</t>
-  </si>
-  <si>
-    <t>maks 1k çekim</t>
-  </si>
-  <si>
-    <t>maks 250tl çekim</t>
-  </si>
-  <si>
-    <t>maks 200tl çekim</t>
-  </si>
-  <si>
-    <t>maks 600tl çekim</t>
-  </si>
-  <si>
-    <t>100tl yatırım maks 1k çekim</t>
-  </si>
-  <si>
-    <t>100tl yatırım maks 500tl çekim</t>
-  </si>
-  <si>
-    <t>maks 100tl çekim</t>
-  </si>
-  <si>
-    <t>maks 400tl çekim</t>
-  </si>
-  <si>
-    <t>maks 5k çekim</t>
-  </si>
-  <si>
-    <t>100tl yatırım maks 300tl çekim</t>
-  </si>
-  <si>
-    <t>200tl yatırım maks 500tl çekim</t>
-  </si>
-  <si>
-    <t>100tl yatırım maks 250tl çekim</t>
-  </si>
-  <si>
-    <t>500tl yatırım maks 500tl çekim</t>
-  </si>
-  <si>
-    <t>%10 kadar maks çekim sınırsız.</t>
-  </si>
-  <si>
-    <t>1k yatırım 2k çekim</t>
-  </si>
-  <si>
-    <t>250tl yatırım maks 500tl çekim</t>
-  </si>
-  <si>
-    <t>maks 750tl çekim</t>
-  </si>
-  <si>
-    <t>150tl yatırım maks 500tl çekim</t>
-  </si>
-  <si>
-    <t>100tl yatırım maks 250tl çekim. Anapara ile devam</t>
-  </si>
-  <si>
-    <t>maks 800tl çekim</t>
-  </si>
-  <si>
-    <t>100tl yatırım maks 750tl çekim</t>
-  </si>
-  <si>
-    <t>maks 1500tl çekim</t>
-  </si>
-  <si>
-    <t>200tl yatırım maks 1200tl çekim</t>
-  </si>
-  <si>
-    <t>250tl yatırım maks 250tl çekim. Anapara ile devam</t>
-  </si>
-  <si>
-    <t>maks 3500tl çekim</t>
-  </si>
-  <si>
-    <t>maks 2500tl çekim</t>
-  </si>
-  <si>
-    <t>500tl yatırım maks 2k çekim</t>
-  </si>
-  <si>
-    <t>200tl yatırım maks 1k çekim</t>
-  </si>
-  <si>
-    <t>100tl yatırım maks 1500tl çekim</t>
-  </si>
-  <si>
-    <t>250tl yatırım maks 500 çekim</t>
-  </si>
-  <si>
-    <t>250tl yatırım maks 1250tl çekim</t>
-  </si>
-  <si>
-    <t>1k yatırım 1k çekim. Anapara ile devam</t>
-  </si>
-  <si>
-    <t>min para yatırma maks 500tl çekim</t>
-  </si>
-  <si>
-    <t>200tl yatırım maks 700tl çekim</t>
-  </si>
-  <si>
-    <t>çekim kadar yatırım. Maks 2500tl çekim. Anapara ile devam</t>
-  </si>
-  <si>
-    <t>maks 660tl çekim</t>
-  </si>
-  <si>
-    <t>tg bonusu maks 200tl çekim</t>
-  </si>
-  <si>
-    <t>500tl yatırım maks 500tl çekim. Anapara ile devam</t>
-  </si>
-  <si>
-    <t>500tl yatır maks 1k çekim</t>
-  </si>
-  <si>
-    <t>250 yatırım maks 555tl çekim</t>
-  </si>
-  <si>
-    <t>250tl yatırım maks 3k çekim</t>
-  </si>
-  <si>
-    <t>100tl yatırım maks 400tl çekim</t>
-  </si>
-  <si>
-    <t>1k yatırım 500tl çek. Anapara ile devam</t>
-  </si>
-  <si>
-    <t>100tl yatırım maks 5k çekim</t>
-  </si>
-  <si>
-    <t>250tl yatırım maks 1k çekim</t>
-  </si>
-  <si>
-    <t>1k yatırım maks 2k çekim</t>
-  </si>
-  <si>
-    <t>maks 10USD çekim</t>
-  </si>
-  <si>
-    <t>maks 2k çekim</t>
-  </si>
-  <si>
-    <t>100tl yatırım maks 200tl çekim</t>
-  </si>
-  <si>
-    <t>maks 3k çekim</t>
-  </si>
-  <si>
-    <t>100tl yatır maks çekim sınırı yok.</t>
-  </si>
-  <si>
-    <t>şartlar</t>
-  </si>
-  <si>
-    <t>durum</t>
-  </si>
-  <si>
-    <t>mekanbahis</t>
-  </si>
-  <si>
-    <t>maks 150tl çekim</t>
-  </si>
-  <si>
-    <t>metrobahis</t>
-  </si>
-  <si>
-    <t>750tl yatırım maks 1500tl çekim</t>
-  </si>
-  <si>
-    <t>bahisal</t>
-  </si>
-  <si>
-    <t>privebet</t>
-  </si>
-  <si>
-    <t>kktcbet</t>
-  </si>
-  <si>
-    <t>betchaplin</t>
-  </si>
-  <si>
-    <t>lükscasino</t>
-  </si>
-  <si>
-    <t>istinyecasino</t>
-  </si>
-  <si>
-    <t>piacasinobet</t>
-  </si>
-  <si>
-    <t>lagoncasino</t>
-  </si>
-  <si>
-    <t>500tl yatırım maks 1k çekim</t>
-  </si>
-  <si>
-    <t>betforce</t>
-  </si>
-  <si>
-    <t>vadicasino</t>
-  </si>
-  <si>
-    <t>hanedanbet</t>
-  </si>
-  <si>
-    <t>safirbet</t>
-  </si>
-  <si>
-    <t>fikstürbet</t>
-  </si>
-  <si>
-    <t>favoribahis</t>
-  </si>
-  <si>
-    <t>maks 15k çekim</t>
-  </si>
-  <si>
-    <t>betbigo</t>
-  </si>
-  <si>
-    <t>hipbet</t>
-  </si>
-  <si>
-    <t>heybet</t>
-  </si>
-  <si>
-    <t>loyalbahis</t>
-  </si>
-  <si>
-    <t>realbahis</t>
-  </si>
-  <si>
-    <t>kalitebet</t>
-  </si>
-  <si>
-    <t>maritbet</t>
-  </si>
-  <si>
-    <t>efsino</t>
-  </si>
-  <si>
-    <t>bewins</t>
-  </si>
-  <si>
-    <t>balinabet</t>
-  </si>
-  <si>
-    <t>limanbet</t>
-  </si>
-  <si>
-    <t>100tl yatırım 1100tl çekim</t>
-  </si>
-  <si>
-    <t>türkbet</t>
-  </si>
-  <si>
-    <t>routebet</t>
-  </si>
-  <si>
-    <t>betsobet</t>
-  </si>
-  <si>
-    <t>deobet</t>
-  </si>
-  <si>
-    <t>lotobet</t>
-  </si>
-  <si>
-    <t>100tl yatırım maks 350tl çekim</t>
-  </si>
-  <si>
-    <t>olipsbet</t>
-  </si>
-  <si>
-    <t>sosyalmedya bonusu 100tl yatırım maks 500tl çekim. Anapara ile devam</t>
-  </si>
-  <si>
-    <t>betvoy</t>
-  </si>
-  <si>
-    <t>vizebet</t>
-  </si>
-  <si>
-    <t>betvast</t>
-  </si>
-  <si>
-    <t>elexbet</t>
-  </si>
-  <si>
-    <t>huqqabet</t>
-  </si>
-  <si>
-    <t>ossebet</t>
-  </si>
-  <si>
-    <t>min 500 maks 1k yatırıma maks 500tl çekim</t>
-  </si>
-  <si>
-    <t>roketbahis</t>
-  </si>
-  <si>
-    <t>starora</t>
-  </si>
-  <si>
-    <t>wolbet</t>
-  </si>
-  <si>
-    <t>500tl yatırımlı maks 2.5k çekim</t>
-  </si>
-  <si>
-    <t>zenginsin</t>
-  </si>
-  <si>
-    <t>betnixe</t>
-  </si>
-  <si>
-    <t>betofbahis</t>
-  </si>
-  <si>
-    <t>casinopark</t>
-  </si>
-  <si>
-    <t>ironbet</t>
-  </si>
-  <si>
-    <t>jojova</t>
-  </si>
-  <si>
-    <t>playmen</t>
-  </si>
-  <si>
-    <t>turbobahis</t>
-  </si>
-  <si>
-    <t>katla</t>
-  </si>
-  <si>
-    <t>betslio</t>
-  </si>
-  <si>
-    <t>masalbahis</t>
-  </si>
-  <si>
-    <t>betadonis</t>
-  </si>
-  <si>
-    <t>bahibom</t>
-  </si>
-  <si>
-    <t>slotbaba</t>
-  </si>
-  <si>
-    <t>spinvbet</t>
-  </si>
-  <si>
-    <t>titabet</t>
-  </si>
-  <si>
-    <t>250tl yatır maks 500 çekim</t>
-  </si>
-  <si>
-    <t>vocobet</t>
-  </si>
-  <si>
-    <t>betesbet</t>
-  </si>
-  <si>
-    <t>slotella</t>
-  </si>
-  <si>
-    <t>1k yatır maks 2k çekim</t>
-  </si>
-  <si>
-    <t>akcebet</t>
-  </si>
-  <si>
-    <t>1king</t>
-  </si>
-  <si>
-    <t>b1bahis</t>
-  </si>
-  <si>
-    <t>bahiscom</t>
-  </si>
-  <si>
-    <t>bahisdeyiz</t>
-  </si>
-  <si>
-    <t>1 yatırımlı. Maks 1.5k çekim</t>
-  </si>
-  <si>
-    <t>500tl yatırımlı. Maks 1k çekim</t>
-  </si>
-  <si>
-    <t>250tl yatırımlı. Maks 5k çekim</t>
-  </si>
-  <si>
-    <t>250tl yatırımlı. Maks 500 çekim</t>
-  </si>
-  <si>
-    <t>250tl yatırımlı. Maks 1k çekim</t>
-  </si>
-  <si>
-    <t>Maks 300tl çekim</t>
-  </si>
-  <si>
-    <t>Maks 1000tl çekim</t>
-  </si>
-  <si>
-    <t>Maks 1k çekim</t>
-  </si>
-  <si>
-    <t>Maks 250tl çekim</t>
-  </si>
-  <si>
-    <t>Maks 500tl çekim</t>
-  </si>
-  <si>
-    <t>100tl yatırımlı. Maks 300tl çekim</t>
-  </si>
-  <si>
-    <t>1k yatırımlı. Maks 2k çekim</t>
-  </si>
-  <si>
-    <t>200tl yatırımlı. Maks 2k çekim</t>
-  </si>
-  <si>
-    <t>Maks 3k çekim</t>
-  </si>
-  <si>
-    <t>Maks 10k çekim</t>
-  </si>
-  <si>
-    <t>Maks 1k çekim. (telegram bonusu)</t>
-  </si>
-  <si>
-    <t>500tl yatırımlı. Maks 1ktl çekim</t>
-  </si>
-  <si>
-    <t>baymavi</t>
-  </si>
-  <si>
-    <t>1k yatırımlı. Maks 3k çekim</t>
-  </si>
-  <si>
-    <t>300tl yatırımlı. Maks 500tl çekim. Ana para kalıyor.</t>
-  </si>
-  <si>
-    <t>beinwon</t>
-  </si>
-  <si>
-    <t>200tl yatırımlı. Maks 1k çekim</t>
-  </si>
-  <si>
-    <t>500tl yatırımlı. Min 1k çekim</t>
-  </si>
-  <si>
-    <t>bet10bet</t>
-  </si>
-  <si>
-    <t>Kazanca göre yatırım yaparak maks 500k çekim</t>
-  </si>
-  <si>
-    <t>100tl yatırımlı. Maks 10k çekim</t>
-  </si>
-  <si>
-    <t>betasus</t>
-  </si>
-  <si>
-    <t>Maks 2k çekim</t>
-  </si>
-  <si>
-    <t>Maks 150tl çekim</t>
-  </si>
-  <si>
-    <t>Yatırım kadar deneme min-maks 10 katı çekim</t>
-  </si>
-  <si>
-    <t>1k yatırımlı. Maks 1.5k çekim</t>
-  </si>
-  <si>
-    <t>100tl yatırımlı. Maks 1k çekim</t>
-  </si>
-  <si>
-    <t>100tl yatırımlı. Maks 500tl çekim</t>
-  </si>
-  <si>
-    <t>500tl yatırımlı. Maks 700tl çekim</t>
-  </si>
-  <si>
-    <t>250tl yatırımlı. Maks 500tl çekim</t>
-  </si>
-  <si>
-    <t>betiton</t>
-  </si>
-  <si>
-    <t>1k yatırımlı. Maks 5k çekim</t>
-  </si>
-  <si>
-    <t>1k yatırımlı. Maks 2.5k çekim</t>
-  </si>
-  <si>
-    <t>betkong</t>
-  </si>
-  <si>
-    <t>betkorner</t>
-  </si>
-  <si>
-    <t>Maks 2.5k çekim</t>
-  </si>
-  <si>
-    <t>betnef</t>
-  </si>
-  <si>
-    <t>Min 500tl maks sınırsız çekim</t>
-  </si>
-  <si>
-    <t>Min 1k maks 2.5k çekim. Çekim kadar yatırım.</t>
-  </si>
-  <si>
-    <t>100tl yatırımlı. Maks 250tl çekim</t>
-  </si>
-  <si>
-    <t>500tl yatırımlı. Maks 1.5k çekim</t>
-  </si>
-  <si>
-    <t>200tl yatırımlı. Maks 500tl çekim</t>
-  </si>
-  <si>
-    <t>Min 500tl maks 10k çekim</t>
-  </si>
-  <si>
-    <t>300tl yatırımlı. Sınırsız çekim.</t>
-  </si>
-  <si>
-    <t>500tl yatırımlı. Maks 1k çekim.</t>
-  </si>
-  <si>
-    <t>2.5k üstü %10u çekim yapılabilir. Sınırsız çekim</t>
-  </si>
-  <si>
-    <t>betsilin</t>
-  </si>
-  <si>
-    <t>1k yatırım. 500tl çekim. 1k anapara ile devam</t>
-  </si>
-  <si>
-    <t>Maks 5k çekim</t>
-  </si>
-  <si>
-    <t>carkbet</t>
-  </si>
-  <si>
-    <t>casinobest</t>
-  </si>
-  <si>
-    <t>300tl yatırımlı. Min 3k maks sınır yok</t>
-  </si>
-  <si>
-    <t>500 tl yatırımlı. Maks 1k çekim. Anapara il devam</t>
-  </si>
-  <si>
-    <t>casinovoya</t>
-  </si>
-  <si>
-    <t>casinowon</t>
-  </si>
-  <si>
-    <t>cassinox</t>
-  </si>
-  <si>
-    <t>500tl yatırımlı. 500tl çekim anapara ile devam</t>
-  </si>
-  <si>
-    <t>500tl yatırımlı. Min 500 maks sınırsız çekim</t>
-  </si>
-  <si>
-    <t>celticbet</t>
-  </si>
-  <si>
-    <t>100tl yatırımlı. Maks 5k çekim</t>
-  </si>
-  <si>
-    <t>100tl yatırımlı. Maks 600tl çekim</t>
-  </si>
-  <si>
-    <t>Maks 200tl çekim</t>
-  </si>
-  <si>
-    <t>500tl yatırımlı. Maks yatırımın 10katı çekim</t>
-  </si>
-  <si>
-    <t>300tl yatırım. Maks 600tl çekim</t>
-  </si>
-  <si>
-    <t>Min 1k maks sınırsız. Bonus kazancı kadar yatırım.</t>
-  </si>
-  <si>
-    <t>exonbet</t>
-  </si>
-  <si>
-    <t>150tl yatırımlı. Maks 300 çekim</t>
-  </si>
-  <si>
-    <t>fifabahis</t>
-  </si>
-  <si>
-    <t>Çekim için 1 yatırım şart. Sınırsız çekim</t>
-  </si>
-  <si>
-    <t>gamben</t>
-  </si>
-  <si>
-    <t>Bonus kazancı kadar yatırım. Min 3 maks 15 katı çekim</t>
-  </si>
-  <si>
-    <t>yaıtırmlı</t>
-  </si>
-  <si>
-    <t>%10 kadar sınırsız çekim</t>
-  </si>
-  <si>
-    <t>200tl yatırımlı. Maks 400tl çekim</t>
-  </si>
-  <si>
-    <t>250tl yatırımlı. Maks 500tl çekim. Anapara ile devam</t>
-  </si>
-  <si>
-    <t>250tl yatırılım. Maks 500tl çekim</t>
-  </si>
-  <si>
-    <t>100 yatırımlı. Maks 250tl çekim. Anapara ile devam</t>
-  </si>
-  <si>
-    <t>250tl yatırımlı. Maks 1000tl çekim</t>
-  </si>
-  <si>
-    <t>hizlibahis</t>
-  </si>
-  <si>
-    <t>hilbet</t>
-  </si>
-  <si>
-    <t>Telegram Bonusu. 500tl yatırımlı. 500tl çek. Anapara ile devam</t>
-  </si>
-  <si>
-    <t>200tl bonus kazancı ile sınırsız çekim</t>
-  </si>
-  <si>
-    <t>Telegram bonusu fs kazancının maks 25katı çekim</t>
-  </si>
-  <si>
-    <t>100tl yatırım. Maks 300tl çekim</t>
-  </si>
-  <si>
-    <t>hojabet</t>
-  </si>
-  <si>
-    <t>holeybet</t>
-  </si>
-  <si>
-    <t>hugobet</t>
-  </si>
-  <si>
-    <t>2.5k yatırımlı. Maks 5k çekim</t>
-  </si>
-  <si>
-    <t>hullbet</t>
-  </si>
-  <si>
-    <t>500tl yatırımlı. Min -maks 2k çekim</t>
-  </si>
-  <si>
-    <t>Min 1k maks 5k çekim</t>
-  </si>
-  <si>
-    <t>ispor</t>
-  </si>
-  <si>
-    <t>janticasino</t>
-  </si>
-  <si>
-    <t>1k yatırımlı. 1.5k çekim. Anapara ile devam</t>
-  </si>
-  <si>
-    <t>Kasino</t>
-  </si>
-  <si>
-    <t>100tl yatırımlı. Maks 1100tl çekim</t>
-  </si>
-  <si>
-    <t>100tl yatırım. Maks 500tl çekim</t>
-  </si>
-  <si>
-    <t>Maks 100tl çekim</t>
+    <t>Site Adı</t>
+  </si>
+  <si>
+    <t>Şartlar</t>
+  </si>
+  <si>
+    <t>Durum</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1779,16 +1691,333 @@
       <charset val="162"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1796,78 +2025,206 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="%20 - Vurgu1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="%20 - Vurgu2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="%20 - Vurgu3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="%20 - Vurgu4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="%20 - Vurgu5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="%20 - Vurgu6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="%40 - Vurgu1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="%40 - Vurgu2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="%40 - Vurgu3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="%40 - Vurgu4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="%40 - Vurgu5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="%40 - Vurgu6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="%60 - Vurgu1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="%60 - Vurgu2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="%60 - Vurgu3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="%60 - Vurgu4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="%60 - Vurgu5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="%60 - Vurgu6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Açıklama Metni" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Ana Başlık" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Bağlı Hücre" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Başlık 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Başlık 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Başlık 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Başlık 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Çıkış" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Giriş" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Hesaplama" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="İşaretli Hücre" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="İyi" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Kötü" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Not" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Nötr" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Toplam" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Uyarı Metni" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Vurgu1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Vurgu2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Vurgu3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Vurgu4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Vurgu5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Vurgu6" xfId="38" builtinId="49" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2196,4596 +2553,4553 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27721E89-84FA-4F74-A1D2-3BF8AA3929A4}">
-  <dimension ref="A1:C423"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F56ED3D-A3F2-450D-9EAE-1214C3EA2069}">
+  <dimension ref="A1:C412"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B234" sqref="B234"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>328</v>
+        <v>549</v>
       </c>
       <c r="B1" t="s">
-        <v>393</v>
+        <v>550</v>
       </c>
       <c r="C1" t="s">
-        <v>394</v>
+        <v>551</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>468</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>358</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>474</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>467</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>475</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>476</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>477</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>478</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>479</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>480</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>481</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>479</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>480</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>481</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>482</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>479</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>469</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>483</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>484</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>458</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>479</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>481</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>484</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>399</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>481</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>332</v>
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>321</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>479</v>
+        <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>470</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>485</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>471</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>481</v>
+        <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>486</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>476</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="B28" t="s">
-        <v>479</v>
+        <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>472</v>
+        <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>318</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>480</v>
+        <v>17</v>
       </c>
       <c r="C30" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="B31" t="s">
-        <v>487</v>
+        <v>47</v>
       </c>
       <c r="C31" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>424</v>
+        <v>48</v>
       </c>
       <c r="B32" t="s">
-        <v>477</v>
+        <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="B33" t="s">
-        <v>473</v>
+        <v>50</v>
       </c>
       <c r="C33" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="B34" t="s">
-        <v>488</v>
+        <v>52</v>
       </c>
       <c r="C34" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>489</v>
+        <v>53</v>
       </c>
       <c r="B35" t="s">
-        <v>490</v>
+        <v>54</v>
       </c>
       <c r="C35" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="B36" t="s">
-        <v>491</v>
+        <v>56</v>
       </c>
       <c r="C36" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>492</v>
+        <v>57</v>
       </c>
       <c r="B37" t="s">
-        <v>481</v>
+        <v>19</v>
       </c>
       <c r="C37" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="B38" t="s">
-        <v>479</v>
+        <v>15</v>
       </c>
       <c r="C38" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="B39" t="s">
-        <v>493</v>
+        <v>60</v>
       </c>
       <c r="C39" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="B40" t="s">
-        <v>494</v>
+        <v>62</v>
       </c>
       <c r="C40" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="B41" t="s">
-        <v>479</v>
+        <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>495</v>
+        <v>64</v>
       </c>
       <c r="B42" t="s">
-        <v>496</v>
+        <v>65</v>
       </c>
       <c r="C42" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>457</v>
+        <v>66</v>
       </c>
       <c r="B43" t="s">
-        <v>497</v>
+        <v>67</v>
       </c>
       <c r="C43" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="B44" t="s">
-        <v>500</v>
+        <v>69</v>
       </c>
       <c r="C44" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>498</v>
+        <v>70</v>
       </c>
       <c r="B45" t="s">
-        <v>499</v>
+        <v>71</v>
       </c>
       <c r="C45" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="B46" t="s">
-        <v>483</v>
+        <v>27</v>
       </c>
       <c r="C46" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>415</v>
+        <v>73</v>
       </c>
       <c r="B47" t="s">
-        <v>479</v>
+        <v>15</v>
       </c>
       <c r="C47" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="B48" t="s">
-        <v>501</v>
+        <v>75</v>
       </c>
       <c r="C48" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="B49" t="s">
-        <v>479</v>
+        <v>15</v>
       </c>
       <c r="C49" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="B50" t="s">
-        <v>332</v>
+        <v>78</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>402</v>
+        <v>79</v>
       </c>
       <c r="B51" t="s">
-        <v>386</v>
+        <v>15</v>
       </c>
       <c r="C51" t="s">
-        <v>336</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="B52" t="s">
-        <v>479</v>
+        <v>81</v>
       </c>
       <c r="C52" t="s">
-        <v>337</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B53" t="s">
-        <v>332</v>
+        <v>83</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B54" t="s">
-        <v>332</v>
+        <v>19</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>464</v>
+        <v>85</v>
       </c>
       <c r="B55" t="s">
-        <v>481</v>
+        <v>19</v>
       </c>
       <c r="C55" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="B56" t="s">
-        <v>481</v>
+        <v>17</v>
       </c>
       <c r="C56" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="B57" t="s">
-        <v>480</v>
+        <v>88</v>
       </c>
       <c r="C57" t="s">
-        <v>337</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>408</v>
+        <v>89</v>
       </c>
       <c r="B58" t="s">
-        <v>502</v>
+        <v>90</v>
       </c>
       <c r="C58" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="B59" t="s">
-        <v>503</v>
+        <v>19</v>
       </c>
       <c r="C59" t="s">
-        <v>336</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="B60" t="s">
-        <v>481</v>
+        <v>93</v>
       </c>
       <c r="C60" t="s">
-        <v>337</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="B61" t="s">
-        <v>504</v>
+        <v>95</v>
       </c>
       <c r="C61" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="B62" t="s">
-        <v>505</v>
+        <v>97</v>
       </c>
       <c r="C62" t="s">
-        <v>336</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="B63" t="s">
-        <v>332</v>
+        <v>99</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="B64" t="s">
-        <v>330</v>
+        <v>101</v>
       </c>
       <c r="C64" t="s">
-        <v>337</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="B65" t="s">
-        <v>506</v>
+        <v>103</v>
       </c>
       <c r="C65" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>507</v>
+        <v>104</v>
       </c>
       <c r="B66" t="s">
-        <v>508</v>
+        <v>105</v>
       </c>
       <c r="C66" t="s">
-        <v>336</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="B67" t="s">
-        <v>481</v>
+        <v>19</v>
       </c>
       <c r="C67" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="B68" t="s">
-        <v>479</v>
+        <v>15</v>
       </c>
       <c r="C68" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="B69" t="s">
-        <v>509</v>
+        <v>109</v>
       </c>
       <c r="C69" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="B70" t="s">
-        <v>481</v>
+        <v>19</v>
       </c>
       <c r="C70" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>510</v>
+        <v>111</v>
       </c>
       <c r="B71" t="s">
-        <v>479</v>
+        <v>15</v>
       </c>
       <c r="C71" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>511</v>
+        <v>112</v>
       </c>
       <c r="B72" t="s">
-        <v>480</v>
+        <v>17</v>
       </c>
       <c r="C72" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="B73" t="s">
-        <v>512</v>
+        <v>83</v>
       </c>
       <c r="C73" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="B74" t="s">
-        <v>479</v>
+        <v>15</v>
       </c>
       <c r="C74" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="B75" t="s">
-        <v>481</v>
+        <v>19</v>
       </c>
       <c r="C75" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c r="B76" t="s">
-        <v>479</v>
+        <v>15</v>
       </c>
       <c r="C76" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="B77" t="s">
-        <v>504</v>
+        <v>93</v>
       </c>
       <c r="C77" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="B78" t="s">
-        <v>332</v>
+        <v>119</v>
+      </c>
+      <c r="C78" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>513</v>
+        <v>120</v>
       </c>
       <c r="B79" t="s">
-        <v>479</v>
+        <v>15</v>
       </c>
       <c r="C79" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="B80" t="s">
-        <v>481</v>
+        <v>19</v>
       </c>
       <c r="C80" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>447</v>
+        <v>122</v>
       </c>
       <c r="B81" t="s">
-        <v>338</v>
+        <v>123</v>
       </c>
       <c r="C81" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>448</v>
+        <v>124</v>
       </c>
       <c r="B82" t="s">
-        <v>352</v>
+        <v>125</v>
       </c>
       <c r="C82" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="B83" t="s">
-        <v>514</v>
+        <v>127</v>
       </c>
       <c r="C83" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>52</v>
+        <v>128</v>
       </c>
       <c r="B84" t="s">
-        <v>506</v>
+        <v>101</v>
       </c>
       <c r="C84" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="B85" t="s">
-        <v>515</v>
+        <v>130</v>
       </c>
       <c r="C85" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="B86" t="s">
-        <v>333</v>
+        <v>132</v>
       </c>
       <c r="C86" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="B87" t="s">
-        <v>516</v>
+        <v>134</v>
       </c>
       <c r="C87" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>56</v>
+        <v>135</v>
       </c>
       <c r="B88" t="s">
-        <v>517</v>
+        <v>136</v>
       </c>
       <c r="C88" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>57</v>
+        <v>137</v>
       </c>
       <c r="B89" t="s">
-        <v>518</v>
+        <v>138</v>
       </c>
       <c r="C89" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="B90" t="s">
-        <v>481</v>
+        <v>19</v>
       </c>
       <c r="C90" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>68</v>
+        <v>140</v>
       </c>
       <c r="B91" t="s">
-        <v>332</v>
+        <v>141</v>
+      </c>
+      <c r="C91" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="B92" t="s">
-        <v>332</v>
+        <v>15</v>
+      </c>
+      <c r="C92" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>59</v>
+        <v>143</v>
       </c>
       <c r="B93" t="s">
-        <v>519</v>
+        <v>144</v>
       </c>
       <c r="C93" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>60</v>
+        <v>145</v>
       </c>
       <c r="B94" t="s">
-        <v>520</v>
+        <v>146</v>
       </c>
       <c r="C94" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>61</v>
+        <v>147</v>
       </c>
       <c r="B95" t="s">
-        <v>481</v>
+        <v>19</v>
       </c>
       <c r="C95" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>62</v>
+        <v>148</v>
       </c>
       <c r="B96" t="s">
-        <v>504</v>
+        <v>93</v>
       </c>
       <c r="C96" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>63</v>
+        <v>149</v>
       </c>
       <c r="B97" t="s">
-        <v>502</v>
+        <v>88</v>
       </c>
       <c r="C97" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>322</v>
+        <v>150</v>
       </c>
       <c r="B98" t="s">
-        <v>521</v>
+        <v>151</v>
       </c>
       <c r="C98" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="B99" t="s">
-        <v>522</v>
+        <v>153</v>
       </c>
       <c r="C99" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>65</v>
+        <v>154</v>
       </c>
       <c r="B100" t="s">
-        <v>481</v>
+        <v>19</v>
       </c>
       <c r="C100" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>66</v>
+        <v>155</v>
       </c>
       <c r="B101" t="s">
-        <v>481</v>
+        <v>19</v>
       </c>
       <c r="C101" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>523</v>
+        <v>156</v>
       </c>
       <c r="B102" t="s">
-        <v>481</v>
+        <v>19</v>
       </c>
       <c r="C102" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>74</v>
+        <v>157</v>
       </c>
       <c r="B103" t="s">
-        <v>512</v>
+        <v>83</v>
       </c>
       <c r="C103" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>455</v>
+        <v>158</v>
       </c>
       <c r="B104" t="s">
-        <v>508</v>
+        <v>103</v>
       </c>
       <c r="C104" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>75</v>
+        <v>159</v>
       </c>
       <c r="B105" t="s">
-        <v>334</v>
+        <v>160</v>
       </c>
       <c r="C105" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>429</v>
+        <v>161</v>
       </c>
       <c r="B106" t="s">
-        <v>481</v>
+        <v>19</v>
       </c>
       <c r="C106" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="B107" t="s">
-        <v>335</v>
+        <v>163</v>
       </c>
       <c r="C107" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="B108" t="s">
-        <v>481</v>
+        <v>19</v>
       </c>
       <c r="C108" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="B109" t="s">
-        <v>480</v>
+        <v>17</v>
       </c>
       <c r="C109" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>78</v>
+        <v>166</v>
       </c>
       <c r="B110" t="s">
-        <v>479</v>
+        <v>15</v>
       </c>
       <c r="C110" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>437</v>
+        <v>167</v>
       </c>
       <c r="B111" t="s">
-        <v>480</v>
+        <v>17</v>
       </c>
       <c r="C111" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>80</v>
+        <v>168</v>
       </c>
       <c r="B112" t="s">
-        <v>332</v>
+        <v>15</v>
+      </c>
+      <c r="C112" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>435</v>
+        <v>169</v>
       </c>
       <c r="B113" t="s">
-        <v>473</v>
+        <v>83</v>
       </c>
       <c r="C113" t="s">
-        <v>336</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>81</v>
+        <v>170</v>
       </c>
       <c r="B114" t="s">
-        <v>479</v>
+        <v>50</v>
       </c>
       <c r="C114" t="s">
-        <v>337</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>82</v>
+        <v>171</v>
       </c>
       <c r="B115" t="s">
-        <v>481</v>
+        <v>15</v>
       </c>
       <c r="C115" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>83</v>
+        <v>172</v>
       </c>
       <c r="B116" t="s">
-        <v>481</v>
+        <v>19</v>
       </c>
       <c r="C116" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>423</v>
+        <v>173</v>
       </c>
       <c r="B117" t="s">
-        <v>502</v>
+        <v>19</v>
       </c>
       <c r="C117" t="s">
-        <v>336</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>84</v>
+        <v>174</v>
       </c>
       <c r="B118" t="s">
-        <v>481</v>
+        <v>88</v>
       </c>
       <c r="C118" t="s">
-        <v>337</v>
+        <v>5</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>85</v>
+        <v>175</v>
       </c>
       <c r="B119" t="s">
-        <v>524</v>
+        <v>19</v>
       </c>
       <c r="C119" t="s">
-        <v>336</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>86</v>
+        <v>176</v>
       </c>
       <c r="B120" t="s">
-        <v>479</v>
+        <v>177</v>
       </c>
       <c r="C120" t="s">
-        <v>337</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>87</v>
+        <v>178</v>
       </c>
       <c r="B121" t="s">
-        <v>473</v>
+        <v>15</v>
       </c>
       <c r="C121" t="s">
-        <v>336</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>88</v>
+        <v>179</v>
       </c>
       <c r="B122" t="s">
-        <v>518</v>
+        <v>50</v>
       </c>
       <c r="C122" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>89</v>
+        <v>180</v>
       </c>
       <c r="B123" t="s">
-        <v>525</v>
+        <v>138</v>
       </c>
       <c r="C123" t="s">
-        <v>337</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>526</v>
+        <v>181</v>
       </c>
       <c r="B124" t="s">
-        <v>473</v>
+        <v>182</v>
       </c>
       <c r="C124" t="s">
-        <v>336</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>90</v>
+        <v>183</v>
       </c>
       <c r="B125" t="s">
-        <v>525</v>
+        <v>50</v>
       </c>
       <c r="C125" t="s">
-        <v>337</v>
+        <v>5</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>91</v>
+        <v>184</v>
       </c>
       <c r="B126" t="s">
-        <v>502</v>
+        <v>182</v>
       </c>
       <c r="C126" t="s">
-        <v>336</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>92</v>
+        <v>185</v>
       </c>
       <c r="B127" t="s">
-        <v>481</v>
+        <v>88</v>
       </c>
       <c r="C127" t="s">
-        <v>337</v>
+        <v>5</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>93</v>
+        <v>186</v>
       </c>
       <c r="B128" t="s">
-        <v>481</v>
+        <v>19</v>
       </c>
       <c r="C128" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>527</v>
+        <v>187</v>
       </c>
       <c r="B129" t="s">
-        <v>528</v>
+        <v>19</v>
       </c>
       <c r="C129" t="s">
-        <v>336</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>94</v>
+        <v>188</v>
       </c>
       <c r="B130" t="s">
-        <v>481</v>
+        <v>189</v>
       </c>
       <c r="C130" t="s">
-        <v>337</v>
+        <v>5</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>95</v>
+        <v>190</v>
       </c>
       <c r="B131" t="s">
-        <v>481</v>
+        <v>19</v>
       </c>
       <c r="C131" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>96</v>
+        <v>191</v>
       </c>
       <c r="B132" t="s">
-        <v>506</v>
+        <v>19</v>
       </c>
       <c r="C132" t="s">
-        <v>336</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>97</v>
+        <v>192</v>
       </c>
       <c r="B133" t="s">
-        <v>529</v>
+        <v>101</v>
       </c>
       <c r="C133" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>449</v>
+        <v>193</v>
       </c>
       <c r="B134" t="s">
-        <v>343</v>
+        <v>194</v>
       </c>
       <c r="C134" t="s">
-        <v>337</v>
+        <v>5</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>530</v>
+        <v>195</v>
       </c>
       <c r="B135" t="s">
-        <v>483</v>
+        <v>27</v>
       </c>
       <c r="C135" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>531</v>
+        <v>196</v>
       </c>
       <c r="B136" t="s">
-        <v>481</v>
+        <v>19</v>
       </c>
       <c r="C136" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>98</v>
+        <v>197</v>
       </c>
       <c r="B137" t="s">
-        <v>473</v>
+        <v>50</v>
       </c>
       <c r="C137" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>99</v>
+        <v>198</v>
       </c>
       <c r="B138" t="s">
-        <v>481</v>
+        <v>19</v>
       </c>
       <c r="C138" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>532</v>
+        <v>199</v>
       </c>
       <c r="B139" t="s">
-        <v>533</v>
+        <v>200</v>
       </c>
       <c r="C139" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>100</v>
+        <v>201</v>
       </c>
       <c r="B140" t="s">
-        <v>534</v>
+        <v>202</v>
       </c>
       <c r="C140" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>101</v>
+        <v>203</v>
       </c>
       <c r="B141" t="s">
-        <v>481</v>
+        <v>19</v>
       </c>
       <c r="C141" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>535</v>
+        <v>204</v>
       </c>
       <c r="B142" t="s">
-        <v>536</v>
+        <v>205</v>
       </c>
       <c r="C142" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>102</v>
+        <v>206</v>
       </c>
       <c r="B143" t="s">
-        <v>483</v>
+        <v>27</v>
       </c>
       <c r="C143" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>103</v>
+        <v>207</v>
       </c>
       <c r="B144" t="s">
-        <v>479</v>
+        <v>15</v>
       </c>
       <c r="C144" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>104</v>
+        <v>208</v>
       </c>
       <c r="B145" t="s">
-        <v>537</v>
+        <v>209</v>
       </c>
       <c r="C145" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>105</v>
+        <v>210</v>
       </c>
       <c r="B146" t="s">
-        <v>481</v>
+        <v>19</v>
       </c>
       <c r="C146" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>319</v>
+        <v>211</v>
       </c>
       <c r="B147" t="s">
-        <v>479</v>
+        <v>15</v>
       </c>
       <c r="C147" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>106</v>
+        <v>212</v>
       </c>
       <c r="B148" t="s">
-        <v>538</v>
+        <v>119</v>
       </c>
       <c r="C148" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>430</v>
+        <v>213</v>
       </c>
       <c r="B149" t="s">
-        <v>480</v>
+        <v>17</v>
       </c>
       <c r="C149" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>107</v>
+        <v>214</v>
       </c>
       <c r="B150" t="s">
-        <v>481</v>
+        <v>19</v>
       </c>
       <c r="C150" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>108</v>
+        <v>215</v>
       </c>
       <c r="B151" t="s">
-        <v>481</v>
+        <v>19</v>
       </c>
       <c r="C151" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>109</v>
+        <v>216</v>
       </c>
       <c r="B152" t="s">
-        <v>539</v>
+        <v>217</v>
       </c>
       <c r="C152" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>110</v>
+        <v>218</v>
       </c>
       <c r="B153" t="s">
-        <v>479</v>
+        <v>15</v>
       </c>
       <c r="C153" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>422</v>
+        <v>219</v>
       </c>
       <c r="B154" t="s">
-        <v>540</v>
+        <v>220</v>
       </c>
       <c r="C154" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>438</v>
+        <v>221</v>
       </c>
       <c r="B155" t="s">
-        <v>342</v>
+        <v>15</v>
       </c>
       <c r="C155" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>111</v>
+        <v>222</v>
       </c>
       <c r="B156" t="s">
-        <v>481</v>
+        <v>19</v>
       </c>
       <c r="C156" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>112</v>
+        <v>223</v>
       </c>
       <c r="B157" t="s">
-        <v>480</v>
+        <v>17</v>
       </c>
       <c r="C157" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>113</v>
+        <v>224</v>
       </c>
       <c r="B158" t="s">
-        <v>541</v>
+        <v>225</v>
       </c>
       <c r="C158" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>114</v>
+        <v>226</v>
       </c>
       <c r="B159" t="s">
-        <v>479</v>
+        <v>15</v>
       </c>
       <c r="C159" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>115</v>
+        <v>227</v>
       </c>
       <c r="B160" t="s">
-        <v>473</v>
+        <v>50</v>
       </c>
       <c r="C160" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>542</v>
+        <v>228</v>
       </c>
       <c r="B161" t="s">
-        <v>481</v>
+        <v>19</v>
       </c>
       <c r="C161" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>116</v>
+        <v>229</v>
       </c>
       <c r="B162" t="s">
-        <v>479</v>
+        <v>15</v>
       </c>
       <c r="C162" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>117</v>
+        <v>230</v>
       </c>
       <c r="B163" t="s">
-        <v>543</v>
+        <v>231</v>
       </c>
       <c r="C163" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>413</v>
+        <v>232</v>
       </c>
       <c r="B164" t="s">
-        <v>355</v>
+        <v>105</v>
       </c>
       <c r="C164" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>118</v>
+        <v>233</v>
       </c>
       <c r="B165" t="s">
-        <v>481</v>
+        <v>19</v>
       </c>
       <c r="C165" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>119</v>
+        <v>234</v>
       </c>
       <c r="B166" t="s">
-        <v>339</v>
+        <v>235</v>
       </c>
       <c r="C166" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>120</v>
+        <v>236</v>
       </c>
       <c r="B167" t="s">
-        <v>341</v>
+        <v>101</v>
       </c>
       <c r="C167" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>121</v>
+        <v>237</v>
       </c>
       <c r="B168" t="s">
-        <v>340</v>
+        <v>11</v>
       </c>
       <c r="C168" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>544</v>
+        <v>238</v>
       </c>
       <c r="B169" t="s">
-        <v>481</v>
+        <v>19</v>
       </c>
       <c r="C169" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>412</v>
+        <v>239</v>
       </c>
       <c r="B170" t="s">
-        <v>481</v>
+        <v>19</v>
       </c>
       <c r="C170" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>122</v>
+        <v>240</v>
       </c>
       <c r="B171" t="s">
-        <v>506</v>
+        <v>101</v>
       </c>
       <c r="C171" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>123</v>
+        <v>241</v>
       </c>
       <c r="B172" t="s">
-        <v>479</v>
+        <v>15</v>
       </c>
       <c r="C172" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>124</v>
+        <v>242</v>
       </c>
       <c r="B173" t="s">
-        <v>545</v>
+        <v>243</v>
       </c>
       <c r="C173" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>125</v>
+        <v>244</v>
       </c>
       <c r="B174" t="s">
-        <v>481</v>
+        <v>19</v>
       </c>
       <c r="C174" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>546</v>
+        <v>245</v>
       </c>
       <c r="B175" t="s">
-        <v>547</v>
+        <v>246</v>
       </c>
       <c r="C175" t="s">
-        <v>548</v>
+        <v>247</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>126</v>
+        <v>248</v>
       </c>
       <c r="B176" t="s">
-        <v>339</v>
+        <v>249</v>
       </c>
       <c r="C176" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>127</v>
+        <v>250</v>
       </c>
       <c r="B177" t="s">
-        <v>506</v>
+        <v>101</v>
       </c>
       <c r="C177" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>128</v>
+        <v>251</v>
       </c>
       <c r="B178" t="s">
-        <v>486</v>
+        <v>40</v>
       </c>
       <c r="C178" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>129</v>
+        <v>252</v>
       </c>
       <c r="B179" t="s">
-        <v>479</v>
+        <v>15</v>
       </c>
       <c r="C179" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>130</v>
+        <v>253</v>
       </c>
       <c r="B180" t="s">
-        <v>549</v>
+        <v>235</v>
       </c>
       <c r="C180" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>131</v>
+        <v>254</v>
       </c>
       <c r="B181" t="s">
-        <v>550</v>
+        <v>255</v>
       </c>
       <c r="C181" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>132</v>
+        <v>256</v>
       </c>
       <c r="B182" t="s">
-        <v>506</v>
+        <v>101</v>
       </c>
       <c r="C182" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>133</v>
+        <v>257</v>
       </c>
       <c r="B183" t="s">
-        <v>551</v>
+        <v>258</v>
       </c>
       <c r="C183" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>134</v>
+        <v>259</v>
       </c>
       <c r="B184" t="s">
-        <v>479</v>
+        <v>15</v>
       </c>
       <c r="C184" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>135</v>
+        <v>260</v>
       </c>
       <c r="B185" t="s">
-        <v>479</v>
+        <v>261</v>
       </c>
       <c r="C185" t="s">
-        <v>337</v>
+        <v>5</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>136</v>
+        <v>262</v>
       </c>
       <c r="B186" t="s">
-        <v>332</v>
+        <v>15</v>
+      </c>
+      <c r="C186" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>137</v>
+        <v>263</v>
       </c>
       <c r="B187" t="s">
-        <v>552</v>
+        <v>264</v>
       </c>
       <c r="C187" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>138</v>
+        <v>265</v>
       </c>
       <c r="B188" t="s">
-        <v>479</v>
+        <v>266</v>
       </c>
       <c r="C188" t="s">
-        <v>337</v>
+        <v>5</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>139</v>
+        <v>267</v>
       </c>
       <c r="B189" t="s">
-        <v>553</v>
+        <v>15</v>
       </c>
       <c r="C189" t="s">
-        <v>336</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>410</v>
+        <v>268</v>
       </c>
       <c r="B190" t="s">
-        <v>477</v>
+        <v>269</v>
       </c>
       <c r="C190" t="s">
-        <v>337</v>
+        <v>5</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>140</v>
+        <v>270</v>
       </c>
       <c r="B191" t="s">
-        <v>343</v>
+        <v>11</v>
       </c>
       <c r="C191" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>141</v>
+        <v>271</v>
       </c>
       <c r="B192" t="s">
-        <v>554</v>
+        <v>88</v>
       </c>
       <c r="C192" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>142</v>
+        <v>272</v>
       </c>
       <c r="B193" t="s">
-        <v>479</v>
+        <v>273</v>
       </c>
       <c r="C193" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>417</v>
+        <v>274</v>
       </c>
       <c r="B194" t="s">
-        <v>338</v>
+        <v>275</v>
       </c>
       <c r="C194" t="s">
-        <v>337</v>
+        <v>5</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>555</v>
+        <v>276</v>
       </c>
       <c r="B195" t="s">
-        <v>560</v>
+        <v>15</v>
       </c>
       <c r="C195" t="s">
-        <v>336</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>143</v>
+        <v>277</v>
       </c>
       <c r="B196" t="s">
-        <v>481</v>
+        <v>15</v>
       </c>
       <c r="C196" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>556</v>
+        <v>278</v>
       </c>
       <c r="B197" t="s">
-        <v>557</v>
+        <v>19</v>
       </c>
       <c r="C197" t="s">
-        <v>336</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>144</v>
+        <v>279</v>
       </c>
       <c r="B198" t="s">
-        <v>479</v>
+        <v>280</v>
       </c>
       <c r="C198" t="s">
-        <v>337</v>
+        <v>5</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>416</v>
+        <v>281</v>
       </c>
       <c r="B199" t="s">
-        <v>369</v>
+        <v>15</v>
       </c>
       <c r="C199" t="s">
-        <v>336</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>145</v>
+        <v>282</v>
       </c>
       <c r="B200" t="s">
-        <v>558</v>
+        <v>15</v>
       </c>
       <c r="C200" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>146</v>
+        <v>283</v>
       </c>
       <c r="B201" t="s">
-        <v>559</v>
+        <v>284</v>
       </c>
       <c r="C201" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>147</v>
+        <v>285</v>
       </c>
       <c r="B202" t="s">
-        <v>331</v>
+        <v>286</v>
       </c>
       <c r="C202" t="s">
-        <v>336</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>561</v>
+        <v>287</v>
       </c>
       <c r="B203" t="s">
-        <v>481</v>
+        <v>288</v>
       </c>
       <c r="C203" t="s">
-        <v>337</v>
+        <v>5</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>562</v>
+        <v>289</v>
       </c>
       <c r="B204" t="s">
-        <v>483</v>
+        <v>19</v>
       </c>
       <c r="C204" t="s">
-        <v>336</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>563</v>
+        <v>290</v>
       </c>
       <c r="B205" t="s">
-        <v>564</v>
+        <v>27</v>
       </c>
       <c r="C205" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>565</v>
+        <v>291</v>
       </c>
       <c r="B206" t="s">
-        <v>566</v>
+        <v>292</v>
       </c>
       <c r="C206" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>439</v>
+        <v>293</v>
       </c>
       <c r="B207" t="s">
-        <v>479</v>
+        <v>294</v>
       </c>
       <c r="C207" t="s">
-        <v>337</v>
+        <v>5</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>148</v>
+        <v>295</v>
       </c>
       <c r="B208" t="s">
-        <v>479</v>
+        <v>15</v>
       </c>
       <c r="C208" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>149</v>
+        <v>296</v>
       </c>
       <c r="B209" t="s">
-        <v>567</v>
+        <v>15</v>
       </c>
       <c r="C209" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>150</v>
+        <v>297</v>
       </c>
       <c r="B210" t="s">
-        <v>481</v>
+        <v>298</v>
       </c>
       <c r="C210" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>151</v>
+        <v>299</v>
       </c>
       <c r="B211" t="s">
-        <v>479</v>
+        <v>19</v>
       </c>
       <c r="C211" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>152</v>
+        <v>300</v>
       </c>
       <c r="B212" t="s">
-        <v>332</v>
+        <v>15</v>
+      </c>
+      <c r="C212" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>153</v>
+        <v>301</v>
       </c>
       <c r="B213" t="s">
-        <v>332</v>
+        <v>15</v>
+      </c>
+      <c r="C213" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>450</v>
+        <v>302</v>
       </c>
       <c r="B214" t="s">
-        <v>560</v>
+        <v>264</v>
       </c>
       <c r="C214" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>568</v>
+        <v>303</v>
       </c>
       <c r="B215" t="s">
-        <v>500</v>
+        <v>288</v>
       </c>
       <c r="C215" t="s">
-        <v>337</v>
+        <v>5</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>404</v>
+        <v>304</v>
       </c>
       <c r="B216" t="s">
-        <v>481</v>
+        <v>69</v>
       </c>
       <c r="C216" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>154</v>
+        <v>305</v>
       </c>
       <c r="B217" t="s">
-        <v>506</v>
+        <v>19</v>
       </c>
       <c r="C217" t="s">
-        <v>336</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>569</v>
+        <v>306</v>
       </c>
       <c r="B218" t="s">
-        <v>504</v>
+        <v>101</v>
       </c>
       <c r="C218" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>155</v>
+        <v>307</v>
       </c>
       <c r="B219" t="s">
-        <v>332</v>
+        <v>93</v>
+      </c>
+      <c r="C219" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>451</v>
+        <v>308</v>
       </c>
       <c r="B220" t="s">
-        <v>479</v>
+        <v>15</v>
       </c>
       <c r="C220" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>156</v>
+        <v>309</v>
       </c>
       <c r="B221" t="s">
-        <v>480</v>
+        <v>17</v>
       </c>
       <c r="C221" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>157</v>
+        <v>310</v>
       </c>
       <c r="B222" t="s">
-        <v>481</v>
+        <v>19</v>
       </c>
       <c r="C222" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>420</v>
+        <v>311</v>
       </c>
       <c r="B223" t="s">
-        <v>570</v>
+        <v>312</v>
       </c>
       <c r="C223" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>158</v>
+        <v>313</v>
       </c>
       <c r="B224" t="s">
-        <v>479</v>
+        <v>15</v>
       </c>
       <c r="C224" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>159</v>
+        <v>314</v>
       </c>
       <c r="B225" t="s">
-        <v>479</v>
+        <v>15</v>
       </c>
       <c r="C225" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>571</v>
+        <v>315</v>
       </c>
       <c r="B226" t="s">
-        <v>338</v>
+        <v>123</v>
       </c>
       <c r="C226" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>454</v>
+        <v>316</v>
       </c>
       <c r="B227" t="s">
-        <v>479</v>
+        <v>15</v>
       </c>
       <c r="C227" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>160</v>
+        <v>317</v>
       </c>
       <c r="B228" t="s">
-        <v>572</v>
+        <v>318</v>
       </c>
       <c r="C228" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>161</v>
+        <v>319</v>
       </c>
       <c r="B229" t="s">
-        <v>573</v>
+        <v>320</v>
       </c>
       <c r="C229" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>162</v>
+        <v>321</v>
       </c>
       <c r="B230" t="s">
-        <v>479</v>
+        <v>15</v>
       </c>
       <c r="C230" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>401</v>
+        <v>322</v>
       </c>
       <c r="B231" t="s">
-        <v>479</v>
+        <v>15</v>
       </c>
       <c r="C231" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>163</v>
+        <v>323</v>
       </c>
       <c r="B232" t="s">
-        <v>574</v>
+        <v>324</v>
       </c>
       <c r="C232" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>164</v>
+        <v>325</v>
       </c>
       <c r="B233" t="s">
-        <v>342</v>
+        <v>15</v>
       </c>
       <c r="C233" t="s">
-        <v>336</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>165</v>
+        <v>326</v>
       </c>
       <c r="B234" t="s">
-        <v>349</v>
+        <v>19</v>
       </c>
       <c r="C234" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>166</v>
+        <v>327</v>
       </c>
       <c r="B235" t="s">
-        <v>344</v>
+        <v>19</v>
       </c>
       <c r="C235" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>167</v>
+        <v>328</v>
       </c>
       <c r="B236" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="C236" t="s">
-        <v>337</v>
+        <v>5</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>168</v>
+        <v>330</v>
       </c>
       <c r="B237" t="s">
-        <v>332</v>
+        <v>136</v>
+      </c>
+      <c r="C237" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>406</v>
+        <v>331</v>
       </c>
       <c r="B238" t="s">
-        <v>407</v>
+        <v>50</v>
       </c>
       <c r="C238" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>169</v>
+        <v>332</v>
       </c>
       <c r="B239" t="s">
-        <v>351</v>
+        <v>333</v>
       </c>
       <c r="C239" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>170</v>
+        <v>334</v>
       </c>
       <c r="B240" t="s">
-        <v>332</v>
+        <v>335</v>
+      </c>
+      <c r="C240" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>171</v>
+        <v>336</v>
       </c>
       <c r="B241" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="C241" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>425</v>
+        <v>338</v>
       </c>
       <c r="B242" t="s">
-        <v>426</v>
+        <v>324</v>
       </c>
       <c r="C242" t="s">
-        <v>336</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="B243" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="C243" t="s">
-        <v>336</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>172</v>
+        <v>341</v>
       </c>
       <c r="B244" t="s">
-        <v>348</v>
+        <v>19</v>
       </c>
       <c r="C244" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>173</v>
+        <v>342</v>
       </c>
       <c r="B245" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C245" t="s">
-        <v>337</v>
+        <v>5</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>431</v>
+        <v>344</v>
       </c>
       <c r="B246" t="s">
-        <v>432</v>
+        <v>88</v>
       </c>
       <c r="C246" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>418</v>
+        <v>345</v>
       </c>
       <c r="B247" t="s">
-        <v>342</v>
+        <v>15</v>
       </c>
       <c r="C247" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>174</v>
+        <v>346</v>
       </c>
       <c r="B248" t="s">
-        <v>353</v>
+        <v>83</v>
       </c>
       <c r="C248" t="s">
-        <v>336</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>175</v>
+        <v>347</v>
       </c>
       <c r="B249" t="s">
-        <v>354</v>
+        <v>15</v>
       </c>
       <c r="C249" t="s">
-        <v>336</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>403</v>
+        <v>348</v>
       </c>
       <c r="B250" t="s">
-        <v>338</v>
+        <v>11</v>
       </c>
       <c r="C250" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>176</v>
+        <v>349</v>
       </c>
       <c r="B251" t="s">
-        <v>338</v>
+        <v>103</v>
       </c>
       <c r="C251" t="s">
-        <v>337</v>
+        <v>5</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>177</v>
+        <v>350</v>
       </c>
       <c r="B252" t="s">
-        <v>355</v>
+        <v>71</v>
       </c>
       <c r="C252" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>178</v>
+        <v>351</v>
       </c>
       <c r="B253" t="s">
-        <v>338</v>
+        <v>105</v>
       </c>
       <c r="C253" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>179</v>
+        <v>352</v>
       </c>
       <c r="B254" t="s">
-        <v>338</v>
+        <v>15</v>
       </c>
       <c r="C254" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>421</v>
+        <v>353</v>
       </c>
       <c r="B255" t="s">
-        <v>383</v>
+        <v>19</v>
       </c>
       <c r="C255" t="s">
-        <v>336</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>180</v>
+        <v>354</v>
       </c>
       <c r="B256" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C256" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>181</v>
+        <v>356</v>
       </c>
       <c r="B257" t="s">
-        <v>332</v>
+        <v>357</v>
+      </c>
+      <c r="C257" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>456</v>
+        <v>358</v>
       </c>
       <c r="B258" t="s">
-        <v>332</v>
+        <v>359</v>
       </c>
       <c r="C258" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>324</v>
+        <v>360</v>
       </c>
       <c r="B259" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C259" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>182</v>
+        <v>362</v>
       </c>
       <c r="B260" t="s">
-        <v>358</v>
+        <v>71</v>
       </c>
       <c r="C260" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>183</v>
+        <v>363</v>
       </c>
       <c r="B261" t="s">
-        <v>358</v>
+        <v>15</v>
       </c>
       <c r="C261" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>184</v>
+        <v>364</v>
       </c>
       <c r="B262" t="s">
-        <v>338</v>
+        <v>19</v>
       </c>
       <c r="C262" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>185</v>
+        <v>365</v>
       </c>
       <c r="B263" t="s">
-        <v>344</v>
+        <v>15</v>
       </c>
       <c r="C263" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>186</v>
+        <v>366</v>
       </c>
       <c r="B264" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="C264" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>187</v>
+        <v>367</v>
       </c>
       <c r="B265" t="s">
-        <v>348</v>
+        <v>15</v>
       </c>
       <c r="C265" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>395</v>
+        <v>368</v>
       </c>
       <c r="B266" t="s">
-        <v>396</v>
+        <v>105</v>
       </c>
       <c r="C266" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>188</v>
+        <v>369</v>
       </c>
       <c r="B267" t="s">
-        <v>355</v>
+        <v>15</v>
       </c>
       <c r="C267" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>189</v>
+        <v>370</v>
       </c>
       <c r="B268" t="s">
-        <v>355</v>
+        <v>182</v>
       </c>
       <c r="C268" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>190</v>
+        <v>371</v>
       </c>
       <c r="B269" t="s">
-        <v>350</v>
+        <v>15</v>
       </c>
       <c r="C269" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>191</v>
+        <v>372</v>
       </c>
       <c r="B270" t="s">
-        <v>338</v>
+        <v>15</v>
       </c>
       <c r="C270" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>192</v>
+        <v>373</v>
       </c>
       <c r="B271" t="s">
-        <v>338</v>
+        <v>374</v>
       </c>
       <c r="C271" t="s">
-        <v>337</v>
+        <v>5</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>193</v>
+        <v>375</v>
       </c>
       <c r="B272" t="s">
-        <v>357</v>
+        <v>324</v>
       </c>
       <c r="C272" t="s">
-        <v>336</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>194</v>
+        <v>376</v>
       </c>
       <c r="B273" t="s">
-        <v>342</v>
+        <v>361</v>
       </c>
       <c r="C273" t="s">
-        <v>337</v>
+        <v>5</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>195</v>
+        <v>377</v>
       </c>
       <c r="B274" t="s">
-        <v>342</v>
+        <v>15</v>
       </c>
       <c r="C274" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>397</v>
+        <v>378</v>
       </c>
       <c r="B275" t="s">
-        <v>398</v>
+        <v>19</v>
       </c>
       <c r="C275" t="s">
-        <v>336</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>196</v>
+        <v>379</v>
       </c>
       <c r="B276" t="s">
-        <v>338</v>
+        <v>380</v>
       </c>
       <c r="C276" t="s">
-        <v>337</v>
+        <v>5</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>197</v>
+        <v>381</v>
       </c>
       <c r="B277" t="s">
-        <v>332</v>
+        <v>19</v>
+      </c>
+      <c r="C277" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>198</v>
+        <v>382</v>
       </c>
       <c r="B278" t="s">
-        <v>338</v>
+        <v>24</v>
       </c>
       <c r="C278" t="s">
-        <v>337</v>
+        <v>5</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>199</v>
+        <v>383</v>
       </c>
       <c r="B279" t="s">
-        <v>343</v>
+        <v>19</v>
       </c>
       <c r="C279" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>200</v>
+        <v>384</v>
       </c>
       <c r="B280" t="s">
-        <v>338</v>
+        <v>385</v>
       </c>
       <c r="C280" t="s">
-        <v>337</v>
+        <v>5</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>201</v>
+        <v>386</v>
       </c>
       <c r="B281" t="s">
-        <v>332</v>
+        <v>15</v>
+      </c>
+      <c r="C281" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>202</v>
+        <v>387</v>
       </c>
       <c r="B282" t="s">
-        <v>332</v>
+        <v>388</v>
+      </c>
+      <c r="C282" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>203</v>
+        <v>389</v>
       </c>
       <c r="B283" t="s">
-        <v>359</v>
+        <v>390</v>
       </c>
       <c r="C283" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>204</v>
+        <v>391</v>
       </c>
       <c r="B284" t="s">
-        <v>358</v>
+        <v>71</v>
       </c>
       <c r="C284" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>205</v>
+        <v>392</v>
       </c>
       <c r="B285" t="s">
-        <v>342</v>
+        <v>134</v>
       </c>
       <c r="C285" t="s">
-        <v>337</v>
+        <v>5</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>206</v>
+        <v>393</v>
       </c>
       <c r="B286" t="s">
-        <v>343</v>
+        <v>103</v>
       </c>
       <c r="C286" t="s">
-        <v>337</v>
+        <v>5</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>207</v>
+        <v>394</v>
       </c>
       <c r="B287" t="s">
-        <v>347</v>
+        <v>17</v>
       </c>
       <c r="C287" t="s">
-        <v>336</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>208</v>
+        <v>395</v>
       </c>
       <c r="B288" t="s">
-        <v>347</v>
+        <v>320</v>
       </c>
       <c r="C288" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>209</v>
+        <v>396</v>
       </c>
       <c r="B289" t="s">
-        <v>343</v>
+        <v>103</v>
       </c>
       <c r="C289" t="s">
-        <v>337</v>
+        <v>5</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>329</v>
+        <v>397</v>
       </c>
       <c r="B290" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="C290" t="s">
-        <v>337</v>
+        <v>5</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>210</v>
+        <v>398</v>
       </c>
       <c r="B291" t="s">
-        <v>360</v>
+        <v>19</v>
       </c>
       <c r="C291" t="s">
-        <v>336</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>211</v>
+        <v>399</v>
       </c>
       <c r="B292" t="s">
-        <v>342</v>
+        <v>400</v>
       </c>
       <c r="C292" t="s">
-        <v>337</v>
+        <v>5</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>212</v>
+        <v>401</v>
       </c>
       <c r="B293" t="s">
-        <v>338</v>
+        <v>15</v>
       </c>
       <c r="C293" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>213</v>
+        <v>402</v>
       </c>
       <c r="B294" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
       <c r="C294" t="s">
-        <v>337</v>
+        <v>5</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>433</v>
+        <v>403</v>
       </c>
       <c r="B295" t="s">
-        <v>434</v>
+        <v>15</v>
       </c>
       <c r="C295" t="s">
-        <v>336</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>214</v>
+        <v>404</v>
       </c>
       <c r="B296" t="s">
-        <v>338</v>
+        <v>19</v>
       </c>
       <c r="C296" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>215</v>
+        <v>405</v>
       </c>
       <c r="B297" t="s">
-        <v>345</v>
+        <v>15</v>
       </c>
       <c r="C297" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>216</v>
+        <v>406</v>
       </c>
       <c r="B298" t="s">
-        <v>355</v>
+        <v>105</v>
       </c>
       <c r="C298" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>440</v>
+        <v>407</v>
       </c>
       <c r="B299" t="s">
-        <v>338</v>
+        <v>408</v>
       </c>
       <c r="C299" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>217</v>
+        <v>409</v>
       </c>
       <c r="B300" t="s">
-        <v>361</v>
+        <v>410</v>
       </c>
       <c r="C300" t="s">
-        <v>337</v>
+        <v>5</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>218</v>
+        <v>411</v>
       </c>
       <c r="B301" t="s">
-        <v>362</v>
+        <v>19</v>
       </c>
       <c r="C301" t="s">
-        <v>336</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>219</v>
+        <v>412</v>
       </c>
       <c r="B302" t="s">
-        <v>342</v>
+        <v>413</v>
       </c>
       <c r="C302" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>220</v>
+        <v>414</v>
       </c>
       <c r="B303" t="s">
-        <v>340</v>
+        <v>19</v>
       </c>
       <c r="C303" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>221</v>
+        <v>415</v>
       </c>
       <c r="B304" t="s">
-        <v>338</v>
+        <v>416</v>
       </c>
       <c r="C304" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>222</v>
+        <v>417</v>
       </c>
       <c r="B305" t="s">
-        <v>341</v>
+        <v>15</v>
       </c>
       <c r="C305" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>223</v>
+        <v>418</v>
       </c>
       <c r="B306" t="s">
-        <v>363</v>
+        <v>419</v>
       </c>
       <c r="C306" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>224</v>
+        <v>420</v>
       </c>
       <c r="B307" t="s">
-        <v>355</v>
+        <v>182</v>
       </c>
       <c r="C307" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>225</v>
+        <v>421</v>
       </c>
       <c r="B308" t="s">
-        <v>350</v>
+        <v>119</v>
       </c>
       <c r="C308" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="B309" t="s">
-        <v>344</v>
+        <v>423</v>
       </c>
       <c r="C309" t="s">
-        <v>337</v>
+        <v>5</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>226</v>
+        <v>424</v>
       </c>
       <c r="B310" t="s">
-        <v>364</v>
+        <v>425</v>
       </c>
       <c r="C310" t="s">
-        <v>336</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>227</v>
+        <v>426</v>
       </c>
       <c r="B311" t="s">
-        <v>365</v>
+        <v>119</v>
       </c>
       <c r="C311" t="s">
-        <v>336</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>228</v>
+        <v>427</v>
       </c>
       <c r="B312" t="s">
-        <v>366</v>
+        <v>37</v>
       </c>
       <c r="C312" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>452</v>
+        <v>428</v>
       </c>
       <c r="B313" t="s">
-        <v>343</v>
+        <v>429</v>
       </c>
       <c r="C313" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>229</v>
+        <v>430</v>
       </c>
       <c r="B314" t="s">
-        <v>367</v>
+        <v>15</v>
       </c>
       <c r="C314" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>320</v>
+        <v>431</v>
       </c>
       <c r="B315" t="s">
-        <v>338</v>
+        <v>27</v>
       </c>
       <c r="C315" t="s">
-        <v>337</v>
+        <v>5</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>230</v>
+        <v>432</v>
       </c>
       <c r="B316" t="s">
-        <v>368</v>
+        <v>429</v>
       </c>
       <c r="C316" t="s">
-        <v>336</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>231</v>
+        <v>433</v>
       </c>
       <c r="B317" t="s">
-        <v>367</v>
+        <v>434</v>
       </c>
       <c r="C317" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>232</v>
+        <v>435</v>
       </c>
       <c r="B318" t="s">
-        <v>342</v>
+        <v>27</v>
       </c>
       <c r="C318" t="s">
-        <v>337</v>
+        <v>5</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>233</v>
+        <v>436</v>
       </c>
       <c r="B319" t="s">
-        <v>369</v>
+        <v>19</v>
       </c>
       <c r="C319" t="s">
-        <v>336</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>400</v>
+        <v>437</v>
       </c>
       <c r="B320" t="s">
-        <v>338</v>
+        <v>1</v>
       </c>
       <c r="C320" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>234</v>
+        <v>438</v>
       </c>
       <c r="B321" t="s">
-        <v>332</v>
+        <v>9</v>
+      </c>
+      <c r="C321" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>235</v>
+        <v>439</v>
       </c>
       <c r="B322" t="s">
-        <v>338</v>
+        <v>11</v>
       </c>
       <c r="C322" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>236</v>
+        <v>440</v>
       </c>
       <c r="B323" t="s">
-        <v>355</v>
+        <v>19</v>
       </c>
       <c r="C323" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>419</v>
+        <v>441</v>
       </c>
       <c r="B324" t="s">
-        <v>338</v>
+        <v>434</v>
       </c>
       <c r="C324" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>237</v>
+        <v>442</v>
       </c>
       <c r="B325" t="s">
-        <v>332</v>
+        <v>15</v>
+      </c>
+      <c r="C325" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>238</v>
+        <v>443</v>
       </c>
       <c r="B326" t="s">
-        <v>342</v>
+        <v>15</v>
       </c>
       <c r="C326" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>239</v>
+        <v>444</v>
       </c>
       <c r="B327" t="s">
-        <v>332</v>
+        <v>318</v>
+      </c>
+      <c r="C327" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>240</v>
+        <v>445</v>
       </c>
       <c r="B328" t="s">
-        <v>370</v>
+        <v>15</v>
       </c>
       <c r="C328" t="s">
-        <v>336</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>241</v>
+        <v>446</v>
       </c>
       <c r="B329" t="s">
-        <v>371</v>
+        <v>93</v>
       </c>
       <c r="C329" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>242</v>
+        <v>447</v>
       </c>
       <c r="B330" t="s">
-        <v>342</v>
+        <v>448</v>
       </c>
       <c r="C330" t="s">
-        <v>337</v>
+        <v>5</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>243</v>
+        <v>449</v>
       </c>
       <c r="B331" t="s">
-        <v>338</v>
+        <v>450</v>
       </c>
       <c r="C331" t="s">
-        <v>337</v>
+        <v>5</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B332" t="s">
-        <v>338</v>
+        <v>15</v>
       </c>
       <c r="C332" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>244</v>
+        <v>452</v>
       </c>
       <c r="B333" t="s">
-        <v>347</v>
+        <v>19</v>
       </c>
       <c r="C333" t="s">
-        <v>336</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>245</v>
+        <v>453</v>
       </c>
       <c r="B334" t="s">
-        <v>372</v>
+        <v>136</v>
       </c>
       <c r="C334" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>246</v>
+        <v>454</v>
       </c>
       <c r="B335" t="s">
-        <v>373</v>
+        <v>320</v>
       </c>
       <c r="C335" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="B336" t="s">
-        <v>344</v>
+        <v>456</v>
       </c>
       <c r="C336" t="s">
-        <v>337</v>
+        <v>5</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>247</v>
+        <v>457</v>
       </c>
       <c r="B337" t="s">
-        <v>363</v>
+        <v>19</v>
       </c>
       <c r="C337" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>411</v>
+        <v>458</v>
       </c>
       <c r="B338" t="s">
-        <v>338</v>
+        <v>17</v>
       </c>
       <c r="C338" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>248</v>
+        <v>459</v>
       </c>
       <c r="B339" t="s">
-        <v>338</v>
+        <v>419</v>
       </c>
       <c r="C339" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>249</v>
+        <v>460</v>
       </c>
       <c r="B340" t="s">
-        <v>343</v>
+        <v>15</v>
       </c>
       <c r="C340" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>250</v>
+        <v>461</v>
       </c>
       <c r="B341" t="s">
-        <v>347</v>
+        <v>15</v>
       </c>
       <c r="C341" t="s">
-        <v>336</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>251</v>
+        <v>462</v>
       </c>
       <c r="B342" t="s">
-        <v>343</v>
+        <v>17</v>
       </c>
       <c r="C342" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>252</v>
+        <v>463</v>
       </c>
       <c r="B343" t="s">
-        <v>371</v>
+        <v>182</v>
       </c>
       <c r="C343" t="s">
-        <v>336</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>253</v>
+        <v>464</v>
       </c>
       <c r="B344" t="s">
-        <v>350</v>
+        <v>109</v>
       </c>
       <c r="C344" t="s">
-        <v>337</v>
+        <v>5</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>254</v>
+        <v>465</v>
       </c>
       <c r="B345" t="s">
-        <v>343</v>
+        <v>413</v>
       </c>
       <c r="C345" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>255</v>
+        <v>466</v>
       </c>
       <c r="B346" t="s">
-        <v>371</v>
+        <v>24</v>
       </c>
       <c r="C346" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="B347" t="s">
-        <v>342</v>
+        <v>19</v>
       </c>
       <c r="C347" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>256</v>
+        <v>468</v>
       </c>
       <c r="B348" t="s">
-        <v>347</v>
+        <v>469</v>
       </c>
       <c r="C348" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>257</v>
+        <v>470</v>
       </c>
       <c r="B349" t="s">
-        <v>374</v>
+        <v>27</v>
       </c>
       <c r="C349" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="B350" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="C350" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>258</v>
+        <v>473</v>
       </c>
       <c r="B351" t="s">
-        <v>375</v>
+        <v>27</v>
       </c>
       <c r="C351" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>259</v>
+        <v>474</v>
       </c>
       <c r="B352" t="s">
-        <v>376</v>
+        <v>109</v>
       </c>
       <c r="C352" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>260</v>
+        <v>475</v>
       </c>
       <c r="B353" t="s">
-        <v>338</v>
+        <v>19</v>
       </c>
       <c r="C353" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>261</v>
+        <v>476</v>
       </c>
       <c r="B354" t="s">
-        <v>377</v>
+        <v>15</v>
       </c>
       <c r="C354" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>262</v>
+        <v>477</v>
       </c>
       <c r="B355" t="s">
-        <v>378</v>
+        <v>478</v>
       </c>
       <c r="C355" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>263</v>
+        <v>479</v>
       </c>
       <c r="B356" t="s">
-        <v>347</v>
+        <v>320</v>
       </c>
       <c r="C356" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>264</v>
+        <v>480</v>
       </c>
       <c r="B357" t="s">
-        <v>346</v>
+        <v>481</v>
       </c>
       <c r="C357" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>460</v>
+        <v>482</v>
       </c>
       <c r="B358" t="s">
-        <v>363</v>
+        <v>419</v>
       </c>
       <c r="C358" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>443</v>
+        <v>483</v>
       </c>
       <c r="B359" t="s">
-        <v>338</v>
+        <v>19</v>
       </c>
       <c r="C359" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>265</v>
+        <v>484</v>
       </c>
       <c r="B360" t="s">
-        <v>358</v>
+        <v>485</v>
       </c>
       <c r="C360" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>266</v>
+        <v>486</v>
       </c>
       <c r="B361" t="s">
-        <v>379</v>
+        <v>15</v>
       </c>
       <c r="C361" t="s">
-        <v>336</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>267</v>
+        <v>487</v>
       </c>
       <c r="B362" t="s">
-        <v>351</v>
+        <v>15</v>
       </c>
       <c r="C362" t="s">
-        <v>336</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>325</v>
+        <v>488</v>
       </c>
       <c r="B363" t="s">
-        <v>342</v>
+        <v>15</v>
       </c>
       <c r="C363" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>268</v>
+        <v>489</v>
       </c>
       <c r="B364" t="s">
-        <v>338</v>
+        <v>15</v>
       </c>
       <c r="C364" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>269</v>
+        <v>490</v>
       </c>
       <c r="B365" t="s">
-        <v>338</v>
+        <v>15</v>
       </c>
       <c r="C365" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>270</v>
+        <v>491</v>
       </c>
       <c r="B366" t="s">
-        <v>343</v>
+        <v>15</v>
       </c>
       <c r="C366" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>271</v>
+        <v>492</v>
       </c>
       <c r="B367" t="s">
-        <v>338</v>
+        <v>19</v>
       </c>
       <c r="C367" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>326</v>
+        <v>493</v>
       </c>
       <c r="B368" t="s">
-        <v>380</v>
+        <v>15</v>
       </c>
       <c r="C368" t="s">
-        <v>336</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>272</v>
+        <v>494</v>
       </c>
       <c r="B369" t="s">
-        <v>332</v>
+        <v>93</v>
+      </c>
+      <c r="C369" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>273</v>
+        <v>495</v>
       </c>
       <c r="B370" t="s">
-        <v>332</v>
+        <v>15</v>
+      </c>
+      <c r="C370" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>274</v>
+        <v>496</v>
       </c>
       <c r="B371" t="s">
-        <v>381</v>
+        <v>15</v>
       </c>
       <c r="C371" t="s">
-        <v>336</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>275</v>
+        <v>497</v>
       </c>
       <c r="B372" t="s">
-        <v>342</v>
+        <v>498</v>
       </c>
       <c r="C372" t="s">
-        <v>337</v>
+        <v>5</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>276</v>
+        <v>499</v>
       </c>
       <c r="B373" t="s">
-        <v>382</v>
+        <v>500</v>
       </c>
       <c r="C373" t="s">
-        <v>336</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>277</v>
+        <v>501</v>
       </c>
       <c r="B374" t="s">
-        <v>332</v>
+        <v>19</v>
+      </c>
+      <c r="C374" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>278</v>
+        <v>502</v>
       </c>
       <c r="B375" t="s">
-        <v>338</v>
+        <v>7</v>
       </c>
       <c r="C375" t="s">
-        <v>337</v>
+        <v>5</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>461</v>
+        <v>503</v>
       </c>
       <c r="B376" t="s">
-        <v>462</v>
+        <v>136</v>
       </c>
       <c r="C376" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>279</v>
+        <v>504</v>
       </c>
       <c r="B377" t="s">
-        <v>383</v>
+        <v>19</v>
       </c>
       <c r="C377" t="s">
-        <v>336</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>327</v>
+        <v>505</v>
       </c>
       <c r="B378" t="s">
-        <v>342</v>
+        <v>506</v>
       </c>
       <c r="C378" t="s">
-        <v>337</v>
+        <v>5</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>280</v>
+        <v>507</v>
       </c>
       <c r="B379" t="s">
-        <v>332</v>
+        <v>134</v>
+      </c>
+      <c r="C379" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>281</v>
+        <v>508</v>
       </c>
       <c r="B380" t="s">
-        <v>384</v>
+        <v>50</v>
       </c>
       <c r="C380" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>282</v>
+        <v>509</v>
       </c>
       <c r="B381" t="s">
-        <v>385</v>
+        <v>19</v>
       </c>
       <c r="C381" t="s">
-        <v>336</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>283</v>
+        <v>510</v>
       </c>
       <c r="B382" t="s">
-        <v>340</v>
+        <v>17</v>
       </c>
       <c r="C382" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>284</v>
+        <v>511</v>
       </c>
       <c r="B383" t="s">
-        <v>386</v>
+        <v>15</v>
       </c>
       <c r="C383" t="s">
-        <v>336</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>285</v>
+        <v>512</v>
       </c>
       <c r="B384" t="s">
-        <v>332</v>
+        <v>361</v>
+      </c>
+      <c r="C384" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>286</v>
+        <v>513</v>
       </c>
       <c r="B385" t="s">
-        <v>343</v>
+        <v>19</v>
       </c>
       <c r="C385" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>287</v>
+        <v>514</v>
       </c>
       <c r="B386" t="s">
-        <v>351</v>
+        <v>515</v>
       </c>
       <c r="C386" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>288</v>
+        <v>516</v>
       </c>
       <c r="B387" t="s">
-        <v>332</v>
+        <v>517</v>
+      </c>
+      <c r="C387" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>453</v>
+        <v>518</v>
       </c>
       <c r="B388" t="s">
-        <v>357</v>
+        <v>519</v>
       </c>
       <c r="C388" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>427</v>
+        <v>520</v>
       </c>
       <c r="B389" t="s">
-        <v>338</v>
+        <v>71</v>
       </c>
       <c r="C389" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>289</v>
+        <v>521</v>
       </c>
       <c r="B390" t="s">
-        <v>387</v>
+        <v>19</v>
       </c>
       <c r="C390" t="s">
-        <v>336</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>290</v>
+        <v>522</v>
       </c>
       <c r="B391" t="s">
-        <v>388</v>
+        <v>523</v>
       </c>
       <c r="C391" t="s">
-        <v>337</v>
+        <v>5</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>409</v>
+        <v>524</v>
       </c>
       <c r="B392" t="s">
-        <v>343</v>
+        <v>15</v>
       </c>
       <c r="C392" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>291</v>
+        <v>525</v>
       </c>
       <c r="B393" t="s">
-        <v>387</v>
+        <v>182</v>
       </c>
       <c r="C393" t="s">
-        <v>336</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>292</v>
+        <v>526</v>
       </c>
       <c r="B394" t="s">
-        <v>369</v>
+        <v>527</v>
       </c>
       <c r="C394" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>293</v>
+        <v>528</v>
       </c>
       <c r="B395" t="s">
-        <v>389</v>
+        <v>340</v>
       </c>
       <c r="C395" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>294</v>
+        <v>529</v>
       </c>
       <c r="B396" t="s">
-        <v>332</v>
+        <v>15</v>
+      </c>
+      <c r="C396" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>295</v>
+        <v>530</v>
       </c>
       <c r="B397" t="s">
-        <v>332</v>
+        <v>19</v>
+      </c>
+      <c r="C397" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>296</v>
+        <v>531</v>
       </c>
       <c r="B398" t="s">
-        <v>332</v>
+        <v>15</v>
+      </c>
+      <c r="C398" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>297</v>
+        <v>532</v>
       </c>
       <c r="B399" t="s">
-        <v>375</v>
+        <v>101</v>
       </c>
       <c r="C399" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>298</v>
+        <v>533</v>
       </c>
       <c r="B400" t="s">
-        <v>350</v>
+        <v>50</v>
       </c>
       <c r="C400" t="s">
-        <v>337</v>
+        <v>5</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>299</v>
+        <v>534</v>
       </c>
       <c r="B401" t="s">
-        <v>347</v>
+        <v>19</v>
       </c>
       <c r="C401" t="s">
-        <v>336</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>300</v>
+        <v>535</v>
       </c>
       <c r="B402" t="s">
-        <v>349</v>
+        <v>37</v>
       </c>
       <c r="C402" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>436</v>
+        <v>536</v>
       </c>
       <c r="B403" t="s">
-        <v>441</v>
+        <v>15</v>
       </c>
       <c r="C403" t="s">
-        <v>336</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>301</v>
+        <v>537</v>
       </c>
       <c r="B404" t="s">
-        <v>343</v>
+        <v>15</v>
       </c>
       <c r="C404" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>463</v>
+        <v>538</v>
       </c>
       <c r="B405" t="s">
-        <v>338</v>
+        <v>15</v>
       </c>
       <c r="C405" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>302</v>
+        <v>539</v>
       </c>
       <c r="B406" t="s">
-        <v>352</v>
+        <v>540</v>
       </c>
       <c r="C406" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>303</v>
+        <v>541</v>
       </c>
       <c r="B407" t="s">
-        <v>338</v>
+        <v>15</v>
       </c>
       <c r="C407" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>304</v>
+        <v>542</v>
       </c>
       <c r="B408" t="s">
-        <v>332</v>
+        <v>543</v>
+      </c>
+      <c r="C408" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>305</v>
+        <v>544</v>
       </c>
       <c r="B409" t="s">
-        <v>338</v>
+        <v>15</v>
       </c>
       <c r="C409" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>306</v>
+        <v>545</v>
       </c>
       <c r="B410" t="s">
-        <v>390</v>
+        <v>546</v>
       </c>
       <c r="C410" t="s">
-        <v>336</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>444</v>
+        <v>547</v>
       </c>
       <c r="B411" t="s">
-        <v>445</v>
+        <v>15</v>
       </c>
       <c r="C411" t="s">
-        <v>336</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>307</v>
+        <v>548</v>
       </c>
       <c r="B412" t="s">
-        <v>391</v>
+        <v>19</v>
       </c>
       <c r="C412" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A413" t="s">
-        <v>308</v>
-      </c>
-      <c r="B413" t="s">
-        <v>342</v>
-      </c>
-      <c r="C413" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A414" t="s">
-        <v>309</v>
-      </c>
-      <c r="B414" t="s">
-        <v>343</v>
-      </c>
-      <c r="C414" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A415" t="s">
-        <v>310</v>
-      </c>
-      <c r="B415" t="s">
-        <v>338</v>
-      </c>
-      <c r="C415" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A416" t="s">
-        <v>311</v>
-      </c>
-      <c r="B416" t="s">
-        <v>342</v>
-      </c>
-      <c r="C416" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A417" t="s">
-        <v>312</v>
-      </c>
-      <c r="B417" t="s">
-        <v>342</v>
-      </c>
-      <c r="C417" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A418" t="s">
-        <v>313</v>
-      </c>
-      <c r="B418" t="s">
-        <v>392</v>
-      </c>
-      <c r="C418" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A419" t="s">
-        <v>446</v>
-      </c>
-      <c r="B419" t="s">
-        <v>414</v>
-      </c>
-      <c r="C419" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A420" t="s">
-        <v>314</v>
-      </c>
-      <c r="B420" t="s">
-        <v>342</v>
-      </c>
-      <c r="C420" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A421" t="s">
-        <v>315</v>
-      </c>
-      <c r="B421" t="s">
-        <v>371</v>
-      </c>
-      <c r="C421" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A422" t="s">
-        <v>316</v>
-      </c>
-      <c r="B422" t="s">
-        <v>338</v>
-      </c>
-      <c r="C422" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A423" t="s">
-        <v>317</v>
-      </c>
-      <c r="B423" t="s">
-        <v>338</v>
-      </c>
-      <c r="C423" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C423" xr:uid="{27721E89-84FA-4F74-A1D2-3BF8AA3929A4}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C423">
-      <sortCondition ref="A1:A412"/>
-    </sortState>
-  </autoFilter>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A353:A1048576 A1:A2">
-    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:A352">
-    <cfRule type="duplicateValues" dxfId="0" priority="1585"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/assets/guncel_deneme_bonuslari_listesi.xlsx
+++ b/assets/guncel_deneme_bonuslari_listesi.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cengi\Desktop\test\Deneme Bonusu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC46F4DE-200E-46B4-8478-6A9BE9F0135F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD10A334-6F18-461A-B71E-A6FB36D762A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CD7B2693-F8D1-429F-9AB3-DB64ACA5183F}"/>
   </bookViews>
   <sheets>
     <sheet name="guncel_deneme_bonuslari_listesi" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">guncel_deneme_bonuslari_listesi!$A$1:$C$412</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="551">
   <si>
     <t>1king</t>
   </si>
@@ -761,9 +764,6 @@
   </si>
   <si>
     <t>Bonus kazancı kadar yatırım. Min 3 maks 15 katı çekim</t>
-  </si>
-  <si>
-    <t>yaıtırmlı</t>
   </si>
   <si>
     <t>gambizo</t>
@@ -2556,9 +2556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F56ED3D-A3F2-450D-9EAE-1214C3EA2069}">
   <dimension ref="A1:C412"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2569,13 +2567,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B1" t="s">
         <v>549</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>550</v>
-      </c>
-      <c r="C1" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -4489,15 +4487,15 @@
         <v>246</v>
       </c>
       <c r="C175" t="s">
-        <v>247</v>
+        <v>5</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
+        <v>247</v>
+      </c>
+      <c r="B176" t="s">
         <v>248</v>
-      </c>
-      <c r="B176" t="s">
-        <v>249</v>
       </c>
       <c r="C176" t="s">
         <v>2</v>
@@ -4505,7 +4503,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B177" t="s">
         <v>101</v>
@@ -4516,7 +4514,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B178" t="s">
         <v>40</v>
@@ -4527,7 +4525,7 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B179" t="s">
         <v>15</v>
@@ -4538,7 +4536,7 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B180" t="s">
         <v>235</v>
@@ -4549,10 +4547,10 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
+        <v>253</v>
+      </c>
+      <c r="B181" t="s">
         <v>254</v>
-      </c>
-      <c r="B181" t="s">
-        <v>255</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -4560,7 +4558,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B182" t="s">
         <v>101</v>
@@ -4571,10 +4569,10 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
+        <v>256</v>
+      </c>
+      <c r="B183" t="s">
         <v>257</v>
-      </c>
-      <c r="B183" t="s">
-        <v>258</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -4582,7 +4580,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B184" t="s">
         <v>15</v>
@@ -4593,10 +4591,10 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
+        <v>259</v>
+      </c>
+      <c r="B185" t="s">
         <v>260</v>
-      </c>
-      <c r="B185" t="s">
-        <v>261</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -4604,7 +4602,7 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B186" t="s">
         <v>15</v>
@@ -4615,10 +4613,10 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
+        <v>262</v>
+      </c>
+      <c r="B187" t="s">
         <v>263</v>
-      </c>
-      <c r="B187" t="s">
-        <v>264</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -4626,10 +4624,10 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
+        <v>264</v>
+      </c>
+      <c r="B188" t="s">
         <v>265</v>
-      </c>
-      <c r="B188" t="s">
-        <v>266</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -4637,7 +4635,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B189" t="s">
         <v>15</v>
@@ -4648,10 +4646,10 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
+        <v>267</v>
+      </c>
+      <c r="B190" t="s">
         <v>268</v>
-      </c>
-      <c r="B190" t="s">
-        <v>269</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -4659,7 +4657,7 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B191" t="s">
         <v>11</v>
@@ -4670,7 +4668,7 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B192" t="s">
         <v>88</v>
@@ -4681,10 +4679,10 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
+        <v>271</v>
+      </c>
+      <c r="B193" t="s">
         <v>272</v>
-      </c>
-      <c r="B193" t="s">
-        <v>273</v>
       </c>
       <c r="C193" t="s">
         <v>2</v>
@@ -4692,10 +4690,10 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
+        <v>273</v>
+      </c>
+      <c r="B194" t="s">
         <v>274</v>
-      </c>
-      <c r="B194" t="s">
-        <v>275</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -4703,7 +4701,7 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B195" t="s">
         <v>15</v>
@@ -4714,7 +4712,7 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B196" t="s">
         <v>15</v>
@@ -4725,7 +4723,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B197" t="s">
         <v>19</v>
@@ -4736,10 +4734,10 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
+        <v>278</v>
+      </c>
+      <c r="B198" t="s">
         <v>279</v>
-      </c>
-      <c r="B198" t="s">
-        <v>280</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -4747,7 +4745,7 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B199" t="s">
         <v>15</v>
@@ -4758,7 +4756,7 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B200" t="s">
         <v>15</v>
@@ -4769,10 +4767,10 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
+        <v>282</v>
+      </c>
+      <c r="B201" t="s">
         <v>283</v>
-      </c>
-      <c r="B201" t="s">
-        <v>284</v>
       </c>
       <c r="C201" t="s">
         <v>2</v>
@@ -4780,10 +4778,10 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
+        <v>284</v>
+      </c>
+      <c r="B202" t="s">
         <v>285</v>
-      </c>
-      <c r="B202" t="s">
-        <v>286</v>
       </c>
       <c r="C202" t="s">
         <v>2</v>
@@ -4791,10 +4789,10 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
+        <v>286</v>
+      </c>
+      <c r="B203" t="s">
         <v>287</v>
-      </c>
-      <c r="B203" t="s">
-        <v>288</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -4802,7 +4800,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B204" t="s">
         <v>19</v>
@@ -4813,7 +4811,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B205" t="s">
         <v>27</v>
@@ -4824,10 +4822,10 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
+        <v>290</v>
+      </c>
+      <c r="B206" t="s">
         <v>291</v>
-      </c>
-      <c r="B206" t="s">
-        <v>292</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -4835,10 +4833,10 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
+        <v>292</v>
+      </c>
+      <c r="B207" t="s">
         <v>293</v>
-      </c>
-      <c r="B207" t="s">
-        <v>294</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
@@ -4846,7 +4844,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B208" t="s">
         <v>15</v>
@@ -4857,7 +4855,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B209" t="s">
         <v>15</v>
@@ -4868,10 +4866,10 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
+        <v>296</v>
+      </c>
+      <c r="B210" t="s">
         <v>297</v>
-      </c>
-      <c r="B210" t="s">
-        <v>298</v>
       </c>
       <c r="C210" t="s">
         <v>2</v>
@@ -4879,7 +4877,7 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B211" t="s">
         <v>19</v>
@@ -4890,7 +4888,7 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B212" t="s">
         <v>15</v>
@@ -4901,7 +4899,7 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B213" t="s">
         <v>15</v>
@@ -4912,10 +4910,10 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B214" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
@@ -4923,10 +4921,10 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B215" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -4934,7 +4932,7 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B216" t="s">
         <v>69</v>
@@ -4945,7 +4943,7 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B217" t="s">
         <v>19</v>
@@ -4956,7 +4954,7 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B218" t="s">
         <v>101</v>
@@ -4967,7 +4965,7 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B219" t="s">
         <v>93</v>
@@ -4978,7 +4976,7 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B220" t="s">
         <v>15</v>
@@ -4989,7 +4987,7 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B221" t="s">
         <v>17</v>
@@ -5000,7 +4998,7 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B222" t="s">
         <v>19</v>
@@ -5011,10 +5009,10 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
+        <v>310</v>
+      </c>
+      <c r="B223" t="s">
         <v>311</v>
-      </c>
-      <c r="B223" t="s">
-        <v>312</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
@@ -5022,7 +5020,7 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B224" t="s">
         <v>15</v>
@@ -5033,7 +5031,7 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B225" t="s">
         <v>15</v>
@@ -5044,7 +5042,7 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B226" t="s">
         <v>123</v>
@@ -5055,7 +5053,7 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B227" t="s">
         <v>15</v>
@@ -5066,10 +5064,10 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
+        <v>316</v>
+      </c>
+      <c r="B228" t="s">
         <v>317</v>
-      </c>
-      <c r="B228" t="s">
-        <v>318</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -5077,10 +5075,10 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
+        <v>318</v>
+      </c>
+      <c r="B229" t="s">
         <v>319</v>
-      </c>
-      <c r="B229" t="s">
-        <v>320</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
@@ -5088,7 +5086,7 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B230" t="s">
         <v>15</v>
@@ -5099,7 +5097,7 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B231" t="s">
         <v>15</v>
@@ -5110,10 +5108,10 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
+        <v>322</v>
+      </c>
+      <c r="B232" t="s">
         <v>323</v>
-      </c>
-      <c r="B232" t="s">
-        <v>324</v>
       </c>
       <c r="C232" t="s">
         <v>2</v>
@@ -5121,7 +5119,7 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B233" t="s">
         <v>15</v>
@@ -5132,7 +5130,7 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B234" t="s">
         <v>19</v>
@@ -5143,7 +5141,7 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B235" t="s">
         <v>19</v>
@@ -5154,10 +5152,10 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
+        <v>327</v>
+      </c>
+      <c r="B236" t="s">
         <v>328</v>
-      </c>
-      <c r="B236" t="s">
-        <v>329</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
@@ -5165,7 +5163,7 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B237" t="s">
         <v>136</v>
@@ -5176,7 +5174,7 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B238" t="s">
         <v>50</v>
@@ -5187,10 +5185,10 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
+        <v>331</v>
+      </c>
+      <c r="B239" t="s">
         <v>332</v>
-      </c>
-      <c r="B239" t="s">
-        <v>333</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -5198,10 +5196,10 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
+        <v>333</v>
+      </c>
+      <c r="B240" t="s">
         <v>334</v>
-      </c>
-      <c r="B240" t="s">
-        <v>335</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -5209,10 +5207,10 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
+        <v>335</v>
+      </c>
+      <c r="B241" t="s">
         <v>336</v>
-      </c>
-      <c r="B241" t="s">
-        <v>337</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
@@ -5220,10 +5218,10 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B242" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C242" t="s">
         <v>2</v>
@@ -5231,10 +5229,10 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
+        <v>338</v>
+      </c>
+      <c r="B243" t="s">
         <v>339</v>
-      </c>
-      <c r="B243" t="s">
-        <v>340</v>
       </c>
       <c r="C243" t="s">
         <v>2</v>
@@ -5242,7 +5240,7 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B244" t="s">
         <v>19</v>
@@ -5253,10 +5251,10 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
+        <v>341</v>
+      </c>
+      <c r="B245" t="s">
         <v>342</v>
-      </c>
-      <c r="B245" t="s">
-        <v>343</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
@@ -5264,7 +5262,7 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B246" t="s">
         <v>88</v>
@@ -5275,7 +5273,7 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B247" t="s">
         <v>15</v>
@@ -5286,7 +5284,7 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B248" t="s">
         <v>83</v>
@@ -5297,7 +5295,7 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B249" t="s">
         <v>15</v>
@@ -5308,7 +5306,7 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B250" t="s">
         <v>11</v>
@@ -5319,7 +5317,7 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B251" t="s">
         <v>103</v>
@@ -5330,7 +5328,7 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B252" t="s">
         <v>71</v>
@@ -5341,7 +5339,7 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B253" t="s">
         <v>105</v>
@@ -5352,7 +5350,7 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B254" t="s">
         <v>15</v>
@@ -5363,7 +5361,7 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B255" t="s">
         <v>19</v>
@@ -5374,10 +5372,10 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
+        <v>353</v>
+      </c>
+      <c r="B256" t="s">
         <v>354</v>
-      </c>
-      <c r="B256" t="s">
-        <v>355</v>
       </c>
       <c r="C256" t="s">
         <v>5</v>
@@ -5385,10 +5383,10 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
+        <v>355</v>
+      </c>
+      <c r="B257" t="s">
         <v>356</v>
-      </c>
-      <c r="B257" t="s">
-        <v>357</v>
       </c>
       <c r="C257" t="s">
         <v>5</v>
@@ -5396,10 +5394,10 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
+        <v>357</v>
+      </c>
+      <c r="B258" t="s">
         <v>358</v>
-      </c>
-      <c r="B258" t="s">
-        <v>359</v>
       </c>
       <c r="C258" t="s">
         <v>2</v>
@@ -5407,10 +5405,10 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
+        <v>359</v>
+      </c>
+      <c r="B259" t="s">
         <v>360</v>
-      </c>
-      <c r="B259" t="s">
-        <v>361</v>
       </c>
       <c r="C259" t="s">
         <v>5</v>
@@ -5418,7 +5416,7 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B260" t="s">
         <v>71</v>
@@ -5429,7 +5427,7 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B261" t="s">
         <v>15</v>
@@ -5440,7 +5438,7 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B262" t="s">
         <v>19</v>
@@ -5451,7 +5449,7 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B263" t="s">
         <v>15</v>
@@ -5462,10 +5460,10 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B264" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C264" t="s">
         <v>2</v>
@@ -5473,7 +5471,7 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B265" t="s">
         <v>15</v>
@@ -5484,7 +5482,7 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B266" t="s">
         <v>105</v>
@@ -5495,7 +5493,7 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B267" t="s">
         <v>15</v>
@@ -5506,7 +5504,7 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B268" t="s">
         <v>182</v>
@@ -5517,7 +5515,7 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B269" t="s">
         <v>15</v>
@@ -5528,7 +5526,7 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B270" t="s">
         <v>15</v>
@@ -5539,10 +5537,10 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
+        <v>372</v>
+      </c>
+      <c r="B271" t="s">
         <v>373</v>
-      </c>
-      <c r="B271" t="s">
-        <v>374</v>
       </c>
       <c r="C271" t="s">
         <v>5</v>
@@ -5550,10 +5548,10 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B272" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C272" t="s">
         <v>2</v>
@@ -5561,10 +5559,10 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B273" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C273" t="s">
         <v>5</v>
@@ -5572,7 +5570,7 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B274" t="s">
         <v>15</v>
@@ -5583,7 +5581,7 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B275" t="s">
         <v>19</v>
@@ -5594,10 +5592,10 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
+        <v>378</v>
+      </c>
+      <c r="B276" t="s">
         <v>379</v>
-      </c>
-      <c r="B276" t="s">
-        <v>380</v>
       </c>
       <c r="C276" t="s">
         <v>5</v>
@@ -5605,7 +5603,7 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B277" t="s">
         <v>19</v>
@@ -5616,7 +5614,7 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B278" t="s">
         <v>24</v>
@@ -5627,7 +5625,7 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B279" t="s">
         <v>19</v>
@@ -5638,10 +5636,10 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
+        <v>383</v>
+      </c>
+      <c r="B280" t="s">
         <v>384</v>
-      </c>
-      <c r="B280" t="s">
-        <v>385</v>
       </c>
       <c r="C280" t="s">
         <v>5</v>
@@ -5649,7 +5647,7 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B281" t="s">
         <v>15</v>
@@ -5660,10 +5658,10 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
+        <v>386</v>
+      </c>
+      <c r="B282" t="s">
         <v>387</v>
-      </c>
-      <c r="B282" t="s">
-        <v>388</v>
       </c>
       <c r="C282" t="s">
         <v>5</v>
@@ -5671,10 +5669,10 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
+        <v>388</v>
+      </c>
+      <c r="B283" t="s">
         <v>389</v>
-      </c>
-      <c r="B283" t="s">
-        <v>390</v>
       </c>
       <c r="C283" t="s">
         <v>5</v>
@@ -5682,7 +5680,7 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B284" t="s">
         <v>71</v>
@@ -5693,7 +5691,7 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B285" t="s">
         <v>134</v>
@@ -5704,7 +5702,7 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B286" t="s">
         <v>103</v>
@@ -5715,7 +5713,7 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B287" t="s">
         <v>17</v>
@@ -5726,10 +5724,10 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B288" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C288" t="s">
         <v>5</v>
@@ -5737,7 +5735,7 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B289" t="s">
         <v>103</v>
@@ -5748,10 +5746,10 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B290" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C290" t="s">
         <v>5</v>
@@ -5759,7 +5757,7 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B291" t="s">
         <v>19</v>
@@ -5770,10 +5768,10 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
+        <v>398</v>
+      </c>
+      <c r="B292" t="s">
         <v>399</v>
-      </c>
-      <c r="B292" t="s">
-        <v>400</v>
       </c>
       <c r="C292" t="s">
         <v>5</v>
@@ -5781,7 +5779,7 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B293" t="s">
         <v>15</v>
@@ -5792,10 +5790,10 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B294" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C294" t="s">
         <v>5</v>
@@ -5803,7 +5801,7 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B295" t="s">
         <v>15</v>
@@ -5814,7 +5812,7 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B296" t="s">
         <v>19</v>
@@ -5825,7 +5823,7 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B297" t="s">
         <v>15</v>
@@ -5836,7 +5834,7 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B298" t="s">
         <v>105</v>
@@ -5847,10 +5845,10 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
+        <v>406</v>
+      </c>
+      <c r="B299" t="s">
         <v>407</v>
-      </c>
-      <c r="B299" t="s">
-        <v>408</v>
       </c>
       <c r="C299" t="s">
         <v>2</v>
@@ -5858,10 +5856,10 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
+        <v>408</v>
+      </c>
+      <c r="B300" t="s">
         <v>409</v>
-      </c>
-      <c r="B300" t="s">
-        <v>410</v>
       </c>
       <c r="C300" t="s">
         <v>5</v>
@@ -5869,7 +5867,7 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B301" t="s">
         <v>19</v>
@@ -5880,10 +5878,10 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
+        <v>411</v>
+      </c>
+      <c r="B302" t="s">
         <v>412</v>
-      </c>
-      <c r="B302" t="s">
-        <v>413</v>
       </c>
       <c r="C302" t="s">
         <v>2</v>
@@ -5891,7 +5889,7 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B303" t="s">
         <v>19</v>
@@ -5902,10 +5900,10 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
+        <v>414</v>
+      </c>
+      <c r="B304" t="s">
         <v>415</v>
-      </c>
-      <c r="B304" t="s">
-        <v>416</v>
       </c>
       <c r="C304" t="s">
         <v>2</v>
@@ -5913,7 +5911,7 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B305" t="s">
         <v>15</v>
@@ -5924,10 +5922,10 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
+        <v>417</v>
+      </c>
+      <c r="B306" t="s">
         <v>418</v>
-      </c>
-      <c r="B306" t="s">
-        <v>419</v>
       </c>
       <c r="C306" t="s">
         <v>2</v>
@@ -5935,7 +5933,7 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B307" t="s">
         <v>182</v>
@@ -5946,7 +5944,7 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B308" t="s">
         <v>119</v>
@@ -5957,10 +5955,10 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
+        <v>421</v>
+      </c>
+      <c r="B309" t="s">
         <v>422</v>
-      </c>
-      <c r="B309" t="s">
-        <v>423</v>
       </c>
       <c r="C309" t="s">
         <v>5</v>
@@ -5968,10 +5966,10 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
+        <v>423</v>
+      </c>
+      <c r="B310" t="s">
         <v>424</v>
-      </c>
-      <c r="B310" t="s">
-        <v>425</v>
       </c>
       <c r="C310" t="s">
         <v>2</v>
@@ -5979,7 +5977,7 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B311" t="s">
         <v>119</v>
@@ -5990,7 +5988,7 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B312" t="s">
         <v>37</v>
@@ -6001,10 +5999,10 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
+        <v>427</v>
+      </c>
+      <c r="B313" t="s">
         <v>428</v>
-      </c>
-      <c r="B313" t="s">
-        <v>429</v>
       </c>
       <c r="C313" t="s">
         <v>2</v>
@@ -6012,7 +6010,7 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B314" t="s">
         <v>15</v>
@@ -6023,7 +6021,7 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B315" t="s">
         <v>27</v>
@@ -6034,10 +6032,10 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B316" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C316" t="s">
         <v>2</v>
@@ -6045,10 +6043,10 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
+        <v>432</v>
+      </c>
+      <c r="B317" t="s">
         <v>433</v>
-      </c>
-      <c r="B317" t="s">
-        <v>434</v>
       </c>
       <c r="C317" t="s">
         <v>2</v>
@@ -6056,7 +6054,7 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B318" t="s">
         <v>27</v>
@@ -6067,7 +6065,7 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B319" t="s">
         <v>19</v>
@@ -6078,7 +6076,7 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B320" t="s">
         <v>1</v>
@@ -6089,7 +6087,7 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B321" t="s">
         <v>9</v>
@@ -6100,7 +6098,7 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B322" t="s">
         <v>11</v>
@@ -6111,7 +6109,7 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B323" t="s">
         <v>19</v>
@@ -6122,10 +6120,10 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B324" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C324" t="s">
         <v>2</v>
@@ -6133,7 +6131,7 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B325" t="s">
         <v>15</v>
@@ -6144,7 +6142,7 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B326" t="s">
         <v>15</v>
@@ -6155,10 +6153,10 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B327" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C327" t="s">
         <v>5</v>
@@ -6166,7 +6164,7 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B328" t="s">
         <v>15</v>
@@ -6177,7 +6175,7 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B329" t="s">
         <v>93</v>
@@ -6188,10 +6186,10 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
+        <v>446</v>
+      </c>
+      <c r="B330" t="s">
         <v>447</v>
-      </c>
-      <c r="B330" t="s">
-        <v>448</v>
       </c>
       <c r="C330" t="s">
         <v>5</v>
@@ -6199,10 +6197,10 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
+        <v>448</v>
+      </c>
+      <c r="B331" t="s">
         <v>449</v>
-      </c>
-      <c r="B331" t="s">
-        <v>450</v>
       </c>
       <c r="C331" t="s">
         <v>5</v>
@@ -6210,7 +6208,7 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B332" t="s">
         <v>15</v>
@@ -6221,7 +6219,7 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B333" t="s">
         <v>19</v>
@@ -6232,7 +6230,7 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B334" t="s">
         <v>136</v>
@@ -6243,10 +6241,10 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B335" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C335" t="s">
         <v>5</v>
@@ -6254,10 +6252,10 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
+        <v>454</v>
+      </c>
+      <c r="B336" t="s">
         <v>455</v>
-      </c>
-      <c r="B336" t="s">
-        <v>456</v>
       </c>
       <c r="C336" t="s">
         <v>5</v>
@@ -6265,7 +6263,7 @@
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B337" t="s">
         <v>19</v>
@@ -6276,7 +6274,7 @@
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B338" t="s">
         <v>17</v>
@@ -6287,10 +6285,10 @@
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B339" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C339" t="s">
         <v>2</v>
@@ -6298,7 +6296,7 @@
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B340" t="s">
         <v>15</v>
@@ -6309,7 +6307,7 @@
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B341" t="s">
         <v>15</v>
@@ -6320,7 +6318,7 @@
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B342" t="s">
         <v>17</v>
@@ -6331,7 +6329,7 @@
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B343" t="s">
         <v>182</v>
@@ -6342,7 +6340,7 @@
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B344" t="s">
         <v>109</v>
@@ -6353,10 +6351,10 @@
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B345" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C345" t="s">
         <v>2</v>
@@ -6364,7 +6362,7 @@
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B346" t="s">
         <v>24</v>
@@ -6375,7 +6373,7 @@
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B347" t="s">
         <v>19</v>
@@ -6386,10 +6384,10 @@
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
+        <v>467</v>
+      </c>
+      <c r="B348" t="s">
         <v>468</v>
-      </c>
-      <c r="B348" t="s">
-        <v>469</v>
       </c>
       <c r="C348" t="s">
         <v>5</v>
@@ -6397,7 +6395,7 @@
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B349" t="s">
         <v>27</v>
@@ -6408,10 +6406,10 @@
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
+        <v>470</v>
+      </c>
+      <c r="B350" t="s">
         <v>471</v>
-      </c>
-      <c r="B350" t="s">
-        <v>472</v>
       </c>
       <c r="C350" t="s">
         <v>5</v>
@@ -6419,7 +6417,7 @@
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B351" t="s">
         <v>27</v>
@@ -6430,7 +6428,7 @@
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B352" t="s">
         <v>109</v>
@@ -6441,7 +6439,7 @@
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B353" t="s">
         <v>19</v>
@@ -6452,7 +6450,7 @@
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B354" t="s">
         <v>15</v>
@@ -6463,10 +6461,10 @@
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
+        <v>476</v>
+      </c>
+      <c r="B355" t="s">
         <v>477</v>
-      </c>
-      <c r="B355" t="s">
-        <v>478</v>
       </c>
       <c r="C355" t="s">
         <v>2</v>
@@ -6474,10 +6472,10 @@
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B356" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C356" t="s">
         <v>5</v>
@@ -6485,10 +6483,10 @@
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
+        <v>479</v>
+      </c>
+      <c r="B357" t="s">
         <v>480</v>
-      </c>
-      <c r="B357" t="s">
-        <v>481</v>
       </c>
       <c r="C357" t="s">
         <v>5</v>
@@ -6496,10 +6494,10 @@
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B358" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C358" t="s">
         <v>2</v>
@@ -6507,7 +6505,7 @@
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B359" t="s">
         <v>19</v>
@@ -6518,10 +6516,10 @@
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
+        <v>483</v>
+      </c>
+      <c r="B360" t="s">
         <v>484</v>
-      </c>
-      <c r="B360" t="s">
-        <v>485</v>
       </c>
       <c r="C360" t="s">
         <v>2</v>
@@ -6529,7 +6527,7 @@
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B361" t="s">
         <v>15</v>
@@ -6540,7 +6538,7 @@
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B362" t="s">
         <v>15</v>
@@ -6551,7 +6549,7 @@
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B363" t="s">
         <v>15</v>
@@ -6562,7 +6560,7 @@
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B364" t="s">
         <v>15</v>
@@ -6573,7 +6571,7 @@
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B365" t="s">
         <v>15</v>
@@ -6584,7 +6582,7 @@
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B366" t="s">
         <v>15</v>
@@ -6595,7 +6593,7 @@
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B367" t="s">
         <v>19</v>
@@ -6606,7 +6604,7 @@
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B368" t="s">
         <v>15</v>
@@ -6617,7 +6615,7 @@
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B369" t="s">
         <v>93</v>
@@ -6628,7 +6626,7 @@
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B370" t="s">
         <v>15</v>
@@ -6639,7 +6637,7 @@
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B371" t="s">
         <v>15</v>
@@ -6650,10 +6648,10 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
+        <v>496</v>
+      </c>
+      <c r="B372" t="s">
         <v>497</v>
-      </c>
-      <c r="B372" t="s">
-        <v>498</v>
       </c>
       <c r="C372" t="s">
         <v>5</v>
@@ -6661,10 +6659,10 @@
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
+        <v>498</v>
+      </c>
+      <c r="B373" t="s">
         <v>499</v>
-      </c>
-      <c r="B373" t="s">
-        <v>500</v>
       </c>
       <c r="C373" t="s">
         <v>2</v>
@@ -6672,7 +6670,7 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B374" t="s">
         <v>19</v>
@@ -6683,7 +6681,7 @@
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B375" t="s">
         <v>7</v>
@@ -6694,7 +6692,7 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B376" t="s">
         <v>136</v>
@@ -6705,7 +6703,7 @@
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B377" t="s">
         <v>19</v>
@@ -6716,10 +6714,10 @@
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
+        <v>504</v>
+      </c>
+      <c r="B378" t="s">
         <v>505</v>
-      </c>
-      <c r="B378" t="s">
-        <v>506</v>
       </c>
       <c r="C378" t="s">
         <v>5</v>
@@ -6727,7 +6725,7 @@
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B379" t="s">
         <v>134</v>
@@ -6738,7 +6736,7 @@
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B380" t="s">
         <v>50</v>
@@ -6749,7 +6747,7 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B381" t="s">
         <v>19</v>
@@ -6760,7 +6758,7 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B382" t="s">
         <v>17</v>
@@ -6771,7 +6769,7 @@
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B383" t="s">
         <v>15</v>
@@ -6782,10 +6780,10 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B384" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C384" t="s">
         <v>5</v>
@@ -6793,7 +6791,7 @@
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B385" t="s">
         <v>19</v>
@@ -6804,10 +6802,10 @@
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
+        <v>513</v>
+      </c>
+      <c r="B386" t="s">
         <v>514</v>
-      </c>
-      <c r="B386" t="s">
-        <v>515</v>
       </c>
       <c r="C386" t="s">
         <v>5</v>
@@ -6815,10 +6813,10 @@
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
+        <v>515</v>
+      </c>
+      <c r="B387" t="s">
         <v>516</v>
-      </c>
-      <c r="B387" t="s">
-        <v>517</v>
       </c>
       <c r="C387" t="s">
         <v>2</v>
@@ -6826,10 +6824,10 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
+        <v>517</v>
+      </c>
+      <c r="B388" t="s">
         <v>518</v>
-      </c>
-      <c r="B388" t="s">
-        <v>519</v>
       </c>
       <c r="C388" t="s">
         <v>5</v>
@@ -6837,7 +6835,7 @@
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B389" t="s">
         <v>71</v>
@@ -6848,7 +6846,7 @@
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B390" t="s">
         <v>19</v>
@@ -6859,10 +6857,10 @@
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
+        <v>521</v>
+      </c>
+      <c r="B391" t="s">
         <v>522</v>
-      </c>
-      <c r="B391" t="s">
-        <v>523</v>
       </c>
       <c r="C391" t="s">
         <v>5</v>
@@ -6870,7 +6868,7 @@
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B392" t="s">
         <v>15</v>
@@ -6881,7 +6879,7 @@
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B393" t="s">
         <v>182</v>
@@ -6892,10 +6890,10 @@
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
+        <v>525</v>
+      </c>
+      <c r="B394" t="s">
         <v>526</v>
-      </c>
-      <c r="B394" t="s">
-        <v>527</v>
       </c>
       <c r="C394" t="s">
         <v>5</v>
@@ -6903,10 +6901,10 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B395" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C395" t="s">
         <v>2</v>
@@ -6914,7 +6912,7 @@
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B396" t="s">
         <v>15</v>
@@ -6925,7 +6923,7 @@
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B397" t="s">
         <v>19</v>
@@ -6936,7 +6934,7 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B398" t="s">
         <v>15</v>
@@ -6947,7 +6945,7 @@
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B399" t="s">
         <v>101</v>
@@ -6958,7 +6956,7 @@
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B400" t="s">
         <v>50</v>
@@ -6969,7 +6967,7 @@
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B401" t="s">
         <v>19</v>
@@ -6980,7 +6978,7 @@
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B402" t="s">
         <v>37</v>
@@ -6991,7 +6989,7 @@
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B403" t="s">
         <v>15</v>
@@ -7002,7 +7000,7 @@
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B404" t="s">
         <v>15</v>
@@ -7013,7 +7011,7 @@
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B405" t="s">
         <v>15</v>
@@ -7024,10 +7022,10 @@
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
+        <v>538</v>
+      </c>
+      <c r="B406" t="s">
         <v>539</v>
-      </c>
-      <c r="B406" t="s">
-        <v>540</v>
       </c>
       <c r="C406" t="s">
         <v>5</v>
@@ -7035,7 +7033,7 @@
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B407" t="s">
         <v>15</v>
@@ -7046,10 +7044,10 @@
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
+        <v>541</v>
+      </c>
+      <c r="B408" t="s">
         <v>542</v>
-      </c>
-      <c r="B408" t="s">
-        <v>543</v>
       </c>
       <c r="C408" t="s">
         <v>5</v>
@@ -7057,7 +7055,7 @@
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B409" t="s">
         <v>15</v>
@@ -7068,10 +7066,10 @@
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
+        <v>544</v>
+      </c>
+      <c r="B410" t="s">
         <v>545</v>
-      </c>
-      <c r="B410" t="s">
-        <v>546</v>
       </c>
       <c r="C410" t="s">
         <v>2</v>
@@ -7079,7 +7077,7 @@
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B411" t="s">
         <v>15</v>
@@ -7090,7 +7088,7 @@
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B412" t="s">
         <v>19</v>
@@ -7100,6 +7098,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C412" xr:uid="{8F56ED3D-A3F2-450D-9EAE-1214C3EA2069}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/assets/guncel_deneme_bonuslari_listesi.xlsx
+++ b/assets/guncel_deneme_bonuslari_listesi.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cengi\Desktop\test\Deneme Bonusu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD10A334-6F18-461A-B71E-A6FB36D762A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4204C4B8-7B64-47D7-8AA4-26C1E01B02B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CD7B2693-F8D1-429F-9AB3-DB64ACA5183F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CD7B2693-F8D1-429F-9AB3-DB64ACA5183F}"/>
   </bookViews>
   <sheets>
     <sheet name="guncel_deneme_bonuslari_listesi" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">guncel_deneme_bonuslari_listesi!$A$1:$C$412</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">guncel_deneme_bonuslari_listesi!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="550">
   <si>
     <t>1king</t>
   </si>
@@ -319,12 +319,6 @@
     <t>Telegram bonusu. Maks 1k çekim</t>
   </si>
   <si>
-    <t>betibenz</t>
-  </si>
-  <si>
-    <t>yatırımsız maks 300tl çekim</t>
-  </si>
-  <si>
     <t>betigma</t>
   </si>
   <si>
@@ -766,12 +760,6 @@
     <t>Bonus kazancı kadar yatırım. Min 3 maks 15 katı çekim</t>
   </si>
   <si>
-    <t>gambizo</t>
-  </si>
-  <si>
-    <t>bonus bakiyesinin %10 kadar sınırsız çekim</t>
-  </si>
-  <si>
     <t>gambleron</t>
   </si>
   <si>
@@ -1561,9 +1549,6 @@
     <t>turbobahis</t>
   </si>
   <si>
-    <t>türkbet</t>
-  </si>
-  <si>
     <t>ultrabet</t>
   </si>
   <si>
@@ -1676,6 +1661,18 @@
   </si>
   <si>
     <t>Durum</t>
+  </si>
+  <si>
+    <t>casitap</t>
+  </si>
+  <si>
+    <t>Yeni</t>
+  </si>
+  <si>
+    <t>Evet</t>
+  </si>
+  <si>
+    <t>turkbet</t>
   </si>
 </sst>
 </file>
@@ -2554,9 +2551,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F56ED3D-A3F2-450D-9EAE-1214C3EA2069}">
-  <dimension ref="A1:C412"/>
+  <dimension ref="A1:D411"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C135" sqref="C135"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2565,18 +2565,21 @@
     <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="B1" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="C1" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>545</v>
+      </c>
+      <c r="D1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2587,7 +2590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2598,7 +2601,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2608,8 +2611,11 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2620,7 +2626,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2631,7 +2637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -2642,7 +2648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2653,7 +2659,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -2664,7 +2670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -2675,7 +2681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -2686,7 +2692,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -2697,7 +2703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -2708,7 +2714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -2719,7 +2725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -2730,7 +2736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -2741,7 +2747,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -2752,7 +2758,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -2762,8 +2768,11 @@
       <c r="C18" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -2774,7 +2783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -2785,7 +2794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -2796,7 +2805,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -2807,7 +2816,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -2818,7 +2827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -2829,7 +2838,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -2840,7 +2849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -2851,7 +2860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -2862,7 +2871,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -2873,7 +2882,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -2884,7 +2893,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -2895,7 +2904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -2906,7 +2915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -3093,7 +3102,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>76</v>
       </c>
@@ -3104,7 +3113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>77</v>
       </c>
@@ -3115,7 +3124,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>79</v>
       </c>
@@ -3126,7 +3135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>80</v>
       </c>
@@ -3137,7 +3146,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>82</v>
       </c>
@@ -3148,7 +3157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>84</v>
       </c>
@@ -3158,8 +3167,11 @@
       <c r="C54" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>85</v>
       </c>
@@ -3170,7 +3182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>86</v>
       </c>
@@ -3181,7 +3193,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>87</v>
       </c>
@@ -3192,7 +3204,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>89</v>
       </c>
@@ -3203,7 +3215,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>91</v>
       </c>
@@ -3214,7 +3226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>92</v>
       </c>
@@ -3225,7 +3237,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>94</v>
       </c>
@@ -3236,7 +3248,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>96</v>
       </c>
@@ -3247,7 +3259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>98</v>
       </c>
@@ -3255,10 +3267,10 @@
         <v>99</v>
       </c>
       <c r="C63" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>100</v>
       </c>
@@ -3267,6 +3279,9 @@
       </c>
       <c r="C64" t="s">
         <v>5</v>
+      </c>
+      <c r="D64" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -3277,7 +3292,7 @@
         <v>103</v>
       </c>
       <c r="C65" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -3285,7 +3300,7 @@
         <v>104</v>
       </c>
       <c r="B66" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="C66" t="s">
         <v>2</v>
@@ -3293,10 +3308,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B67" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C67" t="s">
         <v>2</v>
@@ -3304,13 +3319,13 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>106</v>
+      </c>
+      <c r="B68" t="s">
         <v>107</v>
       </c>
-      <c r="B68" t="s">
-        <v>15</v>
-      </c>
       <c r="C68" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -3318,18 +3333,18 @@
         <v>108</v>
       </c>
       <c r="B69" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="C69" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B70" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C70" t="s">
         <v>2</v>
@@ -3337,10 +3352,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B71" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C71" t="s">
         <v>2</v>
@@ -3348,10 +3363,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B72" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="C72" t="s">
         <v>2</v>
@@ -3359,10 +3374,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B73" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="C73" t="s">
         <v>2</v>
@@ -3370,10 +3385,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B74" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C74" t="s">
         <v>2</v>
@@ -3381,10 +3396,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B75" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C75" t="s">
         <v>2</v>
@@ -3392,24 +3407,24 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B76" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="C76" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>116</v>
+      </c>
+      <c r="B77" t="s">
         <v>117</v>
       </c>
-      <c r="B77" t="s">
-        <v>93</v>
-      </c>
       <c r="C77" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -3417,7 +3432,7 @@
         <v>118</v>
       </c>
       <c r="B78" t="s">
-        <v>119</v>
+        <v>15</v>
       </c>
       <c r="C78" t="s">
         <v>2</v>
@@ -3425,10 +3440,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B79" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C79" t="s">
         <v>2</v>
@@ -3436,10 +3451,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>120</v>
+      </c>
+      <c r="B80" t="s">
         <v>121</v>
-      </c>
-      <c r="B80" t="s">
-        <v>19</v>
       </c>
       <c r="C80" t="s">
         <v>2</v>
@@ -3453,7 +3468,7 @@
         <v>123</v>
       </c>
       <c r="C81" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -3464,7 +3479,7 @@
         <v>125</v>
       </c>
       <c r="C82" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -3472,18 +3487,18 @@
         <v>126</v>
       </c>
       <c r="B83" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="C83" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>127</v>
+      </c>
+      <c r="B84" t="s">
         <v>128</v>
-      </c>
-      <c r="B84" t="s">
-        <v>101</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -3497,7 +3512,7 @@
         <v>130</v>
       </c>
       <c r="C85" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -3508,7 +3523,7 @@
         <v>132</v>
       </c>
       <c r="C86" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -3538,21 +3553,21 @@
         <v>137</v>
       </c>
       <c r="B89" t="s">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="C89" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>138</v>
+      </c>
+      <c r="B90" t="s">
         <v>139</v>
       </c>
-      <c r="B90" t="s">
-        <v>19</v>
-      </c>
       <c r="C90" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -3560,18 +3575,18 @@
         <v>140</v>
       </c>
       <c r="B91" t="s">
-        <v>141</v>
+        <v>15</v>
       </c>
       <c r="C91" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>141</v>
+      </c>
+      <c r="B92" t="s">
         <v>142</v>
-      </c>
-      <c r="B92" t="s">
-        <v>15</v>
       </c>
       <c r="C92" t="s">
         <v>2</v>
@@ -3585,7 +3600,7 @@
         <v>144</v>
       </c>
       <c r="C93" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -3593,46 +3608,46 @@
         <v>145</v>
       </c>
       <c r="B94" t="s">
-        <v>146</v>
+        <v>19</v>
       </c>
       <c r="C94" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B95" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="C95" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>147</v>
+      </c>
+      <c r="B96" t="s">
+        <v>88</v>
+      </c>
+      <c r="C96" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>148</v>
       </c>
-      <c r="B96" t="s">
-        <v>93</v>
-      </c>
-      <c r="C96" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="B97" t="s">
         <v>149</v>
       </c>
-      <c r="B97" t="s">
-        <v>88</v>
-      </c>
       <c r="C97" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>150</v>
       </c>
@@ -3640,158 +3655,161 @@
         <v>151</v>
       </c>
       <c r="C98" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>152</v>
       </c>
       <c r="B99" t="s">
+        <v>19</v>
+      </c>
+      <c r="C99" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>153</v>
       </c>
-      <c r="C99" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="B100" t="s">
+        <v>19</v>
+      </c>
+      <c r="C100" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>154</v>
       </c>
-      <c r="B100" t="s">
-        <v>19</v>
-      </c>
-      <c r="C100" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="B101" t="s">
+        <v>19</v>
+      </c>
+      <c r="C101" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>155</v>
       </c>
-      <c r="B101" t="s">
-        <v>19</v>
-      </c>
-      <c r="C101" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="B102" t="s">
+        <v>83</v>
+      </c>
+      <c r="C102" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>156</v>
       </c>
-      <c r="B102" t="s">
-        <v>19</v>
-      </c>
-      <c r="C102" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="B103" t="s">
+        <v>101</v>
+      </c>
+      <c r="C103" t="s">
+        <v>5</v>
+      </c>
+      <c r="D103" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>157</v>
       </c>
-      <c r="B103" t="s">
-        <v>83</v>
-      </c>
-      <c r="C103" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="B104" t="s">
         <v>158</v>
       </c>
-      <c r="B104" t="s">
-        <v>103</v>
-      </c>
       <c r="C104" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>159</v>
       </c>
       <c r="B105" t="s">
+        <v>19</v>
+      </c>
+      <c r="C105" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>160</v>
       </c>
-      <c r="C105" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="B106" t="s">
         <v>161</v>
       </c>
-      <c r="B106" t="s">
-        <v>19</v>
-      </c>
       <c r="C106" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>162</v>
       </c>
       <c r="B107" t="s">
+        <v>19</v>
+      </c>
+      <c r="C107" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>163</v>
       </c>
-      <c r="C107" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="B108" t="s">
+        <v>17</v>
+      </c>
+      <c r="C108" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>164</v>
       </c>
-      <c r="B108" t="s">
-        <v>19</v>
-      </c>
-      <c r="C108" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="B109" t="s">
+        <v>15</v>
+      </c>
+      <c r="C109" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>165</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B110" t="s">
         <v>17</v>
       </c>
-      <c r="C109" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="C110" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>166</v>
       </c>
-      <c r="B110" t="s">
-        <v>15</v>
-      </c>
-      <c r="C110" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+      <c r="B111" t="s">
+        <v>15</v>
+      </c>
+      <c r="C111" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>167</v>
       </c>
-      <c r="B111" t="s">
-        <v>17</v>
-      </c>
-      <c r="C111" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>168</v>
-      </c>
       <c r="B112" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="C112" t="s">
         <v>2</v>
@@ -3799,32 +3817,32 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B113" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="C113" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B114" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="C114" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B115" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C115" t="s">
         <v>2</v>
@@ -3832,7 +3850,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B116" t="s">
         <v>19</v>
@@ -3843,35 +3861,35 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B117" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="C117" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B118" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="C118" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
+        <v>174</v>
+      </c>
+      <c r="B119" t="s">
         <v>175</v>
       </c>
-      <c r="B119" t="s">
-        <v>19</v>
-      </c>
       <c r="C119" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -3879,29 +3897,29 @@
         <v>176</v>
       </c>
       <c r="B120" t="s">
-        <v>177</v>
+        <v>15</v>
       </c>
       <c r="C120" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B121" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C121" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B122" t="s">
-        <v>50</v>
+        <v>136</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -3909,13 +3927,13 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
+        <v>179</v>
+      </c>
+      <c r="B123" t="s">
         <v>180</v>
       </c>
-      <c r="B123" t="s">
-        <v>138</v>
-      </c>
       <c r="C123" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -3923,213 +3941,222 @@
         <v>181</v>
       </c>
       <c r="B124" t="s">
-        <v>182</v>
+        <v>50</v>
       </c>
       <c r="C124" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B125" t="s">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="C125" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B126" t="s">
-        <v>182</v>
+        <v>88</v>
       </c>
       <c r="C126" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B127" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="C127" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
+        <v>185</v>
+      </c>
+      <c r="B128" t="s">
+        <v>19</v>
+      </c>
+      <c r="C128" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
         <v>186</v>
       </c>
-      <c r="B128" t="s">
-        <v>19</v>
-      </c>
-      <c r="C128" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+      <c r="B129" t="s">
         <v>187</v>
       </c>
-      <c r="B129" t="s">
-        <v>19</v>
-      </c>
       <c r="C129" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>188</v>
       </c>
       <c r="B130" t="s">
+        <v>19</v>
+      </c>
+      <c r="C130" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
         <v>189</v>
       </c>
-      <c r="C130" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+      <c r="B131" t="s">
+        <v>19</v>
+      </c>
+      <c r="C131" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
         <v>190</v>
       </c>
-      <c r="B131" t="s">
-        <v>19</v>
-      </c>
-      <c r="C131" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+      <c r="B132" t="s">
+        <v>99</v>
+      </c>
+      <c r="C132" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
         <v>191</v>
       </c>
-      <c r="B132" t="s">
-        <v>19</v>
-      </c>
-      <c r="C132" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+      <c r="B133" t="s">
         <v>192</v>
       </c>
-      <c r="B133" t="s">
-        <v>101</v>
-      </c>
       <c r="C133" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>193</v>
       </c>
       <c r="B134" t="s">
+        <v>27</v>
+      </c>
+      <c r="C134" t="s">
+        <v>5</v>
+      </c>
+      <c r="D134" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
         <v>194</v>
       </c>
-      <c r="C134" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+      <c r="B135" t="s">
+        <v>19</v>
+      </c>
+      <c r="C135" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
         <v>195</v>
       </c>
-      <c r="B135" t="s">
-        <v>27</v>
-      </c>
-      <c r="C135" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+      <c r="B136" t="s">
+        <v>50</v>
+      </c>
+      <c r="C136" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>546</v>
+      </c>
+      <c r="B137" t="s">
+        <v>19</v>
+      </c>
+      <c r="C137" t="s">
+        <v>2</v>
+      </c>
+      <c r="D137" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
         <v>196</v>
       </c>
-      <c r="B136" t="s">
-        <v>19</v>
-      </c>
-      <c r="C136" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+      <c r="B138" t="s">
+        <v>19</v>
+      </c>
+      <c r="C138" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
         <v>197</v>
       </c>
-      <c r="B137" t="s">
-        <v>50</v>
-      </c>
-      <c r="C137" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+      <c r="B139" t="s">
         <v>198</v>
       </c>
-      <c r="B138" t="s">
-        <v>19</v>
-      </c>
-      <c r="C138" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+      <c r="C139" t="s">
+        <v>5</v>
+      </c>
+      <c r="D139" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
         <v>199</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B140" t="s">
         <v>200</v>
       </c>
-      <c r="C139" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+      <c r="C140" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
         <v>201</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B141" t="s">
+        <v>19</v>
+      </c>
+      <c r="C141" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
         <v>202</v>
       </c>
-      <c r="C140" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+      <c r="B142" t="s">
         <v>203</v>
       </c>
-      <c r="B141" t="s">
-        <v>19</v>
-      </c>
-      <c r="C141" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+      <c r="C142" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
         <v>204</v>
-      </c>
-      <c r="B142" t="s">
-        <v>205</v>
-      </c>
-      <c r="C142" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>206</v>
       </c>
       <c r="B143" t="s">
         <v>27</v>
@@ -4138,9 +4165,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B144" t="s">
         <v>15</v>
@@ -4151,10 +4178,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B145" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -4162,7 +4189,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B146" t="s">
         <v>19</v>
@@ -4173,7 +4200,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B147" t="s">
         <v>15</v>
@@ -4184,10 +4211,10 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B148" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C148" t="s">
         <v>2</v>
@@ -4195,7 +4222,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B149" t="s">
         <v>17</v>
@@ -4206,7 +4233,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B150" t="s">
         <v>19</v>
@@ -4217,7 +4244,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B151" t="s">
         <v>19</v>
@@ -4228,10 +4255,10 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B152" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -4239,7 +4266,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B153" t="s">
         <v>15</v>
@@ -4250,10 +4277,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B154" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -4261,7 +4288,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B155" t="s">
         <v>15</v>
@@ -4272,7 +4299,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B156" t="s">
         <v>19</v>
@@ -4283,7 +4310,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B157" t="s">
         <v>17</v>
@@ -4294,10 +4321,10 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B158" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -4305,7 +4332,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B159" t="s">
         <v>15</v>
@@ -4316,7 +4343,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B160" t="s">
         <v>50</v>
@@ -4327,7 +4354,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B161" t="s">
         <v>19</v>
@@ -4338,7 +4365,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B162" t="s">
         <v>15</v>
@@ -4349,10 +4376,10 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B163" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -4360,10 +4387,10 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B164" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C164" t="s">
         <v>2</v>
@@ -4371,7 +4398,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B165" t="s">
         <v>19</v>
@@ -4382,10 +4409,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B166" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C166" t="s">
         <v>2</v>
@@ -4393,10 +4420,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B167" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C167" t="s">
         <v>2</v>
@@ -4404,7 +4431,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B168" t="s">
         <v>11</v>
@@ -4415,7 +4442,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B169" t="s">
         <v>19</v>
@@ -4426,7 +4453,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B170" t="s">
         <v>19</v>
@@ -4437,10 +4464,10 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B171" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -4448,7 +4475,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B172" t="s">
         <v>15</v>
@@ -4459,10 +4486,10 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B173" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -4470,7 +4497,7 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B174" t="s">
         <v>19</v>
@@ -4481,10 +4508,10 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B175" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -4492,32 +4519,32 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B176" t="s">
-        <v>248</v>
+        <v>99</v>
       </c>
       <c r="C176" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B177" t="s">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="C177" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B178" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C178" t="s">
         <v>2</v>
@@ -4525,10 +4552,10 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B179" t="s">
-        <v>15</v>
+        <v>233</v>
       </c>
       <c r="C179" t="s">
         <v>2</v>
@@ -4536,21 +4563,21 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B180" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="C180" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B181" t="s">
-        <v>254</v>
+        <v>99</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -4558,10 +4585,10 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B182" t="s">
-        <v>101</v>
+        <v>253</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -4569,54 +4596,54 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B183" t="s">
-        <v>257</v>
+        <v>15</v>
       </c>
       <c r="C183" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B184" t="s">
-        <v>15</v>
+        <v>256</v>
       </c>
       <c r="C184" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B185" t="s">
-        <v>260</v>
+        <v>15</v>
       </c>
       <c r="C185" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B186" t="s">
-        <v>15</v>
+        <v>259</v>
       </c>
       <c r="C186" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B187" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -4624,582 +4651,597 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B188" t="s">
-        <v>265</v>
+        <v>15</v>
       </c>
       <c r="C188" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B189" t="s">
-        <v>15</v>
+        <v>264</v>
       </c>
       <c r="C189" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B190" t="s">
-        <v>268</v>
+        <v>11</v>
       </c>
       <c r="C190" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B191" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="C191" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
+        <v>267</v>
+      </c>
+      <c r="B192" t="s">
+        <v>268</v>
+      </c>
+      <c r="C192" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>269</v>
+      </c>
+      <c r="B193" t="s">
         <v>270</v>
       </c>
-      <c r="B192" t="s">
-        <v>88</v>
-      </c>
-      <c r="C192" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
+      <c r="C193" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
         <v>271</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B194" t="s">
+        <v>15</v>
+      </c>
+      <c r="C194" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
         <v>272</v>
       </c>
-      <c r="C193" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
+      <c r="B195" t="s">
+        <v>15</v>
+      </c>
+      <c r="C195" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
         <v>273</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B196" t="s">
+        <v>19</v>
+      </c>
+      <c r="C196" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
         <v>274</v>
       </c>
-      <c r="C194" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
+      <c r="B197" t="s">
         <v>275</v>
       </c>
-      <c r="B195" t="s">
-        <v>15</v>
-      </c>
-      <c r="C195" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
+      <c r="C197" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
         <v>276</v>
       </c>
-      <c r="B196" t="s">
-        <v>15</v>
-      </c>
-      <c r="C196" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
+      <c r="B198" t="s">
+        <v>15</v>
+      </c>
+      <c r="C198" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
         <v>277</v>
       </c>
-      <c r="B197" t="s">
-        <v>19</v>
-      </c>
-      <c r="C197" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
+      <c r="B199" t="s">
+        <v>15</v>
+      </c>
+      <c r="C199" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
         <v>278</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B200" t="s">
         <v>279</v>
       </c>
-      <c r="C198" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
+      <c r="C200" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
         <v>280</v>
       </c>
-      <c r="B199" t="s">
-        <v>15</v>
-      </c>
-      <c r="C199" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
+      <c r="B201" t="s">
         <v>281</v>
       </c>
-      <c r="B200" t="s">
-        <v>15</v>
-      </c>
-      <c r="C200" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
+      <c r="C201" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
         <v>282</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B202" t="s">
         <v>283</v>
       </c>
-      <c r="C201" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
+      <c r="C202" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
         <v>284</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B203" t="s">
+        <v>19</v>
+      </c>
+      <c r="C203" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
         <v>285</v>
       </c>
-      <c r="C202" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
+      <c r="B204" t="s">
+        <v>27</v>
+      </c>
+      <c r="C204" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
         <v>286</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B205" t="s">
         <v>287</v>
       </c>
-      <c r="C203" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
+      <c r="C205" t="s">
+        <v>5</v>
+      </c>
+      <c r="D205" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
         <v>288</v>
       </c>
-      <c r="B204" t="s">
-        <v>19</v>
-      </c>
-      <c r="C204" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
+      <c r="B206" t="s">
         <v>289</v>
       </c>
-      <c r="B205" t="s">
-        <v>27</v>
-      </c>
-      <c r="C205" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
+      <c r="C206" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
         <v>290</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B207" t="s">
+        <v>15</v>
+      </c>
+      <c r="C207" t="s">
+        <v>2</v>
+      </c>
+      <c r="D207" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
         <v>291</v>
       </c>
-      <c r="C206" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
+      <c r="B208" t="s">
+        <v>15</v>
+      </c>
+      <c r="C208" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
         <v>292</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B209" t="s">
         <v>293</v>
       </c>
-      <c r="C207" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
+      <c r="C209" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
         <v>294</v>
       </c>
-      <c r="B208" t="s">
-        <v>15</v>
-      </c>
-      <c r="C208" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
+      <c r="B210" t="s">
+        <v>19</v>
+      </c>
+      <c r="C210" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
         <v>295</v>
       </c>
-      <c r="B209" t="s">
-        <v>15</v>
-      </c>
-      <c r="C209" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
+      <c r="B211" t="s">
+        <v>15</v>
+      </c>
+      <c r="C211" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
         <v>296</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B212" t="s">
+        <v>15</v>
+      </c>
+      <c r="C212" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
         <v>297</v>
       </c>
-      <c r="C210" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
+      <c r="B213" t="s">
+        <v>259</v>
+      </c>
+      <c r="C213" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
         <v>298</v>
       </c>
-      <c r="B211" t="s">
-        <v>19</v>
-      </c>
-      <c r="C211" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
+      <c r="B214" t="s">
+        <v>283</v>
+      </c>
+      <c r="C214" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
         <v>299</v>
       </c>
-      <c r="B212" t="s">
-        <v>15</v>
-      </c>
-      <c r="C212" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
+      <c r="B215" t="s">
+        <v>69</v>
+      </c>
+      <c r="C215" t="s">
+        <v>2</v>
+      </c>
+      <c r="D215" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
         <v>300</v>
       </c>
-      <c r="B213" t="s">
-        <v>15</v>
-      </c>
-      <c r="C213" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
+      <c r="B216" t="s">
+        <v>19</v>
+      </c>
+      <c r="C216" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
         <v>301</v>
       </c>
-      <c r="B214" t="s">
-        <v>263</v>
-      </c>
-      <c r="C214" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
+      <c r="B217" t="s">
+        <v>99</v>
+      </c>
+      <c r="C217" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
         <v>302</v>
       </c>
-      <c r="B215" t="s">
-        <v>287</v>
-      </c>
-      <c r="C215" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
+      <c r="B218" t="s">
+        <v>93</v>
+      </c>
+      <c r="C218" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
         <v>303</v>
       </c>
-      <c r="B216" t="s">
-        <v>69</v>
-      </c>
-      <c r="C216" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
+      <c r="B219" t="s">
+        <v>15</v>
+      </c>
+      <c r="C219" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
         <v>304</v>
       </c>
-      <c r="B217" t="s">
-        <v>19</v>
-      </c>
-      <c r="C217" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
+      <c r="B220" t="s">
+        <v>17</v>
+      </c>
+      <c r="C220" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
         <v>305</v>
       </c>
-      <c r="B218" t="s">
-        <v>101</v>
-      </c>
-      <c r="C218" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
+      <c r="B221" t="s">
+        <v>19</v>
+      </c>
+      <c r="C221" t="s">
+        <v>2</v>
+      </c>
+      <c r="D221" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
         <v>306</v>
       </c>
-      <c r="B219" t="s">
-        <v>93</v>
-      </c>
-      <c r="C219" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
+      <c r="B222" t="s">
         <v>307</v>
       </c>
-      <c r="B220" t="s">
-        <v>15</v>
-      </c>
-      <c r="C220" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
+      <c r="C222" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
         <v>308</v>
       </c>
-      <c r="B221" t="s">
-        <v>17</v>
-      </c>
-      <c r="C221" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
+      <c r="B223" t="s">
+        <v>15</v>
+      </c>
+      <c r="C223" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
         <v>309</v>
       </c>
-      <c r="B222" t="s">
-        <v>19</v>
-      </c>
-      <c r="C222" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
+      <c r="B224" t="s">
+        <v>15</v>
+      </c>
+      <c r="C224" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
         <v>310</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B225" t="s">
+        <v>121</v>
+      </c>
+      <c r="C225" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
         <v>311</v>
       </c>
-      <c r="C223" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
+      <c r="B226" t="s">
+        <v>15</v>
+      </c>
+      <c r="C226" t="s">
+        <v>2</v>
+      </c>
+      <c r="D226" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
         <v>312</v>
       </c>
-      <c r="B224" t="s">
-        <v>15</v>
-      </c>
-      <c r="C224" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
+      <c r="B227" t="s">
         <v>313</v>
       </c>
-      <c r="B225" t="s">
-        <v>15</v>
-      </c>
-      <c r="C225" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
+      <c r="C227" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
         <v>314</v>
       </c>
-      <c r="B226" t="s">
-        <v>123</v>
-      </c>
-      <c r="C226" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
+      <c r="B228" t="s">
         <v>315</v>
       </c>
-      <c r="B227" t="s">
-        <v>15</v>
-      </c>
-      <c r="C227" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
+      <c r="C228" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
         <v>316</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B229" t="s">
+        <v>15</v>
+      </c>
+      <c r="C229" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
         <v>317</v>
       </c>
-      <c r="C228" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
+      <c r="B230" t="s">
+        <v>15</v>
+      </c>
+      <c r="C230" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
         <v>318</v>
       </c>
-      <c r="B229" t="s">
+      <c r="B231" t="s">
         <v>319</v>
       </c>
-      <c r="C229" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
+      <c r="C231" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
         <v>320</v>
       </c>
-      <c r="B230" t="s">
-        <v>15</v>
-      </c>
-      <c r="C230" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
+      <c r="B232" t="s">
+        <v>15</v>
+      </c>
+      <c r="C232" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
         <v>321</v>
       </c>
-      <c r="B231" t="s">
-        <v>15</v>
-      </c>
-      <c r="C231" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
+      <c r="B233" t="s">
+        <v>19</v>
+      </c>
+      <c r="C233" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
         <v>322</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B234" t="s">
+        <v>19</v>
+      </c>
+      <c r="C234" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
         <v>323</v>
       </c>
-      <c r="C232" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
+      <c r="B235" t="s">
         <v>324</v>
       </c>
-      <c r="B233" t="s">
-        <v>15</v>
-      </c>
-      <c r="C233" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
+      <c r="C235" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
         <v>325</v>
       </c>
-      <c r="B234" t="s">
-        <v>19</v>
-      </c>
-      <c r="C234" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
+      <c r="B236" t="s">
+        <v>134</v>
+      </c>
+      <c r="C236" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
         <v>326</v>
       </c>
-      <c r="B235" t="s">
-        <v>19</v>
-      </c>
-      <c r="C235" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
+      <c r="B237" t="s">
+        <v>50</v>
+      </c>
+      <c r="C237" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
         <v>327</v>
       </c>
-      <c r="B236" t="s">
+      <c r="B238" t="s">
         <v>328</v>
       </c>
-      <c r="C236" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
+      <c r="C238" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
         <v>329</v>
       </c>
-      <c r="B237" t="s">
-        <v>136</v>
-      </c>
-      <c r="C237" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
+      <c r="B239" t="s">
         <v>330</v>
       </c>
-      <c r="B238" t="s">
-        <v>50</v>
-      </c>
-      <c r="C238" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
+      <c r="C239" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
         <v>331</v>
       </c>
-      <c r="B239" t="s">
+      <c r="B240" t="s">
         <v>332</v>
-      </c>
-      <c r="C239" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>333</v>
-      </c>
-      <c r="B240" t="s">
-        <v>334</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -5207,21 +5249,21 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B241" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="C241" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B242" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="C242" t="s">
         <v>2</v>
@@ -5229,10 +5271,10 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B243" t="s">
-        <v>339</v>
+        <v>19</v>
       </c>
       <c r="C243" t="s">
         <v>2</v>
@@ -5240,21 +5282,21 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B244" t="s">
-        <v>19</v>
+        <v>338</v>
       </c>
       <c r="C244" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B245" t="s">
-        <v>342</v>
+        <v>88</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
@@ -5262,21 +5304,21 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B246" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="C246" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B247" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="C247" t="s">
         <v>2</v>
@@ -5284,10 +5326,10 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B248" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="C248" t="s">
         <v>2</v>
@@ -5295,10 +5337,10 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B249" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C249" t="s">
         <v>2</v>
@@ -5306,32 +5348,32 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B250" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="C250" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B251" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="C251" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B252" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="C252" t="s">
         <v>2</v>
@@ -5339,10 +5381,10 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B253" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="C253" t="s">
         <v>2</v>
@@ -5350,10 +5392,10 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B254" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C254" t="s">
         <v>2</v>
@@ -5361,21 +5403,21 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B255" t="s">
-        <v>19</v>
+        <v>350</v>
       </c>
       <c r="C255" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B256" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C256" t="s">
         <v>5</v>
@@ -5383,43 +5425,43 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B257" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C257" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B258" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C258" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B259" t="s">
-        <v>360</v>
+        <v>71</v>
       </c>
       <c r="C259" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B260" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="C260" t="s">
         <v>2</v>
@@ -5427,10 +5469,10 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B261" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C261" t="s">
         <v>2</v>
@@ -5438,10 +5480,10 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B262" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C262" t="s">
         <v>2</v>
@@ -5449,10 +5491,10 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B263" t="s">
-        <v>15</v>
+        <v>319</v>
       </c>
       <c r="C263" t="s">
         <v>2</v>
@@ -5460,10 +5502,10 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B264" t="s">
-        <v>323</v>
+        <v>15</v>
       </c>
       <c r="C264" t="s">
         <v>2</v>
@@ -5471,10 +5513,10 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B265" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="C265" t="s">
         <v>2</v>
@@ -5482,10 +5524,10 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B266" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="C266" t="s">
         <v>2</v>
@@ -5493,10 +5535,10 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B267" t="s">
-        <v>15</v>
+        <v>180</v>
       </c>
       <c r="C267" t="s">
         <v>2</v>
@@ -5504,10 +5546,10 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B268" t="s">
-        <v>182</v>
+        <v>15</v>
       </c>
       <c r="C268" t="s">
         <v>2</v>
@@ -5515,7 +5557,7 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B269" t="s">
         <v>15</v>
@@ -5526,208 +5568,211 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B270" t="s">
-        <v>15</v>
+        <v>369</v>
       </c>
       <c r="C270" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B271" t="s">
-        <v>373</v>
+        <v>319</v>
       </c>
       <c r="C271" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
+        <v>371</v>
+      </c>
+      <c r="B272" t="s">
+        <v>356</v>
+      </c>
+      <c r="C272" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>372</v>
+      </c>
+      <c r="B273" t="s">
+        <v>15</v>
+      </c>
+      <c r="C273" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>373</v>
+      </c>
+      <c r="B274" t="s">
+        <v>19</v>
+      </c>
+      <c r="C274" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
         <v>374</v>
       </c>
-      <c r="B272" t="s">
-        <v>323</v>
-      </c>
-      <c r="C272" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
+      <c r="B275" t="s">
         <v>375</v>
       </c>
-      <c r="B273" t="s">
-        <v>360</v>
-      </c>
-      <c r="C273" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
+      <c r="C275" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
         <v>376</v>
       </c>
-      <c r="B274" t="s">
-        <v>15</v>
-      </c>
-      <c r="C274" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
+      <c r="B276" t="s">
+        <v>19</v>
+      </c>
+      <c r="C276" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
         <v>377</v>
       </c>
-      <c r="B275" t="s">
-        <v>19</v>
-      </c>
-      <c r="C275" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
+      <c r="B277" t="s">
+        <v>24</v>
+      </c>
+      <c r="C277" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
         <v>378</v>
       </c>
-      <c r="B276" t="s">
+      <c r="B278" t="s">
+        <v>19</v>
+      </c>
+      <c r="C278" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
         <v>379</v>
       </c>
-      <c r="C276" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
+      <c r="B279" t="s">
         <v>380</v>
       </c>
-      <c r="B277" t="s">
-        <v>19</v>
-      </c>
-      <c r="C277" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
+      <c r="C279" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
         <v>381</v>
       </c>
-      <c r="B278" t="s">
-        <v>24</v>
-      </c>
-      <c r="C278" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
+      <c r="B280" t="s">
+        <v>15</v>
+      </c>
+      <c r="C280" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
         <v>382</v>
       </c>
-      <c r="B279" t="s">
-        <v>19</v>
-      </c>
-      <c r="C279" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
+      <c r="B281" t="s">
         <v>383</v>
       </c>
-      <c r="B280" t="s">
+      <c r="C281" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
         <v>384</v>
       </c>
-      <c r="C280" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
+      <c r="B282" t="s">
         <v>385</v>
       </c>
-      <c r="B281" t="s">
-        <v>15</v>
-      </c>
-      <c r="C281" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
+      <c r="C282" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
         <v>386</v>
       </c>
-      <c r="B282" t="s">
+      <c r="B283" t="s">
+        <v>71</v>
+      </c>
+      <c r="C283" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
         <v>387</v>
       </c>
-      <c r="C282" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
+      <c r="B284" t="s">
+        <v>132</v>
+      </c>
+      <c r="C284" t="s">
+        <v>5</v>
+      </c>
+      <c r="D284" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
         <v>388</v>
       </c>
-      <c r="B283" t="s">
+      <c r="B285" t="s">
+        <v>101</v>
+      </c>
+      <c r="C285" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
         <v>389</v>
       </c>
-      <c r="C283" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
+      <c r="B286" t="s">
+        <v>17</v>
+      </c>
+      <c r="C286" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
         <v>390</v>
       </c>
-      <c r="B284" t="s">
-        <v>71</v>
-      </c>
-      <c r="C284" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
+      <c r="B287" t="s">
+        <v>315</v>
+      </c>
+      <c r="C287" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
         <v>391</v>
       </c>
-      <c r="B285" t="s">
-        <v>134</v>
-      </c>
-      <c r="C285" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
-        <v>392</v>
-      </c>
-      <c r="B286" t="s">
-        <v>103</v>
-      </c>
-      <c r="C286" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
-        <v>393</v>
-      </c>
-      <c r="B287" t="s">
-        <v>17</v>
-      </c>
-      <c r="C287" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
-        <v>394</v>
-      </c>
       <c r="B288" t="s">
-        <v>319</v>
+        <v>101</v>
       </c>
       <c r="C288" t="s">
         <v>5</v>
@@ -5735,10 +5780,10 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B289" t="s">
-        <v>103</v>
+        <v>315</v>
       </c>
       <c r="C289" t="s">
         <v>5</v>
@@ -5746,65 +5791,65 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B290" t="s">
-        <v>319</v>
+        <v>19</v>
       </c>
       <c r="C290" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B291" t="s">
-        <v>19</v>
+        <v>395</v>
       </c>
       <c r="C291" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B292" t="s">
-        <v>399</v>
+        <v>15</v>
       </c>
       <c r="C292" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B293" t="s">
-        <v>15</v>
+        <v>315</v>
       </c>
       <c r="C293" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B294" t="s">
-        <v>319</v>
+        <v>15</v>
       </c>
       <c r="C294" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B295" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C295" t="s">
         <v>2</v>
@@ -5812,10 +5857,10 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B296" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C296" t="s">
         <v>2</v>
@@ -5823,10 +5868,10 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B297" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="C297" t="s">
         <v>2</v>
@@ -5834,10 +5879,10 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B298" t="s">
-        <v>105</v>
+        <v>403</v>
       </c>
       <c r="C298" t="s">
         <v>2</v>
@@ -5845,32 +5890,32 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B299" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C299" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B300" t="s">
-        <v>409</v>
+        <v>19</v>
       </c>
       <c r="C300" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B301" t="s">
-        <v>19</v>
+        <v>408</v>
       </c>
       <c r="C301" t="s">
         <v>2</v>
@@ -5878,10 +5923,10 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B302" t="s">
-        <v>412</v>
+        <v>19</v>
       </c>
       <c r="C302" t="s">
         <v>2</v>
@@ -5889,10 +5934,10 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B303" t="s">
-        <v>19</v>
+        <v>411</v>
       </c>
       <c r="C303" t="s">
         <v>2</v>
@@ -5900,10 +5945,10 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B304" t="s">
-        <v>415</v>
+        <v>15</v>
       </c>
       <c r="C304" t="s">
         <v>2</v>
@@ -5911,10 +5956,10 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B305" t="s">
-        <v>15</v>
+        <v>414</v>
       </c>
       <c r="C305" t="s">
         <v>2</v>
@@ -5922,10 +5967,10 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B306" t="s">
-        <v>418</v>
+        <v>180</v>
       </c>
       <c r="C306" t="s">
         <v>2</v>
@@ -5933,10 +5978,10 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B307" t="s">
-        <v>182</v>
+        <v>117</v>
       </c>
       <c r="C307" t="s">
         <v>2</v>
@@ -5944,32 +5989,32 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B308" t="s">
-        <v>119</v>
+        <v>418</v>
       </c>
       <c r="C308" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B309" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C309" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B310" t="s">
-        <v>424</v>
+        <v>117</v>
       </c>
       <c r="C310" t="s">
         <v>2</v>
@@ -5977,10 +6022,10 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B311" t="s">
-        <v>119</v>
+        <v>37</v>
       </c>
       <c r="C311" t="s">
         <v>2</v>
@@ -5988,10 +6033,10 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B312" t="s">
-        <v>37</v>
+        <v>424</v>
       </c>
       <c r="C312" t="s">
         <v>2</v>
@@ -5999,10 +6044,10 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B313" t="s">
-        <v>428</v>
+        <v>15</v>
       </c>
       <c r="C313" t="s">
         <v>2</v>
@@ -6010,32 +6055,32 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B314" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C314" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B315" t="s">
-        <v>27</v>
+        <v>424</v>
       </c>
       <c r="C315" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B316" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C316" t="s">
         <v>2</v>
@@ -6043,32 +6088,32 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B317" t="s">
-        <v>433</v>
+        <v>27</v>
       </c>
       <c r="C317" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B318" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C318" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B319" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C319" t="s">
         <v>2</v>
@@ -6076,32 +6121,32 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B320" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C320" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B321" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C321" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B322" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C322" t="s">
         <v>2</v>
@@ -6109,10 +6154,10 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B323" t="s">
-        <v>19</v>
+        <v>429</v>
       </c>
       <c r="C323" t="s">
         <v>2</v>
@@ -6120,10 +6165,10 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B324" t="s">
-        <v>433</v>
+        <v>15</v>
       </c>
       <c r="C324" t="s">
         <v>2</v>
@@ -6131,7 +6176,7 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B325" t="s">
         <v>15</v>
@@ -6142,43 +6187,43 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B326" t="s">
-        <v>15</v>
+        <v>313</v>
       </c>
       <c r="C326" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B327" t="s">
-        <v>317</v>
+        <v>15</v>
       </c>
       <c r="C327" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B328" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="C328" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B329" t="s">
-        <v>93</v>
+        <v>443</v>
       </c>
       <c r="C329" t="s">
         <v>5</v>
@@ -6186,10 +6231,10 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B330" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C330" t="s">
         <v>5</v>
@@ -6197,21 +6242,21 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B331" t="s">
-        <v>449</v>
+        <v>15</v>
       </c>
       <c r="C331" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B332" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C332" t="s">
         <v>2</v>
@@ -6219,21 +6264,21 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B333" t="s">
-        <v>19</v>
+        <v>134</v>
       </c>
       <c r="C333" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B334" t="s">
-        <v>136</v>
+        <v>315</v>
       </c>
       <c r="C334" t="s">
         <v>5</v>
@@ -6241,10 +6286,10 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B335" t="s">
-        <v>319</v>
+        <v>451</v>
       </c>
       <c r="C335" t="s">
         <v>5</v>
@@ -6252,853 +6297,857 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
+        <v>452</v>
+      </c>
+      <c r="B336" t="s">
+        <v>19</v>
+      </c>
+      <c r="C336" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>453</v>
+      </c>
+      <c r="B337" t="s">
+        <v>17</v>
+      </c>
+      <c r="C337" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
         <v>454</v>
       </c>
-      <c r="B336" t="s">
+      <c r="B338" t="s">
+        <v>414</v>
+      </c>
+      <c r="C338" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
         <v>455</v>
       </c>
-      <c r="C336" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A337" t="s">
+      <c r="B339" t="s">
+        <v>15</v>
+      </c>
+      <c r="C339" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
         <v>456</v>
       </c>
-      <c r="B337" t="s">
-        <v>19</v>
-      </c>
-      <c r="C337" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A338" t="s">
+      <c r="B340" t="s">
+        <v>15</v>
+      </c>
+      <c r="C340" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
         <v>457</v>
       </c>
-      <c r="B338" t="s">
+      <c r="B341" t="s">
         <v>17</v>
       </c>
-      <c r="C338" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A339" t="s">
+      <c r="C341" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
         <v>458</v>
       </c>
-      <c r="B339" t="s">
-        <v>418</v>
-      </c>
-      <c r="C339" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A340" t="s">
+      <c r="B342" t="s">
+        <v>180</v>
+      </c>
+      <c r="C342" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
         <v>459</v>
       </c>
-      <c r="B340" t="s">
-        <v>15</v>
-      </c>
-      <c r="C340" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A341" t="s">
+      <c r="B343" t="s">
+        <v>107</v>
+      </c>
+      <c r="C343" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
         <v>460</v>
       </c>
-      <c r="B341" t="s">
-        <v>15</v>
-      </c>
-      <c r="C341" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A342" t="s">
+      <c r="B344" t="s">
+        <v>408</v>
+      </c>
+      <c r="C344" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
         <v>461</v>
       </c>
-      <c r="B342" t="s">
+      <c r="B345" t="s">
+        <v>24</v>
+      </c>
+      <c r="C345" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>462</v>
+      </c>
+      <c r="B346" t="s">
+        <v>19</v>
+      </c>
+      <c r="C346" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>463</v>
+      </c>
+      <c r="B347" t="s">
+        <v>464</v>
+      </c>
+      <c r="C347" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>465</v>
+      </c>
+      <c r="B348" t="s">
+        <v>27</v>
+      </c>
+      <c r="C348" t="s">
+        <v>5</v>
+      </c>
+      <c r="D348" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>466</v>
+      </c>
+      <c r="B349" t="s">
+        <v>467</v>
+      </c>
+      <c r="C349" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>468</v>
+      </c>
+      <c r="B350" t="s">
+        <v>27</v>
+      </c>
+      <c r="C350" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>469</v>
+      </c>
+      <c r="B351" t="s">
+        <v>107</v>
+      </c>
+      <c r="C351" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>470</v>
+      </c>
+      <c r="B352" t="s">
+        <v>19</v>
+      </c>
+      <c r="C352" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>471</v>
+      </c>
+      <c r="B353" t="s">
+        <v>15</v>
+      </c>
+      <c r="C353" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>472</v>
+      </c>
+      <c r="B354" t="s">
+        <v>473</v>
+      </c>
+      <c r="C354" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>474</v>
+      </c>
+      <c r="B355" t="s">
+        <v>315</v>
+      </c>
+      <c r="C355" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>475</v>
+      </c>
+      <c r="B356" t="s">
+        <v>476</v>
+      </c>
+      <c r="C356" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>477</v>
+      </c>
+      <c r="B357" t="s">
+        <v>414</v>
+      </c>
+      <c r="C357" t="s">
+        <v>2</v>
+      </c>
+      <c r="D357" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>478</v>
+      </c>
+      <c r="B358" t="s">
+        <v>19</v>
+      </c>
+      <c r="C358" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>479</v>
+      </c>
+      <c r="B359" t="s">
+        <v>480</v>
+      </c>
+      <c r="C359" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>481</v>
+      </c>
+      <c r="B360" t="s">
+        <v>15</v>
+      </c>
+      <c r="C360" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>482</v>
+      </c>
+      <c r="B361" t="s">
+        <v>15</v>
+      </c>
+      <c r="C361" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>483</v>
+      </c>
+      <c r="B362" t="s">
+        <v>15</v>
+      </c>
+      <c r="C362" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>484</v>
+      </c>
+      <c r="B363" t="s">
+        <v>15</v>
+      </c>
+      <c r="C363" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>485</v>
+      </c>
+      <c r="B364" t="s">
+        <v>15</v>
+      </c>
+      <c r="C364" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>486</v>
+      </c>
+      <c r="B365" t="s">
+        <v>15</v>
+      </c>
+      <c r="C365" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>487</v>
+      </c>
+      <c r="B366" t="s">
+        <v>19</v>
+      </c>
+      <c r="C366" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>488</v>
+      </c>
+      <c r="B367" t="s">
+        <v>15</v>
+      </c>
+      <c r="C367" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>489</v>
+      </c>
+      <c r="B368" t="s">
+        <v>93</v>
+      </c>
+      <c r="C368" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>490</v>
+      </c>
+      <c r="B369" t="s">
+        <v>15</v>
+      </c>
+      <c r="C369" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>491</v>
+      </c>
+      <c r="B370" t="s">
+        <v>15</v>
+      </c>
+      <c r="C370" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>492</v>
+      </c>
+      <c r="B371" t="s">
+        <v>493</v>
+      </c>
+      <c r="C371" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>494</v>
+      </c>
+      <c r="B372" t="s">
+        <v>495</v>
+      </c>
+      <c r="C372" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>496</v>
+      </c>
+      <c r="B373" t="s">
+        <v>19</v>
+      </c>
+      <c r="C373" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>497</v>
+      </c>
+      <c r="B374" t="s">
+        <v>7</v>
+      </c>
+      <c r="C374" t="s">
+        <v>5</v>
+      </c>
+      <c r="D374" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>498</v>
+      </c>
+      <c r="B375" t="s">
+        <v>134</v>
+      </c>
+      <c r="C375" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>499</v>
+      </c>
+      <c r="B376" t="s">
+        <v>19</v>
+      </c>
+      <c r="C376" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>500</v>
+      </c>
+      <c r="B377" t="s">
+        <v>501</v>
+      </c>
+      <c r="C377" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>502</v>
+      </c>
+      <c r="B378" t="s">
+        <v>132</v>
+      </c>
+      <c r="C378" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>503</v>
+      </c>
+      <c r="B379" t="s">
+        <v>50</v>
+      </c>
+      <c r="C379" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>504</v>
+      </c>
+      <c r="B380" t="s">
+        <v>19</v>
+      </c>
+      <c r="C380" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>505</v>
+      </c>
+      <c r="B381" t="s">
         <v>17</v>
       </c>
-      <c r="C342" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A343" t="s">
-        <v>462</v>
-      </c>
-      <c r="B343" t="s">
-        <v>182</v>
-      </c>
-      <c r="C343" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A344" t="s">
-        <v>463</v>
-      </c>
-      <c r="B344" t="s">
-        <v>109</v>
-      </c>
-      <c r="C344" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A345" t="s">
-        <v>464</v>
-      </c>
-      <c r="B345" t="s">
-        <v>412</v>
-      </c>
-      <c r="C345" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A346" t="s">
-        <v>465</v>
-      </c>
-      <c r="B346" t="s">
-        <v>24</v>
-      </c>
-      <c r="C346" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A347" t="s">
-        <v>466</v>
-      </c>
-      <c r="B347" t="s">
-        <v>19</v>
-      </c>
-      <c r="C347" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A348" t="s">
-        <v>467</v>
-      </c>
-      <c r="B348" t="s">
-        <v>468</v>
-      </c>
-      <c r="C348" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A349" t="s">
-        <v>469</v>
-      </c>
-      <c r="B349" t="s">
-        <v>27</v>
-      </c>
-      <c r="C349" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A350" t="s">
-        <v>470</v>
-      </c>
-      <c r="B350" t="s">
-        <v>471</v>
-      </c>
-      <c r="C350" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A351" t="s">
-        <v>472</v>
-      </c>
-      <c r="B351" t="s">
-        <v>27</v>
-      </c>
-      <c r="C351" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A352" t="s">
-        <v>473</v>
-      </c>
-      <c r="B352" t="s">
-        <v>109</v>
-      </c>
-      <c r="C352" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A353" t="s">
-        <v>474</v>
-      </c>
-      <c r="B353" t="s">
-        <v>19</v>
-      </c>
-      <c r="C353" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A354" t="s">
-        <v>475</v>
-      </c>
-      <c r="B354" t="s">
-        <v>15</v>
-      </c>
-      <c r="C354" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A355" t="s">
-        <v>476</v>
-      </c>
-      <c r="B355" t="s">
-        <v>477</v>
-      </c>
-      <c r="C355" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A356" t="s">
-        <v>478</v>
-      </c>
-      <c r="B356" t="s">
-        <v>319</v>
-      </c>
-      <c r="C356" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A357" t="s">
-        <v>479</v>
-      </c>
-      <c r="B357" t="s">
-        <v>480</v>
-      </c>
-      <c r="C357" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A358" t="s">
-        <v>481</v>
-      </c>
-      <c r="B358" t="s">
-        <v>418</v>
-      </c>
-      <c r="C358" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A359" t="s">
-        <v>482</v>
-      </c>
-      <c r="B359" t="s">
-        <v>19</v>
-      </c>
-      <c r="C359" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A360" t="s">
-        <v>483</v>
-      </c>
-      <c r="B360" t="s">
-        <v>484</v>
-      </c>
-      <c r="C360" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A361" t="s">
-        <v>485</v>
-      </c>
-      <c r="B361" t="s">
-        <v>15</v>
-      </c>
-      <c r="C361" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A362" t="s">
-        <v>486</v>
-      </c>
-      <c r="B362" t="s">
-        <v>15</v>
-      </c>
-      <c r="C362" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A363" t="s">
-        <v>487</v>
-      </c>
-      <c r="B363" t="s">
-        <v>15</v>
-      </c>
-      <c r="C363" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A364" t="s">
-        <v>488</v>
-      </c>
-      <c r="B364" t="s">
-        <v>15</v>
-      </c>
-      <c r="C364" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A365" t="s">
-        <v>489</v>
-      </c>
-      <c r="B365" t="s">
-        <v>15</v>
-      </c>
-      <c r="C365" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A366" t="s">
-        <v>490</v>
-      </c>
-      <c r="B366" t="s">
-        <v>15</v>
-      </c>
-      <c r="C366" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A367" t="s">
-        <v>491</v>
-      </c>
-      <c r="B367" t="s">
-        <v>19</v>
-      </c>
-      <c r="C367" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A368" t="s">
-        <v>492</v>
-      </c>
-      <c r="B368" t="s">
-        <v>15</v>
-      </c>
-      <c r="C368" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A369" t="s">
-        <v>493</v>
-      </c>
-      <c r="B369" t="s">
-        <v>93</v>
-      </c>
-      <c r="C369" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A370" t="s">
-        <v>494</v>
-      </c>
-      <c r="B370" t="s">
-        <v>15</v>
-      </c>
-      <c r="C370" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A371" t="s">
-        <v>495</v>
-      </c>
-      <c r="B371" t="s">
-        <v>15</v>
-      </c>
-      <c r="C371" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A372" t="s">
-        <v>496</v>
-      </c>
-      <c r="B372" t="s">
-        <v>497</v>
-      </c>
-      <c r="C372" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A373" t="s">
-        <v>498</v>
-      </c>
-      <c r="B373" t="s">
-        <v>499</v>
-      </c>
-      <c r="C373" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A374" t="s">
-        <v>500</v>
-      </c>
-      <c r="B374" t="s">
-        <v>19</v>
-      </c>
-      <c r="C374" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A375" t="s">
-        <v>501</v>
-      </c>
-      <c r="B375" t="s">
-        <v>7</v>
-      </c>
-      <c r="C375" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A376" t="s">
-        <v>502</v>
-      </c>
-      <c r="B376" t="s">
-        <v>136</v>
-      </c>
-      <c r="C376" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A377" t="s">
-        <v>503</v>
-      </c>
-      <c r="B377" t="s">
-        <v>19</v>
-      </c>
-      <c r="C377" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A378" t="s">
-        <v>504</v>
-      </c>
-      <c r="B378" t="s">
-        <v>505</v>
-      </c>
-      <c r="C378" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A379" t="s">
+      <c r="C381" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
         <v>506</v>
       </c>
-      <c r="B379" t="s">
-        <v>134</v>
-      </c>
-      <c r="C379" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A380" t="s">
+      <c r="B382" t="s">
+        <v>15</v>
+      </c>
+      <c r="C382" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
         <v>507</v>
       </c>
-      <c r="B380" t="s">
+      <c r="B383" t="s">
+        <v>356</v>
+      </c>
+      <c r="C383" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>549</v>
+      </c>
+      <c r="B384" t="s">
+        <v>19</v>
+      </c>
+      <c r="C384" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>508</v>
+      </c>
+      <c r="B385" t="s">
+        <v>509</v>
+      </c>
+      <c r="C385" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>510</v>
+      </c>
+      <c r="B386" t="s">
+        <v>511</v>
+      </c>
+      <c r="C386" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>512</v>
+      </c>
+      <c r="B387" t="s">
+        <v>513</v>
+      </c>
+      <c r="C387" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>514</v>
+      </c>
+      <c r="B388" t="s">
+        <v>71</v>
+      </c>
+      <c r="C388" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>515</v>
+      </c>
+      <c r="B389" t="s">
+        <v>19</v>
+      </c>
+      <c r="C389" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>516</v>
+      </c>
+      <c r="B390" t="s">
+        <v>517</v>
+      </c>
+      <c r="C390" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>518</v>
+      </c>
+      <c r="B391" t="s">
+        <v>15</v>
+      </c>
+      <c r="C391" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>519</v>
+      </c>
+      <c r="B392" t="s">
+        <v>180</v>
+      </c>
+      <c r="C392" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>520</v>
+      </c>
+      <c r="B393" t="s">
+        <v>521</v>
+      </c>
+      <c r="C393" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>522</v>
+      </c>
+      <c r="B394" t="s">
+        <v>335</v>
+      </c>
+      <c r="C394" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>523</v>
+      </c>
+      <c r="B395" t="s">
+        <v>15</v>
+      </c>
+      <c r="C395" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>524</v>
+      </c>
+      <c r="B396" t="s">
+        <v>19</v>
+      </c>
+      <c r="C396" t="s">
+        <v>2</v>
+      </c>
+      <c r="D396" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>525</v>
+      </c>
+      <c r="B397" t="s">
+        <v>15</v>
+      </c>
+      <c r="C397" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>526</v>
+      </c>
+      <c r="B398" t="s">
+        <v>99</v>
+      </c>
+      <c r="C398" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>527</v>
+      </c>
+      <c r="B399" t="s">
         <v>50</v>
       </c>
-      <c r="C380" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A381" t="s">
-        <v>508</v>
-      </c>
-      <c r="B381" t="s">
-        <v>19</v>
-      </c>
-      <c r="C381" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A382" t="s">
-        <v>509</v>
-      </c>
-      <c r="B382" t="s">
-        <v>17</v>
-      </c>
-      <c r="C382" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A383" t="s">
-        <v>510</v>
-      </c>
-      <c r="B383" t="s">
-        <v>15</v>
-      </c>
-      <c r="C383" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A384" t="s">
-        <v>511</v>
-      </c>
-      <c r="B384" t="s">
-        <v>360</v>
-      </c>
-      <c r="C384" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A385" t="s">
-        <v>512</v>
-      </c>
-      <c r="B385" t="s">
-        <v>19</v>
-      </c>
-      <c r="C385" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A386" t="s">
-        <v>513</v>
-      </c>
-      <c r="B386" t="s">
-        <v>514</v>
-      </c>
-      <c r="C386" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A387" t="s">
-        <v>515</v>
-      </c>
-      <c r="B387" t="s">
-        <v>516</v>
-      </c>
-      <c r="C387" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A388" t="s">
-        <v>517</v>
-      </c>
-      <c r="B388" t="s">
-        <v>518</v>
-      </c>
-      <c r="C388" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A389" t="s">
-        <v>519</v>
-      </c>
-      <c r="B389" t="s">
-        <v>71</v>
-      </c>
-      <c r="C389" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A390" t="s">
-        <v>520</v>
-      </c>
-      <c r="B390" t="s">
-        <v>19</v>
-      </c>
-      <c r="C390" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A391" t="s">
-        <v>521</v>
-      </c>
-      <c r="B391" t="s">
-        <v>522</v>
-      </c>
-      <c r="C391" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A392" t="s">
-        <v>523</v>
-      </c>
-      <c r="B392" t="s">
-        <v>15</v>
-      </c>
-      <c r="C392" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A393" t="s">
-        <v>524</v>
-      </c>
-      <c r="B393" t="s">
-        <v>182</v>
-      </c>
-      <c r="C393" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A394" t="s">
-        <v>525</v>
-      </c>
-      <c r="B394" t="s">
-        <v>526</v>
-      </c>
-      <c r="C394" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A395" t="s">
-        <v>527</v>
-      </c>
-      <c r="B395" t="s">
-        <v>339</v>
-      </c>
-      <c r="C395" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A396" t="s">
+      <c r="C399" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
         <v>528</v>
       </c>
-      <c r="B396" t="s">
-        <v>15</v>
-      </c>
-      <c r="C396" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A397" t="s">
+      <c r="B400" t="s">
+        <v>19</v>
+      </c>
+      <c r="C400" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
         <v>529</v>
       </c>
-      <c r="B397" t="s">
-        <v>19</v>
-      </c>
-      <c r="C397" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A398" t="s">
+      <c r="B401" t="s">
+        <v>37</v>
+      </c>
+      <c r="C401" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
         <v>530</v>
       </c>
-      <c r="B398" t="s">
-        <v>15</v>
-      </c>
-      <c r="C398" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A399" t="s">
+      <c r="B402" t="s">
+        <v>15</v>
+      </c>
+      <c r="C402" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
         <v>531</v>
       </c>
-      <c r="B399" t="s">
-        <v>101</v>
-      </c>
-      <c r="C399" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A400" t="s">
+      <c r="B403" t="s">
+        <v>15</v>
+      </c>
+      <c r="C403" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
         <v>532</v>
       </c>
-      <c r="B400" t="s">
-        <v>50</v>
-      </c>
-      <c r="C400" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A401" t="s">
+      <c r="B404" t="s">
+        <v>15</v>
+      </c>
+      <c r="C404" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
         <v>533</v>
       </c>
-      <c r="B401" t="s">
-        <v>19</v>
-      </c>
-      <c r="C401" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A402" t="s">
+      <c r="B405" t="s">
         <v>534</v>
       </c>
-      <c r="B402" t="s">
-        <v>37</v>
-      </c>
-      <c r="C402" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A403" t="s">
+      <c r="C405" t="s">
+        <v>5</v>
+      </c>
+      <c r="D405" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
         <v>535</v>
       </c>
-      <c r="B403" t="s">
-        <v>15</v>
-      </c>
-      <c r="C403" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A404" t="s">
+      <c r="B406" t="s">
+        <v>15</v>
+      </c>
+      <c r="C406" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
         <v>536</v>
       </c>
-      <c r="B404" t="s">
-        <v>15</v>
-      </c>
-      <c r="C404" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A405" t="s">
+      <c r="B407" t="s">
         <v>537</v>
       </c>
-      <c r="B405" t="s">
-        <v>15</v>
-      </c>
-      <c r="C405" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A406" t="s">
+      <c r="C407" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
         <v>538</v>
       </c>
-      <c r="B406" t="s">
+      <c r="B408" t="s">
+        <v>15</v>
+      </c>
+      <c r="C408" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
         <v>539</v>
       </c>
-      <c r="C406" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A407" t="s">
+      <c r="B409" t="s">
         <v>540</v>
       </c>
-      <c r="B407" t="s">
-        <v>15</v>
-      </c>
-      <c r="C407" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A408" t="s">
+      <c r="C409" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
         <v>541</v>
       </c>
-      <c r="B408" t="s">
+      <c r="B410" t="s">
+        <v>15</v>
+      </c>
+      <c r="C410" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
         <v>542</v>
       </c>
-      <c r="C408" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A409" t="s">
-        <v>543</v>
-      </c>
-      <c r="B409" t="s">
-        <v>15</v>
-      </c>
-      <c r="C409" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A410" t="s">
-        <v>544</v>
-      </c>
-      <c r="B410" t="s">
-        <v>545</v>
-      </c>
-      <c r="C410" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A411" t="s">
-        <v>546</v>
-      </c>
       <c r="B411" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C411" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A412" t="s">
-        <v>547</v>
-      </c>
-      <c r="B412" t="s">
-        <v>19</v>
-      </c>
-      <c r="C412" t="s">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:C412" xr:uid="{8F56ED3D-A3F2-450D-9EAE-1214C3EA2069}"/>
+  <autoFilter ref="A1:D1" xr:uid="{8F56ED3D-A3F2-450D-9EAE-1214C3EA2069}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/assets/guncel_deneme_bonuslari_listesi.xlsx
+++ b/assets/guncel_deneme_bonuslari_listesi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cengi\Desktop\test\Deneme Bonusu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4204C4B8-7B64-47D7-8AA4-26C1E01B02B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CCB15E-1526-4C65-948E-CB013E271C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CD7B2693-F8D1-429F-9AB3-DB64ACA5183F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CD7B2693-F8D1-429F-9AB3-DB64ACA5183F}"/>
   </bookViews>
   <sheets>
     <sheet name="guncel_deneme_bonuslari_listesi" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="544">
   <si>
     <t>1king</t>
   </si>
@@ -256,12 +256,6 @@
     <t>betbox</t>
   </si>
   <si>
-    <t>betchaplin</t>
-  </si>
-  <si>
-    <t>250tl yatırım maks 1k çekim</t>
-  </si>
-  <si>
     <t>betci</t>
   </si>
   <si>
@@ -385,9 +379,6 @@
     <t>betnis</t>
   </si>
   <si>
-    <t>betnixe</t>
-  </si>
-  <si>
     <t>maks 500tl çekim</t>
   </si>
   <si>
@@ -1129,12 +1120,6 @@
     <t>meritlimancasino</t>
   </si>
   <si>
-    <t>meritqueen</t>
-  </si>
-  <si>
-    <t>250tl yatırım maks 500tl çekim</t>
-  </si>
-  <si>
     <t>meritslot</t>
   </si>
   <si>
@@ -1244,9 +1229,6 @@
   </si>
   <si>
     <t>palazzobet</t>
-  </si>
-  <si>
-    <t>palermocasino</t>
   </si>
   <si>
     <t>maks 300tl çekim</t>
@@ -2551,11 +2533,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F56ED3D-A3F2-450D-9EAE-1214C3EA2069}">
-  <dimension ref="A1:D411"/>
+  <dimension ref="A1:D407"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C135" sqref="C135"/>
+      <pane ySplit="1" topLeftCell="A370" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B393" sqref="B393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2567,16 +2549,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="B1" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="C1" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="D1" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2612,7 +2594,7 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2769,7 +2751,7 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -3118,21 +3100,21 @@
         <v>77</v>
       </c>
       <c r="B50" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="C50" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>78</v>
+      </c>
+      <c r="B51" t="s">
         <v>79</v>
       </c>
-      <c r="B51" t="s">
-        <v>15</v>
-      </c>
       <c r="C51" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -3143,7 +3125,7 @@
         <v>81</v>
       </c>
       <c r="C52" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -3151,32 +3133,32 @@
         <v>82</v>
       </c>
       <c r="B53" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="C53" t="s">
         <v>2</v>
+      </c>
+      <c r="D53" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B54" t="s">
         <v>19</v>
       </c>
       <c r="C54" t="s">
         <v>2</v>
-      </c>
-      <c r="D54" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B55" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C55" t="s">
         <v>2</v>
@@ -3184,13 +3166,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>85</v>
+      </c>
+      <c r="B56" t="s">
         <v>86</v>
       </c>
-      <c r="B56" t="s">
-        <v>17</v>
-      </c>
       <c r="C56" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -3209,21 +3191,21 @@
         <v>89</v>
       </c>
       <c r="B58" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="C58" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>90</v>
+      </c>
+      <c r="B59" t="s">
         <v>91</v>
       </c>
-      <c r="B59" t="s">
-        <v>19</v>
-      </c>
       <c r="C59" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -3245,7 +3227,7 @@
         <v>95</v>
       </c>
       <c r="C61" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -3256,7 +3238,7 @@
         <v>97</v>
       </c>
       <c r="C62" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -3269,6 +3251,9 @@
       <c r="C63" t="s">
         <v>5</v>
       </c>
+      <c r="D63" t="s">
+        <v>542</v>
+      </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
@@ -3278,10 +3263,7 @@
         <v>101</v>
       </c>
       <c r="C64" t="s">
-        <v>5</v>
-      </c>
-      <c r="D64" t="s">
-        <v>548</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -3289,7 +3271,7 @@
         <v>102</v>
       </c>
       <c r="B65" t="s">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="C65" t="s">
         <v>2</v>
@@ -3297,10 +3279,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B66" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C66" t="s">
         <v>2</v>
@@ -3308,13 +3290,13 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>104</v>
+      </c>
+      <c r="B67" t="s">
         <v>105</v>
       </c>
-      <c r="B67" t="s">
-        <v>15</v>
-      </c>
       <c r="C67" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -3322,18 +3304,18 @@
         <v>106</v>
       </c>
       <c r="B68" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="C68" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B69" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C69" t="s">
         <v>2</v>
@@ -3341,10 +3323,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B70" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C70" t="s">
         <v>2</v>
@@ -3352,10 +3334,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B71" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="C71" t="s">
         <v>2</v>
@@ -3363,10 +3345,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B72" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="C72" t="s">
         <v>2</v>
@@ -3374,10 +3356,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B73" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C73" t="s">
         <v>2</v>
@@ -3385,10 +3367,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B74" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C74" t="s">
         <v>2</v>
@@ -3396,24 +3378,24 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B75" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="C75" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>114</v>
+      </c>
+      <c r="B76" t="s">
         <v>115</v>
       </c>
-      <c r="B76" t="s">
-        <v>93</v>
-      </c>
       <c r="C76" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -3421,7 +3403,7 @@
         <v>116</v>
       </c>
       <c r="B77" t="s">
-        <v>117</v>
+        <v>15</v>
       </c>
       <c r="C77" t="s">
         <v>2</v>
@@ -3429,10 +3411,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B78" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C78" t="s">
         <v>2</v>
@@ -3443,18 +3425,18 @@
         <v>119</v>
       </c>
       <c r="B79" t="s">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="C79" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B80" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C80" t="s">
         <v>2</v>
@@ -3462,10 +3444,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B81" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -3479,7 +3461,7 @@
         <v>125</v>
       </c>
       <c r="C82" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -3487,18 +3469,18 @@
         <v>126</v>
       </c>
       <c r="B83" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="C83" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B84" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -3506,21 +3488,21 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B85" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C85" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B86" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -3528,13 +3510,13 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B87" t="s">
-        <v>134</v>
+        <v>19</v>
       </c>
       <c r="C87" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -3553,7 +3535,7 @@
         <v>137</v>
       </c>
       <c r="B89" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C89" t="s">
         <v>2</v>
@@ -3567,7 +3549,7 @@
         <v>139</v>
       </c>
       <c r="C90" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -3575,18 +3557,18 @@
         <v>140</v>
       </c>
       <c r="B91" t="s">
-        <v>15</v>
+        <v>141</v>
       </c>
       <c r="C91" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B92" t="s">
-        <v>142</v>
+        <v>19</v>
       </c>
       <c r="C92" t="s">
         <v>2</v>
@@ -3597,7 +3579,7 @@
         <v>143</v>
       </c>
       <c r="B93" t="s">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -3605,21 +3587,21 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B94" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="C94" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>145</v>
+      </c>
+      <c r="B95" t="s">
         <v>146</v>
-      </c>
-      <c r="B95" t="s">
-        <v>93</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -3630,21 +3612,21 @@
         <v>147</v>
       </c>
       <c r="B96" t="s">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="C96" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B97" t="s">
-        <v>149</v>
+        <v>19</v>
       </c>
       <c r="C97" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -3652,7 +3634,7 @@
         <v>150</v>
       </c>
       <c r="B98" t="s">
-        <v>151</v>
+        <v>19</v>
       </c>
       <c r="C98" t="s">
         <v>2</v>
@@ -3660,7 +3642,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B99" t="s">
         <v>19</v>
@@ -3671,10 +3653,10 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B100" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="C100" t="s">
         <v>2</v>
@@ -3682,21 +3664,24 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B101" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="C101" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="D101" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>154</v>
+      </c>
+      <c r="B102" t="s">
         <v>155</v>
-      </c>
-      <c r="B102" t="s">
-        <v>83</v>
       </c>
       <c r="C102" t="s">
         <v>2</v>
@@ -3707,13 +3692,10 @@
         <v>156</v>
       </c>
       <c r="B103" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="C103" t="s">
-        <v>5</v>
-      </c>
-      <c r="D103" t="s">
-        <v>548</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -3724,7 +3706,7 @@
         <v>158</v>
       </c>
       <c r="C104" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -3743,18 +3725,18 @@
         <v>160</v>
       </c>
       <c r="B106" t="s">
-        <v>161</v>
+        <v>17</v>
       </c>
       <c r="C106" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B107" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C107" t="s">
         <v>2</v>
@@ -3762,7 +3744,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B108" t="s">
         <v>17</v>
@@ -3773,7 +3755,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B109" t="s">
         <v>15</v>
@@ -3784,10 +3766,10 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B110" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="C110" t="s">
         <v>2</v>
@@ -3795,21 +3777,21 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B111" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C111" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B112" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="C112" t="s">
         <v>2</v>
@@ -3817,21 +3799,21 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B113" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C113" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B114" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C114" t="s">
         <v>2</v>
@@ -3839,18 +3821,18 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B115" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="C115" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B116" t="s">
         <v>19</v>
@@ -3861,10 +3843,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
+        <v>171</v>
+      </c>
+      <c r="B117" t="s">
         <v>172</v>
-      </c>
-      <c r="B117" t="s">
-        <v>88</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -3875,7 +3857,7 @@
         <v>173</v>
       </c>
       <c r="B118" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C118" t="s">
         <v>2</v>
@@ -3886,7 +3868,7 @@
         <v>174</v>
       </c>
       <c r="B119" t="s">
-        <v>175</v>
+        <v>50</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -3894,24 +3876,24 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B120" t="s">
-        <v>15</v>
+        <v>133</v>
       </c>
       <c r="C120" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
+        <v>176</v>
+      </c>
+      <c r="B121" t="s">
         <v>177</v>
       </c>
-      <c r="B121" t="s">
-        <v>50</v>
-      </c>
       <c r="C121" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -3919,7 +3901,7 @@
         <v>178</v>
       </c>
       <c r="B122" t="s">
-        <v>136</v>
+        <v>50</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -3930,7 +3912,7 @@
         <v>179</v>
       </c>
       <c r="B123" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C123" t="s">
         <v>2</v>
@@ -3938,10 +3920,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B124" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -3949,10 +3931,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B125" t="s">
-        <v>180</v>
+        <v>19</v>
       </c>
       <c r="C125" t="s">
         <v>2</v>
@@ -3960,24 +3942,24 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B126" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="C126" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
+        <v>183</v>
+      </c>
+      <c r="B127" t="s">
         <v>184</v>
       </c>
-      <c r="B127" t="s">
-        <v>19</v>
-      </c>
       <c r="C127" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -3996,32 +3978,32 @@
         <v>186</v>
       </c>
       <c r="B129" t="s">
-        <v>187</v>
+        <v>19</v>
       </c>
       <c r="C129" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B130" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="C130" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
+        <v>188</v>
+      </c>
+      <c r="B131" t="s">
         <v>189</v>
       </c>
-      <c r="B131" t="s">
-        <v>19</v>
-      </c>
       <c r="C131" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -4029,10 +4011,13 @@
         <v>190</v>
       </c>
       <c r="B132" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
+      </c>
+      <c r="D132" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -4040,60 +4025,60 @@
         <v>191</v>
       </c>
       <c r="B133" t="s">
-        <v>192</v>
+        <v>19</v>
       </c>
       <c r="C133" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B134" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
-      </c>
-      <c r="D134" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>194</v>
+        <v>540</v>
       </c>
       <c r="B135" t="s">
         <v>19</v>
       </c>
       <c r="C135" t="s">
         <v>2</v>
+      </c>
+      <c r="D135" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B136" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C136" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>546</v>
+        <v>194</v>
       </c>
       <c r="B137" t="s">
-        <v>19</v>
+        <v>195</v>
       </c>
       <c r="C137" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D137" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -4101,24 +4086,21 @@
         <v>196</v>
       </c>
       <c r="B138" t="s">
-        <v>19</v>
+        <v>197</v>
       </c>
       <c r="C138" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B139" t="s">
-        <v>198</v>
+        <v>19</v>
       </c>
       <c r="C139" t="s">
-        <v>5</v>
-      </c>
-      <c r="D139" t="s">
-        <v>548</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -4137,10 +4119,10 @@
         <v>201</v>
       </c>
       <c r="B141" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C141" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -4148,18 +4130,18 @@
         <v>202</v>
       </c>
       <c r="B142" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="C142" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
+        <v>203</v>
+      </c>
+      <c r="B143" t="s">
         <v>204</v>
-      </c>
-      <c r="B143" t="s">
-        <v>27</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -4170,7 +4152,7 @@
         <v>205</v>
       </c>
       <c r="B144" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C144" t="s">
         <v>2</v>
@@ -4181,18 +4163,18 @@
         <v>206</v>
       </c>
       <c r="B145" t="s">
-        <v>207</v>
+        <v>15</v>
       </c>
       <c r="C145" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B146" t="s">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="C146" t="s">
         <v>2</v>
@@ -4200,10 +4182,10 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B147" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C147" t="s">
         <v>2</v>
@@ -4211,10 +4193,10 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B148" t="s">
-        <v>117</v>
+        <v>19</v>
       </c>
       <c r="C148" t="s">
         <v>2</v>
@@ -4222,10 +4204,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B149" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C149" t="s">
         <v>2</v>
@@ -4233,13 +4215,13 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
+        <v>211</v>
+      </c>
+      <c r="B150" t="s">
         <v>212</v>
       </c>
-      <c r="B150" t="s">
-        <v>19</v>
-      </c>
       <c r="C150" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -4247,7 +4229,7 @@
         <v>213</v>
       </c>
       <c r="B151" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C151" t="s">
         <v>2</v>
@@ -4280,18 +4262,18 @@
         <v>217</v>
       </c>
       <c r="B154" t="s">
-        <v>218</v>
+        <v>19</v>
       </c>
       <c r="C154" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B155" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C155" t="s">
         <v>2</v>
@@ -4299,13 +4281,13 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
+        <v>219</v>
+      </c>
+      <c r="B156" t="s">
         <v>220</v>
       </c>
-      <c r="B156" t="s">
-        <v>19</v>
-      </c>
       <c r="C156" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -4313,7 +4295,7 @@
         <v>221</v>
       </c>
       <c r="B157" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C157" t="s">
         <v>2</v>
@@ -4324,7 +4306,7 @@
         <v>222</v>
       </c>
       <c r="B158" t="s">
-        <v>223</v>
+        <v>50</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -4332,10 +4314,10 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B159" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C159" t="s">
         <v>2</v>
@@ -4343,24 +4325,24 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B160" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="C160" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
+        <v>225</v>
+      </c>
+      <c r="B161" t="s">
         <v>226</v>
       </c>
-      <c r="B161" t="s">
-        <v>19</v>
-      </c>
       <c r="C161" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -4368,7 +4350,7 @@
         <v>227</v>
       </c>
       <c r="B162" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="C162" t="s">
         <v>2</v>
@@ -4379,18 +4361,18 @@
         <v>228</v>
       </c>
       <c r="B163" t="s">
-        <v>229</v>
+        <v>19</v>
       </c>
       <c r="C163" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
+        <v>229</v>
+      </c>
+      <c r="B164" t="s">
         <v>230</v>
-      </c>
-      <c r="B164" t="s">
-        <v>103</v>
       </c>
       <c r="C164" t="s">
         <v>2</v>
@@ -4401,7 +4383,7 @@
         <v>231</v>
       </c>
       <c r="B165" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="C165" t="s">
         <v>2</v>
@@ -4412,7 +4394,7 @@
         <v>232</v>
       </c>
       <c r="B166" t="s">
-        <v>233</v>
+        <v>11</v>
       </c>
       <c r="C166" t="s">
         <v>2</v>
@@ -4420,10 +4402,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B167" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="C167" t="s">
         <v>2</v>
@@ -4431,10 +4413,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B168" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C168" t="s">
         <v>2</v>
@@ -4442,21 +4424,21 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B169" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="C169" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B170" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C170" t="s">
         <v>2</v>
@@ -4464,10 +4446,10 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
+        <v>237</v>
+      </c>
+      <c r="B171" t="s">
         <v>238</v>
-      </c>
-      <c r="B171" t="s">
-        <v>99</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -4478,7 +4460,7 @@
         <v>239</v>
       </c>
       <c r="B172" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C172" t="s">
         <v>2</v>
@@ -4500,10 +4482,10 @@
         <v>242</v>
       </c>
       <c r="B174" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="C174" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -4511,29 +4493,29 @@
         <v>243</v>
       </c>
       <c r="B175" t="s">
-        <v>244</v>
+        <v>40</v>
       </c>
       <c r="C175" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B176" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="C176" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B177" t="s">
-        <v>40</v>
+        <v>230</v>
       </c>
       <c r="C177" t="s">
         <v>2</v>
@@ -4541,13 +4523,13 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
+        <v>246</v>
+      </c>
+      <c r="B178" t="s">
         <v>247</v>
       </c>
-      <c r="B178" t="s">
-        <v>15</v>
-      </c>
       <c r="C178" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -4555,10 +4537,10 @@
         <v>248</v>
       </c>
       <c r="B179" t="s">
-        <v>233</v>
+        <v>97</v>
       </c>
       <c r="C179" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -4577,10 +4559,10 @@
         <v>251</v>
       </c>
       <c r="B181" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="C181" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -4621,21 +4603,21 @@
         <v>257</v>
       </c>
       <c r="B185" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="C185" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B186" t="s">
-        <v>259</v>
+        <v>15</v>
       </c>
       <c r="C186" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -4654,7 +4636,7 @@
         <v>262</v>
       </c>
       <c r="B188" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C188" t="s">
         <v>2</v>
@@ -4665,7 +4647,7 @@
         <v>263</v>
       </c>
       <c r="B189" t="s">
-        <v>264</v>
+        <v>86</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -4673,10 +4655,10 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
+        <v>264</v>
+      </c>
+      <c r="B190" t="s">
         <v>265</v>
-      </c>
-      <c r="B190" t="s">
-        <v>11</v>
       </c>
       <c r="C190" t="s">
         <v>2</v>
@@ -4687,7 +4669,7 @@
         <v>266</v>
       </c>
       <c r="B191" t="s">
-        <v>88</v>
+        <v>267</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -4695,10 +4677,10 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B192" t="s">
-        <v>268</v>
+        <v>15</v>
       </c>
       <c r="C192" t="s">
         <v>2</v>
@@ -4709,18 +4691,18 @@
         <v>269</v>
       </c>
       <c r="B193" t="s">
-        <v>270</v>
+        <v>15</v>
       </c>
       <c r="C193" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B194" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C194" t="s">
         <v>2</v>
@@ -4728,13 +4710,13 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
+        <v>271</v>
+      </c>
+      <c r="B195" t="s">
         <v>272</v>
       </c>
-      <c r="B195" t="s">
-        <v>15</v>
-      </c>
       <c r="C195" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -4742,7 +4724,7 @@
         <v>273</v>
       </c>
       <c r="B196" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C196" t="s">
         <v>2</v>
@@ -4753,18 +4735,18 @@
         <v>274</v>
       </c>
       <c r="B197" t="s">
-        <v>275</v>
+        <v>15</v>
       </c>
       <c r="C197" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
+        <v>275</v>
+      </c>
+      <c r="B198" t="s">
         <v>276</v>
-      </c>
-      <c r="B198" t="s">
-        <v>15</v>
       </c>
       <c r="C198" t="s">
         <v>2</v>
@@ -4775,7 +4757,7 @@
         <v>277</v>
       </c>
       <c r="B199" t="s">
-        <v>15</v>
+        <v>278</v>
       </c>
       <c r="C199" t="s">
         <v>2</v>
@@ -4783,21 +4765,21 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B200" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C200" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B201" t="s">
-        <v>281</v>
+        <v>19</v>
       </c>
       <c r="C201" t="s">
         <v>2</v>
@@ -4808,7 +4790,7 @@
         <v>282</v>
       </c>
       <c r="B202" t="s">
-        <v>283</v>
+        <v>27</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
@@ -4816,13 +4798,16 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
+        <v>283</v>
+      </c>
+      <c r="B203" t="s">
         <v>284</v>
       </c>
-      <c r="B203" t="s">
-        <v>19</v>
-      </c>
       <c r="C203" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="D203" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -4830,7 +4815,7 @@
         <v>285</v>
       </c>
       <c r="B204" t="s">
-        <v>27</v>
+        <v>286</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
@@ -4838,16 +4823,16 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B205" t="s">
-        <v>287</v>
+        <v>15</v>
       </c>
       <c r="C205" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D205" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -4855,24 +4840,21 @@
         <v>288</v>
       </c>
       <c r="B206" t="s">
-        <v>289</v>
+        <v>15</v>
       </c>
       <c r="C206" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
+        <v>289</v>
+      </c>
+      <c r="B207" t="s">
         <v>290</v>
       </c>
-      <c r="B207" t="s">
-        <v>15</v>
-      </c>
       <c r="C207" t="s">
         <v>2</v>
-      </c>
-      <c r="D207" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -4880,7 +4862,7 @@
         <v>291</v>
       </c>
       <c r="B208" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C208" t="s">
         <v>2</v>
@@ -4891,7 +4873,7 @@
         <v>292</v>
       </c>
       <c r="B209" t="s">
-        <v>293</v>
+        <v>15</v>
       </c>
       <c r="C209" t="s">
         <v>2</v>
@@ -4899,10 +4881,10 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B210" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C210" t="s">
         <v>2</v>
@@ -4910,115 +4892,118 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B211" t="s">
-        <v>15</v>
+        <v>256</v>
       </c>
       <c r="C211" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B212" t="s">
-        <v>15</v>
+        <v>280</v>
       </c>
       <c r="C212" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B213" t="s">
-        <v>259</v>
+        <v>69</v>
       </c>
       <c r="C213" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="D213" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B214" t="s">
-        <v>283</v>
+        <v>19</v>
       </c>
       <c r="C214" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B215" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="C215" t="s">
-        <v>2</v>
-      </c>
-      <c r="D215" t="s">
-        <v>548</v>
+        <v>5</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B216" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="C216" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B217" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="C217" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B218" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="C218" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B219" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C219" t="s">
         <v>2</v>
+      </c>
+      <c r="D219" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
+        <v>303</v>
+      </c>
+      <c r="B220" t="s">
         <v>304</v>
       </c>
-      <c r="B220" t="s">
-        <v>17</v>
-      </c>
       <c r="C220" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -5026,13 +5011,10 @@
         <v>305</v>
       </c>
       <c r="B221" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C221" t="s">
         <v>2</v>
-      </c>
-      <c r="D221" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -5040,18 +5022,18 @@
         <v>306</v>
       </c>
       <c r="B222" t="s">
-        <v>307</v>
+        <v>15</v>
       </c>
       <c r="C222" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B223" t="s">
-        <v>15</v>
+        <v>118</v>
       </c>
       <c r="C223" t="s">
         <v>2</v>
@@ -5059,74 +5041,74 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
+        <v>308</v>
+      </c>
+      <c r="B224" t="s">
+        <v>15</v>
+      </c>
+      <c r="C224" t="s">
+        <v>2</v>
+      </c>
+      <c r="D224" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
         <v>309</v>
       </c>
-      <c r="B224" t="s">
-        <v>15</v>
-      </c>
-      <c r="C224" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
+      <c r="B225" t="s">
         <v>310</v>
       </c>
-      <c r="B225" t="s">
-        <v>121</v>
-      </c>
       <c r="C225" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>311</v>
       </c>
       <c r="B226" t="s">
-        <v>15</v>
+        <v>312</v>
       </c>
       <c r="C226" t="s">
-        <v>2</v>
-      </c>
-      <c r="D226" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B227" t="s">
-        <v>313</v>
+        <v>15</v>
       </c>
       <c r="C227" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>314</v>
       </c>
       <c r="B228" t="s">
+        <v>15</v>
+      </c>
+      <c r="C228" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
         <v>315</v>
       </c>
-      <c r="C228" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
+      <c r="B229" t="s">
         <v>316</v>
       </c>
-      <c r="B229" t="s">
-        <v>15</v>
-      </c>
       <c r="C229" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>317</v>
       </c>
@@ -5137,106 +5119,106 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>318</v>
       </c>
       <c r="B231" t="s">
+        <v>19</v>
+      </c>
+      <c r="C231" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
         <v>319</v>
       </c>
-      <c r="C231" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
+      <c r="B232" t="s">
+        <v>19</v>
+      </c>
+      <c r="C232" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
         <v>320</v>
       </c>
-      <c r="B232" t="s">
-        <v>15</v>
-      </c>
-      <c r="C232" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
+      <c r="B233" t="s">
         <v>321</v>
       </c>
-      <c r="B233" t="s">
-        <v>19</v>
-      </c>
       <c r="C233" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>322</v>
       </c>
       <c r="B234" t="s">
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="C234" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>323</v>
       </c>
       <c r="B235" t="s">
+        <v>50</v>
+      </c>
+      <c r="C235" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
         <v>324</v>
       </c>
-      <c r="C235" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
+      <c r="B236" t="s">
         <v>325</v>
       </c>
-      <c r="B236" t="s">
-        <v>134</v>
-      </c>
       <c r="C236" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>326</v>
       </c>
       <c r="B237" t="s">
-        <v>50</v>
+        <v>327</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B238" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B239" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="C239" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>331</v>
       </c>
@@ -5244,7 +5226,7 @@
         <v>332</v>
       </c>
       <c r="C240" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
@@ -5252,7 +5234,7 @@
         <v>333</v>
       </c>
       <c r="B241" t="s">
-        <v>319</v>
+        <v>19</v>
       </c>
       <c r="C241" t="s">
         <v>2</v>
@@ -5266,7 +5248,7 @@
         <v>335</v>
       </c>
       <c r="C242" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
@@ -5274,10 +5256,10 @@
         <v>336</v>
       </c>
       <c r="B243" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="C243" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -5285,26 +5267,26 @@
         <v>337</v>
       </c>
       <c r="B244" t="s">
-        <v>338</v>
+        <v>15</v>
       </c>
       <c r="C244" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B245" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C245" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B246" t="s">
         <v>15</v>
@@ -5315,10 +5297,10 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B247" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="C247" t="s">
         <v>2</v>
@@ -5326,21 +5308,21 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B248" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="C248" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B249" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="C249" t="s">
         <v>2</v>
@@ -5348,21 +5330,21 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B250" t="s">
         <v>101</v>
       </c>
       <c r="C250" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B251" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="C251" t="s">
         <v>2</v>
@@ -5370,10 +5352,10 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B252" t="s">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="C252" t="s">
         <v>2</v>
@@ -5381,13 +5363,13 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
+        <v>346</v>
+      </c>
+      <c r="B253" t="s">
         <v>347</v>
       </c>
-      <c r="B253" t="s">
-        <v>15</v>
-      </c>
       <c r="C253" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -5395,29 +5377,29 @@
         <v>348</v>
       </c>
       <c r="B254" t="s">
-        <v>19</v>
+        <v>349</v>
       </c>
       <c r="C254" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B255" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C255" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B256" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C256" t="s">
         <v>5</v>
@@ -5425,10 +5407,10 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B257" t="s">
-        <v>354</v>
+        <v>71</v>
       </c>
       <c r="C257" t="s">
         <v>2</v>
@@ -5439,18 +5421,18 @@
         <v>355</v>
       </c>
       <c r="B258" t="s">
-        <v>356</v>
+        <v>15</v>
       </c>
       <c r="C258" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B259" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="C259" t="s">
         <v>2</v>
@@ -5458,7 +5440,7 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B260" t="s">
         <v>15</v>
@@ -5469,10 +5451,10 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B261" t="s">
-        <v>19</v>
+        <v>316</v>
       </c>
       <c r="C261" t="s">
         <v>2</v>
@@ -5480,7 +5462,7 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B262" t="s">
         <v>15</v>
@@ -5491,10 +5473,10 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B263" t="s">
-        <v>319</v>
+        <v>101</v>
       </c>
       <c r="C263" t="s">
         <v>2</v>
@@ -5502,7 +5484,7 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B264" t="s">
         <v>15</v>
@@ -5513,10 +5495,10 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B265" t="s">
-        <v>103</v>
+        <v>177</v>
       </c>
       <c r="C265" t="s">
         <v>2</v>
@@ -5524,7 +5506,7 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B266" t="s">
         <v>15</v>
@@ -5535,10 +5517,10 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B267" t="s">
-        <v>180</v>
+        <v>15</v>
       </c>
       <c r="C267" t="s">
         <v>2</v>
@@ -5546,10 +5528,10 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B268" t="s">
-        <v>15</v>
+        <v>316</v>
       </c>
       <c r="C268" t="s">
         <v>2</v>
@@ -5557,32 +5539,32 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B269" t="s">
-        <v>15</v>
+        <v>353</v>
       </c>
       <c r="C269" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B270" t="s">
-        <v>369</v>
+        <v>15</v>
       </c>
       <c r="C270" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B271" t="s">
-        <v>319</v>
+        <v>19</v>
       </c>
       <c r="C271" t="s">
         <v>2</v>
@@ -5590,10 +5572,10 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B272" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="C272" t="s">
         <v>5</v>
@@ -5601,10 +5583,10 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B273" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C273" t="s">
         <v>2</v>
@@ -5612,57 +5594,57 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B274" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C274" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B275" t="s">
-        <v>375</v>
+        <v>19</v>
       </c>
       <c r="C275" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B276" t="s">
-        <v>19</v>
+        <v>375</v>
       </c>
       <c r="C276" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B277" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C277" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
+        <v>377</v>
+      </c>
+      <c r="B278" t="s">
         <v>378</v>
       </c>
-      <c r="B278" t="s">
-        <v>19</v>
-      </c>
       <c r="C278" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
@@ -5681,7 +5663,7 @@
         <v>381</v>
       </c>
       <c r="B280" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C280" t="s">
         <v>2</v>
@@ -5692,18 +5674,21 @@
         <v>382</v>
       </c>
       <c r="B281" t="s">
-        <v>383</v>
+        <v>129</v>
       </c>
       <c r="C281" t="s">
         <v>5</v>
+      </c>
+      <c r="D281" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B282" t="s">
-        <v>385</v>
+        <v>99</v>
       </c>
       <c r="C282" t="s">
         <v>5</v>
@@ -5711,10 +5696,10 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B283" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="C283" t="s">
         <v>2</v>
@@ -5722,24 +5707,21 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B284" t="s">
-        <v>132</v>
+        <v>312</v>
       </c>
       <c r="C284" t="s">
         <v>5</v>
-      </c>
-      <c r="D284" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B285" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C285" t="s">
         <v>5</v>
@@ -5747,32 +5729,32 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B286" t="s">
-        <v>17</v>
+        <v>312</v>
       </c>
       <c r="C286" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B287" t="s">
-        <v>315</v>
+        <v>19</v>
       </c>
       <c r="C287" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B288" t="s">
-        <v>101</v>
+        <v>390</v>
       </c>
       <c r="C288" t="s">
         <v>5</v>
@@ -5780,43 +5762,43 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B289" t="s">
-        <v>315</v>
+        <v>15</v>
       </c>
       <c r="C289" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B290" t="s">
-        <v>19</v>
+        <v>312</v>
       </c>
       <c r="C290" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B291" t="s">
-        <v>395</v>
+        <v>15</v>
       </c>
       <c r="C291" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B292" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C292" t="s">
         <v>2</v>
@@ -5824,21 +5806,21 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B293" t="s">
-        <v>315</v>
+        <v>15</v>
       </c>
       <c r="C293" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B294" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="C294" t="s">
         <v>2</v>
@@ -5846,10 +5828,10 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B295" t="s">
-        <v>19</v>
+        <v>398</v>
       </c>
       <c r="C295" t="s">
         <v>2</v>
@@ -5857,13 +5839,13 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
+        <v>399</v>
+      </c>
+      <c r="B296" t="s">
         <v>400</v>
       </c>
-      <c r="B296" t="s">
-        <v>15</v>
-      </c>
       <c r="C296" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
@@ -5871,7 +5853,7 @@
         <v>401</v>
       </c>
       <c r="B297" t="s">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="C297" t="s">
         <v>2</v>
@@ -5879,10 +5861,10 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B298" t="s">
-        <v>403</v>
+        <v>19</v>
       </c>
       <c r="C298" t="s">
         <v>2</v>
@@ -5896,7 +5878,7 @@
         <v>405</v>
       </c>
       <c r="C299" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
@@ -5904,7 +5886,7 @@
         <v>406</v>
       </c>
       <c r="B300" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C300" t="s">
         <v>2</v>
@@ -5926,7 +5908,7 @@
         <v>409</v>
       </c>
       <c r="B302" t="s">
-        <v>19</v>
+        <v>177</v>
       </c>
       <c r="C302" t="s">
         <v>2</v>
@@ -5937,7 +5919,7 @@
         <v>410</v>
       </c>
       <c r="B303" t="s">
-        <v>411</v>
+        <v>115</v>
       </c>
       <c r="C303" t="s">
         <v>2</v>
@@ -5945,13 +5927,13 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
+        <v>411</v>
+      </c>
+      <c r="B304" t="s">
         <v>412</v>
       </c>
-      <c r="B304" t="s">
-        <v>15</v>
-      </c>
       <c r="C304" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
@@ -5970,7 +5952,7 @@
         <v>415</v>
       </c>
       <c r="B306" t="s">
-        <v>180</v>
+        <v>115</v>
       </c>
       <c r="C306" t="s">
         <v>2</v>
@@ -5981,7 +5963,7 @@
         <v>416</v>
       </c>
       <c r="B307" t="s">
-        <v>117</v>
+        <v>37</v>
       </c>
       <c r="C307" t="s">
         <v>2</v>
@@ -5995,7 +5977,7 @@
         <v>418</v>
       </c>
       <c r="C308" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
@@ -6003,7 +5985,7 @@
         <v>419</v>
       </c>
       <c r="B309" t="s">
-        <v>420</v>
+        <v>15</v>
       </c>
       <c r="C309" t="s">
         <v>2</v>
@@ -6011,21 +5993,21 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B310" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="C310" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B311" t="s">
-        <v>37</v>
+        <v>418</v>
       </c>
       <c r="C311" t="s">
         <v>2</v>
@@ -6033,10 +6015,10 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
+        <v>422</v>
+      </c>
+      <c r="B312" t="s">
         <v>423</v>
-      </c>
-      <c r="B312" t="s">
-        <v>424</v>
       </c>
       <c r="C312" t="s">
         <v>2</v>
@@ -6044,32 +6026,32 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B313" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C313" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B314" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C314" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B315" t="s">
-        <v>424</v>
+        <v>1</v>
       </c>
       <c r="C315" t="s">
         <v>2</v>
@@ -6077,29 +6059,29 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B316" t="s">
-        <v>429</v>
+        <v>9</v>
       </c>
       <c r="C316" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B317" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C317" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B318" t="s">
         <v>19</v>
@@ -6110,10 +6092,10 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B319" t="s">
-        <v>1</v>
+        <v>423</v>
       </c>
       <c r="C319" t="s">
         <v>2</v>
@@ -6121,21 +6103,21 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B320" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C320" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B321" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C321" t="s">
         <v>2</v>
@@ -6143,21 +6125,21 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B322" t="s">
-        <v>19</v>
+        <v>310</v>
       </c>
       <c r="C322" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B323" t="s">
-        <v>429</v>
+        <v>15</v>
       </c>
       <c r="C323" t="s">
         <v>2</v>
@@ -6165,32 +6147,32 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B324" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="C324" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B325" t="s">
-        <v>15</v>
+        <v>437</v>
       </c>
       <c r="C325" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
+        <v>438</v>
+      </c>
+      <c r="B326" t="s">
         <v>439</v>
-      </c>
-      <c r="B326" t="s">
-        <v>313</v>
       </c>
       <c r="C326" t="s">
         <v>5</v>
@@ -6212,10 +6194,10 @@
         <v>441</v>
       </c>
       <c r="B328" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="C328" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
@@ -6223,7 +6205,7 @@
         <v>442</v>
       </c>
       <c r="B329" t="s">
-        <v>443</v>
+        <v>131</v>
       </c>
       <c r="C329" t="s">
         <v>5</v>
@@ -6231,10 +6213,10 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B330" t="s">
-        <v>445</v>
+        <v>312</v>
       </c>
       <c r="C330" t="s">
         <v>5</v>
@@ -6242,18 +6224,18 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B331" t="s">
-        <v>15</v>
+        <v>445</v>
       </c>
       <c r="C331" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B332" t="s">
         <v>19</v>
@@ -6264,43 +6246,43 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B333" t="s">
-        <v>134</v>
+        <v>17</v>
       </c>
       <c r="C333" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B334" t="s">
-        <v>315</v>
+        <v>408</v>
       </c>
       <c r="C334" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B335" t="s">
-        <v>451</v>
+        <v>15</v>
       </c>
       <c r="C335" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B336" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C336" t="s">
         <v>2</v>
@@ -6308,7 +6290,7 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B337" t="s">
         <v>17</v>
@@ -6319,10 +6301,10 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B338" t="s">
-        <v>414</v>
+        <v>177</v>
       </c>
       <c r="C338" t="s">
         <v>2</v>
@@ -6330,21 +6312,21 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B339" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="C339" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B340" t="s">
-        <v>15</v>
+        <v>402</v>
       </c>
       <c r="C340" t="s">
         <v>2</v>
@@ -6352,21 +6334,21 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B341" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C341" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B342" t="s">
-        <v>180</v>
+        <v>19</v>
       </c>
       <c r="C342" t="s">
         <v>2</v>
@@ -6374,10 +6356,10 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B343" t="s">
-        <v>107</v>
+        <v>458</v>
       </c>
       <c r="C343" t="s">
         <v>5</v>
@@ -6385,21 +6367,24 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B344" t="s">
-        <v>408</v>
+        <v>27</v>
       </c>
       <c r="C344" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="D344" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
+        <v>460</v>
+      </c>
+      <c r="B345" t="s">
         <v>461</v>
-      </c>
-      <c r="B345" t="s">
-        <v>24</v>
       </c>
       <c r="C345" t="s">
         <v>5</v>
@@ -6410,10 +6395,10 @@
         <v>462</v>
       </c>
       <c r="B346" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C346" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
@@ -6421,7 +6406,7 @@
         <v>463</v>
       </c>
       <c r="B347" t="s">
-        <v>464</v>
+        <v>105</v>
       </c>
       <c r="C347" t="s">
         <v>5</v>
@@ -6429,46 +6414,43 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B348" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C348" t="s">
-        <v>5</v>
-      </c>
-      <c r="D348" t="s">
-        <v>548</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B349" t="s">
-        <v>467</v>
+        <v>15</v>
       </c>
       <c r="C349" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B350" t="s">
-        <v>27</v>
+        <v>467</v>
       </c>
       <c r="C350" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B351" t="s">
-        <v>107</v>
+        <v>312</v>
       </c>
       <c r="C351" t="s">
         <v>5</v>
@@ -6476,13 +6458,13 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
+        <v>469</v>
+      </c>
+      <c r="B352" t="s">
         <v>470</v>
       </c>
-      <c r="B352" t="s">
-        <v>19</v>
-      </c>
       <c r="C352" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
@@ -6490,10 +6472,13 @@
         <v>471</v>
       </c>
       <c r="B353" t="s">
-        <v>15</v>
+        <v>408</v>
       </c>
       <c r="C353" t="s">
         <v>2</v>
+      </c>
+      <c r="D353" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
@@ -6501,7 +6486,7 @@
         <v>472</v>
       </c>
       <c r="B354" t="s">
-        <v>473</v>
+        <v>19</v>
       </c>
       <c r="C354" t="s">
         <v>2</v>
@@ -6509,13 +6494,13 @@
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
+        <v>473</v>
+      </c>
+      <c r="B355" t="s">
         <v>474</v>
       </c>
-      <c r="B355" t="s">
-        <v>315</v>
-      </c>
       <c r="C355" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
@@ -6523,32 +6508,29 @@
         <v>475</v>
       </c>
       <c r="B356" t="s">
-        <v>476</v>
+        <v>15</v>
       </c>
       <c r="C356" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B357" t="s">
-        <v>414</v>
+        <v>15</v>
       </c>
       <c r="C357" t="s">
         <v>2</v>
-      </c>
-      <c r="D357" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B358" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C358" t="s">
         <v>2</v>
@@ -6556,10 +6538,10 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B359" t="s">
-        <v>480</v>
+        <v>15</v>
       </c>
       <c r="C359" t="s">
         <v>2</v>
@@ -6567,7 +6549,7 @@
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B360" t="s">
         <v>15</v>
@@ -6578,7 +6560,7 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B361" t="s">
         <v>15</v>
@@ -6589,10 +6571,10 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B362" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C362" t="s">
         <v>2</v>
@@ -6600,7 +6582,7 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B363" t="s">
         <v>15</v>
@@ -6611,18 +6593,18 @@
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B364" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="C364" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B365" t="s">
         <v>15</v>
@@ -6633,10 +6615,10 @@
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B366" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C366" t="s">
         <v>2</v>
@@ -6644,24 +6626,24 @@
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B367" t="s">
-        <v>15</v>
+        <v>487</v>
       </c>
       <c r="C367" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
+        <v>488</v>
+      </c>
+      <c r="B368" t="s">
         <v>489</v>
       </c>
-      <c r="B368" t="s">
-        <v>93</v>
-      </c>
       <c r="C368" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
@@ -6669,7 +6651,7 @@
         <v>490</v>
       </c>
       <c r="B369" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C369" t="s">
         <v>2</v>
@@ -6680,10 +6662,13 @@
         <v>491</v>
       </c>
       <c r="B370" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C370" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="D370" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
@@ -6691,7 +6676,7 @@
         <v>492</v>
       </c>
       <c r="B371" t="s">
-        <v>493</v>
+        <v>131</v>
       </c>
       <c r="C371" t="s">
         <v>5</v>
@@ -6699,10 +6684,10 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B372" t="s">
-        <v>495</v>
+        <v>19</v>
       </c>
       <c r="C372" t="s">
         <v>2</v>
@@ -6710,35 +6695,32 @@
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B373" t="s">
-        <v>19</v>
+        <v>495</v>
       </c>
       <c r="C373" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B374" t="s">
-        <v>7</v>
+        <v>129</v>
       </c>
       <c r="C374" t="s">
         <v>5</v>
-      </c>
-      <c r="D374" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B375" t="s">
-        <v>134</v>
+        <v>50</v>
       </c>
       <c r="C375" t="s">
         <v>5</v>
@@ -6746,7 +6728,7 @@
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B376" t="s">
         <v>19</v>
@@ -6757,32 +6739,32 @@
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B377" t="s">
-        <v>501</v>
+        <v>17</v>
       </c>
       <c r="C377" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B378" t="s">
-        <v>132</v>
+        <v>15</v>
       </c>
       <c r="C378" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B379" t="s">
-        <v>50</v>
+        <v>353</v>
       </c>
       <c r="C379" t="s">
         <v>5</v>
@@ -6790,7 +6772,7 @@
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>504</v>
+        <v>543</v>
       </c>
       <c r="B380" t="s">
         <v>19</v>
@@ -6801,21 +6783,21 @@
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B381" t="s">
-        <v>17</v>
+        <v>503</v>
       </c>
       <c r="C381" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B382" t="s">
-        <v>15</v>
+        <v>505</v>
       </c>
       <c r="C382" t="s">
         <v>2</v>
@@ -6823,10 +6805,10 @@
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
+        <v>506</v>
+      </c>
+      <c r="B383" t="s">
         <v>507</v>
-      </c>
-      <c r="B383" t="s">
-        <v>356</v>
       </c>
       <c r="C383" t="s">
         <v>5</v>
@@ -6834,10 +6816,10 @@
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>549</v>
+        <v>508</v>
       </c>
       <c r="B384" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="C384" t="s">
         <v>2</v>
@@ -6845,13 +6827,13 @@
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B385" t="s">
-        <v>509</v>
+        <v>19</v>
       </c>
       <c r="C385" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
@@ -6862,7 +6844,7 @@
         <v>511</v>
       </c>
       <c r="C386" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
@@ -6870,18 +6852,18 @@
         <v>512</v>
       </c>
       <c r="B387" t="s">
-        <v>513</v>
+        <v>15</v>
       </c>
       <c r="C387" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B388" t="s">
-        <v>71</v>
+        <v>177</v>
       </c>
       <c r="C388" t="s">
         <v>2</v>
@@ -6889,13 +6871,13 @@
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
+        <v>514</v>
+      </c>
+      <c r="B389" t="s">
         <v>515</v>
       </c>
-      <c r="B389" t="s">
-        <v>19</v>
-      </c>
       <c r="C389" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
@@ -6903,15 +6885,15 @@
         <v>516</v>
       </c>
       <c r="B390" t="s">
-        <v>517</v>
+        <v>332</v>
       </c>
       <c r="C390" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B391" t="s">
         <v>15</v>
@@ -6922,68 +6904,68 @@
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B392" t="s">
-        <v>180</v>
+        <v>19</v>
       </c>
       <c r="C392" t="s">
         <v>2</v>
+      </c>
+      <c r="D392" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B393" t="s">
-        <v>521</v>
+        <v>15</v>
       </c>
       <c r="C393" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B394" t="s">
-        <v>335</v>
+        <v>97</v>
       </c>
       <c r="C394" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B395" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C395" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B396" t="s">
         <v>19</v>
       </c>
       <c r="C396" t="s">
         <v>2</v>
-      </c>
-      <c r="D396" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B397" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C397" t="s">
         <v>2</v>
@@ -6991,32 +6973,32 @@
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B398" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="C398" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B399" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="C399" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B400" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C400" t="s">
         <v>2</v>
@@ -7024,18 +7006,21 @@
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B401" t="s">
-        <v>37</v>
+        <v>528</v>
       </c>
       <c r="C401" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="D401" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B402" t="s">
         <v>15</v>
@@ -7046,13 +7031,13 @@
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
+        <v>530</v>
+      </c>
+      <c r="B403" t="s">
         <v>531</v>
       </c>
-      <c r="B403" t="s">
-        <v>15</v>
-      </c>
       <c r="C403" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
@@ -7074,10 +7059,7 @@
         <v>534</v>
       </c>
       <c r="C405" t="s">
-        <v>5</v>
-      </c>
-      <c r="D405" t="s">
-        <v>548</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
@@ -7096,53 +7078,9 @@
         <v>536</v>
       </c>
       <c r="B407" t="s">
-        <v>537</v>
+        <v>19</v>
       </c>
       <c r="C407" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A408" t="s">
-        <v>538</v>
-      </c>
-      <c r="B408" t="s">
-        <v>15</v>
-      </c>
-      <c r="C408" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A409" t="s">
-        <v>539</v>
-      </c>
-      <c r="B409" t="s">
-        <v>540</v>
-      </c>
-      <c r="C409" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A410" t="s">
-        <v>541</v>
-      </c>
-      <c r="B410" t="s">
-        <v>15</v>
-      </c>
-      <c r="C410" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A411" t="s">
-        <v>542</v>
-      </c>
-      <c r="B411" t="s">
-        <v>19</v>
-      </c>
-      <c r="C411" t="s">
         <v>2</v>
       </c>
     </row>

--- a/assets/guncel_deneme_bonuslari_listesi.xlsx
+++ b/assets/guncel_deneme_bonuslari_listesi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cengi\Desktop\test\Deneme Bonusu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CCB15E-1526-4C65-948E-CB013E271C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D71E24C-FEB6-493B-A877-AC950936C9ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CD7B2693-F8D1-429F-9AB3-DB64ACA5183F}"/>
+    <workbookView xWindow="32745" yWindow="3795" windowWidth="21600" windowHeight="11295" xr2:uid="{CD7B2693-F8D1-429F-9AB3-DB64ACA5183F}"/>
   </bookViews>
   <sheets>
     <sheet name="guncel_deneme_bonuslari_listesi" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="546">
   <si>
     <t>1king</t>
   </si>
@@ -1655,6 +1655,12 @@
   </si>
   <si>
     <t>turkbet</t>
+  </si>
+  <si>
+    <t>casinospino</t>
+  </si>
+  <si>
+    <t>casitoros</t>
   </si>
 </sst>
 </file>
@@ -2533,11 +2539,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F56ED3D-A3F2-450D-9EAE-1214C3EA2069}">
-  <dimension ref="A1:D407"/>
+  <dimension ref="A1:D409"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A370" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B393" sqref="B393"/>
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B134" sqref="B134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4008,13 +4014,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>190</v>
+        <v>544</v>
       </c>
       <c r="B132" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C132" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D132" t="s">
         <v>542</v>
@@ -4022,60 +4028,63 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>191</v>
+        <v>545</v>
       </c>
       <c r="B133" t="s">
         <v>19</v>
       </c>
       <c r="C133" t="s">
         <v>2</v>
+      </c>
+      <c r="D133" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B134" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
+      </c>
+      <c r="D134" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>540</v>
+        <v>191</v>
       </c>
       <c r="B135" t="s">
         <v>19</v>
       </c>
       <c r="C135" t="s">
         <v>2</v>
-      </c>
-      <c r="D135" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B136" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="C136" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>194</v>
+        <v>540</v>
       </c>
       <c r="B137" t="s">
-        <v>195</v>
+        <v>19</v>
       </c>
       <c r="C137" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D137" t="s">
         <v>542</v>
@@ -4083,32 +4092,35 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B138" t="s">
-        <v>197</v>
+        <v>19</v>
       </c>
       <c r="C138" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B139" t="s">
-        <v>19</v>
+        <v>195</v>
       </c>
       <c r="C139" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="D139" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B140" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -4116,32 +4128,32 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B141" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C141" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B142" t="s">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="C142" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B143" t="s">
-        <v>204</v>
+        <v>27</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -4149,10 +4161,10 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B144" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C144" t="s">
         <v>2</v>
@@ -4160,21 +4172,21 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B145" t="s">
-        <v>15</v>
+        <v>204</v>
       </c>
       <c r="C145" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B146" t="s">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="C146" t="s">
         <v>2</v>
@@ -4182,10 +4194,10 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B147" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C147" t="s">
         <v>2</v>
@@ -4193,10 +4205,10 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B148" t="s">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="C148" t="s">
         <v>2</v>
@@ -4204,10 +4216,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B149" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C149" t="s">
         <v>2</v>
@@ -4215,21 +4227,21 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B150" t="s">
-        <v>212</v>
+        <v>19</v>
       </c>
       <c r="C150" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B151" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C151" t="s">
         <v>2</v>
@@ -4237,10 +4249,10 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B152" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -4248,7 +4260,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B153" t="s">
         <v>15</v>
@@ -4259,21 +4271,21 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B154" t="s">
-        <v>19</v>
+        <v>215</v>
       </c>
       <c r="C154" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B155" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C155" t="s">
         <v>2</v>
@@ -4281,21 +4293,21 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B156" t="s">
-        <v>220</v>
+        <v>19</v>
       </c>
       <c r="C156" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B157" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C157" t="s">
         <v>2</v>
@@ -4303,10 +4315,10 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B158" t="s">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -4314,10 +4326,10 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B159" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C159" t="s">
         <v>2</v>
@@ -4325,32 +4337,32 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B160" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C160" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B161" t="s">
-        <v>226</v>
+        <v>19</v>
       </c>
       <c r="C161" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B162" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="C162" t="s">
         <v>2</v>
@@ -4358,21 +4370,21 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B163" t="s">
-        <v>19</v>
+        <v>226</v>
       </c>
       <c r="C163" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B164" t="s">
-        <v>230</v>
+        <v>101</v>
       </c>
       <c r="C164" t="s">
         <v>2</v>
@@ -4380,10 +4392,10 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B165" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="C165" t="s">
         <v>2</v>
@@ -4391,10 +4403,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B166" t="s">
-        <v>11</v>
+        <v>230</v>
       </c>
       <c r="C166" t="s">
         <v>2</v>
@@ -4402,10 +4414,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B167" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="C167" t="s">
         <v>2</v>
@@ -4413,10 +4425,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B168" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C168" t="s">
         <v>2</v>
@@ -4424,21 +4436,21 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B169" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="C169" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B170" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C170" t="s">
         <v>2</v>
@@ -4446,10 +4458,10 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B171" t="s">
-        <v>238</v>
+        <v>97</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -4457,10 +4469,10 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B172" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C172" t="s">
         <v>2</v>
@@ -4468,10 +4480,10 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B173" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -4479,43 +4491,43 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B174" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="C174" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B175" t="s">
-        <v>40</v>
+        <v>241</v>
       </c>
       <c r="C175" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B176" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="C176" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B177" t="s">
-        <v>230</v>
+        <v>40</v>
       </c>
       <c r="C177" t="s">
         <v>2</v>
@@ -4523,32 +4535,32 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B178" t="s">
-        <v>247</v>
+        <v>15</v>
       </c>
       <c r="C178" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B179" t="s">
-        <v>97</v>
+        <v>230</v>
       </c>
       <c r="C179" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B180" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -4556,21 +4568,21 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B181" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="C181" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B182" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -4578,7 +4590,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B183" t="s">
         <v>15</v>
@@ -4589,10 +4601,10 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B184" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -4600,32 +4612,32 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B185" t="s">
-        <v>258</v>
+        <v>15</v>
       </c>
       <c r="C185" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B186" t="s">
-        <v>15</v>
+        <v>256</v>
       </c>
       <c r="C186" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B187" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -4633,10 +4645,10 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B188" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C188" t="s">
         <v>2</v>
@@ -4644,10 +4656,10 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B189" t="s">
-        <v>86</v>
+        <v>261</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -4655,10 +4667,10 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B190" t="s">
-        <v>265</v>
+        <v>11</v>
       </c>
       <c r="C190" t="s">
         <v>2</v>
@@ -4666,10 +4678,10 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B191" t="s">
-        <v>267</v>
+        <v>86</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -4677,10 +4689,10 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B192" t="s">
-        <v>15</v>
+        <v>265</v>
       </c>
       <c r="C192" t="s">
         <v>2</v>
@@ -4688,21 +4700,21 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B193" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="C193" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B194" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C194" t="s">
         <v>2</v>
@@ -4710,21 +4722,21 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B195" t="s">
-        <v>272</v>
+        <v>15</v>
       </c>
       <c r="C195" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B196" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C196" t="s">
         <v>2</v>
@@ -4732,21 +4744,21 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B197" t="s">
-        <v>15</v>
+        <v>272</v>
       </c>
       <c r="C197" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B198" t="s">
-        <v>276</v>
+        <v>15</v>
       </c>
       <c r="C198" t="s">
         <v>2</v>
@@ -4754,10 +4766,10 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B199" t="s">
-        <v>278</v>
+        <v>15</v>
       </c>
       <c r="C199" t="s">
         <v>2</v>
@@ -4765,21 +4777,21 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B200" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C200" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B201" t="s">
-        <v>19</v>
+        <v>278</v>
       </c>
       <c r="C201" t="s">
         <v>2</v>
@@ -4787,10 +4799,10 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B202" t="s">
-        <v>27</v>
+        <v>280</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
@@ -4798,24 +4810,21 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B203" t="s">
-        <v>284</v>
+        <v>19</v>
       </c>
       <c r="C203" t="s">
-        <v>5</v>
-      </c>
-      <c r="D203" t="s">
-        <v>542</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B204" t="s">
-        <v>286</v>
+        <v>27</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
@@ -4823,13 +4832,13 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B205" t="s">
-        <v>15</v>
+        <v>284</v>
       </c>
       <c r="C205" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D205" t="s">
         <v>542</v>
@@ -4837,32 +4846,35 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B206" t="s">
-        <v>15</v>
+        <v>286</v>
       </c>
       <c r="C206" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B207" t="s">
-        <v>290</v>
+        <v>15</v>
       </c>
       <c r="C207" t="s">
         <v>2</v>
+      </c>
+      <c r="D207" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B208" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C208" t="s">
         <v>2</v>
@@ -4870,10 +4882,10 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B209" t="s">
-        <v>15</v>
+        <v>290</v>
       </c>
       <c r="C209" t="s">
         <v>2</v>
@@ -4881,10 +4893,10 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B210" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C210" t="s">
         <v>2</v>
@@ -4892,148 +4904,148 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B211" t="s">
-        <v>256</v>
+        <v>15</v>
       </c>
       <c r="C211" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B212" t="s">
-        <v>280</v>
+        <v>15</v>
       </c>
       <c r="C212" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B213" t="s">
-        <v>69</v>
+        <v>256</v>
       </c>
       <c r="C213" t="s">
-        <v>2</v>
-      </c>
-      <c r="D213" t="s">
-        <v>542</v>
+        <v>5</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B214" t="s">
-        <v>19</v>
+        <v>280</v>
       </c>
       <c r="C214" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B215" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="C215" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="D215" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B216" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="C216" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B217" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="C217" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B218" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="C218" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B219" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C219" t="s">
         <v>2</v>
-      </c>
-      <c r="D219" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B220" t="s">
-        <v>304</v>
+        <v>17</v>
       </c>
       <c r="C220" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B221" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C221" t="s">
         <v>2</v>
+      </c>
+      <c r="D221" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B222" t="s">
-        <v>15</v>
+        <v>304</v>
       </c>
       <c r="C222" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B223" t="s">
-        <v>118</v>
+        <v>15</v>
       </c>
       <c r="C223" t="s">
         <v>2</v>
@@ -5041,200 +5053,200 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
+        <v>306</v>
+      </c>
+      <c r="B224" t="s">
+        <v>15</v>
+      </c>
+      <c r="C224" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>307</v>
+      </c>
+      <c r="B225" t="s">
+        <v>118</v>
+      </c>
+      <c r="C225" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
         <v>308</v>
       </c>
-      <c r="B224" t="s">
-        <v>15</v>
-      </c>
-      <c r="C224" t="s">
-        <v>2</v>
-      </c>
-      <c r="D224" t="s">
+      <c r="B226" t="s">
+        <v>15</v>
+      </c>
+      <c r="C226" t="s">
+        <v>2</v>
+      </c>
+      <c r="D226" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
         <v>309</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B227" t="s">
         <v>310</v>
       </c>
-      <c r="C225" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
+      <c r="C227" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
         <v>311</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B228" t="s">
         <v>312</v>
       </c>
-      <c r="C226" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
+      <c r="C228" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
         <v>313</v>
       </c>
-      <c r="B227" t="s">
-        <v>15</v>
-      </c>
-      <c r="C227" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
+      <c r="B229" t="s">
+        <v>15</v>
+      </c>
+      <c r="C229" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
         <v>314</v>
       </c>
-      <c r="B228" t="s">
-        <v>15</v>
-      </c>
-      <c r="C228" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
+      <c r="B230" t="s">
+        <v>15</v>
+      </c>
+      <c r="C230" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
         <v>315</v>
       </c>
-      <c r="B229" t="s">
+      <c r="B231" t="s">
         <v>316</v>
       </c>
-      <c r="C229" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
+      <c r="C231" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
         <v>317</v>
       </c>
-      <c r="B230" t="s">
-        <v>15</v>
-      </c>
-      <c r="C230" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
+      <c r="B232" t="s">
+        <v>15</v>
+      </c>
+      <c r="C232" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
         <v>318</v>
       </c>
-      <c r="B231" t="s">
-        <v>19</v>
-      </c>
-      <c r="C231" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
+      <c r="B233" t="s">
+        <v>19</v>
+      </c>
+      <c r="C233" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
         <v>319</v>
       </c>
-      <c r="B232" t="s">
-        <v>19</v>
-      </c>
-      <c r="C232" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
+      <c r="B234" t="s">
+        <v>19</v>
+      </c>
+      <c r="C234" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
         <v>320</v>
       </c>
-      <c r="B233" t="s">
+      <c r="B235" t="s">
         <v>321</v>
       </c>
-      <c r="C233" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
+      <c r="C235" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
         <v>322</v>
       </c>
-      <c r="B234" t="s">
+      <c r="B236" t="s">
         <v>131</v>
       </c>
-      <c r="C234" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
+      <c r="C236" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
         <v>323</v>
       </c>
-      <c r="B235" t="s">
+      <c r="B237" t="s">
         <v>50</v>
       </c>
-      <c r="C235" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
+      <c r="C237" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
         <v>324</v>
       </c>
-      <c r="B236" t="s">
+      <c r="B238" t="s">
         <v>325</v>
       </c>
-      <c r="C236" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
+      <c r="C238" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
         <v>326</v>
       </c>
-      <c r="B237" t="s">
+      <c r="B239" t="s">
         <v>327</v>
       </c>
-      <c r="C237" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
+      <c r="C239" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
         <v>328</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B240" t="s">
         <v>329</v>
       </c>
-      <c r="C238" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
-        <v>330</v>
-      </c>
-      <c r="B239" t="s">
-        <v>316</v>
-      </c>
-      <c r="C239" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>331</v>
-      </c>
-      <c r="B240" t="s">
-        <v>332</v>
-      </c>
       <c r="C240" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B241" t="s">
-        <v>19</v>
+        <v>316</v>
       </c>
       <c r="C241" t="s">
         <v>2</v>
@@ -5242,51 +5254,51 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B242" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C242" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B243" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="C243" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B244" t="s">
-        <v>15</v>
+        <v>335</v>
       </c>
       <c r="C244" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B245" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C245" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B246" t="s">
         <v>15</v>
@@ -5297,10 +5309,10 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B247" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="C247" t="s">
         <v>2</v>
@@ -5308,21 +5320,21 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B248" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="C248" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B249" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="C249" t="s">
         <v>2</v>
@@ -5330,21 +5342,21 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B250" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C250" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B251" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C251" t="s">
         <v>2</v>
@@ -5352,10 +5364,10 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B252" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="C252" t="s">
         <v>2</v>
@@ -5363,43 +5375,43 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B253" t="s">
-        <v>347</v>
+        <v>15</v>
       </c>
       <c r="C253" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B254" t="s">
-        <v>349</v>
+        <v>19</v>
       </c>
       <c r="C254" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B255" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C255" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B256" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C256" t="s">
         <v>5</v>
@@ -5407,10 +5419,10 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B257" t="s">
-        <v>71</v>
+        <v>351</v>
       </c>
       <c r="C257" t="s">
         <v>2</v>
@@ -5418,21 +5430,21 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B258" t="s">
-        <v>15</v>
+        <v>353</v>
       </c>
       <c r="C258" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B259" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="C259" t="s">
         <v>2</v>
@@ -5440,7 +5452,7 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B260" t="s">
         <v>15</v>
@@ -5451,10 +5463,10 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B261" t="s">
-        <v>316</v>
+        <v>19</v>
       </c>
       <c r="C261" t="s">
         <v>2</v>
@@ -5462,7 +5474,7 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B262" t="s">
         <v>15</v>
@@ -5473,10 +5485,10 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B263" t="s">
-        <v>101</v>
+        <v>316</v>
       </c>
       <c r="C263" t="s">
         <v>2</v>
@@ -5484,7 +5496,7 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B264" t="s">
         <v>15</v>
@@ -5495,10 +5507,10 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B265" t="s">
-        <v>177</v>
+        <v>101</v>
       </c>
       <c r="C265" t="s">
         <v>2</v>
@@ -5506,7 +5518,7 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B266" t="s">
         <v>15</v>
@@ -5517,10 +5529,10 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B267" t="s">
-        <v>15</v>
+        <v>177</v>
       </c>
       <c r="C267" t="s">
         <v>2</v>
@@ -5528,10 +5540,10 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B268" t="s">
-        <v>316</v>
+        <v>15</v>
       </c>
       <c r="C268" t="s">
         <v>2</v>
@@ -5539,21 +5551,21 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B269" t="s">
-        <v>353</v>
+        <v>15</v>
       </c>
       <c r="C269" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B270" t="s">
-        <v>15</v>
+        <v>316</v>
       </c>
       <c r="C270" t="s">
         <v>2</v>
@@ -5561,29 +5573,29 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B271" t="s">
-        <v>19</v>
+        <v>353</v>
       </c>
       <c r="C271" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B272" t="s">
-        <v>370</v>
+        <v>15</v>
       </c>
       <c r="C272" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B273" t="s">
         <v>19</v>
@@ -5594,10 +5606,10 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B274" t="s">
-        <v>24</v>
+        <v>370</v>
       </c>
       <c r="C274" t="s">
         <v>5</v>
@@ -5605,7 +5617,7 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B275" t="s">
         <v>19</v>
@@ -5616,10 +5628,10 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B276" t="s">
-        <v>375</v>
+        <v>24</v>
       </c>
       <c r="C276" t="s">
         <v>5</v>
@@ -5627,10 +5639,10 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B277" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C277" t="s">
         <v>2</v>
@@ -5638,10 +5650,10 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B278" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
@@ -5649,68 +5661,68 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B279" t="s">
-        <v>380</v>
+        <v>15</v>
       </c>
       <c r="C279" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B280" t="s">
-        <v>71</v>
+        <v>378</v>
       </c>
       <c r="C280" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B281" t="s">
-        <v>129</v>
+        <v>380</v>
       </c>
       <c r="C281" t="s">
         <v>5</v>
-      </c>
-      <c r="D281" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B282" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="C282" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B283" t="s">
-        <v>17</v>
+        <v>129</v>
       </c>
       <c r="C283" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="D283" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B284" t="s">
-        <v>312</v>
+        <v>99</v>
       </c>
       <c r="C284" t="s">
         <v>5</v>
@@ -5718,18 +5730,18 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B285" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="C285" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B286" t="s">
         <v>312</v>
@@ -5740,21 +5752,21 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B287" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="C287" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B288" t="s">
-        <v>390</v>
+        <v>312</v>
       </c>
       <c r="C288" t="s">
         <v>5</v>
@@ -5762,10 +5774,10 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B289" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C289" t="s">
         <v>2</v>
@@ -5773,10 +5785,10 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B290" t="s">
-        <v>312</v>
+        <v>390</v>
       </c>
       <c r="C290" t="s">
         <v>5</v>
@@ -5784,7 +5796,7 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B291" t="s">
         <v>15</v>
@@ -5795,18 +5807,18 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B292" t="s">
-        <v>19</v>
+        <v>312</v>
       </c>
       <c r="C292" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B293" t="s">
         <v>15</v>
@@ -5817,10 +5829,10 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B294" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="C294" t="s">
         <v>2</v>
@@ -5828,10 +5840,10 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B295" t="s">
-        <v>398</v>
+        <v>15</v>
       </c>
       <c r="C295" t="s">
         <v>2</v>
@@ -5839,21 +5851,21 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B296" t="s">
-        <v>400</v>
+        <v>101</v>
       </c>
       <c r="C296" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B297" t="s">
-        <v>19</v>
+        <v>398</v>
       </c>
       <c r="C297" t="s">
         <v>2</v>
@@ -5861,21 +5873,21 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B298" t="s">
-        <v>19</v>
+        <v>400</v>
       </c>
       <c r="C298" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B299" t="s">
-        <v>405</v>
+        <v>19</v>
       </c>
       <c r="C299" t="s">
         <v>2</v>
@@ -5883,10 +5895,10 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B300" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C300" t="s">
         <v>2</v>
@@ -5894,10 +5906,10 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B301" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C301" t="s">
         <v>2</v>
@@ -5905,10 +5917,10 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B302" t="s">
-        <v>177</v>
+        <v>15</v>
       </c>
       <c r="C302" t="s">
         <v>2</v>
@@ -5916,10 +5928,10 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B303" t="s">
-        <v>115</v>
+        <v>408</v>
       </c>
       <c r="C303" t="s">
         <v>2</v>
@@ -5927,21 +5939,21 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B304" t="s">
-        <v>412</v>
+        <v>177</v>
       </c>
       <c r="C304" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B305" t="s">
-        <v>414</v>
+        <v>115</v>
       </c>
       <c r="C305" t="s">
         <v>2</v>
@@ -5949,21 +5961,21 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B306" t="s">
-        <v>115</v>
+        <v>412</v>
       </c>
       <c r="C306" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B307" t="s">
-        <v>37</v>
+        <v>414</v>
       </c>
       <c r="C307" t="s">
         <v>2</v>
@@ -5971,10 +5983,10 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B308" t="s">
-        <v>418</v>
+        <v>115</v>
       </c>
       <c r="C308" t="s">
         <v>2</v>
@@ -5982,10 +5994,10 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B309" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C309" t="s">
         <v>2</v>
@@ -5993,21 +6005,21 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B310" t="s">
-        <v>27</v>
+        <v>418</v>
       </c>
       <c r="C310" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B311" t="s">
-        <v>418</v>
+        <v>15</v>
       </c>
       <c r="C311" t="s">
         <v>2</v>
@@ -6015,32 +6027,32 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B312" t="s">
-        <v>423</v>
+        <v>27</v>
       </c>
       <c r="C312" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B313" t="s">
-        <v>27</v>
+        <v>418</v>
       </c>
       <c r="C313" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B314" t="s">
-        <v>19</v>
+        <v>423</v>
       </c>
       <c r="C314" t="s">
         <v>2</v>
@@ -6048,32 +6060,32 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B315" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C315" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B316" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C316" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B317" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C317" t="s">
         <v>2</v>
@@ -6081,21 +6093,21 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B318" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C318" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B319" t="s">
-        <v>423</v>
+        <v>11</v>
       </c>
       <c r="C319" t="s">
         <v>2</v>
@@ -6103,10 +6115,10 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B320" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C320" t="s">
         <v>2</v>
@@ -6114,10 +6126,10 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B321" t="s">
-        <v>15</v>
+        <v>423</v>
       </c>
       <c r="C321" t="s">
         <v>2</v>
@@ -6125,18 +6137,18 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B322" t="s">
-        <v>310</v>
+        <v>15</v>
       </c>
       <c r="C322" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B323" t="s">
         <v>15</v>
@@ -6147,10 +6159,10 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B324" t="s">
-        <v>91</v>
+        <v>310</v>
       </c>
       <c r="C324" t="s">
         <v>5</v>
@@ -6158,21 +6170,21 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B325" t="s">
-        <v>437</v>
+        <v>15</v>
       </c>
       <c r="C325" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B326" t="s">
-        <v>439</v>
+        <v>91</v>
       </c>
       <c r="C326" t="s">
         <v>5</v>
@@ -6180,54 +6192,54 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B327" t="s">
-        <v>15</v>
+        <v>437</v>
       </c>
       <c r="C327" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B328" t="s">
-        <v>19</v>
+        <v>439</v>
       </c>
       <c r="C328" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B329" t="s">
-        <v>131</v>
+        <v>15</v>
       </c>
       <c r="C329" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B330" t="s">
-        <v>312</v>
+        <v>19</v>
       </c>
       <c r="C330" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B331" t="s">
-        <v>445</v>
+        <v>131</v>
       </c>
       <c r="C331" t="s">
         <v>5</v>
@@ -6235,32 +6247,32 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B332" t="s">
-        <v>19</v>
+        <v>312</v>
       </c>
       <c r="C332" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B333" t="s">
-        <v>17</v>
+        <v>445</v>
       </c>
       <c r="C333" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B334" t="s">
-        <v>408</v>
+        <v>19</v>
       </c>
       <c r="C334" t="s">
         <v>2</v>
@@ -6268,10 +6280,10 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B335" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C335" t="s">
         <v>2</v>
@@ -6279,10 +6291,10 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B336" t="s">
-        <v>15</v>
+        <v>408</v>
       </c>
       <c r="C336" t="s">
         <v>2</v>
@@ -6290,10 +6302,10 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B337" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C337" t="s">
         <v>2</v>
@@ -6301,10 +6313,10 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B338" t="s">
-        <v>177</v>
+        <v>15</v>
       </c>
       <c r="C338" t="s">
         <v>2</v>
@@ -6312,21 +6324,21 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B339" t="s">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="C339" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B340" t="s">
-        <v>402</v>
+        <v>177</v>
       </c>
       <c r="C340" t="s">
         <v>2</v>
@@ -6334,10 +6346,10 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B341" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="C341" t="s">
         <v>5</v>
@@ -6345,10 +6357,10 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B342" t="s">
-        <v>19</v>
+        <v>402</v>
       </c>
       <c r="C342" t="s">
         <v>2</v>
@@ -6356,10 +6368,10 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B343" t="s">
-        <v>458</v>
+        <v>24</v>
       </c>
       <c r="C343" t="s">
         <v>5</v>
@@ -6367,24 +6379,21 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B344" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C344" t="s">
-        <v>5</v>
-      </c>
-      <c r="D344" t="s">
-        <v>542</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B345" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C345" t="s">
         <v>5</v>
@@ -6392,7 +6401,7 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B346" t="s">
         <v>27</v>
@@ -6400,13 +6409,16 @@
       <c r="C346" t="s">
         <v>5</v>
       </c>
+      <c r="D346" t="s">
+        <v>542</v>
+      </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B347" t="s">
-        <v>105</v>
+        <v>461</v>
       </c>
       <c r="C347" t="s">
         <v>5</v>
@@ -6414,32 +6426,32 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B348" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C348" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B349" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="C349" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B350" t="s">
-        <v>467</v>
+        <v>19</v>
       </c>
       <c r="C350" t="s">
         <v>2</v>
@@ -6447,68 +6459,68 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B351" t="s">
-        <v>312</v>
+        <v>15</v>
       </c>
       <c r="C351" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B352" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C352" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B353" t="s">
-        <v>408</v>
+        <v>312</v>
       </c>
       <c r="C353" t="s">
-        <v>2</v>
-      </c>
-      <c r="D353" t="s">
-        <v>542</v>
+        <v>5</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B354" t="s">
-        <v>19</v>
+        <v>470</v>
       </c>
       <c r="C354" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B355" t="s">
-        <v>474</v>
+        <v>408</v>
       </c>
       <c r="C355" t="s">
         <v>2</v>
+      </c>
+      <c r="D355" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B356" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C356" t="s">
         <v>2</v>
@@ -6516,10 +6528,10 @@
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B357" t="s">
-        <v>15</v>
+        <v>474</v>
       </c>
       <c r="C357" t="s">
         <v>2</v>
@@ -6527,7 +6539,7 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B358" t="s">
         <v>15</v>
@@ -6538,7 +6550,7 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B359" t="s">
         <v>15</v>
@@ -6549,7 +6561,7 @@
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B360" t="s">
         <v>15</v>
@@ -6560,7 +6572,7 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B361" t="s">
         <v>15</v>
@@ -6571,10 +6583,10 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B362" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C362" t="s">
         <v>2</v>
@@ -6582,7 +6594,7 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B363" t="s">
         <v>15</v>
@@ -6593,18 +6605,18 @@
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B364" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="C364" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B365" t="s">
         <v>15</v>
@@ -6615,32 +6627,32 @@
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B366" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="C366" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B367" t="s">
-        <v>487</v>
+        <v>15</v>
       </c>
       <c r="C367" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B368" t="s">
-        <v>489</v>
+        <v>15</v>
       </c>
       <c r="C368" t="s">
         <v>2</v>
@@ -6648,57 +6660,57 @@
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B369" t="s">
-        <v>19</v>
+        <v>487</v>
       </c>
       <c r="C369" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B370" t="s">
-        <v>7</v>
+        <v>489</v>
       </c>
       <c r="C370" t="s">
-        <v>5</v>
-      </c>
-      <c r="D370" t="s">
-        <v>542</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B371" t="s">
-        <v>131</v>
+        <v>19</v>
       </c>
       <c r="C371" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B372" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C372" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="D372" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B373" t="s">
-        <v>495</v>
+        <v>131</v>
       </c>
       <c r="C373" t="s">
         <v>5</v>
@@ -6706,21 +6718,21 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B374" t="s">
-        <v>129</v>
+        <v>19</v>
       </c>
       <c r="C374" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B375" t="s">
-        <v>50</v>
+        <v>495</v>
       </c>
       <c r="C375" t="s">
         <v>5</v>
@@ -6728,32 +6740,32 @@
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B376" t="s">
-        <v>19</v>
+        <v>129</v>
       </c>
       <c r="C376" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B377" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="C377" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B378" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C378" t="s">
         <v>2</v>
@@ -6761,21 +6773,21 @@
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B379" t="s">
-        <v>353</v>
+        <v>17</v>
       </c>
       <c r="C379" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>543</v>
+        <v>500</v>
       </c>
       <c r="B380" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C380" t="s">
         <v>2</v>
@@ -6783,10 +6795,10 @@
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B381" t="s">
-        <v>503</v>
+        <v>353</v>
       </c>
       <c r="C381" t="s">
         <v>5</v>
@@ -6794,10 +6806,10 @@
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>504</v>
+        <v>543</v>
       </c>
       <c r="B382" t="s">
-        <v>505</v>
+        <v>19</v>
       </c>
       <c r="C382" t="s">
         <v>2</v>
@@ -6805,10 +6817,10 @@
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B383" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C383" t="s">
         <v>5</v>
@@ -6816,10 +6828,10 @@
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B384" t="s">
-        <v>71</v>
+        <v>505</v>
       </c>
       <c r="C384" t="s">
         <v>2</v>
@@ -6827,32 +6839,32 @@
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B385" t="s">
-        <v>19</v>
+        <v>507</v>
       </c>
       <c r="C385" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B386" t="s">
-        <v>511</v>
+        <v>71</v>
       </c>
       <c r="C386" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B387" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C387" t="s">
         <v>2</v>
@@ -6860,32 +6872,32 @@
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B388" t="s">
-        <v>177</v>
+        <v>511</v>
       </c>
       <c r="C388" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B389" t="s">
-        <v>515</v>
+        <v>15</v>
       </c>
       <c r="C389" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B390" t="s">
-        <v>332</v>
+        <v>177</v>
       </c>
       <c r="C390" t="s">
         <v>2</v>
@@ -6893,32 +6905,29 @@
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B391" t="s">
-        <v>15</v>
+        <v>515</v>
       </c>
       <c r="C391" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B392" t="s">
-        <v>19</v>
+        <v>332</v>
       </c>
       <c r="C392" t="s">
         <v>2</v>
-      </c>
-      <c r="D392" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B393" t="s">
         <v>15</v>
@@ -6929,54 +6938,57 @@
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B394" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="C394" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="D394" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B395" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="C395" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B396" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="C396" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B397" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="C397" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B398" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C398" t="s">
         <v>2</v>
@@ -6984,10 +6996,10 @@
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B399" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C399" t="s">
         <v>2</v>
@@ -6995,7 +7007,7 @@
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B400" t="s">
         <v>15</v>
@@ -7006,21 +7018,18 @@
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B401" t="s">
-        <v>528</v>
+        <v>15</v>
       </c>
       <c r="C401" t="s">
-        <v>5</v>
-      </c>
-      <c r="D401" t="s">
-        <v>542</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B402" t="s">
         <v>15</v>
@@ -7031,18 +7040,21 @@
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B403" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C403" t="s">
         <v>5</v>
+      </c>
+      <c r="D403" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B404" t="s">
         <v>15</v>
@@ -7053,18 +7065,18 @@
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B405" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C405" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B406" t="s">
         <v>15</v>
@@ -7075,17 +7087,43 @@
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
+        <v>533</v>
+      </c>
+      <c r="B407" t="s">
+        <v>534</v>
+      </c>
+      <c r="C407" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>535</v>
+      </c>
+      <c r="B408" t="s">
+        <v>15</v>
+      </c>
+      <c r="C408" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
         <v>536</v>
       </c>
-      <c r="B407" t="s">
-        <v>19</v>
-      </c>
-      <c r="C407" t="s">
+      <c r="B409" t="s">
+        <v>19</v>
+      </c>
+      <c r="C409" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1" xr:uid="{8F56ED3D-A3F2-450D-9EAE-1214C3EA2069}"/>
+  <autoFilter ref="A1:D1" xr:uid="{8F56ED3D-A3F2-450D-9EAE-1214C3EA2069}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D409">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/assets/guncel_deneme_bonuslari_listesi.xlsx
+++ b/assets/guncel_deneme_bonuslari_listesi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cengi\Desktop\test\Deneme Bonusu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D71E24C-FEB6-493B-A877-AC950936C9ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2D98BF-B972-49A4-9639-B9C7995B4320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32745" yWindow="3795" windowWidth="21600" windowHeight="11295" xr2:uid="{CD7B2693-F8D1-429F-9AB3-DB64ACA5183F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CD7B2693-F8D1-429F-9AB3-DB64ACA5183F}"/>
   </bookViews>
   <sheets>
     <sheet name="guncel_deneme_bonuslari_listesi" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="547">
   <si>
     <t>1king</t>
   </si>
@@ -1661,6 +1661,9 @@
   </si>
   <si>
     <t>casitoros</t>
+  </si>
+  <si>
+    <t>bidaha</t>
   </si>
 </sst>
 </file>
@@ -2539,11 +2542,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F56ED3D-A3F2-450D-9EAE-1214C3EA2069}">
-  <dimension ref="A1:D409"/>
+  <dimension ref="A1:D410"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B134" sqref="B134"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3838,10 +3841,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>170</v>
+        <v>546</v>
       </c>
       <c r="B116" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C116" t="s">
         <v>2</v>
@@ -3849,43 +3852,43 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B117" t="s">
-        <v>172</v>
+        <v>19</v>
       </c>
       <c r="C117" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B118" t="s">
-        <v>15</v>
+        <v>172</v>
       </c>
       <c r="C118" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B119" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="C119" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B120" t="s">
-        <v>133</v>
+        <v>50</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -3893,62 +3896,62 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B121" t="s">
-        <v>177</v>
+        <v>133</v>
       </c>
       <c r="C121" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B122" t="s">
-        <v>50</v>
+        <v>177</v>
       </c>
       <c r="C122" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B123" t="s">
-        <v>177</v>
+        <v>50</v>
       </c>
       <c r="C123" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B124" t="s">
-        <v>86</v>
+        <v>177</v>
       </c>
       <c r="C124" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B125" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="C125" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B126" t="s">
         <v>19</v>
@@ -3959,29 +3962,29 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B127" t="s">
-        <v>184</v>
+        <v>19</v>
       </c>
       <c r="C127" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B128" t="s">
-        <v>19</v>
+        <v>184</v>
       </c>
       <c r="C128" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B129" t="s">
         <v>19</v>
@@ -3992,21 +3995,21 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B130" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="C130" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B131" t="s">
-        <v>189</v>
+        <v>97</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -4014,21 +4017,18 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>544</v>
+        <v>188</v>
       </c>
       <c r="B132" t="s">
-        <v>19</v>
+        <v>189</v>
       </c>
       <c r="C132" t="s">
-        <v>2</v>
-      </c>
-      <c r="D132" t="s">
-        <v>542</v>
+        <v>5</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B133" t="s">
         <v>19</v>
@@ -4092,68 +4092,71 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>193</v>
+        <v>545</v>
       </c>
       <c r="B138" t="s">
         <v>19</v>
       </c>
       <c r="C138" t="s">
         <v>2</v>
+      </c>
+      <c r="D138" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B139" t="s">
-        <v>195</v>
+        <v>19</v>
       </c>
       <c r="C139" t="s">
-        <v>5</v>
-      </c>
-      <c r="D139" t="s">
-        <v>542</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B140" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
+      </c>
+      <c r="D140" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B141" t="s">
-        <v>19</v>
+        <v>197</v>
       </c>
       <c r="C141" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B142" t="s">
-        <v>200</v>
+        <v>19</v>
       </c>
       <c r="C142" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B143" t="s">
-        <v>27</v>
+        <v>200</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -4161,43 +4164,43 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B144" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C144" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B145" t="s">
-        <v>204</v>
+        <v>15</v>
       </c>
       <c r="C145" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B146" t="s">
-        <v>19</v>
+        <v>204</v>
       </c>
       <c r="C146" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B147" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C147" t="s">
         <v>2</v>
@@ -4205,10 +4208,10 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B148" t="s">
-        <v>115</v>
+        <v>15</v>
       </c>
       <c r="C148" t="s">
         <v>2</v>
@@ -4216,10 +4219,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B149" t="s">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="C149" t="s">
         <v>2</v>
@@ -4227,10 +4230,10 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B150" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C150" t="s">
         <v>2</v>
@@ -4238,7 +4241,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B151" t="s">
         <v>19</v>
@@ -4249,54 +4252,54 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B152" t="s">
-        <v>212</v>
+        <v>19</v>
       </c>
       <c r="C152" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B153" t="s">
-        <v>15</v>
+        <v>212</v>
       </c>
       <c r="C153" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B154" t="s">
-        <v>215</v>
+        <v>15</v>
       </c>
       <c r="C154" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B155" t="s">
-        <v>15</v>
+        <v>215</v>
       </c>
       <c r="C155" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B156" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C156" t="s">
         <v>2</v>
@@ -4304,10 +4307,10 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B157" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C157" t="s">
         <v>2</v>
@@ -4315,54 +4318,54 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B158" t="s">
-        <v>220</v>
+        <v>17</v>
       </c>
       <c r="C158" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B159" t="s">
-        <v>15</v>
+        <v>220</v>
       </c>
       <c r="C159" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B160" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="C160" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B161" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="C161" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B162" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C162" t="s">
         <v>2</v>
@@ -4370,32 +4373,32 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B163" t="s">
-        <v>226</v>
+        <v>15</v>
       </c>
       <c r="C163" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B164" t="s">
-        <v>101</v>
+        <v>226</v>
       </c>
       <c r="C164" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B165" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="C165" t="s">
         <v>2</v>
@@ -4403,10 +4406,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B166" t="s">
-        <v>230</v>
+        <v>19</v>
       </c>
       <c r="C166" t="s">
         <v>2</v>
@@ -4414,10 +4417,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B167" t="s">
-        <v>97</v>
+        <v>230</v>
       </c>
       <c r="C167" t="s">
         <v>2</v>
@@ -4425,10 +4428,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B168" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="C168" t="s">
         <v>2</v>
@@ -4436,10 +4439,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B169" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C169" t="s">
         <v>2</v>
@@ -4447,7 +4450,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B170" t="s">
         <v>19</v>
@@ -4458,65 +4461,65 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B171" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="C171" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B172" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="C172" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B173" t="s">
-        <v>238</v>
+        <v>15</v>
       </c>
       <c r="C173" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B174" t="s">
-        <v>19</v>
+        <v>238</v>
       </c>
       <c r="C174" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B175" t="s">
-        <v>241</v>
+        <v>19</v>
       </c>
       <c r="C175" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B176" t="s">
-        <v>97</v>
+        <v>241</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -4524,21 +4527,21 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B177" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="C177" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B178" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C178" t="s">
         <v>2</v>
@@ -4546,10 +4549,10 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B179" t="s">
-        <v>230</v>
+        <v>15</v>
       </c>
       <c r="C179" t="s">
         <v>2</v>
@@ -4557,21 +4560,21 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B180" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="C180" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B181" t="s">
-        <v>97</v>
+        <v>247</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -4579,10 +4582,10 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B182" t="s">
-        <v>250</v>
+        <v>97</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -4590,54 +4593,54 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B183" t="s">
-        <v>15</v>
+        <v>250</v>
       </c>
       <c r="C183" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B184" t="s">
-        <v>253</v>
+        <v>15</v>
       </c>
       <c r="C184" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B185" t="s">
-        <v>15</v>
+        <v>253</v>
       </c>
       <c r="C185" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B186" t="s">
-        <v>256</v>
+        <v>15</v>
       </c>
       <c r="C186" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B187" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -4645,84 +4648,84 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B188" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="C188" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B189" t="s">
-        <v>261</v>
+        <v>15</v>
       </c>
       <c r="C189" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B190" t="s">
-        <v>11</v>
+        <v>261</v>
       </c>
       <c r="C190" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B191" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="C191" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B192" t="s">
-        <v>265</v>
+        <v>86</v>
       </c>
       <c r="C192" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B193" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C193" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B194" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="C194" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B195" t="s">
         <v>15</v>
@@ -4733,10 +4736,10 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B196" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C196" t="s">
         <v>2</v>
@@ -4744,29 +4747,29 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B197" t="s">
-        <v>272</v>
+        <v>19</v>
       </c>
       <c r="C197" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B198" t="s">
-        <v>15</v>
+        <v>272</v>
       </c>
       <c r="C198" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B199" t="s">
         <v>15</v>
@@ -4777,10 +4780,10 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B200" t="s">
-        <v>276</v>
+        <v>15</v>
       </c>
       <c r="C200" t="s">
         <v>2</v>
@@ -4788,10 +4791,10 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B201" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C201" t="s">
         <v>2</v>
@@ -4799,93 +4802,93 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B202" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C202" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B203" t="s">
-        <v>19</v>
+        <v>280</v>
       </c>
       <c r="C203" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B204" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C204" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B205" t="s">
-        <v>284</v>
+        <v>27</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
-      </c>
-      <c r="D205" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B206" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
+      </c>
+      <c r="D206" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B207" t="s">
-        <v>15</v>
+        <v>286</v>
       </c>
       <c r="C207" t="s">
-        <v>2</v>
-      </c>
-      <c r="D207" t="s">
-        <v>542</v>
+        <v>5</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B208" t="s">
         <v>15</v>
       </c>
       <c r="C208" t="s">
         <v>2</v>
+      </c>
+      <c r="D208" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B209" t="s">
-        <v>290</v>
+        <v>15</v>
       </c>
       <c r="C209" t="s">
         <v>2</v>
@@ -4893,10 +4896,10 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B210" t="s">
-        <v>19</v>
+        <v>290</v>
       </c>
       <c r="C210" t="s">
         <v>2</v>
@@ -4904,10 +4907,10 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B211" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C211" t="s">
         <v>2</v>
@@ -4915,7 +4918,7 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B212" t="s">
         <v>15</v>
@@ -4926,21 +4929,21 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B213" t="s">
-        <v>256</v>
+        <v>15</v>
       </c>
       <c r="C213" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B214" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
@@ -4948,46 +4951,46 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B215" t="s">
-        <v>69</v>
+        <v>280</v>
       </c>
       <c r="C215" t="s">
-        <v>2</v>
-      </c>
-      <c r="D215" t="s">
-        <v>542</v>
+        <v>5</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B216" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="C216" t="s">
         <v>2</v>
+      </c>
+      <c r="D216" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B217" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="C217" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B218" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -4995,21 +4998,21 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B219" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="C219" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B220" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C220" t="s">
         <v>2</v>
@@ -5017,43 +5020,43 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B221" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C221" t="s">
         <v>2</v>
-      </c>
-      <c r="D221" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B222" t="s">
-        <v>304</v>
+        <v>19</v>
       </c>
       <c r="C222" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="D222" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B223" t="s">
-        <v>15</v>
+        <v>304</v>
       </c>
       <c r="C223" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B224" t="s">
         <v>15</v>
@@ -5064,10 +5067,10 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B225" t="s">
-        <v>118</v>
+        <v>15</v>
       </c>
       <c r="C225" t="s">
         <v>2</v>
@@ -5075,35 +5078,35 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B226" t="s">
-        <v>15</v>
+        <v>118</v>
       </c>
       <c r="C226" t="s">
         <v>2</v>
-      </c>
-      <c r="D226" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B227" t="s">
-        <v>310</v>
+        <v>15</v>
       </c>
       <c r="C227" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="D227" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B228" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -5111,18 +5114,18 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B229" t="s">
-        <v>15</v>
+        <v>312</v>
       </c>
       <c r="C229" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B230" t="s">
         <v>15</v>
@@ -5133,10 +5136,10 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B231" t="s">
-        <v>316</v>
+        <v>15</v>
       </c>
       <c r="C231" t="s">
         <v>2</v>
@@ -5144,10 +5147,10 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B232" t="s">
-        <v>15</v>
+        <v>316</v>
       </c>
       <c r="C232" t="s">
         <v>2</v>
@@ -5155,10 +5158,10 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B233" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C233" t="s">
         <v>2</v>
@@ -5166,7 +5169,7 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B234" t="s">
         <v>19</v>
@@ -5177,21 +5180,21 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B235" t="s">
-        <v>321</v>
+        <v>19</v>
       </c>
       <c r="C235" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B236" t="s">
-        <v>131</v>
+        <v>321</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
@@ -5199,10 +5202,10 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B237" t="s">
-        <v>50</v>
+        <v>131</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
@@ -5210,10 +5213,10 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B238" t="s">
-        <v>325</v>
+        <v>50</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -5221,10 +5224,10 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B239" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -5232,10 +5235,10 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B240" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -5243,21 +5246,21 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B241" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="C241" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B242" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="C242" t="s">
         <v>2</v>
@@ -5265,10 +5268,10 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B243" t="s">
-        <v>19</v>
+        <v>332</v>
       </c>
       <c r="C243" t="s">
         <v>2</v>
@@ -5276,21 +5279,21 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B244" t="s">
-        <v>335</v>
+        <v>19</v>
       </c>
       <c r="C244" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B245" t="s">
-        <v>86</v>
+        <v>335</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
@@ -5298,21 +5301,21 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B246" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="C246" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B247" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="C247" t="s">
         <v>2</v>
@@ -5320,10 +5323,10 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B248" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="C248" t="s">
         <v>2</v>
@@ -5331,10 +5334,10 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B249" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C249" t="s">
         <v>2</v>
@@ -5342,32 +5345,32 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B250" t="s">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="C250" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B251" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="C251" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B252" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="C252" t="s">
         <v>2</v>
@@ -5375,10 +5378,10 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B253" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="C253" t="s">
         <v>2</v>
@@ -5386,10 +5389,10 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B254" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C254" t="s">
         <v>2</v>
@@ -5397,21 +5400,21 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B255" t="s">
-        <v>347</v>
+        <v>19</v>
       </c>
       <c r="C255" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B256" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C256" t="s">
         <v>5</v>
@@ -5419,43 +5422,43 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B257" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C257" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B258" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C258" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B259" t="s">
-        <v>71</v>
+        <v>353</v>
       </c>
       <c r="C259" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B260" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C260" t="s">
         <v>2</v>
@@ -5463,10 +5466,10 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B261" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C261" t="s">
         <v>2</v>
@@ -5474,10 +5477,10 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B262" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C262" t="s">
         <v>2</v>
@@ -5485,10 +5488,10 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B263" t="s">
-        <v>316</v>
+        <v>15</v>
       </c>
       <c r="C263" t="s">
         <v>2</v>
@@ -5496,10 +5499,10 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B264" t="s">
-        <v>15</v>
+        <v>316</v>
       </c>
       <c r="C264" t="s">
         <v>2</v>
@@ -5507,10 +5510,10 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B265" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="C265" t="s">
         <v>2</v>
@@ -5518,10 +5521,10 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B266" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="C266" t="s">
         <v>2</v>
@@ -5529,10 +5532,10 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B267" t="s">
-        <v>177</v>
+        <v>15</v>
       </c>
       <c r="C267" t="s">
         <v>2</v>
@@ -5540,10 +5543,10 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B268" t="s">
-        <v>15</v>
+        <v>177</v>
       </c>
       <c r="C268" t="s">
         <v>2</v>
@@ -5551,7 +5554,7 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B269" t="s">
         <v>15</v>
@@ -5562,10 +5565,10 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B270" t="s">
-        <v>316</v>
+        <v>15</v>
       </c>
       <c r="C270" t="s">
         <v>2</v>
@@ -5573,32 +5576,32 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B271" t="s">
-        <v>353</v>
+        <v>316</v>
       </c>
       <c r="C271" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B272" t="s">
-        <v>15</v>
+        <v>353</v>
       </c>
       <c r="C272" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B273" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C273" t="s">
         <v>2</v>
@@ -5606,87 +5609,87 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B274" t="s">
-        <v>370</v>
+        <v>19</v>
       </c>
       <c r="C274" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B275" t="s">
-        <v>19</v>
+        <v>370</v>
       </c>
       <c r="C275" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B276" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C276" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B277" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C277" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B278" t="s">
-        <v>375</v>
+        <v>19</v>
       </c>
       <c r="C278" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B279" t="s">
-        <v>15</v>
+        <v>375</v>
       </c>
       <c r="C279" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B280" t="s">
-        <v>378</v>
+        <v>15</v>
       </c>
       <c r="C280" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B281" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C281" t="s">
         <v>5</v>
@@ -5694,68 +5697,68 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B282" t="s">
-        <v>71</v>
+        <v>380</v>
       </c>
       <c r="C282" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B283" t="s">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="C283" t="s">
-        <v>5</v>
-      </c>
-      <c r="D283" t="s">
-        <v>542</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B284" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="C284" t="s">
         <v>5</v>
+      </c>
+      <c r="D284" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B285" t="s">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="C285" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B286" t="s">
-        <v>312</v>
+        <v>17</v>
       </c>
       <c r="C286" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B287" t="s">
-        <v>99</v>
+        <v>312</v>
       </c>
       <c r="C287" t="s">
         <v>5</v>
@@ -5763,10 +5766,10 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B288" t="s">
-        <v>312</v>
+        <v>99</v>
       </c>
       <c r="C288" t="s">
         <v>5</v>
@@ -5774,65 +5777,65 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B289" t="s">
-        <v>19</v>
+        <v>312</v>
       </c>
       <c r="C289" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B290" t="s">
-        <v>390</v>
+        <v>19</v>
       </c>
       <c r="C290" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B291" t="s">
-        <v>15</v>
+        <v>390</v>
       </c>
       <c r="C291" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B292" t="s">
-        <v>312</v>
+        <v>15</v>
       </c>
       <c r="C292" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B293" t="s">
-        <v>15</v>
+        <v>312</v>
       </c>
       <c r="C293" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B294" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C294" t="s">
         <v>2</v>
@@ -5840,10 +5843,10 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B295" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C295" t="s">
         <v>2</v>
@@ -5851,10 +5854,10 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B296" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="C296" t="s">
         <v>2</v>
@@ -5862,10 +5865,10 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B297" t="s">
-        <v>398</v>
+        <v>101</v>
       </c>
       <c r="C297" t="s">
         <v>2</v>
@@ -5873,29 +5876,29 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B298" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C298" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B299" t="s">
-        <v>19</v>
+        <v>400</v>
       </c>
       <c r="C299" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B300" t="s">
         <v>19</v>
@@ -5906,10 +5909,10 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B301" t="s">
-        <v>405</v>
+        <v>19</v>
       </c>
       <c r="C301" t="s">
         <v>2</v>
@@ -5917,10 +5920,10 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B302" t="s">
-        <v>15</v>
+        <v>405</v>
       </c>
       <c r="C302" t="s">
         <v>2</v>
@@ -5928,10 +5931,10 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B303" t="s">
-        <v>408</v>
+        <v>15</v>
       </c>
       <c r="C303" t="s">
         <v>2</v>
@@ -5939,10 +5942,10 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B304" t="s">
-        <v>177</v>
+        <v>408</v>
       </c>
       <c r="C304" t="s">
         <v>2</v>
@@ -5950,10 +5953,10 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B305" t="s">
-        <v>115</v>
+        <v>177</v>
       </c>
       <c r="C305" t="s">
         <v>2</v>
@@ -5961,32 +5964,32 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B306" t="s">
-        <v>412</v>
+        <v>115</v>
       </c>
       <c r="C306" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B307" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C307" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B308" t="s">
-        <v>115</v>
+        <v>414</v>
       </c>
       <c r="C308" t="s">
         <v>2</v>
@@ -5994,10 +5997,10 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B309" t="s">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="C309" t="s">
         <v>2</v>
@@ -6005,10 +6008,10 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B310" t="s">
-        <v>418</v>
+        <v>37</v>
       </c>
       <c r="C310" t="s">
         <v>2</v>
@@ -6016,10 +6019,10 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B311" t="s">
-        <v>15</v>
+        <v>418</v>
       </c>
       <c r="C311" t="s">
         <v>2</v>
@@ -6027,32 +6030,32 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B312" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C312" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B313" t="s">
-        <v>418</v>
+        <v>27</v>
       </c>
       <c r="C313" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B314" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C314" t="s">
         <v>2</v>
@@ -6060,32 +6063,32 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B315" t="s">
-        <v>27</v>
+        <v>423</v>
       </c>
       <c r="C315" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B316" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C316" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B317" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C317" t="s">
         <v>2</v>
@@ -6093,32 +6096,32 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B318" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C318" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B319" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C319" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B320" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C320" t="s">
         <v>2</v>
@@ -6126,10 +6129,10 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B321" t="s">
-        <v>423</v>
+        <v>19</v>
       </c>
       <c r="C321" t="s">
         <v>2</v>
@@ -6137,10 +6140,10 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B322" t="s">
-        <v>15</v>
+        <v>423</v>
       </c>
       <c r="C322" t="s">
         <v>2</v>
@@ -6148,7 +6151,7 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B323" t="s">
         <v>15</v>
@@ -6159,43 +6162,43 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B324" t="s">
-        <v>310</v>
+        <v>15</v>
       </c>
       <c r="C324" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B325" t="s">
-        <v>15</v>
+        <v>310</v>
       </c>
       <c r="C325" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B326" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="C326" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B327" t="s">
-        <v>437</v>
+        <v>91</v>
       </c>
       <c r="C327" t="s">
         <v>5</v>
@@ -6203,10 +6206,10 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B328" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C328" t="s">
         <v>5</v>
@@ -6214,21 +6217,21 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B329" t="s">
-        <v>15</v>
+        <v>439</v>
       </c>
       <c r="C329" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B330" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C330" t="s">
         <v>2</v>
@@ -6236,21 +6239,21 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B331" t="s">
-        <v>131</v>
+        <v>19</v>
       </c>
       <c r="C331" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B332" t="s">
-        <v>312</v>
+        <v>131</v>
       </c>
       <c r="C332" t="s">
         <v>5</v>
@@ -6258,10 +6261,10 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B333" t="s">
-        <v>445</v>
+        <v>312</v>
       </c>
       <c r="C333" t="s">
         <v>5</v>
@@ -6269,21 +6272,21 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B334" t="s">
-        <v>19</v>
+        <v>445</v>
       </c>
       <c r="C334" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B335" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C335" t="s">
         <v>2</v>
@@ -6291,10 +6294,10 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B336" t="s">
-        <v>408</v>
+        <v>17</v>
       </c>
       <c r="C336" t="s">
         <v>2</v>
@@ -6302,10 +6305,10 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B337" t="s">
-        <v>15</v>
+        <v>408</v>
       </c>
       <c r="C337" t="s">
         <v>2</v>
@@ -6313,7 +6316,7 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B338" t="s">
         <v>15</v>
@@ -6324,10 +6327,10 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B339" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C339" t="s">
         <v>2</v>
@@ -6335,10 +6338,10 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B340" t="s">
-        <v>177</v>
+        <v>17</v>
       </c>
       <c r="C340" t="s">
         <v>2</v>
@@ -6346,90 +6349,90 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B341" t="s">
-        <v>105</v>
+        <v>177</v>
       </c>
       <c r="C341" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B342" t="s">
-        <v>402</v>
+        <v>105</v>
       </c>
       <c r="C342" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B343" t="s">
-        <v>24</v>
+        <v>402</v>
       </c>
       <c r="C343" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B344" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C344" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B345" t="s">
-        <v>458</v>
+        <v>19</v>
       </c>
       <c r="C345" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B346" t="s">
-        <v>27</v>
+        <v>458</v>
       </c>
       <c r="C346" t="s">
         <v>5</v>
-      </c>
-      <c r="D346" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B347" t="s">
-        <v>461</v>
+        <v>27</v>
       </c>
       <c r="C347" t="s">
         <v>5</v>
+      </c>
+      <c r="D347" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B348" t="s">
-        <v>27</v>
+        <v>461</v>
       </c>
       <c r="C348" t="s">
         <v>5</v>
@@ -6437,10 +6440,10 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B349" t="s">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="C349" t="s">
         <v>5</v>
@@ -6448,21 +6451,21 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B350" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="C350" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B351" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C351" t="s">
         <v>2</v>
@@ -6470,10 +6473,10 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B352" t="s">
-        <v>467</v>
+        <v>15</v>
       </c>
       <c r="C352" t="s">
         <v>2</v>
@@ -6481,21 +6484,21 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B353" t="s">
-        <v>312</v>
+        <v>467</v>
       </c>
       <c r="C353" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B354" t="s">
-        <v>470</v>
+        <v>312</v>
       </c>
       <c r="C354" t="s">
         <v>5</v>
@@ -6503,35 +6506,35 @@
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B355" t="s">
-        <v>408</v>
+        <v>470</v>
       </c>
       <c r="C355" t="s">
-        <v>2</v>
-      </c>
-      <c r="D355" t="s">
-        <v>542</v>
+        <v>5</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B356" t="s">
-        <v>19</v>
+        <v>408</v>
       </c>
       <c r="C356" t="s">
         <v>2</v>
+      </c>
+      <c r="D356" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B357" t="s">
-        <v>474</v>
+        <v>19</v>
       </c>
       <c r="C357" t="s">
         <v>2</v>
@@ -6539,10 +6542,10 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B358" t="s">
-        <v>15</v>
+        <v>474</v>
       </c>
       <c r="C358" t="s">
         <v>2</v>
@@ -6550,7 +6553,7 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B359" t="s">
         <v>15</v>
@@ -6561,7 +6564,7 @@
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B360" t="s">
         <v>15</v>
@@ -6572,7 +6575,7 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B361" t="s">
         <v>15</v>
@@ -6583,7 +6586,7 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B362" t="s">
         <v>15</v>
@@ -6594,7 +6597,7 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B363" t="s">
         <v>15</v>
@@ -6605,10 +6608,10 @@
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B364" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C364" t="s">
         <v>2</v>
@@ -6616,10 +6619,10 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B365" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C365" t="s">
         <v>2</v>
@@ -6627,29 +6630,29 @@
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B366" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="C366" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B367" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="C367" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B368" t="s">
         <v>15</v>
@@ -6660,32 +6663,32 @@
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B369" t="s">
-        <v>487</v>
+        <v>15</v>
       </c>
       <c r="C369" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B370" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C370" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B371" t="s">
-        <v>19</v>
+        <v>489</v>
       </c>
       <c r="C371" t="s">
         <v>2</v>
@@ -6693,57 +6696,57 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B372" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C372" t="s">
-        <v>5</v>
-      </c>
-      <c r="D372" t="s">
-        <v>542</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B373" t="s">
-        <v>131</v>
+        <v>7</v>
       </c>
       <c r="C373" t="s">
         <v>5</v>
+      </c>
+      <c r="D373" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B374" t="s">
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="C374" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B375" t="s">
-        <v>495</v>
+        <v>19</v>
       </c>
       <c r="C375" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B376" t="s">
-        <v>129</v>
+        <v>495</v>
       </c>
       <c r="C376" t="s">
         <v>5</v>
@@ -6751,10 +6754,10 @@
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B377" t="s">
-        <v>50</v>
+        <v>129</v>
       </c>
       <c r="C377" t="s">
         <v>5</v>
@@ -6762,21 +6765,21 @@
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B378" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="C378" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B379" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C379" t="s">
         <v>2</v>
@@ -6784,10 +6787,10 @@
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B380" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C380" t="s">
         <v>2</v>
@@ -6795,76 +6798,76 @@
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B381" t="s">
-        <v>353</v>
+        <v>15</v>
       </c>
       <c r="C381" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>543</v>
+        <v>501</v>
       </c>
       <c r="B382" t="s">
-        <v>19</v>
+        <v>353</v>
       </c>
       <c r="C382" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>502</v>
+        <v>543</v>
       </c>
       <c r="B383" t="s">
-        <v>503</v>
+        <v>19</v>
       </c>
       <c r="C383" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B384" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C384" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B385" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C385" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B386" t="s">
-        <v>71</v>
+        <v>507</v>
       </c>
       <c r="C386" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B387" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="C387" t="s">
         <v>2</v>
@@ -6872,32 +6875,32 @@
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B388" t="s">
-        <v>511</v>
+        <v>19</v>
       </c>
       <c r="C388" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B389" t="s">
-        <v>15</v>
+        <v>511</v>
       </c>
       <c r="C389" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B390" t="s">
-        <v>177</v>
+        <v>15</v>
       </c>
       <c r="C390" t="s">
         <v>2</v>
@@ -6905,32 +6908,32 @@
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B391" t="s">
-        <v>515</v>
+        <v>177</v>
       </c>
       <c r="C391" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B392" t="s">
-        <v>332</v>
+        <v>515</v>
       </c>
       <c r="C392" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B393" t="s">
-        <v>15</v>
+        <v>332</v>
       </c>
       <c r="C393" t="s">
         <v>2</v>
@@ -6938,46 +6941,46 @@
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B394" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C394" t="s">
         <v>2</v>
-      </c>
-      <c r="D394" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B395" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C395" t="s">
         <v>2</v>
+      </c>
+      <c r="D395" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B396" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="C396" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B397" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="C397" t="s">
         <v>5</v>
@@ -6985,21 +6988,21 @@
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B398" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="C398" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B399" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C399" t="s">
         <v>2</v>
@@ -7007,10 +7010,10 @@
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B400" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C400" t="s">
         <v>2</v>
@@ -7018,7 +7021,7 @@
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B401" t="s">
         <v>15</v>
@@ -7029,7 +7032,7 @@
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B402" t="s">
         <v>15</v>
@@ -7040,57 +7043,57 @@
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B403" t="s">
-        <v>528</v>
+        <v>15</v>
       </c>
       <c r="C403" t="s">
-        <v>5</v>
-      </c>
-      <c r="D403" t="s">
-        <v>542</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B404" t="s">
-        <v>15</v>
+        <v>528</v>
       </c>
       <c r="C404" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="D404" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B405" t="s">
-        <v>531</v>
+        <v>15</v>
       </c>
       <c r="C405" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B406" t="s">
-        <v>15</v>
+        <v>531</v>
       </c>
       <c r="C406" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B407" t="s">
-        <v>534</v>
+        <v>15</v>
       </c>
       <c r="C407" t="s">
         <v>2</v>
@@ -7098,10 +7101,10 @@
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B408" t="s">
-        <v>15</v>
+        <v>534</v>
       </c>
       <c r="C408" t="s">
         <v>2</v>
@@ -7109,18 +7112,29 @@
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
+        <v>535</v>
+      </c>
+      <c r="B409" t="s">
+        <v>15</v>
+      </c>
+      <c r="C409" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
         <v>536</v>
       </c>
-      <c r="B409" t="s">
-        <v>19</v>
-      </c>
-      <c r="C409" t="s">
+      <c r="B410" t="s">
+        <v>19</v>
+      </c>
+      <c r="C410" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1" xr:uid="{8F56ED3D-A3F2-450D-9EAE-1214C3EA2069}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D409">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D410">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>

--- a/assets/guncel_deneme_bonuslari_listesi.xlsx
+++ b/assets/guncel_deneme_bonuslari_listesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cengi\Desktop\test\Deneme Bonusu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2D98BF-B972-49A4-9639-B9C7995B4320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C551BCE-973A-415D-B15E-E9E9010CABB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CD7B2693-F8D1-429F-9AB3-DB64ACA5183F}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="547">
   <si>
     <t>1king</t>
   </si>
@@ -2546,7 +2546,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3806,7 +3806,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>167</v>
       </c>
@@ -3817,7 +3817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>168</v>
       </c>
@@ -3828,7 +3828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>169</v>
       </c>
@@ -3839,7 +3839,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>546</v>
       </c>
@@ -3849,8 +3849,11 @@
       <c r="C116" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D116" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>170</v>
       </c>
@@ -3861,7 +3864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>171</v>
       </c>
@@ -3872,7 +3875,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>173</v>
       </c>
@@ -3883,7 +3886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>174</v>
       </c>
@@ -3894,7 +3897,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>175</v>
       </c>
@@ -3905,7 +3908,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>176</v>
       </c>
@@ -3916,7 +3919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>178</v>
       </c>
@@ -3927,7 +3930,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>179</v>
       </c>
@@ -3938,7 +3941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>180</v>
       </c>
@@ -3949,7 +3952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>181</v>
       </c>
@@ -3960,7 +3963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>182</v>
       </c>
@@ -3971,7 +3974,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>183</v>
       </c>

--- a/assets/guncel_deneme_bonuslari_listesi.xlsx
+++ b/assets/guncel_deneme_bonuslari_listesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cengi\Desktop\test\Deneme Bonusu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C551BCE-973A-415D-B15E-E9E9010CABB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FEAED5B-D091-432B-BF40-76C455CC106C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CD7B2693-F8D1-429F-9AB3-DB64ACA5183F}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="548">
   <si>
     <t>1king</t>
   </si>
@@ -1664,6 +1664,9 @@
   </si>
   <si>
     <t>bidaha</t>
+  </si>
+  <si>
+    <t>robobet</t>
   </si>
 </sst>
 </file>
@@ -2542,11 +2545,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F56ED3D-A3F2-450D-9EAE-1214C3EA2069}">
-  <dimension ref="A1:D410"/>
+  <dimension ref="A1:D411"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6130,7 +6133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>429</v>
       </c>
@@ -6141,7 +6144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>430</v>
       </c>
@@ -6152,7 +6155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>431</v>
       </c>
@@ -6163,7 +6166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>432</v>
       </c>
@@ -6174,7 +6177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>433</v>
       </c>
@@ -6185,7 +6188,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>434</v>
       </c>
@@ -6196,7 +6199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>435</v>
       </c>
@@ -6207,7 +6210,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>436</v>
       </c>
@@ -6218,7 +6221,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>438</v>
       </c>
@@ -6229,7 +6232,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>440</v>
       </c>
@@ -6240,7 +6243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>441</v>
       </c>
@@ -6251,56 +6254,59 @@
         <v>2</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
+        <v>547</v>
+      </c>
+      <c r="B332" t="s">
+        <v>423</v>
+      </c>
+      <c r="C332" t="s">
+        <v>2</v>
+      </c>
+      <c r="D332" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
         <v>442</v>
       </c>
-      <c r="B332" t="s">
+      <c r="B333" t="s">
         <v>131</v>
       </c>
-      <c r="C332" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A333" t="s">
+      <c r="C333" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
         <v>443</v>
       </c>
-      <c r="B333" t="s">
+      <c r="B334" t="s">
         <v>312</v>
       </c>
-      <c r="C333" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A334" t="s">
+      <c r="C334" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
         <v>444</v>
       </c>
-      <c r="B334" t="s">
+      <c r="B335" t="s">
         <v>445</v>
       </c>
-      <c r="C334" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A335" t="s">
+      <c r="C335" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
         <v>446</v>
       </c>
-      <c r="B335" t="s">
-        <v>19</v>
-      </c>
-      <c r="C335" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A336" t="s">
-        <v>447</v>
-      </c>
       <c r="B336" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C336" t="s">
         <v>2</v>
@@ -6308,10 +6314,10 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B337" t="s">
-        <v>408</v>
+        <v>17</v>
       </c>
       <c r="C337" t="s">
         <v>2</v>
@@ -6319,10 +6325,10 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B338" t="s">
-        <v>15</v>
+        <v>408</v>
       </c>
       <c r="C338" t="s">
         <v>2</v>
@@ -6330,7 +6336,7 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B339" t="s">
         <v>15</v>
@@ -6341,10 +6347,10 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B340" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C340" t="s">
         <v>2</v>
@@ -6352,10 +6358,10 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B341" t="s">
-        <v>177</v>
+        <v>17</v>
       </c>
       <c r="C341" t="s">
         <v>2</v>
@@ -6363,90 +6369,90 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B342" t="s">
-        <v>105</v>
+        <v>177</v>
       </c>
       <c r="C342" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B343" t="s">
-        <v>402</v>
+        <v>105</v>
       </c>
       <c r="C343" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B344" t="s">
-        <v>24</v>
+        <v>402</v>
       </c>
       <c r="C344" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B345" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C345" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B346" t="s">
-        <v>458</v>
+        <v>19</v>
       </c>
       <c r="C346" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B347" t="s">
-        <v>27</v>
+        <v>458</v>
       </c>
       <c r="C347" t="s">
         <v>5</v>
-      </c>
-      <c r="D347" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B348" t="s">
-        <v>461</v>
+        <v>27</v>
       </c>
       <c r="C348" t="s">
         <v>5</v>
+      </c>
+      <c r="D348" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B349" t="s">
-        <v>27</v>
+        <v>461</v>
       </c>
       <c r="C349" t="s">
         <v>5</v>
@@ -6454,10 +6460,10 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B350" t="s">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="C350" t="s">
         <v>5</v>
@@ -6465,21 +6471,21 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B351" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="C351" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B352" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C352" t="s">
         <v>2</v>
@@ -6487,10 +6493,10 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B353" t="s">
-        <v>467</v>
+        <v>15</v>
       </c>
       <c r="C353" t="s">
         <v>2</v>
@@ -6498,21 +6504,21 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B354" t="s">
-        <v>312</v>
+        <v>467</v>
       </c>
       <c r="C354" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B355" t="s">
-        <v>470</v>
+        <v>312</v>
       </c>
       <c r="C355" t="s">
         <v>5</v>
@@ -6520,35 +6526,35 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B356" t="s">
-        <v>408</v>
+        <v>470</v>
       </c>
       <c r="C356" t="s">
-        <v>2</v>
-      </c>
-      <c r="D356" t="s">
-        <v>542</v>
+        <v>5</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B357" t="s">
-        <v>19</v>
+        <v>408</v>
       </c>
       <c r="C357" t="s">
         <v>2</v>
+      </c>
+      <c r="D357" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B358" t="s">
-        <v>474</v>
+        <v>19</v>
       </c>
       <c r="C358" t="s">
         <v>2</v>
@@ -6556,10 +6562,10 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B359" t="s">
-        <v>15</v>
+        <v>474</v>
       </c>
       <c r="C359" t="s">
         <v>2</v>
@@ -6567,7 +6573,7 @@
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B360" t="s">
         <v>15</v>
@@ -6578,7 +6584,7 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B361" t="s">
         <v>15</v>
@@ -6589,7 +6595,7 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B362" t="s">
         <v>15</v>
@@ -6600,7 +6606,7 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B363" t="s">
         <v>15</v>
@@ -6611,7 +6617,7 @@
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B364" t="s">
         <v>15</v>
@@ -6622,10 +6628,10 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B365" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C365" t="s">
         <v>2</v>
@@ -6633,10 +6639,10 @@
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B366" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C366" t="s">
         <v>2</v>
@@ -6644,29 +6650,29 @@
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B367" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="C367" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B368" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="C368" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B369" t="s">
         <v>15</v>
@@ -6677,32 +6683,32 @@
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B370" t="s">
-        <v>487</v>
+        <v>15</v>
       </c>
       <c r="C370" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B371" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C371" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B372" t="s">
-        <v>19</v>
+        <v>489</v>
       </c>
       <c r="C372" t="s">
         <v>2</v>
@@ -6710,57 +6716,57 @@
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B373" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C373" t="s">
-        <v>5</v>
-      </c>
-      <c r="D373" t="s">
-        <v>542</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B374" t="s">
-        <v>131</v>
+        <v>7</v>
       </c>
       <c r="C374" t="s">
         <v>5</v>
+      </c>
+      <c r="D374" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B375" t="s">
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="C375" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B376" t="s">
-        <v>495</v>
+        <v>19</v>
       </c>
       <c r="C376" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B377" t="s">
-        <v>129</v>
+        <v>495</v>
       </c>
       <c r="C377" t="s">
         <v>5</v>
@@ -6768,10 +6774,10 @@
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B378" t="s">
-        <v>50</v>
+        <v>129</v>
       </c>
       <c r="C378" t="s">
         <v>5</v>
@@ -6779,21 +6785,21 @@
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B379" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="C379" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B380" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C380" t="s">
         <v>2</v>
@@ -6801,10 +6807,10 @@
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B381" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C381" t="s">
         <v>2</v>
@@ -6812,76 +6818,76 @@
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B382" t="s">
-        <v>353</v>
+        <v>15</v>
       </c>
       <c r="C382" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>543</v>
+        <v>501</v>
       </c>
       <c r="B383" t="s">
-        <v>19</v>
+        <v>353</v>
       </c>
       <c r="C383" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>502</v>
+        <v>543</v>
       </c>
       <c r="B384" t="s">
-        <v>503</v>
+        <v>19</v>
       </c>
       <c r="C384" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B385" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C385" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B386" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C386" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B387" t="s">
-        <v>71</v>
+        <v>507</v>
       </c>
       <c r="C387" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B388" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="C388" t="s">
         <v>2</v>
@@ -6889,32 +6895,32 @@
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B389" t="s">
-        <v>511</v>
+        <v>19</v>
       </c>
       <c r="C389" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B390" t="s">
-        <v>15</v>
+        <v>511</v>
       </c>
       <c r="C390" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B391" t="s">
-        <v>177</v>
+        <v>15</v>
       </c>
       <c r="C391" t="s">
         <v>2</v>
@@ -6922,32 +6928,32 @@
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B392" t="s">
-        <v>515</v>
+        <v>177</v>
       </c>
       <c r="C392" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B393" t="s">
-        <v>332</v>
+        <v>515</v>
       </c>
       <c r="C393" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B394" t="s">
-        <v>15</v>
+        <v>332</v>
       </c>
       <c r="C394" t="s">
         <v>2</v>
@@ -6955,46 +6961,46 @@
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B395" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C395" t="s">
         <v>2</v>
-      </c>
-      <c r="D395" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B396" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C396" t="s">
         <v>2</v>
+      </c>
+      <c r="D396" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B397" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="C397" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B398" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="C398" t="s">
         <v>5</v>
@@ -7002,21 +7008,21 @@
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B399" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="C399" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B400" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C400" t="s">
         <v>2</v>
@@ -7024,10 +7030,10 @@
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B401" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C401" t="s">
         <v>2</v>
@@ -7035,7 +7041,7 @@
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B402" t="s">
         <v>15</v>
@@ -7046,7 +7052,7 @@
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B403" t="s">
         <v>15</v>
@@ -7057,57 +7063,57 @@
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B404" t="s">
-        <v>528</v>
+        <v>15</v>
       </c>
       <c r="C404" t="s">
-        <v>5</v>
-      </c>
-      <c r="D404" t="s">
-        <v>542</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B405" t="s">
-        <v>15</v>
+        <v>528</v>
       </c>
       <c r="C405" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="D405" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B406" t="s">
-        <v>531</v>
+        <v>15</v>
       </c>
       <c r="C406" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B407" t="s">
-        <v>15</v>
+        <v>531</v>
       </c>
       <c r="C407" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B408" t="s">
-        <v>534</v>
+        <v>15</v>
       </c>
       <c r="C408" t="s">
         <v>2</v>
@@ -7115,10 +7121,10 @@
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B409" t="s">
-        <v>15</v>
+        <v>534</v>
       </c>
       <c r="C409" t="s">
         <v>2</v>
@@ -7126,18 +7132,29 @@
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
+        <v>535</v>
+      </c>
+      <c r="B410" t="s">
+        <v>15</v>
+      </c>
+      <c r="C410" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
         <v>536</v>
       </c>
-      <c r="B410" t="s">
-        <v>19</v>
-      </c>
-      <c r="C410" t="s">
+      <c r="B411" t="s">
+        <v>19</v>
+      </c>
+      <c r="C411" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1" xr:uid="{8F56ED3D-A3F2-450D-9EAE-1214C3EA2069}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D410">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D411">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>

--- a/assets/guncel_deneme_bonuslari_listesi.xlsx
+++ b/assets/guncel_deneme_bonuslari_listesi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cengi\Desktop\test\Deneme Bonusu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FEAED5B-D091-432B-BF40-76C455CC106C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D61BF46-08F3-4E6D-8573-2A1D0CF6A287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CD7B2693-F8D1-429F-9AB3-DB64ACA5183F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CD7B2693-F8D1-429F-9AB3-DB64ACA5183F}"/>
   </bookViews>
   <sheets>
     <sheet name="guncel_deneme_bonuslari_listesi" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="549">
   <si>
     <t>1king</t>
   </si>
@@ -1667,6 +1667,9 @@
   </si>
   <si>
     <t>robobet</t>
+  </si>
+  <si>
+    <t>cratoscasino</t>
   </si>
 </sst>
 </file>
@@ -2545,11 +2548,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F56ED3D-A3F2-450D-9EAE-1214C3EA2069}">
-  <dimension ref="A1:D411"/>
+  <dimension ref="A1:D412"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4179,210 +4182,213 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
+        <v>548</v>
+      </c>
+      <c r="B145" t="s">
+        <v>40</v>
+      </c>
+      <c r="C145" t="s">
+        <v>2</v>
+      </c>
+      <c r="D145" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
         <v>202</v>
       </c>
-      <c r="B145" t="s">
-        <v>15</v>
-      </c>
-      <c r="C145" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+      <c r="B146" t="s">
+        <v>15</v>
+      </c>
+      <c r="C146" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
         <v>203</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B147" t="s">
         <v>204</v>
       </c>
-      <c r="C146" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+      <c r="C147" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
         <v>205</v>
       </c>
-      <c r="B147" t="s">
-        <v>19</v>
-      </c>
-      <c r="C147" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+      <c r="B148" t="s">
+        <v>19</v>
+      </c>
+      <c r="C148" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
         <v>206</v>
       </c>
-      <c r="B148" t="s">
-        <v>15</v>
-      </c>
-      <c r="C148" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+      <c r="B149" t="s">
+        <v>15</v>
+      </c>
+      <c r="C149" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
         <v>207</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B150" t="s">
         <v>115</v>
       </c>
-      <c r="C149" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+      <c r="C150" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
         <v>208</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B151" t="s">
         <v>17</v>
       </c>
-      <c r="C150" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+      <c r="C151" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
         <v>209</v>
       </c>
-      <c r="B151" t="s">
-        <v>19</v>
-      </c>
-      <c r="C151" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+      <c r="B152" t="s">
+        <v>19</v>
+      </c>
+      <c r="C152" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
         <v>210</v>
       </c>
-      <c r="B152" t="s">
-        <v>19</v>
-      </c>
-      <c r="C152" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+      <c r="B153" t="s">
+        <v>19</v>
+      </c>
+      <c r="C153" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
         <v>211</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B154" t="s">
         <v>212</v>
       </c>
-      <c r="C153" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+      <c r="C154" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
         <v>213</v>
       </c>
-      <c r="B154" t="s">
-        <v>15</v>
-      </c>
-      <c r="C154" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+      <c r="B155" t="s">
+        <v>15</v>
+      </c>
+      <c r="C155" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
         <v>214</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B156" t="s">
         <v>215</v>
       </c>
-      <c r="C155" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+      <c r="C156" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
         <v>216</v>
       </c>
-      <c r="B156" t="s">
-        <v>15</v>
-      </c>
-      <c r="C156" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+      <c r="B157" t="s">
+        <v>15</v>
+      </c>
+      <c r="C157" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
         <v>217</v>
       </c>
-      <c r="B157" t="s">
-        <v>19</v>
-      </c>
-      <c r="C157" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+      <c r="B158" t="s">
+        <v>19</v>
+      </c>
+      <c r="C158" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
         <v>218</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B159" t="s">
         <v>17</v>
       </c>
-      <c r="C158" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+      <c r="C159" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
         <v>219</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B160" t="s">
         <v>220</v>
       </c>
-      <c r="C159" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>221</v>
-      </c>
-      <c r="B160" t="s">
-        <v>15</v>
-      </c>
       <c r="C160" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B161" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="C161" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B162" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="C162" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B163" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C163" t="s">
         <v>2</v>
@@ -4390,32 +4396,32 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B164" t="s">
-        <v>226</v>
+        <v>15</v>
       </c>
       <c r="C164" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B165" t="s">
-        <v>101</v>
+        <v>226</v>
       </c>
       <c r="C165" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B166" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="C166" t="s">
         <v>2</v>
@@ -4423,10 +4429,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B167" t="s">
-        <v>230</v>
+        <v>19</v>
       </c>
       <c r="C167" t="s">
         <v>2</v>
@@ -4434,10 +4440,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B168" t="s">
-        <v>97</v>
+        <v>230</v>
       </c>
       <c r="C168" t="s">
         <v>2</v>
@@ -4445,10 +4451,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B169" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="C169" t="s">
         <v>2</v>
@@ -4456,10 +4462,10 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B170" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C170" t="s">
         <v>2</v>
@@ -4467,7 +4473,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B171" t="s">
         <v>19</v>
@@ -4478,65 +4484,65 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B172" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="C172" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B173" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="C173" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B174" t="s">
-        <v>238</v>
+        <v>15</v>
       </c>
       <c r="C174" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B175" t="s">
-        <v>19</v>
+        <v>238</v>
       </c>
       <c r="C175" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B176" t="s">
-        <v>241</v>
+        <v>19</v>
       </c>
       <c r="C176" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B177" t="s">
-        <v>97</v>
+        <v>241</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -4544,21 +4550,21 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B178" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="C178" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B179" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C179" t="s">
         <v>2</v>
@@ -4566,10 +4572,10 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B180" t="s">
-        <v>230</v>
+        <v>15</v>
       </c>
       <c r="C180" t="s">
         <v>2</v>
@@ -4577,21 +4583,21 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B181" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="C181" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B182" t="s">
-        <v>97</v>
+        <v>247</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -4599,10 +4605,10 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B183" t="s">
-        <v>250</v>
+        <v>97</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -4610,54 +4616,54 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B184" t="s">
-        <v>15</v>
+        <v>250</v>
       </c>
       <c r="C184" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B185" t="s">
-        <v>253</v>
+        <v>15</v>
       </c>
       <c r="C185" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B186" t="s">
-        <v>15</v>
+        <v>253</v>
       </c>
       <c r="C186" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B187" t="s">
-        <v>256</v>
+        <v>15</v>
       </c>
       <c r="C187" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B188" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -4665,84 +4671,84 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B189" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="C189" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B190" t="s">
-        <v>261</v>
+        <v>15</v>
       </c>
       <c r="C190" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B191" t="s">
-        <v>11</v>
+        <v>261</v>
       </c>
       <c r="C191" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B192" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="C192" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B193" t="s">
-        <v>265</v>
+        <v>86</v>
       </c>
       <c r="C193" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B194" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C194" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B195" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="C195" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B196" t="s">
         <v>15</v>
@@ -4753,10 +4759,10 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B197" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C197" t="s">
         <v>2</v>
@@ -4764,29 +4770,29 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B198" t="s">
-        <v>272</v>
+        <v>19</v>
       </c>
       <c r="C198" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B199" t="s">
-        <v>15</v>
+        <v>272</v>
       </c>
       <c r="C199" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B200" t="s">
         <v>15</v>
@@ -4797,10 +4803,10 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B201" t="s">
-        <v>276</v>
+        <v>15</v>
       </c>
       <c r="C201" t="s">
         <v>2</v>
@@ -4808,10 +4814,10 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B202" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C202" t="s">
         <v>2</v>
@@ -4819,93 +4825,93 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B203" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C203" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B204" t="s">
-        <v>19</v>
+        <v>280</v>
       </c>
       <c r="C204" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B205" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C205" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B206" t="s">
-        <v>284</v>
+        <v>27</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
-      </c>
-      <c r="D206" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B207" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
+      </c>
+      <c r="D207" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B208" t="s">
-        <v>15</v>
+        <v>286</v>
       </c>
       <c r="C208" t="s">
-        <v>2</v>
-      </c>
-      <c r="D208" t="s">
-        <v>542</v>
+        <v>5</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B209" t="s">
         <v>15</v>
       </c>
       <c r="C209" t="s">
         <v>2</v>
+      </c>
+      <c r="D209" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B210" t="s">
-        <v>290</v>
+        <v>15</v>
       </c>
       <c r="C210" t="s">
         <v>2</v>
@@ -4913,10 +4919,10 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B211" t="s">
-        <v>19</v>
+        <v>290</v>
       </c>
       <c r="C211" t="s">
         <v>2</v>
@@ -4924,10 +4930,10 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B212" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C212" t="s">
         <v>2</v>
@@ -4935,7 +4941,7 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B213" t="s">
         <v>15</v>
@@ -4946,21 +4952,21 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B214" t="s">
-        <v>256</v>
+        <v>15</v>
       </c>
       <c r="C214" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B215" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -4968,46 +4974,46 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B216" t="s">
-        <v>69</v>
+        <v>280</v>
       </c>
       <c r="C216" t="s">
-        <v>2</v>
-      </c>
-      <c r="D216" t="s">
-        <v>542</v>
+        <v>5</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B217" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="C217" t="s">
         <v>2</v>
+      </c>
+      <c r="D217" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B218" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="C218" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B219" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -5015,21 +5021,21 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B220" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="C220" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B221" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C221" t="s">
         <v>2</v>
@@ -5037,43 +5043,43 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B222" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C222" t="s">
         <v>2</v>
-      </c>
-      <c r="D222" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B223" t="s">
-        <v>304</v>
+        <v>19</v>
       </c>
       <c r="C223" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="D223" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B224" t="s">
-        <v>15</v>
+        <v>304</v>
       </c>
       <c r="C224" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B225" t="s">
         <v>15</v>
@@ -5084,10 +5090,10 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B226" t="s">
-        <v>118</v>
+        <v>15</v>
       </c>
       <c r="C226" t="s">
         <v>2</v>
@@ -5095,35 +5101,35 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B227" t="s">
-        <v>15</v>
+        <v>118</v>
       </c>
       <c r="C227" t="s">
         <v>2</v>
-      </c>
-      <c r="D227" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B228" t="s">
-        <v>310</v>
+        <v>15</v>
       </c>
       <c r="C228" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="D228" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B229" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
@@ -5131,18 +5137,18 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B230" t="s">
-        <v>15</v>
+        <v>312</v>
       </c>
       <c r="C230" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B231" t="s">
         <v>15</v>
@@ -5153,10 +5159,10 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B232" t="s">
-        <v>316</v>
+        <v>15</v>
       </c>
       <c r="C232" t="s">
         <v>2</v>
@@ -5164,10 +5170,10 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B233" t="s">
-        <v>15</v>
+        <v>316</v>
       </c>
       <c r="C233" t="s">
         <v>2</v>
@@ -5175,10 +5181,10 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B234" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C234" t="s">
         <v>2</v>
@@ -5186,7 +5192,7 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B235" t="s">
         <v>19</v>
@@ -5197,21 +5203,21 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B236" t="s">
-        <v>321</v>
+        <v>19</v>
       </c>
       <c r="C236" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B237" t="s">
-        <v>131</v>
+        <v>321</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
@@ -5219,10 +5225,10 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B238" t="s">
-        <v>50</v>
+        <v>131</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -5230,10 +5236,10 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B239" t="s">
-        <v>325</v>
+        <v>50</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -5241,10 +5247,10 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B240" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -5252,10 +5258,10 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B241" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
@@ -5263,21 +5269,21 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B242" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="C242" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B243" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="C243" t="s">
         <v>2</v>
@@ -5285,10 +5291,10 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B244" t="s">
-        <v>19</v>
+        <v>332</v>
       </c>
       <c r="C244" t="s">
         <v>2</v>
@@ -5296,21 +5302,21 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B245" t="s">
-        <v>335</v>
+        <v>19</v>
       </c>
       <c r="C245" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B246" t="s">
-        <v>86</v>
+        <v>335</v>
       </c>
       <c r="C246" t="s">
         <v>5</v>
@@ -5318,21 +5324,21 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B247" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="C247" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B248" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="C248" t="s">
         <v>2</v>
@@ -5340,10 +5346,10 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B249" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="C249" t="s">
         <v>2</v>
@@ -5351,10 +5357,10 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B250" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C250" t="s">
         <v>2</v>
@@ -5362,32 +5368,32 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B251" t="s">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="C251" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B252" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="C252" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B253" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="C253" t="s">
         <v>2</v>
@@ -5395,10 +5401,10 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B254" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="C254" t="s">
         <v>2</v>
@@ -5406,10 +5412,10 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B255" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C255" t="s">
         <v>2</v>
@@ -5417,21 +5423,21 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B256" t="s">
-        <v>347</v>
+        <v>19</v>
       </c>
       <c r="C256" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B257" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C257" t="s">
         <v>5</v>
@@ -5439,43 +5445,43 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B258" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C258" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B259" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C259" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B260" t="s">
-        <v>71</v>
+        <v>353</v>
       </c>
       <c r="C260" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B261" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C261" t="s">
         <v>2</v>
@@ -5483,10 +5489,10 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B262" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C262" t="s">
         <v>2</v>
@@ -5494,10 +5500,10 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B263" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C263" t="s">
         <v>2</v>
@@ -5505,10 +5511,10 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B264" t="s">
-        <v>316</v>
+        <v>15</v>
       </c>
       <c r="C264" t="s">
         <v>2</v>
@@ -5516,10 +5522,10 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B265" t="s">
-        <v>15</v>
+        <v>316</v>
       </c>
       <c r="C265" t="s">
         <v>2</v>
@@ -5527,10 +5533,10 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B266" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="C266" t="s">
         <v>2</v>
@@ -5538,10 +5544,10 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B267" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="C267" t="s">
         <v>2</v>
@@ -5549,10 +5555,10 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B268" t="s">
-        <v>177</v>
+        <v>15</v>
       </c>
       <c r="C268" t="s">
         <v>2</v>
@@ -5560,10 +5566,10 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B269" t="s">
-        <v>15</v>
+        <v>177</v>
       </c>
       <c r="C269" t="s">
         <v>2</v>
@@ -5571,7 +5577,7 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B270" t="s">
         <v>15</v>
@@ -5582,10 +5588,10 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B271" t="s">
-        <v>316</v>
+        <v>15</v>
       </c>
       <c r="C271" t="s">
         <v>2</v>
@@ -5593,32 +5599,32 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B272" t="s">
-        <v>353</v>
+        <v>316</v>
       </c>
       <c r="C272" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B273" t="s">
-        <v>15</v>
+        <v>353</v>
       </c>
       <c r="C273" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B274" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C274" t="s">
         <v>2</v>
@@ -5626,87 +5632,87 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B275" t="s">
-        <v>370</v>
+        <v>19</v>
       </c>
       <c r="C275" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B276" t="s">
-        <v>19</v>
+        <v>370</v>
       </c>
       <c r="C276" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B277" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C277" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B278" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C278" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B279" t="s">
-        <v>375</v>
+        <v>19</v>
       </c>
       <c r="C279" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B280" t="s">
-        <v>15</v>
+        <v>375</v>
       </c>
       <c r="C280" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B281" t="s">
-        <v>378</v>
+        <v>15</v>
       </c>
       <c r="C281" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B282" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C282" t="s">
         <v>5</v>
@@ -5714,68 +5720,68 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B283" t="s">
-        <v>71</v>
+        <v>380</v>
       </c>
       <c r="C283" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B284" t="s">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="C284" t="s">
-        <v>5</v>
-      </c>
-      <c r="D284" t="s">
-        <v>542</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B285" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="C285" t="s">
         <v>5</v>
+      </c>
+      <c r="D285" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B286" t="s">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="C286" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B287" t="s">
-        <v>312</v>
+        <v>17</v>
       </c>
       <c r="C287" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B288" t="s">
-        <v>99</v>
+        <v>312</v>
       </c>
       <c r="C288" t="s">
         <v>5</v>
@@ -5783,10 +5789,10 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B289" t="s">
-        <v>312</v>
+        <v>99</v>
       </c>
       <c r="C289" t="s">
         <v>5</v>
@@ -5794,65 +5800,65 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B290" t="s">
-        <v>19</v>
+        <v>312</v>
       </c>
       <c r="C290" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B291" t="s">
-        <v>390</v>
+        <v>19</v>
       </c>
       <c r="C291" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B292" t="s">
-        <v>15</v>
+        <v>390</v>
       </c>
       <c r="C292" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B293" t="s">
-        <v>312</v>
+        <v>15</v>
       </c>
       <c r="C293" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B294" t="s">
-        <v>15</v>
+        <v>312</v>
       </c>
       <c r="C294" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B295" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C295" t="s">
         <v>2</v>
@@ -5860,10 +5866,10 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B296" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C296" t="s">
         <v>2</v>
@@ -5871,10 +5877,10 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B297" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="C297" t="s">
         <v>2</v>
@@ -5882,10 +5888,10 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B298" t="s">
-        <v>398</v>
+        <v>101</v>
       </c>
       <c r="C298" t="s">
         <v>2</v>
@@ -5893,29 +5899,29 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B299" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C299" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B300" t="s">
-        <v>19</v>
+        <v>400</v>
       </c>
       <c r="C300" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B301" t="s">
         <v>19</v>
@@ -5926,10 +5932,10 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B302" t="s">
-        <v>405</v>
+        <v>19</v>
       </c>
       <c r="C302" t="s">
         <v>2</v>
@@ -5937,10 +5943,10 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B303" t="s">
-        <v>15</v>
+        <v>405</v>
       </c>
       <c r="C303" t="s">
         <v>2</v>
@@ -5948,10 +5954,10 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B304" t="s">
-        <v>408</v>
+        <v>15</v>
       </c>
       <c r="C304" t="s">
         <v>2</v>
@@ -5959,10 +5965,10 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B305" t="s">
-        <v>177</v>
+        <v>408</v>
       </c>
       <c r="C305" t="s">
         <v>2</v>
@@ -5970,10 +5976,10 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B306" t="s">
-        <v>115</v>
+        <v>177</v>
       </c>
       <c r="C306" t="s">
         <v>2</v>
@@ -5981,32 +5987,32 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B307" t="s">
-        <v>412</v>
+        <v>115</v>
       </c>
       <c r="C307" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B308" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C308" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B309" t="s">
-        <v>115</v>
+        <v>414</v>
       </c>
       <c r="C309" t="s">
         <v>2</v>
@@ -6014,10 +6020,10 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B310" t="s">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="C310" t="s">
         <v>2</v>
@@ -6025,10 +6031,10 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B311" t="s">
-        <v>418</v>
+        <v>37</v>
       </c>
       <c r="C311" t="s">
         <v>2</v>
@@ -6036,10 +6042,10 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B312" t="s">
-        <v>15</v>
+        <v>418</v>
       </c>
       <c r="C312" t="s">
         <v>2</v>
@@ -6047,32 +6053,32 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B313" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C313" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B314" t="s">
-        <v>418</v>
+        <v>27</v>
       </c>
       <c r="C314" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B315" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C315" t="s">
         <v>2</v>
@@ -6080,32 +6086,32 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B316" t="s">
-        <v>27</v>
+        <v>423</v>
       </c>
       <c r="C316" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B317" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C317" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B318" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C318" t="s">
         <v>2</v>
@@ -6113,32 +6119,32 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B319" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C319" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B320" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C320" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B321" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C321" t="s">
         <v>2</v>
@@ -6146,10 +6152,10 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B322" t="s">
-        <v>423</v>
+        <v>19</v>
       </c>
       <c r="C322" t="s">
         <v>2</v>
@@ -6157,10 +6163,10 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B323" t="s">
-        <v>15</v>
+        <v>423</v>
       </c>
       <c r="C323" t="s">
         <v>2</v>
@@ -6168,7 +6174,7 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B324" t="s">
         <v>15</v>
@@ -6179,43 +6185,43 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B325" t="s">
-        <v>310</v>
+        <v>15</v>
       </c>
       <c r="C325" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B326" t="s">
-        <v>15</v>
+        <v>310</v>
       </c>
       <c r="C326" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B327" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="C327" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B328" t="s">
-        <v>437</v>
+        <v>91</v>
       </c>
       <c r="C328" t="s">
         <v>5</v>
@@ -6223,10 +6229,10 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B329" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C329" t="s">
         <v>5</v>
@@ -6234,21 +6240,21 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B330" t="s">
-        <v>15</v>
+        <v>439</v>
       </c>
       <c r="C330" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B331" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C331" t="s">
         <v>2</v>
@@ -6256,35 +6262,35 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>547</v>
+        <v>441</v>
       </c>
       <c r="B332" t="s">
-        <v>423</v>
+        <v>19</v>
       </c>
       <c r="C332" t="s">
         <v>2</v>
-      </c>
-      <c r="D332" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>442</v>
+        <v>547</v>
       </c>
       <c r="B333" t="s">
-        <v>131</v>
+        <v>423</v>
       </c>
       <c r="C333" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="D333" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B334" t="s">
-        <v>312</v>
+        <v>131</v>
       </c>
       <c r="C334" t="s">
         <v>5</v>
@@ -6292,10 +6298,10 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B335" t="s">
-        <v>445</v>
+        <v>312</v>
       </c>
       <c r="C335" t="s">
         <v>5</v>
@@ -6303,21 +6309,21 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B336" t="s">
-        <v>19</v>
+        <v>445</v>
       </c>
       <c r="C336" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B337" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C337" t="s">
         <v>2</v>
@@ -6325,10 +6331,10 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B338" t="s">
-        <v>408</v>
+        <v>17</v>
       </c>
       <c r="C338" t="s">
         <v>2</v>
@@ -6336,10 +6342,10 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B339" t="s">
-        <v>15</v>
+        <v>408</v>
       </c>
       <c r="C339" t="s">
         <v>2</v>
@@ -6347,7 +6353,7 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B340" t="s">
         <v>15</v>
@@ -6358,10 +6364,10 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B341" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C341" t="s">
         <v>2</v>
@@ -6369,10 +6375,10 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B342" t="s">
-        <v>177</v>
+        <v>17</v>
       </c>
       <c r="C342" t="s">
         <v>2</v>
@@ -6380,90 +6386,90 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B343" t="s">
-        <v>105</v>
+        <v>177</v>
       </c>
       <c r="C343" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B344" t="s">
-        <v>402</v>
+        <v>105</v>
       </c>
       <c r="C344" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B345" t="s">
-        <v>24</v>
+        <v>402</v>
       </c>
       <c r="C345" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B346" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C346" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B347" t="s">
-        <v>458</v>
+        <v>19</v>
       </c>
       <c r="C347" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B348" t="s">
-        <v>27</v>
+        <v>458</v>
       </c>
       <c r="C348" t="s">
         <v>5</v>
-      </c>
-      <c r="D348" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B349" t="s">
-        <v>461</v>
+        <v>27</v>
       </c>
       <c r="C349" t="s">
         <v>5</v>
+      </c>
+      <c r="D349" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B350" t="s">
-        <v>27</v>
+        <v>461</v>
       </c>
       <c r="C350" t="s">
         <v>5</v>
@@ -6471,10 +6477,10 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B351" t="s">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="C351" t="s">
         <v>5</v>
@@ -6482,21 +6488,21 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B352" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="C352" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B353" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C353" t="s">
         <v>2</v>
@@ -6504,10 +6510,10 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B354" t="s">
-        <v>467</v>
+        <v>15</v>
       </c>
       <c r="C354" t="s">
         <v>2</v>
@@ -6515,21 +6521,21 @@
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B355" t="s">
-        <v>312</v>
+        <v>467</v>
       </c>
       <c r="C355" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B356" t="s">
-        <v>470</v>
+        <v>312</v>
       </c>
       <c r="C356" t="s">
         <v>5</v>
@@ -6537,35 +6543,35 @@
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B357" t="s">
-        <v>408</v>
+        <v>470</v>
       </c>
       <c r="C357" t="s">
-        <v>2</v>
-      </c>
-      <c r="D357" t="s">
-        <v>542</v>
+        <v>5</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B358" t="s">
-        <v>19</v>
+        <v>408</v>
       </c>
       <c r="C358" t="s">
         <v>2</v>
+      </c>
+      <c r="D358" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B359" t="s">
-        <v>474</v>
+        <v>19</v>
       </c>
       <c r="C359" t="s">
         <v>2</v>
@@ -6573,10 +6579,10 @@
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B360" t="s">
-        <v>15</v>
+        <v>474</v>
       </c>
       <c r="C360" t="s">
         <v>2</v>
@@ -6584,7 +6590,7 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B361" t="s">
         <v>15</v>
@@ -6595,7 +6601,7 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B362" t="s">
         <v>15</v>
@@ -6606,7 +6612,7 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B363" t="s">
         <v>15</v>
@@ -6617,7 +6623,7 @@
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B364" t="s">
         <v>15</v>
@@ -6628,7 +6634,7 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B365" t="s">
         <v>15</v>
@@ -6639,10 +6645,10 @@
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B366" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C366" t="s">
         <v>2</v>
@@ -6650,10 +6656,10 @@
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B367" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C367" t="s">
         <v>2</v>
@@ -6661,29 +6667,29 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B368" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="C368" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B369" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="C369" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B370" t="s">
         <v>15</v>
@@ -6694,32 +6700,32 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B371" t="s">
-        <v>487</v>
+        <v>15</v>
       </c>
       <c r="C371" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B372" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C372" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B373" t="s">
-        <v>19</v>
+        <v>489</v>
       </c>
       <c r="C373" t="s">
         <v>2</v>
@@ -6727,57 +6733,57 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B374" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C374" t="s">
-        <v>5</v>
-      </c>
-      <c r="D374" t="s">
-        <v>542</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B375" t="s">
-        <v>131</v>
+        <v>7</v>
       </c>
       <c r="C375" t="s">
         <v>5</v>
+      </c>
+      <c r="D375" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B376" t="s">
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="C376" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B377" t="s">
-        <v>495</v>
+        <v>19</v>
       </c>
       <c r="C377" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B378" t="s">
-        <v>129</v>
+        <v>495</v>
       </c>
       <c r="C378" t="s">
         <v>5</v>
@@ -6785,10 +6791,10 @@
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B379" t="s">
-        <v>50</v>
+        <v>129</v>
       </c>
       <c r="C379" t="s">
         <v>5</v>
@@ -6796,21 +6802,21 @@
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B380" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="C380" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B381" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C381" t="s">
         <v>2</v>
@@ -6818,10 +6824,10 @@
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B382" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C382" t="s">
         <v>2</v>
@@ -6829,76 +6835,76 @@
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B383" t="s">
-        <v>353</v>
+        <v>15</v>
       </c>
       <c r="C383" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>543</v>
+        <v>501</v>
       </c>
       <c r="B384" t="s">
-        <v>19</v>
+        <v>353</v>
       </c>
       <c r="C384" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>502</v>
+        <v>543</v>
       </c>
       <c r="B385" t="s">
-        <v>503</v>
+        <v>19</v>
       </c>
       <c r="C385" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B386" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C386" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B387" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C387" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B388" t="s">
-        <v>71</v>
+        <v>507</v>
       </c>
       <c r="C388" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B389" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="C389" t="s">
         <v>2</v>
@@ -6906,32 +6912,32 @@
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B390" t="s">
-        <v>511</v>
+        <v>19</v>
       </c>
       <c r="C390" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B391" t="s">
-        <v>15</v>
+        <v>511</v>
       </c>
       <c r="C391" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B392" t="s">
-        <v>177</v>
+        <v>15</v>
       </c>
       <c r="C392" t="s">
         <v>2</v>
@@ -6939,32 +6945,32 @@
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B393" t="s">
-        <v>515</v>
+        <v>177</v>
       </c>
       <c r="C393" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B394" t="s">
-        <v>332</v>
+        <v>515</v>
       </c>
       <c r="C394" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B395" t="s">
-        <v>15</v>
+        <v>332</v>
       </c>
       <c r="C395" t="s">
         <v>2</v>
@@ -6972,46 +6978,46 @@
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B396" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C396" t="s">
         <v>2</v>
-      </c>
-      <c r="D396" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B397" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C397" t="s">
         <v>2</v>
+      </c>
+      <c r="D397" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B398" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="C398" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B399" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="C399" t="s">
         <v>5</v>
@@ -7019,21 +7025,21 @@
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B400" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="C400" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B401" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C401" t="s">
         <v>2</v>
@@ -7041,10 +7047,10 @@
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B402" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C402" t="s">
         <v>2</v>
@@ -7052,7 +7058,7 @@
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B403" t="s">
         <v>15</v>
@@ -7063,7 +7069,7 @@
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B404" t="s">
         <v>15</v>
@@ -7074,57 +7080,57 @@
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B405" t="s">
-        <v>528</v>
+        <v>15</v>
       </c>
       <c r="C405" t="s">
-        <v>5</v>
-      </c>
-      <c r="D405" t="s">
-        <v>542</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B406" t="s">
-        <v>15</v>
+        <v>528</v>
       </c>
       <c r="C406" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="D406" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B407" t="s">
-        <v>531</v>
+        <v>15</v>
       </c>
       <c r="C407" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B408" t="s">
-        <v>15</v>
+        <v>531</v>
       </c>
       <c r="C408" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B409" t="s">
-        <v>534</v>
+        <v>15</v>
       </c>
       <c r="C409" t="s">
         <v>2</v>
@@ -7132,10 +7138,10 @@
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B410" t="s">
-        <v>15</v>
+        <v>534</v>
       </c>
       <c r="C410" t="s">
         <v>2</v>
@@ -7143,18 +7149,29 @@
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
+        <v>535</v>
+      </c>
+      <c r="B411" t="s">
+        <v>15</v>
+      </c>
+      <c r="C411" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
         <v>536</v>
       </c>
-      <c r="B411" t="s">
-        <v>19</v>
-      </c>
-      <c r="C411" t="s">
+      <c r="B412" t="s">
+        <v>19</v>
+      </c>
+      <c r="C412" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1" xr:uid="{8F56ED3D-A3F2-450D-9EAE-1214C3EA2069}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D411">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D412">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>

--- a/assets/guncel_deneme_bonuslari_listesi.xlsx
+++ b/assets/guncel_deneme_bonuslari_listesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cengi\Desktop\test\Deneme Bonusu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D61BF46-08F3-4E6D-8573-2A1D0CF6A287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89448004-F056-498F-A3E7-03ED4EB1BC2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CD7B2693-F8D1-429F-9AB3-DB64ACA5183F}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="551">
   <si>
     <t>1king</t>
   </si>
@@ -1670,6 +1670,12 @@
   </si>
   <si>
     <t>cratoscasino</t>
+  </si>
+  <si>
+    <t>istekbet</t>
+  </si>
+  <si>
+    <t>goldengateroyalbet</t>
   </si>
 </sst>
 </file>
@@ -2548,11 +2554,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F56ED3D-A3F2-450D-9EAE-1214C3EA2069}">
-  <dimension ref="A1:D412"/>
+  <dimension ref="A1:D414"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4537,7 +4543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>240</v>
       </c>
@@ -4548,7 +4554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>242</v>
       </c>
@@ -4559,7 +4565,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>243</v>
       </c>
@@ -4570,7 +4576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>244</v>
       </c>
@@ -4581,7 +4587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>245</v>
       </c>
@@ -4592,7 +4598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>246</v>
       </c>
@@ -4603,7 +4609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>248</v>
       </c>
@@ -4614,7 +4620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>249</v>
       </c>
@@ -4625,7 +4631,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>251</v>
       </c>
@@ -4636,7 +4642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>252</v>
       </c>
@@ -4647,119 +4653,122 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
+        <v>550</v>
+      </c>
+      <c r="B187" t="s">
+        <v>15</v>
+      </c>
+      <c r="C187" t="s">
+        <v>2</v>
+      </c>
+      <c r="D187" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
         <v>254</v>
       </c>
-      <c r="B187" t="s">
-        <v>15</v>
-      </c>
-      <c r="C187" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
+      <c r="B188" t="s">
+        <v>15</v>
+      </c>
+      <c r="C188" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
         <v>255</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B189" t="s">
         <v>256</v>
       </c>
-      <c r="C188" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
+      <c r="C189" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
         <v>257</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B190" t="s">
         <v>258</v>
       </c>
-      <c r="C189" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
+      <c r="C190" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
         <v>259</v>
       </c>
-      <c r="B190" t="s">
-        <v>15</v>
-      </c>
-      <c r="C190" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
+      <c r="B191" t="s">
+        <v>15</v>
+      </c>
+      <c r="C191" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
         <v>260</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B192" t="s">
         <v>261</v>
       </c>
-      <c r="C191" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>262</v>
-      </c>
-      <c r="B192" t="s">
-        <v>11</v>
-      </c>
       <c r="C192" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B193" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="C193" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B194" t="s">
-        <v>265</v>
+        <v>86</v>
       </c>
       <c r="C194" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B195" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C195" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B196" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="C196" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B197" t="s">
         <v>15</v>
@@ -4770,10 +4779,10 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B198" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C198" t="s">
         <v>2</v>
@@ -4781,29 +4790,29 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B199" t="s">
-        <v>272</v>
+        <v>19</v>
       </c>
       <c r="C199" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B200" t="s">
-        <v>15</v>
+        <v>272</v>
       </c>
       <c r="C200" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B201" t="s">
         <v>15</v>
@@ -4814,10 +4823,10 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B202" t="s">
-        <v>276</v>
+        <v>15</v>
       </c>
       <c r="C202" t="s">
         <v>2</v>
@@ -4825,10 +4834,10 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B203" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C203" t="s">
         <v>2</v>
@@ -4836,93 +4845,93 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B204" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C204" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B205" t="s">
-        <v>19</v>
+        <v>280</v>
       </c>
       <c r="C205" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B206" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C206" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B207" t="s">
-        <v>284</v>
+        <v>27</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
-      </c>
-      <c r="D207" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B208" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
+      </c>
+      <c r="D208" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B209" t="s">
-        <v>15</v>
+        <v>286</v>
       </c>
       <c r="C209" t="s">
-        <v>2</v>
-      </c>
-      <c r="D209" t="s">
-        <v>542</v>
+        <v>5</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B210" t="s">
         <v>15</v>
       </c>
       <c r="C210" t="s">
         <v>2</v>
+      </c>
+      <c r="D210" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B211" t="s">
-        <v>290</v>
+        <v>15</v>
       </c>
       <c r="C211" t="s">
         <v>2</v>
@@ -4930,10 +4939,10 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B212" t="s">
-        <v>19</v>
+        <v>290</v>
       </c>
       <c r="C212" t="s">
         <v>2</v>
@@ -4941,10 +4950,10 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B213" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C213" t="s">
         <v>2</v>
@@ -4952,7 +4961,7 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B214" t="s">
         <v>15</v>
@@ -4963,21 +4972,21 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B215" t="s">
-        <v>256</v>
+        <v>15</v>
       </c>
       <c r="C215" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B216" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
@@ -4985,126 +4994,126 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B217" t="s">
-        <v>69</v>
+        <v>280</v>
       </c>
       <c r="C217" t="s">
-        <v>2</v>
-      </c>
-      <c r="D217" t="s">
-        <v>542</v>
+        <v>5</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B218" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="C218" t="s">
         <v>2</v>
+      </c>
+      <c r="D218" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>298</v>
+        <v>549</v>
       </c>
       <c r="B219" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="C219" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B220" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="C220" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B221" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="C221" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B222" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="C222" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B223" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C223" t="s">
         <v>2</v>
-      </c>
-      <c r="D223" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B224" t="s">
-        <v>304</v>
+        <v>17</v>
       </c>
       <c r="C224" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B225" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C225" t="s">
         <v>2</v>
+      </c>
+      <c r="D225" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B226" t="s">
-        <v>15</v>
+        <v>304</v>
       </c>
       <c r="C226" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B227" t="s">
-        <v>118</v>
+        <v>15</v>
       </c>
       <c r="C227" t="s">
         <v>2</v>
@@ -5112,68 +5121,68 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B228" t="s">
         <v>15</v>
       </c>
       <c r="C228" t="s">
         <v>2</v>
-      </c>
-      <c r="D228" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B229" t="s">
-        <v>310</v>
+        <v>118</v>
       </c>
       <c r="C229" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B230" t="s">
-        <v>312</v>
+        <v>15</v>
       </c>
       <c r="C230" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="D230" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B231" t="s">
-        <v>15</v>
+        <v>310</v>
       </c>
       <c r="C231" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B232" t="s">
-        <v>15</v>
+        <v>312</v>
       </c>
       <c r="C232" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B233" t="s">
-        <v>316</v>
+        <v>15</v>
       </c>
       <c r="C233" t="s">
         <v>2</v>
@@ -5181,7 +5190,7 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B234" t="s">
         <v>15</v>
@@ -5192,10 +5201,10 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B235" t="s">
-        <v>19</v>
+        <v>316</v>
       </c>
       <c r="C235" t="s">
         <v>2</v>
@@ -5203,10 +5212,10 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B236" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C236" t="s">
         <v>2</v>
@@ -5214,32 +5223,32 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B237" t="s">
-        <v>321</v>
+        <v>19</v>
       </c>
       <c r="C237" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B238" t="s">
-        <v>131</v>
+        <v>19</v>
       </c>
       <c r="C238" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B239" t="s">
-        <v>50</v>
+        <v>321</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -5247,10 +5256,10 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B240" t="s">
-        <v>325</v>
+        <v>131</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -5258,10 +5267,10 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B241" t="s">
-        <v>327</v>
+        <v>50</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
@@ -5269,10 +5278,10 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B242" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
@@ -5280,32 +5289,32 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B243" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="C243" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B244" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C244" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B245" t="s">
-        <v>19</v>
+        <v>316</v>
       </c>
       <c r="C245" t="s">
         <v>2</v>
@@ -5313,51 +5322,51 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B246" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C246" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B247" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="C247" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B248" t="s">
-        <v>15</v>
+        <v>335</v>
       </c>
       <c r="C248" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B249" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C249" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B250" t="s">
         <v>15</v>
@@ -5368,10 +5377,10 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B251" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="C251" t="s">
         <v>2</v>
@@ -5379,21 +5388,21 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B252" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="C252" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B253" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="C253" t="s">
         <v>2</v>
@@ -5401,21 +5410,21 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B254" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C254" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B255" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C255" t="s">
         <v>2</v>
@@ -5423,10 +5432,10 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B256" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="C256" t="s">
         <v>2</v>
@@ -5434,43 +5443,43 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B257" t="s">
-        <v>347</v>
+        <v>15</v>
       </c>
       <c r="C257" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B258" t="s">
-        <v>349</v>
+        <v>19</v>
       </c>
       <c r="C258" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B259" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C259" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B260" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C260" t="s">
         <v>5</v>
@@ -5478,10 +5487,10 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B261" t="s">
-        <v>71</v>
+        <v>351</v>
       </c>
       <c r="C261" t="s">
         <v>2</v>
@@ -5489,21 +5498,21 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B262" t="s">
-        <v>15</v>
+        <v>353</v>
       </c>
       <c r="C262" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B263" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="C263" t="s">
         <v>2</v>
@@ -5511,7 +5520,7 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B264" t="s">
         <v>15</v>
@@ -5522,10 +5531,10 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B265" t="s">
-        <v>316</v>
+        <v>19</v>
       </c>
       <c r="C265" t="s">
         <v>2</v>
@@ -5533,7 +5542,7 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B266" t="s">
         <v>15</v>
@@ -5544,10 +5553,10 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B267" t="s">
-        <v>101</v>
+        <v>316</v>
       </c>
       <c r="C267" t="s">
         <v>2</v>
@@ -5555,7 +5564,7 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B268" t="s">
         <v>15</v>
@@ -5566,10 +5575,10 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B269" t="s">
-        <v>177</v>
+        <v>101</v>
       </c>
       <c r="C269" t="s">
         <v>2</v>
@@ -5577,7 +5586,7 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B270" t="s">
         <v>15</v>
@@ -5588,10 +5597,10 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B271" t="s">
-        <v>15</v>
+        <v>177</v>
       </c>
       <c r="C271" t="s">
         <v>2</v>
@@ -5599,10 +5608,10 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B272" t="s">
-        <v>316</v>
+        <v>15</v>
       </c>
       <c r="C272" t="s">
         <v>2</v>
@@ -5610,21 +5619,21 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B273" t="s">
-        <v>353</v>
+        <v>15</v>
       </c>
       <c r="C273" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B274" t="s">
-        <v>15</v>
+        <v>316</v>
       </c>
       <c r="C274" t="s">
         <v>2</v>
@@ -5632,29 +5641,29 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B275" t="s">
-        <v>19</v>
+        <v>353</v>
       </c>
       <c r="C275" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B276" t="s">
-        <v>370</v>
+        <v>15</v>
       </c>
       <c r="C276" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B277" t="s">
         <v>19</v>
@@ -5665,10 +5674,10 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B278" t="s">
-        <v>24</v>
+        <v>370</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
@@ -5676,7 +5685,7 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B279" t="s">
         <v>19</v>
@@ -5687,10 +5696,10 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B280" t="s">
-        <v>375</v>
+        <v>24</v>
       </c>
       <c r="C280" t="s">
         <v>5</v>
@@ -5698,10 +5707,10 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B281" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C281" t="s">
         <v>2</v>
@@ -5709,10 +5718,10 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B282" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C282" t="s">
         <v>5</v>
@@ -5720,68 +5729,68 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B283" t="s">
-        <v>380</v>
+        <v>15</v>
       </c>
       <c r="C283" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B284" t="s">
-        <v>71</v>
+        <v>378</v>
       </c>
       <c r="C284" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B285" t="s">
-        <v>129</v>
+        <v>380</v>
       </c>
       <c r="C285" t="s">
         <v>5</v>
-      </c>
-      <c r="D285" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B286" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="C286" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B287" t="s">
-        <v>17</v>
+        <v>129</v>
       </c>
       <c r="C287" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="D287" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B288" t="s">
-        <v>312</v>
+        <v>99</v>
       </c>
       <c r="C288" t="s">
         <v>5</v>
@@ -5789,18 +5798,18 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B289" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="C289" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B290" t="s">
         <v>312</v>
@@ -5811,21 +5820,21 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B291" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="C291" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B292" t="s">
-        <v>390</v>
+        <v>312</v>
       </c>
       <c r="C292" t="s">
         <v>5</v>
@@ -5833,10 +5842,10 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B293" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C293" t="s">
         <v>2</v>
@@ -5844,10 +5853,10 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B294" t="s">
-        <v>312</v>
+        <v>390</v>
       </c>
       <c r="C294" t="s">
         <v>5</v>
@@ -5855,7 +5864,7 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B295" t="s">
         <v>15</v>
@@ -5866,18 +5875,18 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B296" t="s">
-        <v>19</v>
+        <v>312</v>
       </c>
       <c r="C296" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B297" t="s">
         <v>15</v>
@@ -5888,10 +5897,10 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B298" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="C298" t="s">
         <v>2</v>
@@ -5899,10 +5908,10 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B299" t="s">
-        <v>398</v>
+        <v>15</v>
       </c>
       <c r="C299" t="s">
         <v>2</v>
@@ -5910,21 +5919,21 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B300" t="s">
-        <v>400</v>
+        <v>101</v>
       </c>
       <c r="C300" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B301" t="s">
-        <v>19</v>
+        <v>398</v>
       </c>
       <c r="C301" t="s">
         <v>2</v>
@@ -5932,21 +5941,21 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B302" t="s">
-        <v>19</v>
+        <v>400</v>
       </c>
       <c r="C302" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B303" t="s">
-        <v>405</v>
+        <v>19</v>
       </c>
       <c r="C303" t="s">
         <v>2</v>
@@ -5954,10 +5963,10 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B304" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C304" t="s">
         <v>2</v>
@@ -5965,10 +5974,10 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B305" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C305" t="s">
         <v>2</v>
@@ -5976,10 +5985,10 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B306" t="s">
-        <v>177</v>
+        <v>15</v>
       </c>
       <c r="C306" t="s">
         <v>2</v>
@@ -5987,10 +5996,10 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B307" t="s">
-        <v>115</v>
+        <v>408</v>
       </c>
       <c r="C307" t="s">
         <v>2</v>
@@ -5998,21 +6007,21 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B308" t="s">
-        <v>412</v>
+        <v>177</v>
       </c>
       <c r="C308" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B309" t="s">
-        <v>414</v>
+        <v>115</v>
       </c>
       <c r="C309" t="s">
         <v>2</v>
@@ -6020,21 +6029,21 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B310" t="s">
-        <v>115</v>
+        <v>412</v>
       </c>
       <c r="C310" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B311" t="s">
-        <v>37</v>
+        <v>414</v>
       </c>
       <c r="C311" t="s">
         <v>2</v>
@@ -6042,10 +6051,10 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B312" t="s">
-        <v>418</v>
+        <v>115</v>
       </c>
       <c r="C312" t="s">
         <v>2</v>
@@ -6053,10 +6062,10 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B313" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C313" t="s">
         <v>2</v>
@@ -6064,21 +6073,21 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B314" t="s">
-        <v>27</v>
+        <v>418</v>
       </c>
       <c r="C314" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B315" t="s">
-        <v>418</v>
+        <v>15</v>
       </c>
       <c r="C315" t="s">
         <v>2</v>
@@ -6086,32 +6095,32 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B316" t="s">
-        <v>423</v>
+        <v>27</v>
       </c>
       <c r="C316" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B317" t="s">
-        <v>27</v>
+        <v>418</v>
       </c>
       <c r="C317" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B318" t="s">
-        <v>19</v>
+        <v>423</v>
       </c>
       <c r="C318" t="s">
         <v>2</v>
@@ -6119,32 +6128,32 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B319" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C319" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B320" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C320" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B321" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C321" t="s">
         <v>2</v>
@@ -6152,21 +6161,21 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B322" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C322" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B323" t="s">
-        <v>423</v>
+        <v>11</v>
       </c>
       <c r="C323" t="s">
         <v>2</v>
@@ -6174,10 +6183,10 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B324" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C324" t="s">
         <v>2</v>
@@ -6185,10 +6194,10 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B325" t="s">
-        <v>15</v>
+        <v>423</v>
       </c>
       <c r="C325" t="s">
         <v>2</v>
@@ -6196,18 +6205,18 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B326" t="s">
-        <v>310</v>
+        <v>15</v>
       </c>
       <c r="C326" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B327" t="s">
         <v>15</v>
@@ -6218,10 +6227,10 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B328" t="s">
-        <v>91</v>
+        <v>310</v>
       </c>
       <c r="C328" t="s">
         <v>5</v>
@@ -6229,21 +6238,21 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B329" t="s">
-        <v>437</v>
+        <v>15</v>
       </c>
       <c r="C329" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B330" t="s">
-        <v>439</v>
+        <v>91</v>
       </c>
       <c r="C330" t="s">
         <v>5</v>
@@ -6251,68 +6260,68 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B331" t="s">
-        <v>15</v>
+        <v>437</v>
       </c>
       <c r="C331" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B332" t="s">
-        <v>19</v>
+        <v>439</v>
       </c>
       <c r="C332" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>547</v>
+        <v>440</v>
       </c>
       <c r="B333" t="s">
-        <v>423</v>
+        <v>15</v>
       </c>
       <c r="C333" t="s">
         <v>2</v>
-      </c>
-      <c r="D333" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B334" t="s">
-        <v>131</v>
+        <v>19</v>
       </c>
       <c r="C334" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>443</v>
+        <v>547</v>
       </c>
       <c r="B335" t="s">
-        <v>312</v>
+        <v>423</v>
       </c>
       <c r="C335" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="D335" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B336" t="s">
-        <v>445</v>
+        <v>131</v>
       </c>
       <c r="C336" t="s">
         <v>5</v>
@@ -6320,32 +6329,32 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B337" t="s">
-        <v>19</v>
+        <v>312</v>
       </c>
       <c r="C337" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B338" t="s">
-        <v>17</v>
+        <v>445</v>
       </c>
       <c r="C338" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B339" t="s">
-        <v>408</v>
+        <v>19</v>
       </c>
       <c r="C339" t="s">
         <v>2</v>
@@ -6353,10 +6362,10 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B340" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C340" t="s">
         <v>2</v>
@@ -6364,10 +6373,10 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B341" t="s">
-        <v>15</v>
+        <v>408</v>
       </c>
       <c r="C341" t="s">
         <v>2</v>
@@ -6375,10 +6384,10 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B342" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C342" t="s">
         <v>2</v>
@@ -6386,10 +6395,10 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B343" t="s">
-        <v>177</v>
+        <v>15</v>
       </c>
       <c r="C343" t="s">
         <v>2</v>
@@ -6397,21 +6406,21 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B344" t="s">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="C344" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B345" t="s">
-        <v>402</v>
+        <v>177</v>
       </c>
       <c r="C345" t="s">
         <v>2</v>
@@ -6419,10 +6428,10 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B346" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="C346" t="s">
         <v>5</v>
@@ -6430,10 +6439,10 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B347" t="s">
-        <v>19</v>
+        <v>402</v>
       </c>
       <c r="C347" t="s">
         <v>2</v>
@@ -6441,10 +6450,10 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B348" t="s">
-        <v>458</v>
+        <v>24</v>
       </c>
       <c r="C348" t="s">
         <v>5</v>
@@ -6452,24 +6461,21 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B349" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C349" t="s">
-        <v>5</v>
-      </c>
-      <c r="D349" t="s">
-        <v>542</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B350" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C350" t="s">
         <v>5</v>
@@ -6477,7 +6483,7 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B351" t="s">
         <v>27</v>
@@ -6485,13 +6491,16 @@
       <c r="C351" t="s">
         <v>5</v>
       </c>
+      <c r="D351" t="s">
+        <v>542</v>
+      </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B352" t="s">
-        <v>105</v>
+        <v>461</v>
       </c>
       <c r="C352" t="s">
         <v>5</v>
@@ -6499,32 +6508,32 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B353" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C353" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B354" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="C354" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B355" t="s">
-        <v>467</v>
+        <v>19</v>
       </c>
       <c r="C355" t="s">
         <v>2</v>
@@ -6532,68 +6541,68 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B356" t="s">
-        <v>312</v>
+        <v>15</v>
       </c>
       <c r="C356" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B357" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C357" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B358" t="s">
-        <v>408</v>
+        <v>312</v>
       </c>
       <c r="C358" t="s">
-        <v>2</v>
-      </c>
-      <c r="D358" t="s">
-        <v>542</v>
+        <v>5</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B359" t="s">
-        <v>19</v>
+        <v>470</v>
       </c>
       <c r="C359" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B360" t="s">
-        <v>474</v>
+        <v>408</v>
       </c>
       <c r="C360" t="s">
         <v>2</v>
+      </c>
+      <c r="D360" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B361" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C361" t="s">
         <v>2</v>
@@ -6601,10 +6610,10 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B362" t="s">
-        <v>15</v>
+        <v>474</v>
       </c>
       <c r="C362" t="s">
         <v>2</v>
@@ -6612,7 +6621,7 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B363" t="s">
         <v>15</v>
@@ -6623,7 +6632,7 @@
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B364" t="s">
         <v>15</v>
@@ -6634,7 +6643,7 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B365" t="s">
         <v>15</v>
@@ -6645,7 +6654,7 @@
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B366" t="s">
         <v>15</v>
@@ -6656,10 +6665,10 @@
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B367" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C367" t="s">
         <v>2</v>
@@ -6667,7 +6676,7 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B368" t="s">
         <v>15</v>
@@ -6678,18 +6687,18 @@
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B369" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="C369" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B370" t="s">
         <v>15</v>
@@ -6700,32 +6709,32 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B371" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="C371" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B372" t="s">
-        <v>487</v>
+        <v>15</v>
       </c>
       <c r="C372" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B373" t="s">
-        <v>489</v>
+        <v>15</v>
       </c>
       <c r="C373" t="s">
         <v>2</v>
@@ -6733,57 +6742,57 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B374" t="s">
-        <v>19</v>
+        <v>487</v>
       </c>
       <c r="C374" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B375" t="s">
-        <v>7</v>
+        <v>489</v>
       </c>
       <c r="C375" t="s">
-        <v>5</v>
-      </c>
-      <c r="D375" t="s">
-        <v>542</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B376" t="s">
-        <v>131</v>
+        <v>19</v>
       </c>
       <c r="C376" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B377" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C377" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="D377" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B378" t="s">
-        <v>495</v>
+        <v>131</v>
       </c>
       <c r="C378" t="s">
         <v>5</v>
@@ -6791,21 +6800,21 @@
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B379" t="s">
-        <v>129</v>
+        <v>19</v>
       </c>
       <c r="C379" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B380" t="s">
-        <v>50</v>
+        <v>495</v>
       </c>
       <c r="C380" t="s">
         <v>5</v>
@@ -6813,32 +6822,32 @@
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B381" t="s">
-        <v>19</v>
+        <v>129</v>
       </c>
       <c r="C381" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B382" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="C382" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B383" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C383" t="s">
         <v>2</v>
@@ -6846,21 +6855,21 @@
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B384" t="s">
-        <v>353</v>
+        <v>17</v>
       </c>
       <c r="C384" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>543</v>
+        <v>500</v>
       </c>
       <c r="B385" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C385" t="s">
         <v>2</v>
@@ -6868,10 +6877,10 @@
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B386" t="s">
-        <v>503</v>
+        <v>353</v>
       </c>
       <c r="C386" t="s">
         <v>5</v>
@@ -6879,10 +6888,10 @@
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>504</v>
+        <v>543</v>
       </c>
       <c r="B387" t="s">
-        <v>505</v>
+        <v>19</v>
       </c>
       <c r="C387" t="s">
         <v>2</v>
@@ -6890,10 +6899,10 @@
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B388" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C388" t="s">
         <v>5</v>
@@ -6901,10 +6910,10 @@
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B389" t="s">
-        <v>71</v>
+        <v>505</v>
       </c>
       <c r="C389" t="s">
         <v>2</v>
@@ -6912,32 +6921,32 @@
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B390" t="s">
-        <v>19</v>
+        <v>507</v>
       </c>
       <c r="C390" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B391" t="s">
-        <v>511</v>
+        <v>71</v>
       </c>
       <c r="C391" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B392" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C392" t="s">
         <v>2</v>
@@ -6945,32 +6954,32 @@
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B393" t="s">
-        <v>177</v>
+        <v>511</v>
       </c>
       <c r="C393" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B394" t="s">
-        <v>515</v>
+        <v>15</v>
       </c>
       <c r="C394" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B395" t="s">
-        <v>332</v>
+        <v>177</v>
       </c>
       <c r="C395" t="s">
         <v>2</v>
@@ -6978,32 +6987,29 @@
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B396" t="s">
-        <v>15</v>
+        <v>515</v>
       </c>
       <c r="C396" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B397" t="s">
-        <v>19</v>
+        <v>332</v>
       </c>
       <c r="C397" t="s">
         <v>2</v>
-      </c>
-      <c r="D397" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B398" t="s">
         <v>15</v>
@@ -7014,54 +7020,57 @@
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B399" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="C399" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="D399" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B400" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="C400" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B401" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="C401" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B402" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="C402" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B403" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C403" t="s">
         <v>2</v>
@@ -7069,10 +7078,10 @@
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B404" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C404" t="s">
         <v>2</v>
@@ -7080,7 +7089,7 @@
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B405" t="s">
         <v>15</v>
@@ -7091,21 +7100,18 @@
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B406" t="s">
-        <v>528</v>
+        <v>15</v>
       </c>
       <c r="C406" t="s">
-        <v>5</v>
-      </c>
-      <c r="D406" t="s">
-        <v>542</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B407" t="s">
         <v>15</v>
@@ -7116,18 +7122,21 @@
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B408" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C408" t="s">
         <v>5</v>
+      </c>
+      <c r="D408" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B409" t="s">
         <v>15</v>
@@ -7138,18 +7147,18 @@
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B410" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C410" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B411" t="s">
         <v>15</v>
@@ -7160,18 +7169,40 @@
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
+        <v>533</v>
+      </c>
+      <c r="B412" t="s">
+        <v>534</v>
+      </c>
+      <c r="C412" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>535</v>
+      </c>
+      <c r="B413" t="s">
+        <v>15</v>
+      </c>
+      <c r="C413" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
         <v>536</v>
       </c>
-      <c r="B412" t="s">
-        <v>19</v>
-      </c>
-      <c r="C412" t="s">
+      <c r="B414" t="s">
+        <v>19</v>
+      </c>
+      <c r="C414" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1" xr:uid="{8F56ED3D-A3F2-450D-9EAE-1214C3EA2069}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D412">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D414">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>

--- a/assets/guncel_deneme_bonuslari_listesi.xlsx
+++ b/assets/guncel_deneme_bonuslari_listesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cengi\Desktop\test\Deneme Bonusu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89448004-F056-498F-A3E7-03ED4EB1BC2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4F57D8-EFB8-4C7D-9FA4-284E9E9A4755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CD7B2693-F8D1-429F-9AB3-DB64ACA5183F}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="553">
   <si>
     <t>1king</t>
   </si>
@@ -1676,6 +1676,12 @@
   </si>
   <si>
     <t>goldengateroyalbet</t>
+  </si>
+  <si>
+    <t>finishbet</t>
+  </si>
+  <si>
+    <t>Maks 100k çekim</t>
   </si>
 </sst>
 </file>
@@ -2554,11 +2560,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F56ED3D-A3F2-450D-9EAE-1214C3EA2069}">
-  <dimension ref="A1:D414"/>
+  <dimension ref="A1:D415"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4367,7 +4373,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>221</v>
       </c>
@@ -4378,7 +4384,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>222</v>
       </c>
@@ -4389,7 +4395,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>223</v>
       </c>
@@ -4400,7 +4406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>224</v>
       </c>
@@ -4411,7 +4417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>225</v>
       </c>
@@ -4422,7 +4428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>227</v>
       </c>
@@ -4433,7 +4439,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>228</v>
       </c>
@@ -4444,7 +4450,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>229</v>
       </c>
@@ -4455,7 +4461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>231</v>
       </c>
@@ -4466,7 +4472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>232</v>
       </c>
@@ -4477,7 +4483,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>233</v>
       </c>
@@ -4488,7 +4494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>234</v>
       </c>
@@ -4499,67 +4505,70 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
+        <v>551</v>
+      </c>
+      <c r="B173" t="s">
+        <v>552</v>
+      </c>
+      <c r="C173" t="s">
+        <v>2</v>
+      </c>
+      <c r="D173" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
         <v>235</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B174" t="s">
         <v>97</v>
       </c>
-      <c r="C173" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+      <c r="C174" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
         <v>236</v>
       </c>
-      <c r="B174" t="s">
-        <v>15</v>
-      </c>
-      <c r="C174" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+      <c r="B175" t="s">
+        <v>15</v>
+      </c>
+      <c r="C175" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
         <v>237</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B176" t="s">
         <v>238</v>
       </c>
-      <c r="C175" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>239</v>
-      </c>
-      <c r="B176" t="s">
-        <v>19</v>
-      </c>
       <c r="C176" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B177" t="s">
-        <v>241</v>
+        <v>19</v>
       </c>
       <c r="C177" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B178" t="s">
-        <v>97</v>
+        <v>241</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -4567,21 +4576,21 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B179" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="C179" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B180" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C180" t="s">
         <v>2</v>
@@ -4589,10 +4598,10 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B181" t="s">
-        <v>230</v>
+        <v>15</v>
       </c>
       <c r="C181" t="s">
         <v>2</v>
@@ -4600,21 +4609,21 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B182" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="C182" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B183" t="s">
-        <v>97</v>
+        <v>247</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -4622,10 +4631,10 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B184" t="s">
-        <v>250</v>
+        <v>97</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -4633,68 +4642,68 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B185" t="s">
-        <v>15</v>
+        <v>250</v>
       </c>
       <c r="C185" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B186" t="s">
-        <v>253</v>
+        <v>15</v>
       </c>
       <c r="C186" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>550</v>
+        <v>252</v>
       </c>
       <c r="B187" t="s">
-        <v>15</v>
+        <v>253</v>
       </c>
       <c r="C187" t="s">
-        <v>2</v>
-      </c>
-      <c r="D187" t="s">
-        <v>542</v>
+        <v>5</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>254</v>
+        <v>550</v>
       </c>
       <c r="B188" t="s">
         <v>15</v>
       </c>
       <c r="C188" t="s">
         <v>2</v>
+      </c>
+      <c r="D188" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B189" t="s">
-        <v>256</v>
+        <v>15</v>
       </c>
       <c r="C189" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B190" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -4702,247 +4711,247 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B191" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="C191" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
+        <v>259</v>
+      </c>
+      <c r="B192" t="s">
+        <v>15</v>
+      </c>
+      <c r="C192" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
         <v>260</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B193" t="s">
         <v>261</v>
       </c>
-      <c r="C192" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
+      <c r="C193" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
         <v>262</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B194" t="s">
         <v>11</v>
       </c>
-      <c r="C193" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
+      <c r="C194" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
         <v>263</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B195" t="s">
         <v>86</v>
       </c>
-      <c r="C194" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
+      <c r="C195" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
         <v>264</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B196" t="s">
         <v>265</v>
       </c>
-      <c r="C195" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
+      <c r="C196" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
         <v>266</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B197" t="s">
         <v>267</v>
       </c>
-      <c r="C196" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
+      <c r="C197" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
         <v>268</v>
       </c>
-      <c r="B197" t="s">
-        <v>15</v>
-      </c>
-      <c r="C197" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
+      <c r="B198" t="s">
+        <v>15</v>
+      </c>
+      <c r="C198" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
         <v>269</v>
       </c>
-      <c r="B198" t="s">
-        <v>15</v>
-      </c>
-      <c r="C198" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
+      <c r="B199" t="s">
+        <v>15</v>
+      </c>
+      <c r="C199" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
         <v>270</v>
       </c>
-      <c r="B199" t="s">
-        <v>19</v>
-      </c>
-      <c r="C199" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
+      <c r="B200" t="s">
+        <v>19</v>
+      </c>
+      <c r="C200" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
         <v>271</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B201" t="s">
         <v>272</v>
       </c>
-      <c r="C200" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
+      <c r="C201" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
         <v>273</v>
       </c>
-      <c r="B201" t="s">
-        <v>15</v>
-      </c>
-      <c r="C201" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
+      <c r="B202" t="s">
+        <v>15</v>
+      </c>
+      <c r="C202" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
         <v>274</v>
       </c>
-      <c r="B202" t="s">
-        <v>15</v>
-      </c>
-      <c r="C202" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
+      <c r="B203" t="s">
+        <v>15</v>
+      </c>
+      <c r="C203" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
         <v>275</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B204" t="s">
         <v>276</v>
       </c>
-      <c r="C203" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
+      <c r="C204" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
         <v>277</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B205" t="s">
         <v>278</v>
       </c>
-      <c r="C204" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
+      <c r="C205" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
         <v>279</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B206" t="s">
         <v>280</v>
       </c>
-      <c r="C205" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
+      <c r="C206" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
         <v>281</v>
       </c>
-      <c r="B206" t="s">
-        <v>19</v>
-      </c>
-      <c r="C206" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
+      <c r="B207" t="s">
+        <v>19</v>
+      </c>
+      <c r="C207" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
         <v>282</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B208" t="s">
         <v>27</v>
       </c>
-      <c r="C207" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>283</v>
-      </c>
-      <c r="B208" t="s">
-        <v>284</v>
-      </c>
       <c r="C208" t="s">
         <v>5</v>
-      </c>
-      <c r="D208" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B209" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
+      </c>
+      <c r="D209" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B210" t="s">
-        <v>15</v>
+        <v>286</v>
       </c>
       <c r="C210" t="s">
-        <v>2</v>
-      </c>
-      <c r="D210" t="s">
-        <v>542</v>
+        <v>5</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B211" t="s">
         <v>15</v>
       </c>
       <c r="C211" t="s">
         <v>2</v>
+      </c>
+      <c r="D211" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B212" t="s">
-        <v>290</v>
+        <v>15</v>
       </c>
       <c r="C212" t="s">
         <v>2</v>
@@ -4950,10 +4959,10 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B213" t="s">
-        <v>19</v>
+        <v>290</v>
       </c>
       <c r="C213" t="s">
         <v>2</v>
@@ -4961,10 +4970,10 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B214" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C214" t="s">
         <v>2</v>
@@ -4972,7 +4981,7 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B215" t="s">
         <v>15</v>
@@ -4983,21 +4992,21 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B216" t="s">
-        <v>256</v>
+        <v>15</v>
       </c>
       <c r="C216" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B217" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="C217" t="s">
         <v>5</v>
@@ -5005,32 +5014,32 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B218" t="s">
-        <v>69</v>
+        <v>280</v>
       </c>
       <c r="C218" t="s">
-        <v>2</v>
-      </c>
-      <c r="D218" t="s">
-        <v>542</v>
+        <v>5</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>549</v>
+        <v>296</v>
       </c>
       <c r="B219" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="C219" t="s">
         <v>2</v>
+      </c>
+      <c r="D219" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>297</v>
+        <v>549</v>
       </c>
       <c r="B220" t="s">
         <v>19</v>
@@ -5041,21 +5050,21 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B221" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="C221" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B222" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -5063,21 +5072,21 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B223" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="C223" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B224" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C224" t="s">
         <v>2</v>
@@ -5085,43 +5094,43 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B225" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C225" t="s">
         <v>2</v>
-      </c>
-      <c r="D225" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B226" t="s">
-        <v>304</v>
+        <v>19</v>
       </c>
       <c r="C226" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="D226" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B227" t="s">
-        <v>15</v>
+        <v>304</v>
       </c>
       <c r="C227" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B228" t="s">
         <v>15</v>
@@ -5132,10 +5141,10 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B229" t="s">
-        <v>118</v>
+        <v>15</v>
       </c>
       <c r="C229" t="s">
         <v>2</v>
@@ -5143,35 +5152,35 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B230" t="s">
-        <v>15</v>
+        <v>118</v>
       </c>
       <c r="C230" t="s">
         <v>2</v>
-      </c>
-      <c r="D230" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B231" t="s">
-        <v>310</v>
+        <v>15</v>
       </c>
       <c r="C231" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="D231" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B232" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -5179,18 +5188,18 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B233" t="s">
-        <v>15</v>
+        <v>312</v>
       </c>
       <c r="C233" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B234" t="s">
         <v>15</v>
@@ -5201,10 +5210,10 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B235" t="s">
-        <v>316</v>
+        <v>15</v>
       </c>
       <c r="C235" t="s">
         <v>2</v>
@@ -5212,10 +5221,10 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B236" t="s">
-        <v>15</v>
+        <v>316</v>
       </c>
       <c r="C236" t="s">
         <v>2</v>
@@ -5223,10 +5232,10 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B237" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C237" t="s">
         <v>2</v>
@@ -5234,7 +5243,7 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B238" t="s">
         <v>19</v>
@@ -5245,21 +5254,21 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B239" t="s">
-        <v>321</v>
+        <v>19</v>
       </c>
       <c r="C239" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B240" t="s">
-        <v>131</v>
+        <v>321</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -5267,10 +5276,10 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B241" t="s">
-        <v>50</v>
+        <v>131</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
@@ -5278,10 +5287,10 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B242" t="s">
-        <v>325</v>
+        <v>50</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
@@ -5289,10 +5298,10 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B243" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
@@ -5300,10 +5309,10 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B244" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
@@ -5311,21 +5320,21 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B245" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="C245" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B246" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="C246" t="s">
         <v>2</v>
@@ -5333,10 +5342,10 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B247" t="s">
-        <v>19</v>
+        <v>332</v>
       </c>
       <c r="C247" t="s">
         <v>2</v>
@@ -5344,21 +5353,21 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B248" t="s">
-        <v>335</v>
+        <v>19</v>
       </c>
       <c r="C248" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B249" t="s">
-        <v>86</v>
+        <v>335</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
@@ -5366,21 +5375,21 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B250" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="C250" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B251" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="C251" t="s">
         <v>2</v>
@@ -5388,10 +5397,10 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B252" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="C252" t="s">
         <v>2</v>
@@ -5399,10 +5408,10 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B253" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C253" t="s">
         <v>2</v>
@@ -5410,32 +5419,32 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B254" t="s">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="C254" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B255" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="C255" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B256" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="C256" t="s">
         <v>2</v>
@@ -5443,10 +5452,10 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B257" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="C257" t="s">
         <v>2</v>
@@ -5454,10 +5463,10 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B258" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C258" t="s">
         <v>2</v>
@@ -5465,21 +5474,21 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B259" t="s">
-        <v>347</v>
+        <v>19</v>
       </c>
       <c r="C259" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B260" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C260" t="s">
         <v>5</v>
@@ -5487,43 +5496,43 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B261" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C261" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B262" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C262" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B263" t="s">
-        <v>71</v>
+        <v>353</v>
       </c>
       <c r="C263" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B264" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C264" t="s">
         <v>2</v>
@@ -5531,10 +5540,10 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B265" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C265" t="s">
         <v>2</v>
@@ -5542,10 +5551,10 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B266" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C266" t="s">
         <v>2</v>
@@ -5553,10 +5562,10 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B267" t="s">
-        <v>316</v>
+        <v>15</v>
       </c>
       <c r="C267" t="s">
         <v>2</v>
@@ -5564,10 +5573,10 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B268" t="s">
-        <v>15</v>
+        <v>316</v>
       </c>
       <c r="C268" t="s">
         <v>2</v>
@@ -5575,10 +5584,10 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B269" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="C269" t="s">
         <v>2</v>
@@ -5586,10 +5595,10 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B270" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="C270" t="s">
         <v>2</v>
@@ -5597,10 +5606,10 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B271" t="s">
-        <v>177</v>
+        <v>15</v>
       </c>
       <c r="C271" t="s">
         <v>2</v>
@@ -5608,10 +5617,10 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B272" t="s">
-        <v>15</v>
+        <v>177</v>
       </c>
       <c r="C272" t="s">
         <v>2</v>
@@ -5619,7 +5628,7 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B273" t="s">
         <v>15</v>
@@ -5630,10 +5639,10 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B274" t="s">
-        <v>316</v>
+        <v>15</v>
       </c>
       <c r="C274" t="s">
         <v>2</v>
@@ -5641,32 +5650,32 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B275" t="s">
-        <v>353</v>
+        <v>316</v>
       </c>
       <c r="C275" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B276" t="s">
-        <v>15</v>
+        <v>353</v>
       </c>
       <c r="C276" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B277" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C277" t="s">
         <v>2</v>
@@ -5674,87 +5683,87 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B278" t="s">
-        <v>370</v>
+        <v>19</v>
       </c>
       <c r="C278" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B279" t="s">
-        <v>19</v>
+        <v>370</v>
       </c>
       <c r="C279" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B280" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C280" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B281" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C281" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B282" t="s">
-        <v>375</v>
+        <v>19</v>
       </c>
       <c r="C282" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B283" t="s">
-        <v>15</v>
+        <v>375</v>
       </c>
       <c r="C283" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B284" t="s">
-        <v>378</v>
+        <v>15</v>
       </c>
       <c r="C284" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B285" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C285" t="s">
         <v>5</v>
@@ -5762,68 +5771,68 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B286" t="s">
-        <v>71</v>
+        <v>380</v>
       </c>
       <c r="C286" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B287" t="s">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="C287" t="s">
-        <v>5</v>
-      </c>
-      <c r="D287" t="s">
-        <v>542</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B288" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="C288" t="s">
         <v>5</v>
+      </c>
+      <c r="D288" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B289" t="s">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="C289" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B290" t="s">
-        <v>312</v>
+        <v>17</v>
       </c>
       <c r="C290" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B291" t="s">
-        <v>99</v>
+        <v>312</v>
       </c>
       <c r="C291" t="s">
         <v>5</v>
@@ -5831,10 +5840,10 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B292" t="s">
-        <v>312</v>
+        <v>99</v>
       </c>
       <c r="C292" t="s">
         <v>5</v>
@@ -5842,65 +5851,65 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B293" t="s">
-        <v>19</v>
+        <v>312</v>
       </c>
       <c r="C293" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B294" t="s">
-        <v>390</v>
+        <v>19</v>
       </c>
       <c r="C294" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B295" t="s">
-        <v>15</v>
+        <v>390</v>
       </c>
       <c r="C295" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B296" t="s">
-        <v>312</v>
+        <v>15</v>
       </c>
       <c r="C296" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B297" t="s">
-        <v>15</v>
+        <v>312</v>
       </c>
       <c r="C297" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B298" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C298" t="s">
         <v>2</v>
@@ -5908,10 +5917,10 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B299" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C299" t="s">
         <v>2</v>
@@ -5919,10 +5928,10 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B300" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="C300" t="s">
         <v>2</v>
@@ -5930,10 +5939,10 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B301" t="s">
-        <v>398</v>
+        <v>101</v>
       </c>
       <c r="C301" t="s">
         <v>2</v>
@@ -5941,29 +5950,29 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B302" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C302" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B303" t="s">
-        <v>19</v>
+        <v>400</v>
       </c>
       <c r="C303" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B304" t="s">
         <v>19</v>
@@ -5974,10 +5983,10 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B305" t="s">
-        <v>405</v>
+        <v>19</v>
       </c>
       <c r="C305" t="s">
         <v>2</v>
@@ -5985,10 +5994,10 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B306" t="s">
-        <v>15</v>
+        <v>405</v>
       </c>
       <c r="C306" t="s">
         <v>2</v>
@@ -5996,10 +6005,10 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B307" t="s">
-        <v>408</v>
+        <v>15</v>
       </c>
       <c r="C307" t="s">
         <v>2</v>
@@ -6007,10 +6016,10 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B308" t="s">
-        <v>177</v>
+        <v>408</v>
       </c>
       <c r="C308" t="s">
         <v>2</v>
@@ -6018,10 +6027,10 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B309" t="s">
-        <v>115</v>
+        <v>177</v>
       </c>
       <c r="C309" t="s">
         <v>2</v>
@@ -6029,32 +6038,32 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B310" t="s">
-        <v>412</v>
+        <v>115</v>
       </c>
       <c r="C310" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B311" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C311" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B312" t="s">
-        <v>115</v>
+        <v>414</v>
       </c>
       <c r="C312" t="s">
         <v>2</v>
@@ -6062,10 +6071,10 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B313" t="s">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="C313" t="s">
         <v>2</v>
@@ -6073,10 +6082,10 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B314" t="s">
-        <v>418</v>
+        <v>37</v>
       </c>
       <c r="C314" t="s">
         <v>2</v>
@@ -6084,10 +6093,10 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B315" t="s">
-        <v>15</v>
+        <v>418</v>
       </c>
       <c r="C315" t="s">
         <v>2</v>
@@ -6095,32 +6104,32 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B316" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C316" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B317" t="s">
-        <v>418</v>
+        <v>27</v>
       </c>
       <c r="C317" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B318" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C318" t="s">
         <v>2</v>
@@ -6128,32 +6137,32 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B319" t="s">
-        <v>27</v>
+        <v>423</v>
       </c>
       <c r="C319" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B320" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C320" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B321" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C321" t="s">
         <v>2</v>
@@ -6161,32 +6170,32 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B322" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C322" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B323" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C323" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B324" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C324" t="s">
         <v>2</v>
@@ -6194,10 +6203,10 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B325" t="s">
-        <v>423</v>
+        <v>19</v>
       </c>
       <c r="C325" t="s">
         <v>2</v>
@@ -6205,10 +6214,10 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B326" t="s">
-        <v>15</v>
+        <v>423</v>
       </c>
       <c r="C326" t="s">
         <v>2</v>
@@ -6216,7 +6225,7 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B327" t="s">
         <v>15</v>
@@ -6227,43 +6236,43 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B328" t="s">
-        <v>310</v>
+        <v>15</v>
       </c>
       <c r="C328" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B329" t="s">
-        <v>15</v>
+        <v>310</v>
       </c>
       <c r="C329" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B330" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="C330" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B331" t="s">
-        <v>437</v>
+        <v>91</v>
       </c>
       <c r="C331" t="s">
         <v>5</v>
@@ -6271,10 +6280,10 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B332" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C332" t="s">
         <v>5</v>
@@ -6282,21 +6291,21 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B333" t="s">
-        <v>15</v>
+        <v>439</v>
       </c>
       <c r="C333" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B334" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C334" t="s">
         <v>2</v>
@@ -6304,35 +6313,35 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>547</v>
+        <v>441</v>
       </c>
       <c r="B335" t="s">
-        <v>423</v>
+        <v>19</v>
       </c>
       <c r="C335" t="s">
         <v>2</v>
-      </c>
-      <c r="D335" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>442</v>
+        <v>547</v>
       </c>
       <c r="B336" t="s">
-        <v>131</v>
+        <v>423</v>
       </c>
       <c r="C336" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="D336" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B337" t="s">
-        <v>312</v>
+        <v>131</v>
       </c>
       <c r="C337" t="s">
         <v>5</v>
@@ -6340,10 +6349,10 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B338" t="s">
-        <v>445</v>
+        <v>312</v>
       </c>
       <c r="C338" t="s">
         <v>5</v>
@@ -6351,21 +6360,21 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B339" t="s">
-        <v>19</v>
+        <v>445</v>
       </c>
       <c r="C339" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B340" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C340" t="s">
         <v>2</v>
@@ -6373,10 +6382,10 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B341" t="s">
-        <v>408</v>
+        <v>17</v>
       </c>
       <c r="C341" t="s">
         <v>2</v>
@@ -6384,10 +6393,10 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B342" t="s">
-        <v>15</v>
+        <v>408</v>
       </c>
       <c r="C342" t="s">
         <v>2</v>
@@ -6395,7 +6404,7 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B343" t="s">
         <v>15</v>
@@ -6406,10 +6415,10 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B344" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C344" t="s">
         <v>2</v>
@@ -6417,10 +6426,10 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B345" t="s">
-        <v>177</v>
+        <v>17</v>
       </c>
       <c r="C345" t="s">
         <v>2</v>
@@ -6428,90 +6437,90 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B346" t="s">
-        <v>105</v>
+        <v>177</v>
       </c>
       <c r="C346" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B347" t="s">
-        <v>402</v>
+        <v>105</v>
       </c>
       <c r="C347" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B348" t="s">
-        <v>24</v>
+        <v>402</v>
       </c>
       <c r="C348" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B349" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C349" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B350" t="s">
-        <v>458</v>
+        <v>19</v>
       </c>
       <c r="C350" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B351" t="s">
-        <v>27</v>
+        <v>458</v>
       </c>
       <c r="C351" t="s">
         <v>5</v>
-      </c>
-      <c r="D351" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B352" t="s">
-        <v>461</v>
+        <v>27</v>
       </c>
       <c r="C352" t="s">
         <v>5</v>
+      </c>
+      <c r="D352" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B353" t="s">
-        <v>27</v>
+        <v>461</v>
       </c>
       <c r="C353" t="s">
         <v>5</v>
@@ -6519,10 +6528,10 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B354" t="s">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="C354" t="s">
         <v>5</v>
@@ -6530,21 +6539,21 @@
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B355" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="C355" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B356" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C356" t="s">
         <v>2</v>
@@ -6552,10 +6561,10 @@
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B357" t="s">
-        <v>467</v>
+        <v>15</v>
       </c>
       <c r="C357" t="s">
         <v>2</v>
@@ -6563,21 +6572,21 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B358" t="s">
-        <v>312</v>
+        <v>467</v>
       </c>
       <c r="C358" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B359" t="s">
-        <v>470</v>
+        <v>312</v>
       </c>
       <c r="C359" t="s">
         <v>5</v>
@@ -6585,35 +6594,35 @@
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B360" t="s">
-        <v>408</v>
+        <v>470</v>
       </c>
       <c r="C360" t="s">
-        <v>2</v>
-      </c>
-      <c r="D360" t="s">
-        <v>542</v>
+        <v>5</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B361" t="s">
-        <v>19</v>
+        <v>408</v>
       </c>
       <c r="C361" t="s">
         <v>2</v>
+      </c>
+      <c r="D361" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B362" t="s">
-        <v>474</v>
+        <v>19</v>
       </c>
       <c r="C362" t="s">
         <v>2</v>
@@ -6621,10 +6630,10 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B363" t="s">
-        <v>15</v>
+        <v>474</v>
       </c>
       <c r="C363" t="s">
         <v>2</v>
@@ -6632,7 +6641,7 @@
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B364" t="s">
         <v>15</v>
@@ -6643,7 +6652,7 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B365" t="s">
         <v>15</v>
@@ -6654,7 +6663,7 @@
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B366" t="s">
         <v>15</v>
@@ -6665,7 +6674,7 @@
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B367" t="s">
         <v>15</v>
@@ -6676,7 +6685,7 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B368" t="s">
         <v>15</v>
@@ -6687,10 +6696,10 @@
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B369" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C369" t="s">
         <v>2</v>
@@ -6698,10 +6707,10 @@
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B370" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C370" t="s">
         <v>2</v>
@@ -6709,29 +6718,29 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B371" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="C371" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B372" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="C372" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B373" t="s">
         <v>15</v>
@@ -6742,32 +6751,32 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B374" t="s">
-        <v>487</v>
+        <v>15</v>
       </c>
       <c r="C374" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B375" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C375" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B376" t="s">
-        <v>19</v>
+        <v>489</v>
       </c>
       <c r="C376" t="s">
         <v>2</v>
@@ -6775,57 +6784,57 @@
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B377" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C377" t="s">
-        <v>5</v>
-      </c>
-      <c r="D377" t="s">
-        <v>542</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B378" t="s">
-        <v>131</v>
+        <v>7</v>
       </c>
       <c r="C378" t="s">
         <v>5</v>
+      </c>
+      <c r="D378" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B379" t="s">
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="C379" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B380" t="s">
-        <v>495</v>
+        <v>19</v>
       </c>
       <c r="C380" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B381" t="s">
-        <v>129</v>
+        <v>495</v>
       </c>
       <c r="C381" t="s">
         <v>5</v>
@@ -6833,10 +6842,10 @@
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B382" t="s">
-        <v>50</v>
+        <v>129</v>
       </c>
       <c r="C382" t="s">
         <v>5</v>
@@ -6844,21 +6853,21 @@
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B383" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="C383" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B384" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C384" t="s">
         <v>2</v>
@@ -6866,10 +6875,10 @@
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B385" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C385" t="s">
         <v>2</v>
@@ -6877,76 +6886,76 @@
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B386" t="s">
-        <v>353</v>
+        <v>15</v>
       </c>
       <c r="C386" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>543</v>
+        <v>501</v>
       </c>
       <c r="B387" t="s">
-        <v>19</v>
+        <v>353</v>
       </c>
       <c r="C387" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>502</v>
+        <v>543</v>
       </c>
       <c r="B388" t="s">
-        <v>503</v>
+        <v>19</v>
       </c>
       <c r="C388" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B389" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C389" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B390" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C390" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B391" t="s">
-        <v>71</v>
+        <v>507</v>
       </c>
       <c r="C391" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B392" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="C392" t="s">
         <v>2</v>
@@ -6954,32 +6963,32 @@
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B393" t="s">
-        <v>511</v>
+        <v>19</v>
       </c>
       <c r="C393" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B394" t="s">
-        <v>15</v>
+        <v>511</v>
       </c>
       <c r="C394" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B395" t="s">
-        <v>177</v>
+        <v>15</v>
       </c>
       <c r="C395" t="s">
         <v>2</v>
@@ -6987,32 +6996,32 @@
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B396" t="s">
-        <v>515</v>
+        <v>177</v>
       </c>
       <c r="C396" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B397" t="s">
-        <v>332</v>
+        <v>515</v>
       </c>
       <c r="C397" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B398" t="s">
-        <v>15</v>
+        <v>332</v>
       </c>
       <c r="C398" t="s">
         <v>2</v>
@@ -7020,46 +7029,46 @@
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B399" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C399" t="s">
         <v>2</v>
-      </c>
-      <c r="D399" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B400" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C400" t="s">
         <v>2</v>
+      </c>
+      <c r="D400" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B401" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="C401" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B402" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="C402" t="s">
         <v>5</v>
@@ -7067,21 +7076,21 @@
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B403" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="C403" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B404" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C404" t="s">
         <v>2</v>
@@ -7089,10 +7098,10 @@
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B405" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C405" t="s">
         <v>2</v>
@@ -7100,7 +7109,7 @@
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B406" t="s">
         <v>15</v>
@@ -7111,7 +7120,7 @@
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B407" t="s">
         <v>15</v>
@@ -7122,57 +7131,57 @@
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B408" t="s">
-        <v>528</v>
+        <v>15</v>
       </c>
       <c r="C408" t="s">
-        <v>5</v>
-      </c>
-      <c r="D408" t="s">
-        <v>542</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B409" t="s">
-        <v>15</v>
+        <v>528</v>
       </c>
       <c r="C409" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="D409" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B410" t="s">
-        <v>531</v>
+        <v>15</v>
       </c>
       <c r="C410" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B411" t="s">
-        <v>15</v>
+        <v>531</v>
       </c>
       <c r="C411" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B412" t="s">
-        <v>534</v>
+        <v>15</v>
       </c>
       <c r="C412" t="s">
         <v>2</v>
@@ -7180,10 +7189,10 @@
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B413" t="s">
-        <v>15</v>
+        <v>534</v>
       </c>
       <c r="C413" t="s">
         <v>2</v>
@@ -7191,18 +7200,29 @@
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
+        <v>535</v>
+      </c>
+      <c r="B414" t="s">
+        <v>15</v>
+      </c>
+      <c r="C414" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
         <v>536</v>
       </c>
-      <c r="B414" t="s">
-        <v>19</v>
-      </c>
-      <c r="C414" t="s">
+      <c r="B415" t="s">
+        <v>19</v>
+      </c>
+      <c r="C415" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1" xr:uid="{8F56ED3D-A3F2-450D-9EAE-1214C3EA2069}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D414">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D415">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>

--- a/assets/guncel_deneme_bonuslari_listesi.xlsx
+++ b/assets/guncel_deneme_bonuslari_listesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cengi\Desktop\test\Deneme Bonusu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4F57D8-EFB8-4C7D-9FA4-284E9E9A4755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5ED91C-B457-4535-BB80-6063DE111FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CD7B2693-F8D1-429F-9AB3-DB64ACA5183F}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="554">
   <si>
     <t>1king</t>
   </si>
@@ -1682,6 +1682,9 @@
   </si>
   <si>
     <t>Maks 100k çekim</t>
+  </si>
+  <si>
+    <t>locabet</t>
   </si>
 </sst>
 </file>
@@ -2560,11 +2563,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F56ED3D-A3F2-450D-9EAE-1214C3EA2069}">
-  <dimension ref="A1:D415"/>
+  <dimension ref="A1:D416"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <pane ySplit="1" topLeftCell="A223" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A247" sqref="A247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5274,7 +5277,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>322</v>
       </c>
@@ -5285,7 +5288,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>323</v>
       </c>
@@ -5296,7 +5299,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>324</v>
       </c>
@@ -5307,7 +5310,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>326</v>
       </c>
@@ -5318,7 +5321,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>328</v>
       </c>
@@ -5329,133 +5332,136 @@
         <v>5</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
+        <v>553</v>
+      </c>
+      <c r="B246" t="s">
+        <v>15</v>
+      </c>
+      <c r="C246" t="s">
+        <v>2</v>
+      </c>
+      <c r="D246" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
         <v>330</v>
       </c>
-      <c r="B246" t="s">
+      <c r="B247" t="s">
         <v>316</v>
       </c>
-      <c r="C246" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
+      <c r="C247" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
         <v>331</v>
       </c>
-      <c r="B247" t="s">
+      <c r="B248" t="s">
         <v>332</v>
       </c>
-      <c r="C247" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
+      <c r="C248" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
         <v>333</v>
       </c>
-      <c r="B248" t="s">
-        <v>19</v>
-      </c>
-      <c r="C248" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
+      <c r="B249" t="s">
+        <v>19</v>
+      </c>
+      <c r="C249" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
         <v>334</v>
       </c>
-      <c r="B249" t="s">
+      <c r="B250" t="s">
         <v>335</v>
       </c>
-      <c r="C249" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
+      <c r="C250" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
         <v>336</v>
       </c>
-      <c r="B250" t="s">
+      <c r="B251" t="s">
         <v>86</v>
       </c>
-      <c r="C250" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
+      <c r="C251" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
         <v>337</v>
       </c>
-      <c r="B251" t="s">
-        <v>15</v>
-      </c>
-      <c r="C251" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
+      <c r="B252" t="s">
+        <v>15</v>
+      </c>
+      <c r="C252" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
         <v>338</v>
       </c>
-      <c r="B252" t="s">
+      <c r="B253" t="s">
         <v>81</v>
       </c>
-      <c r="C252" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
+      <c r="C253" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
         <v>339</v>
       </c>
-      <c r="B253" t="s">
-        <v>15</v>
-      </c>
-      <c r="C253" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
+      <c r="B254" t="s">
+        <v>15</v>
+      </c>
+      <c r="C254" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
         <v>340</v>
       </c>
-      <c r="B254" t="s">
+      <c r="B255" t="s">
         <v>11</v>
       </c>
-      <c r="C254" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
+      <c r="C255" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
         <v>341</v>
       </c>
-      <c r="B255" t="s">
+      <c r="B256" t="s">
         <v>99</v>
       </c>
-      <c r="C255" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
-        <v>342</v>
-      </c>
-      <c r="B256" t="s">
-        <v>71</v>
-      </c>
       <c r="C256" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B257" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="C257" t="s">
         <v>2</v>
@@ -5463,10 +5469,10 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B258" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="C258" t="s">
         <v>2</v>
@@ -5474,10 +5480,10 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B259" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C259" t="s">
         <v>2</v>
@@ -5485,21 +5491,21 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B260" t="s">
-        <v>347</v>
+        <v>19</v>
       </c>
       <c r="C260" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B261" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C261" t="s">
         <v>5</v>
@@ -5507,43 +5513,43 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B262" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C262" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B263" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C263" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B264" t="s">
-        <v>71</v>
+        <v>353</v>
       </c>
       <c r="C264" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B265" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C265" t="s">
         <v>2</v>
@@ -5551,10 +5557,10 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B266" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C266" t="s">
         <v>2</v>
@@ -5562,10 +5568,10 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B267" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C267" t="s">
         <v>2</v>
@@ -5573,10 +5579,10 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B268" t="s">
-        <v>316</v>
+        <v>15</v>
       </c>
       <c r="C268" t="s">
         <v>2</v>
@@ -5584,10 +5590,10 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B269" t="s">
-        <v>15</v>
+        <v>316</v>
       </c>
       <c r="C269" t="s">
         <v>2</v>
@@ -5595,10 +5601,10 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B270" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="C270" t="s">
         <v>2</v>
@@ -5606,10 +5612,10 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B271" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="C271" t="s">
         <v>2</v>
@@ -5617,373 +5623,373 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
+        <v>361</v>
+      </c>
+      <c r="B272" t="s">
+        <v>15</v>
+      </c>
+      <c r="C272" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
         <v>362</v>
       </c>
-      <c r="B272" t="s">
+      <c r="B273" t="s">
         <v>177</v>
       </c>
-      <c r="C272" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
+      <c r="C273" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
         <v>363</v>
       </c>
-      <c r="B273" t="s">
-        <v>15</v>
-      </c>
-      <c r="C273" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
+      <c r="B274" t="s">
+        <v>15</v>
+      </c>
+      <c r="C274" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
         <v>364</v>
       </c>
-      <c r="B274" t="s">
-        <v>15</v>
-      </c>
-      <c r="C274" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
+      <c r="B275" t="s">
+        <v>15</v>
+      </c>
+      <c r="C275" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
         <v>365</v>
       </c>
-      <c r="B275" t="s">
+      <c r="B276" t="s">
         <v>316</v>
       </c>
-      <c r="C275" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
+      <c r="C276" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
         <v>366</v>
       </c>
-      <c r="B276" t="s">
+      <c r="B277" t="s">
         <v>353</v>
       </c>
-      <c r="C276" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
+      <c r="C277" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
         <v>367</v>
       </c>
-      <c r="B277" t="s">
-        <v>15</v>
-      </c>
-      <c r="C277" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
+      <c r="B278" t="s">
+        <v>15</v>
+      </c>
+      <c r="C278" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
         <v>368</v>
       </c>
-      <c r="B278" t="s">
-        <v>19</v>
-      </c>
-      <c r="C278" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
+      <c r="B279" t="s">
+        <v>19</v>
+      </c>
+      <c r="C279" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
         <v>369</v>
       </c>
-      <c r="B279" t="s">
+      <c r="B280" t="s">
         <v>370</v>
       </c>
-      <c r="C279" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
+      <c r="C280" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
         <v>371</v>
       </c>
-      <c r="B280" t="s">
-        <v>19</v>
-      </c>
-      <c r="C280" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
+      <c r="B281" t="s">
+        <v>19</v>
+      </c>
+      <c r="C281" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
         <v>372</v>
       </c>
-      <c r="B281" t="s">
+      <c r="B282" t="s">
         <v>24</v>
       </c>
-      <c r="C281" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
+      <c r="C282" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
         <v>373</v>
       </c>
-      <c r="B282" t="s">
-        <v>19</v>
-      </c>
-      <c r="C282" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
+      <c r="B283" t="s">
+        <v>19</v>
+      </c>
+      <c r="C283" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
         <v>374</v>
       </c>
-      <c r="B283" t="s">
+      <c r="B284" t="s">
         <v>375</v>
       </c>
-      <c r="C283" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
+      <c r="C284" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
         <v>376</v>
       </c>
-      <c r="B284" t="s">
-        <v>15</v>
-      </c>
-      <c r="C284" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
+      <c r="B285" t="s">
+        <v>15</v>
+      </c>
+      <c r="C285" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
         <v>377</v>
       </c>
-      <c r="B285" t="s">
+      <c r="B286" t="s">
         <v>378</v>
       </c>
-      <c r="C285" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
+      <c r="C286" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
         <v>379</v>
       </c>
-      <c r="B286" t="s">
+      <c r="B287" t="s">
         <v>380</v>
       </c>
-      <c r="C286" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
+      <c r="C287" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
         <v>381</v>
       </c>
-      <c r="B287" t="s">
+      <c r="B288" t="s">
         <v>71</v>
       </c>
-      <c r="C287" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
+      <c r="C288" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
         <v>382</v>
       </c>
-      <c r="B288" t="s">
+      <c r="B289" t="s">
         <v>129</v>
       </c>
-      <c r="C288" t="s">
-        <v>5</v>
-      </c>
-      <c r="D288" t="s">
+      <c r="C289" t="s">
+        <v>5</v>
+      </c>
+      <c r="D289" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
         <v>383</v>
       </c>
-      <c r="B289" t="s">
+      <c r="B290" t="s">
         <v>99</v>
       </c>
-      <c r="C289" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
+      <c r="C290" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
         <v>384</v>
       </c>
-      <c r="B290" t="s">
+      <c r="B291" t="s">
         <v>17</v>
       </c>
-      <c r="C290" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
+      <c r="C291" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
         <v>385</v>
       </c>
-      <c r="B291" t="s">
+      <c r="B292" t="s">
         <v>312</v>
       </c>
-      <c r="C291" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
+      <c r="C292" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
         <v>386</v>
       </c>
-      <c r="B292" t="s">
+      <c r="B293" t="s">
         <v>99</v>
       </c>
-      <c r="C292" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
+      <c r="C293" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
         <v>387</v>
       </c>
-      <c r="B293" t="s">
+      <c r="B294" t="s">
         <v>312</v>
       </c>
-      <c r="C293" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A294" t="s">
+      <c r="C294" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
         <v>388</v>
       </c>
-      <c r="B294" t="s">
-        <v>19</v>
-      </c>
-      <c r="C294" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A295" t="s">
+      <c r="B295" t="s">
+        <v>19</v>
+      </c>
+      <c r="C295" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
         <v>389</v>
       </c>
-      <c r="B295" t="s">
+      <c r="B296" t="s">
         <v>390</v>
       </c>
-      <c r="C295" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A296" t="s">
+      <c r="C296" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
         <v>391</v>
       </c>
-      <c r="B296" t="s">
-        <v>15</v>
-      </c>
-      <c r="C296" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A297" t="s">
+      <c r="B297" t="s">
+        <v>15</v>
+      </c>
+      <c r="C297" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
         <v>392</v>
       </c>
-      <c r="B297" t="s">
+      <c r="B298" t="s">
         <v>312</v>
       </c>
-      <c r="C297" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A298" t="s">
+      <c r="C298" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
         <v>393</v>
       </c>
-      <c r="B298" t="s">
-        <v>15</v>
-      </c>
-      <c r="C298" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A299" t="s">
+      <c r="B299" t="s">
+        <v>15</v>
+      </c>
+      <c r="C299" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
         <v>394</v>
       </c>
-      <c r="B299" t="s">
-        <v>19</v>
-      </c>
-      <c r="C299" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A300" t="s">
+      <c r="B300" t="s">
+        <v>19</v>
+      </c>
+      <c r="C300" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
         <v>395</v>
       </c>
-      <c r="B300" t="s">
-        <v>15</v>
-      </c>
-      <c r="C300" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A301" t="s">
+      <c r="B301" t="s">
+        <v>15</v>
+      </c>
+      <c r="C301" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
         <v>396</v>
       </c>
-      <c r="B301" t="s">
+      <c r="B302" t="s">
         <v>101</v>
       </c>
-      <c r="C301" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A302" t="s">
+      <c r="C302" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
         <v>397</v>
       </c>
-      <c r="B302" t="s">
+      <c r="B303" t="s">
         <v>398</v>
       </c>
-      <c r="C302" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A303" t="s">
+      <c r="C303" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
         <v>399</v>
       </c>
-      <c r="B303" t="s">
+      <c r="B304" t="s">
         <v>400</v>
       </c>
-      <c r="C303" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A304" t="s">
-        <v>401</v>
-      </c>
-      <c r="B304" t="s">
-        <v>19</v>
-      </c>
       <c r="C304" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B305" t="s">
         <v>19</v>
@@ -5994,10 +6000,10 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B306" t="s">
-        <v>405</v>
+        <v>19</v>
       </c>
       <c r="C306" t="s">
         <v>2</v>
@@ -6005,10 +6011,10 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B307" t="s">
-        <v>15</v>
+        <v>405</v>
       </c>
       <c r="C307" t="s">
         <v>2</v>
@@ -6016,10 +6022,10 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B308" t="s">
-        <v>408</v>
+        <v>15</v>
       </c>
       <c r="C308" t="s">
         <v>2</v>
@@ -6027,10 +6033,10 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B309" t="s">
-        <v>177</v>
+        <v>408</v>
       </c>
       <c r="C309" t="s">
         <v>2</v>
@@ -6038,10 +6044,10 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B310" t="s">
-        <v>115</v>
+        <v>177</v>
       </c>
       <c r="C310" t="s">
         <v>2</v>
@@ -6049,32 +6055,32 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B311" t="s">
-        <v>412</v>
+        <v>115</v>
       </c>
       <c r="C311" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B312" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C312" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B313" t="s">
-        <v>115</v>
+        <v>414</v>
       </c>
       <c r="C313" t="s">
         <v>2</v>
@@ -6082,10 +6088,10 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B314" t="s">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="C314" t="s">
         <v>2</v>
@@ -6093,10 +6099,10 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B315" t="s">
-        <v>418</v>
+        <v>37</v>
       </c>
       <c r="C315" t="s">
         <v>2</v>
@@ -6104,10 +6110,10 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B316" t="s">
-        <v>15</v>
+        <v>418</v>
       </c>
       <c r="C316" t="s">
         <v>2</v>
@@ -6115,32 +6121,32 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B317" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C317" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B318" t="s">
-        <v>418</v>
+        <v>27</v>
       </c>
       <c r="C318" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B319" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C319" t="s">
         <v>2</v>
@@ -6148,211 +6154,211 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
+        <v>422</v>
+      </c>
+      <c r="B320" t="s">
+        <v>423</v>
+      </c>
+      <c r="C320" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
         <v>424</v>
       </c>
-      <c r="B320" t="s">
+      <c r="B321" t="s">
         <v>27</v>
       </c>
-      <c r="C320" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A321" t="s">
+      <c r="C321" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
         <v>425</v>
       </c>
-      <c r="B321" t="s">
-        <v>19</v>
-      </c>
-      <c r="C321" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A322" t="s">
+      <c r="B322" t="s">
+        <v>19</v>
+      </c>
+      <c r="C322" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
         <v>426</v>
       </c>
-      <c r="B322" t="s">
+      <c r="B323" t="s">
         <v>1</v>
       </c>
-      <c r="C322" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A323" t="s">
+      <c r="C323" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
         <v>427</v>
       </c>
-      <c r="B323" t="s">
+      <c r="B324" t="s">
         <v>9</v>
       </c>
-      <c r="C323" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A324" t="s">
+      <c r="C324" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
         <v>428</v>
       </c>
-      <c r="B324" t="s">
+      <c r="B325" t="s">
         <v>11</v>
       </c>
-      <c r="C324" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A325" t="s">
+      <c r="C325" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
         <v>429</v>
       </c>
-      <c r="B325" t="s">
-        <v>19</v>
-      </c>
-      <c r="C325" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A326" t="s">
+      <c r="B326" t="s">
+        <v>19</v>
+      </c>
+      <c r="C326" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
         <v>430</v>
       </c>
-      <c r="B326" t="s">
+      <c r="B327" t="s">
         <v>423</v>
       </c>
-      <c r="C326" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A327" t="s">
+      <c r="C327" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
         <v>431</v>
       </c>
-      <c r="B327" t="s">
-        <v>15</v>
-      </c>
-      <c r="C327" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A328" t="s">
+      <c r="B328" t="s">
+        <v>15</v>
+      </c>
+      <c r="C328" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
         <v>432</v>
       </c>
-      <c r="B328" t="s">
-        <v>15</v>
-      </c>
-      <c r="C328" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A329" t="s">
+      <c r="B329" t="s">
+        <v>15</v>
+      </c>
+      <c r="C329" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
         <v>433</v>
       </c>
-      <c r="B329" t="s">
+      <c r="B330" t="s">
         <v>310</v>
       </c>
-      <c r="C329" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A330" t="s">
+      <c r="C330" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
         <v>434</v>
       </c>
-      <c r="B330" t="s">
-        <v>15</v>
-      </c>
-      <c r="C330" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A331" t="s">
+      <c r="B331" t="s">
+        <v>15</v>
+      </c>
+      <c r="C331" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
         <v>435</v>
       </c>
-      <c r="B331" t="s">
+      <c r="B332" t="s">
         <v>91</v>
       </c>
-      <c r="C331" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A332" t="s">
+      <c r="C332" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
         <v>436</v>
       </c>
-      <c r="B332" t="s">
+      <c r="B333" t="s">
         <v>437</v>
       </c>
-      <c r="C332" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A333" t="s">
+      <c r="C333" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
         <v>438</v>
       </c>
-      <c r="B333" t="s">
+      <c r="B334" t="s">
         <v>439</v>
       </c>
-      <c r="C333" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A334" t="s">
+      <c r="C334" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
         <v>440</v>
       </c>
-      <c r="B334" t="s">
-        <v>15</v>
-      </c>
-      <c r="C334" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A335" t="s">
+      <c r="B335" t="s">
+        <v>15</v>
+      </c>
+      <c r="C335" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
         <v>441</v>
       </c>
-      <c r="B335" t="s">
-        <v>19</v>
-      </c>
-      <c r="C335" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A336" t="s">
-        <v>547</v>
-      </c>
       <c r="B336" t="s">
-        <v>423</v>
+        <v>19</v>
       </c>
       <c r="C336" t="s">
         <v>2</v>
-      </c>
-      <c r="D336" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>442</v>
+        <v>547</v>
       </c>
       <c r="B337" t="s">
-        <v>131</v>
+        <v>423</v>
       </c>
       <c r="C337" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="D337" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B338" t="s">
-        <v>312</v>
+        <v>131</v>
       </c>
       <c r="C338" t="s">
         <v>5</v>
@@ -6360,10 +6366,10 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B339" t="s">
-        <v>445</v>
+        <v>312</v>
       </c>
       <c r="C339" t="s">
         <v>5</v>
@@ -6371,21 +6377,21 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B340" t="s">
-        <v>19</v>
+        <v>445</v>
       </c>
       <c r="C340" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B341" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C341" t="s">
         <v>2</v>
@@ -6393,10 +6399,10 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B342" t="s">
-        <v>408</v>
+        <v>17</v>
       </c>
       <c r="C342" t="s">
         <v>2</v>
@@ -6404,10 +6410,10 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B343" t="s">
-        <v>15</v>
+        <v>408</v>
       </c>
       <c r="C343" t="s">
         <v>2</v>
@@ -6415,7 +6421,7 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B344" t="s">
         <v>15</v>
@@ -6426,10 +6432,10 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B345" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C345" t="s">
         <v>2</v>
@@ -6437,10 +6443,10 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B346" t="s">
-        <v>177</v>
+        <v>17</v>
       </c>
       <c r="C346" t="s">
         <v>2</v>
@@ -6448,90 +6454,90 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B347" t="s">
-        <v>105</v>
+        <v>177</v>
       </c>
       <c r="C347" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B348" t="s">
-        <v>402</v>
+        <v>105</v>
       </c>
       <c r="C348" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B349" t="s">
-        <v>24</v>
+        <v>402</v>
       </c>
       <c r="C349" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B350" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C350" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B351" t="s">
-        <v>458</v>
+        <v>19</v>
       </c>
       <c r="C351" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B352" t="s">
-        <v>27</v>
+        <v>458</v>
       </c>
       <c r="C352" t="s">
         <v>5</v>
-      </c>
-      <c r="D352" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B353" t="s">
-        <v>461</v>
+        <v>27</v>
       </c>
       <c r="C353" t="s">
         <v>5</v>
+      </c>
+      <c r="D353" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B354" t="s">
-        <v>27</v>
+        <v>461</v>
       </c>
       <c r="C354" t="s">
         <v>5</v>
@@ -6539,10 +6545,10 @@
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B355" t="s">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="C355" t="s">
         <v>5</v>
@@ -6550,21 +6556,21 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B356" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="C356" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B357" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C357" t="s">
         <v>2</v>
@@ -6572,10 +6578,10 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B358" t="s">
-        <v>467</v>
+        <v>15</v>
       </c>
       <c r="C358" t="s">
         <v>2</v>
@@ -6583,21 +6589,21 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B359" t="s">
-        <v>312</v>
+        <v>467</v>
       </c>
       <c r="C359" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B360" t="s">
-        <v>470</v>
+        <v>312</v>
       </c>
       <c r="C360" t="s">
         <v>5</v>
@@ -6605,35 +6611,35 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B361" t="s">
-        <v>408</v>
+        <v>470</v>
       </c>
       <c r="C361" t="s">
-        <v>2</v>
-      </c>
-      <c r="D361" t="s">
-        <v>542</v>
+        <v>5</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B362" t="s">
-        <v>19</v>
+        <v>408</v>
       </c>
       <c r="C362" t="s">
         <v>2</v>
+      </c>
+      <c r="D362" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B363" t="s">
-        <v>474</v>
+        <v>19</v>
       </c>
       <c r="C363" t="s">
         <v>2</v>
@@ -6641,10 +6647,10 @@
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B364" t="s">
-        <v>15</v>
+        <v>474</v>
       </c>
       <c r="C364" t="s">
         <v>2</v>
@@ -6652,7 +6658,7 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B365" t="s">
         <v>15</v>
@@ -6663,7 +6669,7 @@
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B366" t="s">
         <v>15</v>
@@ -6674,7 +6680,7 @@
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B367" t="s">
         <v>15</v>
@@ -6685,7 +6691,7 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B368" t="s">
         <v>15</v>
@@ -6696,7 +6702,7 @@
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B369" t="s">
         <v>15</v>
@@ -6707,10 +6713,10 @@
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B370" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C370" t="s">
         <v>2</v>
@@ -6718,10 +6724,10 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B371" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C371" t="s">
         <v>2</v>
@@ -6729,29 +6735,29 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B372" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="C372" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B373" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="C373" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B374" t="s">
         <v>15</v>
@@ -6762,32 +6768,32 @@
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B375" t="s">
-        <v>487</v>
+        <v>15</v>
       </c>
       <c r="C375" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B376" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C376" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B377" t="s">
-        <v>19</v>
+        <v>489</v>
       </c>
       <c r="C377" t="s">
         <v>2</v>
@@ -6795,57 +6801,57 @@
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B378" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C378" t="s">
-        <v>5</v>
-      </c>
-      <c r="D378" t="s">
-        <v>542</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B379" t="s">
-        <v>131</v>
+        <v>7</v>
       </c>
       <c r="C379" t="s">
         <v>5</v>
+      </c>
+      <c r="D379" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B380" t="s">
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="C380" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B381" t="s">
-        <v>495</v>
+        <v>19</v>
       </c>
       <c r="C381" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B382" t="s">
-        <v>129</v>
+        <v>495</v>
       </c>
       <c r="C382" t="s">
         <v>5</v>
@@ -6853,10 +6859,10 @@
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B383" t="s">
-        <v>50</v>
+        <v>129</v>
       </c>
       <c r="C383" t="s">
         <v>5</v>
@@ -6864,222 +6870,222 @@
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
+        <v>497</v>
+      </c>
+      <c r="B384" t="s">
+        <v>50</v>
+      </c>
+      <c r="C384" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
         <v>498</v>
       </c>
-      <c r="B384" t="s">
-        <v>19</v>
-      </c>
-      <c r="C384" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A385" t="s">
+      <c r="B385" t="s">
+        <v>19</v>
+      </c>
+      <c r="C385" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
         <v>499</v>
       </c>
-      <c r="B385" t="s">
+      <c r="B386" t="s">
         <v>17</v>
       </c>
-      <c r="C385" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A386" t="s">
+      <c r="C386" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
         <v>500</v>
       </c>
-      <c r="B386" t="s">
-        <v>15</v>
-      </c>
-      <c r="C386" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A387" t="s">
+      <c r="B387" t="s">
+        <v>15</v>
+      </c>
+      <c r="C387" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
         <v>501</v>
       </c>
-      <c r="B387" t="s">
+      <c r="B388" t="s">
         <v>353</v>
       </c>
-      <c r="C387" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A388" t="s">
+      <c r="C388" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
         <v>543</v>
       </c>
-      <c r="B388" t="s">
-        <v>19</v>
-      </c>
-      <c r="C388" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A389" t="s">
+      <c r="B389" t="s">
+        <v>19</v>
+      </c>
+      <c r="C389" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
         <v>502</v>
       </c>
-      <c r="B389" t="s">
+      <c r="B390" t="s">
         <v>503</v>
       </c>
-      <c r="C389" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A390" t="s">
+      <c r="C390" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
         <v>504</v>
       </c>
-      <c r="B390" t="s">
+      <c r="B391" t="s">
         <v>505</v>
       </c>
-      <c r="C390" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A391" t="s">
+      <c r="C391" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
         <v>506</v>
       </c>
-      <c r="B391" t="s">
+      <c r="B392" t="s">
         <v>507</v>
       </c>
-      <c r="C391" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A392" t="s">
+      <c r="C392" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
         <v>508</v>
       </c>
-      <c r="B392" t="s">
+      <c r="B393" t="s">
         <v>71</v>
       </c>
-      <c r="C392" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A393" t="s">
+      <c r="C393" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
         <v>509</v>
       </c>
-      <c r="B393" t="s">
-        <v>19</v>
-      </c>
-      <c r="C393" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A394" t="s">
+      <c r="B394" t="s">
+        <v>19</v>
+      </c>
+      <c r="C394" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
         <v>510</v>
       </c>
-      <c r="B394" t="s">
+      <c r="B395" t="s">
         <v>511</v>
       </c>
-      <c r="C394" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A395" t="s">
+      <c r="C395" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
         <v>512</v>
       </c>
-      <c r="B395" t="s">
-        <v>15</v>
-      </c>
-      <c r="C395" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A396" t="s">
+      <c r="B396" t="s">
+        <v>15</v>
+      </c>
+      <c r="C396" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
         <v>513</v>
       </c>
-      <c r="B396" t="s">
+      <c r="B397" t="s">
         <v>177</v>
       </c>
-      <c r="C396" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A397" t="s">
+      <c r="C397" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
         <v>514</v>
       </c>
-      <c r="B397" t="s">
+      <c r="B398" t="s">
         <v>515</v>
       </c>
-      <c r="C397" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A398" t="s">
+      <c r="C398" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
         <v>516</v>
       </c>
-      <c r="B398" t="s">
+      <c r="B399" t="s">
         <v>332</v>
       </c>
-      <c r="C398" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A399" t="s">
+      <c r="C399" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
         <v>517</v>
       </c>
-      <c r="B399" t="s">
-        <v>15</v>
-      </c>
-      <c r="C399" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A400" t="s">
-        <v>518</v>
-      </c>
       <c r="B400" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C400" t="s">
         <v>2</v>
-      </c>
-      <c r="D400" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B401" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C401" t="s">
         <v>2</v>
+      </c>
+      <c r="D401" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B402" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="C402" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B403" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="C403" t="s">
         <v>5</v>
@@ -7087,21 +7093,21 @@
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B404" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="C404" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B405" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C405" t="s">
         <v>2</v>
@@ -7109,10 +7115,10 @@
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B406" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C406" t="s">
         <v>2</v>
@@ -7120,7 +7126,7 @@
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B407" t="s">
         <v>15</v>
@@ -7131,7 +7137,7 @@
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B408" t="s">
         <v>15</v>
@@ -7142,57 +7148,57 @@
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B409" t="s">
-        <v>528</v>
+        <v>15</v>
       </c>
       <c r="C409" t="s">
-        <v>5</v>
-      </c>
-      <c r="D409" t="s">
-        <v>542</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B410" t="s">
-        <v>15</v>
+        <v>528</v>
       </c>
       <c r="C410" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="D410" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B411" t="s">
-        <v>531</v>
+        <v>15</v>
       </c>
       <c r="C411" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B412" t="s">
-        <v>15</v>
+        <v>531</v>
       </c>
       <c r="C412" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B413" t="s">
-        <v>534</v>
+        <v>15</v>
       </c>
       <c r="C413" t="s">
         <v>2</v>
@@ -7200,10 +7206,10 @@
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B414" t="s">
-        <v>15</v>
+        <v>534</v>
       </c>
       <c r="C414" t="s">
         <v>2</v>
@@ -7211,18 +7217,29 @@
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
+        <v>535</v>
+      </c>
+      <c r="B415" t="s">
+        <v>15</v>
+      </c>
+      <c r="C415" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
         <v>536</v>
       </c>
-      <c r="B415" t="s">
-        <v>19</v>
-      </c>
-      <c r="C415" t="s">
+      <c r="B416" t="s">
+        <v>19</v>
+      </c>
+      <c r="C416" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1" xr:uid="{8F56ED3D-A3F2-450D-9EAE-1214C3EA2069}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D415">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D416">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>

--- a/assets/guncel_deneme_bonuslari_listesi.xlsx
+++ b/assets/guncel_deneme_bonuslari_listesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cengi\Desktop\test\Deneme Bonusu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5ED91C-B457-4535-BB80-6063DE111FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B95A7B82-5370-47FC-BD1D-67FB9242246A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CD7B2693-F8D1-429F-9AB3-DB64ACA5183F}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="555">
   <si>
     <t>1king</t>
   </si>
@@ -1685,6 +1685,9 @@
   </si>
   <si>
     <t>locabet</t>
+  </si>
+  <si>
+    <t>ritzbet</t>
   </si>
 </sst>
 </file>
@@ -2563,11 +2566,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F56ED3D-A3F2-450D-9EAE-1214C3EA2069}">
-  <dimension ref="A1:D416"/>
+  <dimension ref="A1:D417"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A223" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A247" sqref="A247"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6341,10 +6344,10 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="B337" t="s">
-        <v>423</v>
+        <v>19</v>
       </c>
       <c r="C337" t="s">
         <v>2</v>
@@ -6355,21 +6358,24 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>442</v>
+        <v>547</v>
       </c>
       <c r="B338" t="s">
-        <v>131</v>
+        <v>423</v>
       </c>
       <c r="C338" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="D338" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B339" t="s">
-        <v>312</v>
+        <v>131</v>
       </c>
       <c r="C339" t="s">
         <v>5</v>
@@ -6377,10 +6383,10 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B340" t="s">
-        <v>445</v>
+        <v>312</v>
       </c>
       <c r="C340" t="s">
         <v>5</v>
@@ -6388,21 +6394,21 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B341" t="s">
-        <v>19</v>
+        <v>445</v>
       </c>
       <c r="C341" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B342" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C342" t="s">
         <v>2</v>
@@ -6410,10 +6416,10 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B343" t="s">
-        <v>408</v>
+        <v>17</v>
       </c>
       <c r="C343" t="s">
         <v>2</v>
@@ -6421,10 +6427,10 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B344" t="s">
-        <v>15</v>
+        <v>408</v>
       </c>
       <c r="C344" t="s">
         <v>2</v>
@@ -6432,7 +6438,7 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B345" t="s">
         <v>15</v>
@@ -6443,10 +6449,10 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B346" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C346" t="s">
         <v>2</v>
@@ -6454,10 +6460,10 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B347" t="s">
-        <v>177</v>
+        <v>17</v>
       </c>
       <c r="C347" t="s">
         <v>2</v>
@@ -6465,90 +6471,90 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B348" t="s">
-        <v>105</v>
+        <v>177</v>
       </c>
       <c r="C348" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B349" t="s">
-        <v>402</v>
+        <v>105</v>
       </c>
       <c r="C349" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B350" t="s">
-        <v>24</v>
+        <v>402</v>
       </c>
       <c r="C350" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B351" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C351" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B352" t="s">
-        <v>458</v>
+        <v>19</v>
       </c>
       <c r="C352" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B353" t="s">
-        <v>27</v>
+        <v>458</v>
       </c>
       <c r="C353" t="s">
         <v>5</v>
-      </c>
-      <c r="D353" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B354" t="s">
-        <v>461</v>
+        <v>27</v>
       </c>
       <c r="C354" t="s">
         <v>5</v>
+      </c>
+      <c r="D354" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B355" t="s">
-        <v>27</v>
+        <v>461</v>
       </c>
       <c r="C355" t="s">
         <v>5</v>
@@ -6556,10 +6562,10 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B356" t="s">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="C356" t="s">
         <v>5</v>
@@ -6567,21 +6573,21 @@
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B357" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="C357" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B358" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C358" t="s">
         <v>2</v>
@@ -6589,10 +6595,10 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B359" t="s">
-        <v>467</v>
+        <v>15</v>
       </c>
       <c r="C359" t="s">
         <v>2</v>
@@ -6600,21 +6606,21 @@
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B360" t="s">
-        <v>312</v>
+        <v>467</v>
       </c>
       <c r="C360" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B361" t="s">
-        <v>470</v>
+        <v>312</v>
       </c>
       <c r="C361" t="s">
         <v>5</v>
@@ -6622,35 +6628,35 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B362" t="s">
-        <v>408</v>
+        <v>470</v>
       </c>
       <c r="C362" t="s">
-        <v>2</v>
-      </c>
-      <c r="D362" t="s">
-        <v>542</v>
+        <v>5</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B363" t="s">
-        <v>19</v>
+        <v>408</v>
       </c>
       <c r="C363" t="s">
         <v>2</v>
+      </c>
+      <c r="D363" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B364" t="s">
-        <v>474</v>
+        <v>19</v>
       </c>
       <c r="C364" t="s">
         <v>2</v>
@@ -6658,10 +6664,10 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B365" t="s">
-        <v>15</v>
+        <v>474</v>
       </c>
       <c r="C365" t="s">
         <v>2</v>
@@ -6669,7 +6675,7 @@
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B366" t="s">
         <v>15</v>
@@ -6680,7 +6686,7 @@
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B367" t="s">
         <v>15</v>
@@ -6691,7 +6697,7 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B368" t="s">
         <v>15</v>
@@ -6702,7 +6708,7 @@
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B369" t="s">
         <v>15</v>
@@ -6713,7 +6719,7 @@
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B370" t="s">
         <v>15</v>
@@ -6724,10 +6730,10 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B371" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C371" t="s">
         <v>2</v>
@@ -6735,10 +6741,10 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B372" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C372" t="s">
         <v>2</v>
@@ -6746,29 +6752,29 @@
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B373" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="C373" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B374" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="C374" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B375" t="s">
         <v>15</v>
@@ -6779,32 +6785,32 @@
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B376" t="s">
-        <v>487</v>
+        <v>15</v>
       </c>
       <c r="C376" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B377" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C377" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B378" t="s">
-        <v>19</v>
+        <v>489</v>
       </c>
       <c r="C378" t="s">
         <v>2</v>
@@ -6812,57 +6818,57 @@
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B379" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C379" t="s">
-        <v>5</v>
-      </c>
-      <c r="D379" t="s">
-        <v>542</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B380" t="s">
-        <v>131</v>
+        <v>7</v>
       </c>
       <c r="C380" t="s">
         <v>5</v>
+      </c>
+      <c r="D380" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B381" t="s">
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="C381" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B382" t="s">
-        <v>495</v>
+        <v>19</v>
       </c>
       <c r="C382" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B383" t="s">
-        <v>129</v>
+        <v>495</v>
       </c>
       <c r="C383" t="s">
         <v>5</v>
@@ -6870,10 +6876,10 @@
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B384" t="s">
-        <v>50</v>
+        <v>129</v>
       </c>
       <c r="C384" t="s">
         <v>5</v>
@@ -6881,21 +6887,21 @@
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B385" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="C385" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B386" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C386" t="s">
         <v>2</v>
@@ -6903,10 +6909,10 @@
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B387" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C387" t="s">
         <v>2</v>
@@ -6914,76 +6920,76 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B388" t="s">
-        <v>353</v>
+        <v>15</v>
       </c>
       <c r="C388" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>543</v>
+        <v>501</v>
       </c>
       <c r="B389" t="s">
-        <v>19</v>
+        <v>353</v>
       </c>
       <c r="C389" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>502</v>
+        <v>543</v>
       </c>
       <c r="B390" t="s">
-        <v>503</v>
+        <v>19</v>
       </c>
       <c r="C390" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B391" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C391" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B392" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C392" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B393" t="s">
-        <v>71</v>
+        <v>507</v>
       </c>
       <c r="C393" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B394" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="C394" t="s">
         <v>2</v>
@@ -6991,32 +6997,32 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B395" t="s">
-        <v>511</v>
+        <v>19</v>
       </c>
       <c r="C395" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B396" t="s">
-        <v>15</v>
+        <v>511</v>
       </c>
       <c r="C396" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B397" t="s">
-        <v>177</v>
+        <v>15</v>
       </c>
       <c r="C397" t="s">
         <v>2</v>
@@ -7024,32 +7030,32 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B398" t="s">
-        <v>515</v>
+        <v>177</v>
       </c>
       <c r="C398" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B399" t="s">
-        <v>332</v>
+        <v>515</v>
       </c>
       <c r="C399" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B400" t="s">
-        <v>15</v>
+        <v>332</v>
       </c>
       <c r="C400" t="s">
         <v>2</v>
@@ -7057,46 +7063,46 @@
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B401" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C401" t="s">
         <v>2</v>
-      </c>
-      <c r="D401" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B402" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C402" t="s">
         <v>2</v>
+      </c>
+      <c r="D402" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B403" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="C403" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B404" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="C404" t="s">
         <v>5</v>
@@ -7104,21 +7110,21 @@
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B405" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="C405" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B406" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C406" t="s">
         <v>2</v>
@@ -7126,10 +7132,10 @@
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B407" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C407" t="s">
         <v>2</v>
@@ -7137,7 +7143,7 @@
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B408" t="s">
         <v>15</v>
@@ -7148,7 +7154,7 @@
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B409" t="s">
         <v>15</v>
@@ -7159,57 +7165,57 @@
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B410" t="s">
-        <v>528</v>
+        <v>15</v>
       </c>
       <c r="C410" t="s">
-        <v>5</v>
-      </c>
-      <c r="D410" t="s">
-        <v>542</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B411" t="s">
-        <v>15</v>
+        <v>528</v>
       </c>
       <c r="C411" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="D411" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B412" t="s">
-        <v>531</v>
+        <v>15</v>
       </c>
       <c r="C412" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B413" t="s">
-        <v>15</v>
+        <v>531</v>
       </c>
       <c r="C413" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B414" t="s">
-        <v>534</v>
+        <v>15</v>
       </c>
       <c r="C414" t="s">
         <v>2</v>
@@ -7217,10 +7223,10 @@
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B415" t="s">
-        <v>15</v>
+        <v>534</v>
       </c>
       <c r="C415" t="s">
         <v>2</v>
@@ -7228,18 +7234,29 @@
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
+        <v>535</v>
+      </c>
+      <c r="B416" t="s">
+        <v>15</v>
+      </c>
+      <c r="C416" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
         <v>536</v>
       </c>
-      <c r="B416" t="s">
-        <v>19</v>
-      </c>
-      <c r="C416" t="s">
+      <c r="B417" t="s">
+        <v>19</v>
+      </c>
+      <c r="C417" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1" xr:uid="{8F56ED3D-A3F2-450D-9EAE-1214C3EA2069}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D416">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D417">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>

--- a/assets/guncel_deneme_bonuslari_listesi.xlsx
+++ b/assets/guncel_deneme_bonuslari_listesi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cengi\Desktop\test\Deneme Bonusu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B95A7B82-5370-47FC-BD1D-67FB9242246A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB1BC90-A1AD-47A6-9E41-E1D6633F354A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CD7B2693-F8D1-429F-9AB3-DB64ACA5183F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CD7B2693-F8D1-429F-9AB3-DB64ACA5183F}"/>
   </bookViews>
   <sheets>
     <sheet name="guncel_deneme_bonuslari_listesi" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="556">
   <si>
     <t>1king</t>
   </si>
@@ -64,9 +64,6 @@
     <t>amgbahis</t>
   </si>
   <si>
-    <t>Maks 1000tl çekim</t>
-  </si>
-  <si>
     <t>amkbet</t>
   </si>
   <si>
@@ -1688,6 +1685,12 @@
   </si>
   <si>
     <t>ritzbet</t>
+  </si>
+  <si>
+    <t>casimost</t>
+  </si>
+  <si>
+    <t>leograndbet</t>
   </si>
 </sst>
 </file>
@@ -2566,11 +2569,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F56ED3D-A3F2-450D-9EAE-1214C3EA2069}">
-  <dimension ref="A1:D417"/>
+  <dimension ref="A1:D419"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="E403" sqref="E403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2582,16 +2585,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B1" t="s">
         <v>537</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>538</v>
       </c>
-      <c r="C1" t="s">
-        <v>539</v>
-      </c>
       <c r="D1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2599,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>473</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -2627,7 +2630,7 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2657,7 +2660,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
@@ -2665,10 +2668,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
@@ -2676,10 +2679,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
         <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
@@ -2687,10 +2690,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
@@ -2698,10 +2701,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
@@ -2709,10 +2712,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
@@ -2720,10 +2723,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
         <v>2</v>
@@ -2731,10 +2734,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
         <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -2742,10 +2745,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
         <v>2</v>
@@ -2753,10 +2756,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
         <v>26</v>
-      </c>
-      <c r="B16" t="s">
-        <v>27</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -2764,10 +2767,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
         <v>28</v>
-      </c>
-      <c r="B17" t="s">
-        <v>29</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -2775,24 +2778,24 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
         <v>2</v>
@@ -2800,10 +2803,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -2811,10 +2814,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
@@ -2822,7 +2825,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
@@ -2833,10 +2836,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
         <v>2</v>
@@ -2844,10 +2847,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" t="s">
         <v>36</v>
-      </c>
-      <c r="B24" t="s">
-        <v>37</v>
       </c>
       <c r="C24" t="s">
         <v>2</v>
@@ -2855,10 +2858,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C25" t="s">
         <v>2</v>
@@ -2866,10 +2869,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" t="s">
         <v>39</v>
-      </c>
-      <c r="B26" t="s">
-        <v>40</v>
       </c>
       <c r="C26" t="s">
         <v>2</v>
@@ -2877,7 +2880,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
         <v>9</v>
@@ -2888,10 +2891,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" t="s">
         <v>2</v>
@@ -2899,10 +2902,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" t="s">
         <v>43</v>
-      </c>
-      <c r="B29" t="s">
-        <v>44</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -2910,10 +2913,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C30" t="s">
         <v>2</v>
@@ -2921,10 +2924,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" t="s">
         <v>46</v>
-      </c>
-      <c r="B31" t="s">
-        <v>47</v>
       </c>
       <c r="C31" t="s">
         <v>2</v>
@@ -2932,7 +2935,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B32" t="s">
         <v>11</v>
@@ -2943,10 +2946,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" t="s">
         <v>49</v>
-      </c>
-      <c r="B33" t="s">
-        <v>50</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -2954,10 +2957,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" t="s">
         <v>51</v>
-      </c>
-      <c r="B34" t="s">
-        <v>52</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -2965,10 +2968,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" t="s">
         <v>53</v>
-      </c>
-      <c r="B35" t="s">
-        <v>54</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -2976,10 +2979,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" t="s">
         <v>55</v>
-      </c>
-      <c r="B36" t="s">
-        <v>56</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -2987,10 +2990,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C37" t="s">
         <v>2</v>
@@ -2998,10 +3001,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C38" t="s">
         <v>2</v>
@@ -3009,10 +3012,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" t="s">
         <v>59</v>
-      </c>
-      <c r="B39" t="s">
-        <v>60</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -3020,10 +3023,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>60</v>
+      </c>
+      <c r="B40" t="s">
         <v>61</v>
-      </c>
-      <c r="B40" t="s">
-        <v>62</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -3031,10 +3034,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C41" t="s">
         <v>2</v>
@@ -3042,10 +3045,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>63</v>
+      </c>
+      <c r="B42" t="s">
         <v>64</v>
-      </c>
-      <c r="B42" t="s">
-        <v>65</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -3053,10 +3056,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>65</v>
+      </c>
+      <c r="B43" t="s">
         <v>66</v>
-      </c>
-      <c r="B43" t="s">
-        <v>67</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -3064,10 +3067,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44" t="s">
         <v>68</v>
-      </c>
-      <c r="B44" t="s">
-        <v>69</v>
       </c>
       <c r="C44" t="s">
         <v>2</v>
@@ -3075,10 +3078,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>69</v>
+      </c>
+      <c r="B45" t="s">
         <v>70</v>
-      </c>
-      <c r="B45" t="s">
-        <v>71</v>
       </c>
       <c r="C45" t="s">
         <v>2</v>
@@ -3086,10 +3089,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -3097,10 +3100,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C47" t="s">
         <v>2</v>
@@ -3108,10 +3111,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>73</v>
+      </c>
+      <c r="B48" t="s">
         <v>74</v>
-      </c>
-      <c r="B48" t="s">
-        <v>75</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -3119,10 +3122,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C49" t="s">
         <v>2</v>
@@ -3130,10 +3133,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C50" t="s">
         <v>2</v>
@@ -3141,10 +3144,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51" t="s">
         <v>78</v>
-      </c>
-      <c r="B51" t="s">
-        <v>79</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -3152,10 +3155,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>79</v>
+      </c>
+      <c r="B52" t="s">
         <v>80</v>
-      </c>
-      <c r="B52" t="s">
-        <v>81</v>
       </c>
       <c r="C52" t="s">
         <v>2</v>
@@ -3163,24 +3166,24 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B53" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C53" t="s">
         <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C54" t="s">
         <v>2</v>
@@ -3188,10 +3191,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C55" t="s">
         <v>2</v>
@@ -3199,10 +3202,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>84</v>
+      </c>
+      <c r="B56" t="s">
         <v>85</v>
-      </c>
-      <c r="B56" t="s">
-        <v>86</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -3210,10 +3213,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>86</v>
+      </c>
+      <c r="B57" t="s">
         <v>87</v>
-      </c>
-      <c r="B57" t="s">
-        <v>88</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -3221,10 +3224,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B58" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C58" t="s">
         <v>2</v>
@@ -3232,10 +3235,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>89</v>
+      </c>
+      <c r="B59" t="s">
         <v>90</v>
-      </c>
-      <c r="B59" t="s">
-        <v>91</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -3243,10 +3246,10 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>91</v>
+      </c>
+      <c r="B60" t="s">
         <v>92</v>
-      </c>
-      <c r="B60" t="s">
-        <v>93</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -3254,10 +3257,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>93</v>
+      </c>
+      <c r="B61" t="s">
         <v>94</v>
-      </c>
-      <c r="B61" t="s">
-        <v>95</v>
       </c>
       <c r="C61" t="s">
         <v>2</v>
@@ -3265,10 +3268,10 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>95</v>
+      </c>
+      <c r="B62" t="s">
         <v>96</v>
-      </c>
-      <c r="B62" t="s">
-        <v>97</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -3276,24 +3279,24 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>97</v>
+      </c>
+      <c r="B63" t="s">
         <v>98</v>
       </c>
-      <c r="B63" t="s">
-        <v>99</v>
-      </c>
       <c r="C63" t="s">
         <v>5</v>
       </c>
       <c r="D63" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>99</v>
+      </c>
+      <c r="B64" t="s">
         <v>100</v>
-      </c>
-      <c r="B64" t="s">
-        <v>101</v>
       </c>
       <c r="C64" t="s">
         <v>2</v>
@@ -3301,10 +3304,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C65" t="s">
         <v>2</v>
@@ -3312,10 +3315,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B66" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C66" t="s">
         <v>2</v>
@@ -3323,10 +3326,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>103</v>
+      </c>
+      <c r="B67" t="s">
         <v>104</v>
-      </c>
-      <c r="B67" t="s">
-        <v>105</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -3334,10 +3337,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B68" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C68" t="s">
         <v>2</v>
@@ -3345,10 +3348,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C69" t="s">
         <v>2</v>
@@ -3356,10 +3359,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C70" t="s">
         <v>2</v>
@@ -3367,10 +3370,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B71" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C71" t="s">
         <v>2</v>
@@ -3378,10 +3381,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B72" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C72" t="s">
         <v>2</v>
@@ -3389,10 +3392,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B73" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C73" t="s">
         <v>2</v>
@@ -3400,10 +3403,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B74" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C74" t="s">
         <v>2</v>
@@ -3411,10 +3414,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B75" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -3422,10 +3425,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>113</v>
+      </c>
+      <c r="B76" t="s">
         <v>114</v>
-      </c>
-      <c r="B76" t="s">
-        <v>115</v>
       </c>
       <c r="C76" t="s">
         <v>2</v>
@@ -3433,10 +3436,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B77" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C77" t="s">
         <v>2</v>
@@ -3444,10 +3447,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B78" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C78" t="s">
         <v>2</v>
@@ -3455,10 +3458,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>118</v>
+      </c>
+      <c r="B79" t="s">
         <v>119</v>
-      </c>
-      <c r="B79" t="s">
-        <v>120</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -3466,10 +3469,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>120</v>
+      </c>
+      <c r="B80" t="s">
         <v>121</v>
-      </c>
-      <c r="B80" t="s">
-        <v>122</v>
       </c>
       <c r="C80" t="s">
         <v>2</v>
@@ -3477,10 +3480,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B81" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -3488,10 +3491,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>123</v>
+      </c>
+      <c r="B82" t="s">
         <v>124</v>
-      </c>
-      <c r="B82" t="s">
-        <v>125</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -3499,10 +3502,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>125</v>
+      </c>
+      <c r="B83" t="s">
         <v>126</v>
-      </c>
-      <c r="B83" t="s">
-        <v>127</v>
       </c>
       <c r="C83" t="s">
         <v>2</v>
@@ -3510,10 +3513,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>127</v>
+      </c>
+      <c r="B84" t="s">
         <v>128</v>
-      </c>
-      <c r="B84" t="s">
-        <v>129</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -3521,10 +3524,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>129</v>
+      </c>
+      <c r="B85" t="s">
         <v>130</v>
-      </c>
-      <c r="B85" t="s">
-        <v>131</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -3532,10 +3535,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>131</v>
+      </c>
+      <c r="B86" t="s">
         <v>132</v>
-      </c>
-      <c r="B86" t="s">
-        <v>133</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -3543,10 +3546,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B87" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C87" t="s">
         <v>2</v>
@@ -3554,10 +3557,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>134</v>
+      </c>
+      <c r="B88" t="s">
         <v>135</v>
-      </c>
-      <c r="B88" t="s">
-        <v>136</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -3565,10 +3568,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B89" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C89" t="s">
         <v>2</v>
@@ -3576,10 +3579,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>137</v>
+      </c>
+      <c r="B90" t="s">
         <v>138</v>
-      </c>
-      <c r="B90" t="s">
-        <v>139</v>
       </c>
       <c r="C90" t="s">
         <v>2</v>
@@ -3587,10 +3590,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>139</v>
+      </c>
+      <c r="B91" t="s">
         <v>140</v>
-      </c>
-      <c r="B91" t="s">
-        <v>141</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -3598,10 +3601,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B92" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C92" t="s">
         <v>2</v>
@@ -3609,10 +3612,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B93" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -3620,10 +3623,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B94" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -3631,10 +3634,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>144</v>
+      </c>
+      <c r="B95" t="s">
         <v>145</v>
-      </c>
-      <c r="B95" t="s">
-        <v>146</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -3642,10 +3645,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>146</v>
+      </c>
+      <c r="B96" t="s">
         <v>147</v>
-      </c>
-      <c r="B96" t="s">
-        <v>148</v>
       </c>
       <c r="C96" t="s">
         <v>2</v>
@@ -3653,10 +3656,10 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B97" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C97" t="s">
         <v>2</v>
@@ -3664,10 +3667,10 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B98" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C98" t="s">
         <v>2</v>
@@ -3675,10 +3678,10 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B99" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C99" t="s">
         <v>2</v>
@@ -3686,10 +3689,10 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B100" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C100" t="s">
         <v>2</v>
@@ -3697,24 +3700,24 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B101" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
       </c>
       <c r="D101" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>153</v>
+      </c>
+      <c r="B102" t="s">
         <v>154</v>
-      </c>
-      <c r="B102" t="s">
-        <v>155</v>
       </c>
       <c r="C102" t="s">
         <v>2</v>
@@ -3722,10 +3725,10 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B103" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C103" t="s">
         <v>2</v>
@@ -3733,10 +3736,10 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>156</v>
+      </c>
+      <c r="B104" t="s">
         <v>157</v>
-      </c>
-      <c r="B104" t="s">
-        <v>158</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -3744,10 +3747,10 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B105" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C105" t="s">
         <v>2</v>
@@ -3755,10 +3758,10 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B106" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C106" t="s">
         <v>2</v>
@@ -3766,10 +3769,10 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B107" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C107" t="s">
         <v>2</v>
@@ -3777,10 +3780,10 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B108" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C108" t="s">
         <v>2</v>
@@ -3788,10 +3791,10 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B109" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C109" t="s">
         <v>2</v>
@@ -3799,10 +3802,10 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B110" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C110" t="s">
         <v>2</v>
@@ -3810,10 +3813,10 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B111" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -3821,10 +3824,10 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B112" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C112" t="s">
         <v>2</v>
@@ -3832,10 +3835,10 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B113" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C113" t="s">
         <v>2</v>
@@ -3843,10 +3846,10 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B114" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C114" t="s">
         <v>2</v>
@@ -3854,10 +3857,10 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B115" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -3865,24 +3868,24 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B116" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C116" t="s">
         <v>2</v>
       </c>
       <c r="D116" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B117" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C117" t="s">
         <v>2</v>
@@ -3890,10 +3893,10 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>170</v>
+      </c>
+      <c r="B118" t="s">
         <v>171</v>
-      </c>
-      <c r="B118" t="s">
-        <v>172</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -3901,10 +3904,10 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B119" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C119" t="s">
         <v>2</v>
@@ -3912,10 +3915,10 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B120" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -3923,10 +3926,10 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B121" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -3934,10 +3937,10 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
+        <v>175</v>
+      </c>
+      <c r="B122" t="s">
         <v>176</v>
-      </c>
-      <c r="B122" t="s">
-        <v>177</v>
       </c>
       <c r="C122" t="s">
         <v>2</v>
@@ -3945,10 +3948,10 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B123" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -3956,10 +3959,10 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B124" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C124" t="s">
         <v>2</v>
@@ -3967,10 +3970,10 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B125" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -3978,10 +3981,10 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B126" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C126" t="s">
         <v>2</v>
@@ -3989,43 +3992,46 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>182</v>
+        <v>554</v>
       </c>
       <c r="B127" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C127" t="s">
         <v>2</v>
+      </c>
+      <c r="D127" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B128" t="s">
-        <v>184</v>
+        <v>18</v>
       </c>
       <c r="C128" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B129" t="s">
-        <v>19</v>
+        <v>183</v>
       </c>
       <c r="C129" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B130" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C130" t="s">
         <v>2</v>
@@ -4033,21 +4039,21 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B131" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="C131" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B132" t="s">
-        <v>189</v>
+        <v>96</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -4055,146 +4061,146 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>544</v>
+        <v>187</v>
       </c>
       <c r="B133" t="s">
-        <v>19</v>
+        <v>188</v>
       </c>
       <c r="C133" t="s">
-        <v>2</v>
-      </c>
-      <c r="D133" t="s">
-        <v>542</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>190</v>
+        <v>543</v>
       </c>
       <c r="B134" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C134" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D134" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B135" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C135" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="D135" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B136" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="C136" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>540</v>
+        <v>191</v>
       </c>
       <c r="B137" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="C137" t="s">
-        <v>2</v>
-      </c>
-      <c r="D137" t="s">
-        <v>542</v>
+        <v>5</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="B138" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C138" t="s">
         <v>2</v>
       </c>
       <c r="D138" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>193</v>
+        <v>544</v>
       </c>
       <c r="B139" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C139" t="s">
         <v>2</v>
+      </c>
+      <c r="D139" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B140" t="s">
-        <v>195</v>
+        <v>18</v>
       </c>
       <c r="C140" t="s">
-        <v>5</v>
-      </c>
-      <c r="D140" t="s">
-        <v>542</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B141" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
+      </c>
+      <c r="D141" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B142" t="s">
-        <v>19</v>
+        <v>196</v>
       </c>
       <c r="C142" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B143" t="s">
-        <v>200</v>
+        <v>18</v>
       </c>
       <c r="C143" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B144" t="s">
-        <v>27</v>
+        <v>199</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -4202,57 +4208,57 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>548</v>
+        <v>200</v>
       </c>
       <c r="B145" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C145" t="s">
-        <v>2</v>
-      </c>
-      <c r="D145" t="s">
-        <v>542</v>
+        <v>5</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>202</v>
+        <v>547</v>
       </c>
       <c r="B146" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="C146" t="s">
         <v>2</v>
+      </c>
+      <c r="D146" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B147" t="s">
-        <v>204</v>
+        <v>14</v>
       </c>
       <c r="C147" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B148" t="s">
-        <v>19</v>
+        <v>203</v>
       </c>
       <c r="C148" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B149" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C149" t="s">
         <v>2</v>
@@ -4260,10 +4266,10 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B150" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="C150" t="s">
         <v>2</v>
@@ -4271,10 +4277,10 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B151" t="s">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="C151" t="s">
         <v>2</v>
@@ -4282,10 +4288,10 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B152" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C152" t="s">
         <v>2</v>
@@ -4293,10 +4299,10 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B153" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C153" t="s">
         <v>2</v>
@@ -4304,54 +4310,54 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B154" t="s">
-        <v>212</v>
+        <v>18</v>
       </c>
       <c r="C154" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B155" t="s">
-        <v>15</v>
+        <v>211</v>
       </c>
       <c r="C155" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B156" t="s">
-        <v>215</v>
+        <v>14</v>
       </c>
       <c r="C156" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B157" t="s">
-        <v>15</v>
+        <v>214</v>
       </c>
       <c r="C157" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B158" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C158" t="s">
         <v>2</v>
@@ -4359,10 +4365,10 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B159" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C159" t="s">
         <v>2</v>
@@ -4370,54 +4376,54 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B160" t="s">
-        <v>220</v>
+        <v>16</v>
       </c>
       <c r="C160" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B161" t="s">
-        <v>15</v>
+        <v>219</v>
       </c>
       <c r="C161" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B162" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C162" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B163" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="C163" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B164" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C164" t="s">
         <v>2</v>
@@ -4425,32 +4431,32 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B165" t="s">
-        <v>226</v>
+        <v>14</v>
       </c>
       <c r="C165" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B166" t="s">
-        <v>101</v>
+        <v>225</v>
       </c>
       <c r="C166" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B167" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="C167" t="s">
         <v>2</v>
@@ -4458,10 +4464,10 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B168" t="s">
-        <v>230</v>
+        <v>18</v>
       </c>
       <c r="C168" t="s">
         <v>2</v>
@@ -4469,10 +4475,10 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B169" t="s">
-        <v>97</v>
+        <v>229</v>
       </c>
       <c r="C169" t="s">
         <v>2</v>
@@ -4480,10 +4486,10 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B170" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="C170" t="s">
         <v>2</v>
@@ -4491,10 +4497,10 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B171" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C171" t="s">
         <v>2</v>
@@ -4502,10 +4508,10 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B172" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C172" t="s">
         <v>2</v>
@@ -4513,79 +4519,79 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>551</v>
+        <v>233</v>
       </c>
       <c r="B173" t="s">
-        <v>552</v>
+        <v>18</v>
       </c>
       <c r="C173" t="s">
         <v>2</v>
-      </c>
-      <c r="D173" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>235</v>
+        <v>550</v>
       </c>
       <c r="B174" t="s">
-        <v>97</v>
+        <v>551</v>
       </c>
       <c r="C174" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="D174" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B175" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="C175" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B176" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="C176" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B177" t="s">
-        <v>19</v>
+        <v>237</v>
       </c>
       <c r="C177" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B178" t="s">
-        <v>241</v>
+        <v>18</v>
       </c>
       <c r="C178" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B179" t="s">
-        <v>97</v>
+        <v>240</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -4593,21 +4599,21 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B180" t="s">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="C180" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B181" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="C181" t="s">
         <v>2</v>
@@ -4615,10 +4621,10 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B182" t="s">
-        <v>230</v>
+        <v>14</v>
       </c>
       <c r="C182" t="s">
         <v>2</v>
@@ -4626,21 +4632,21 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B183" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="C183" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B184" t="s">
-        <v>97</v>
+        <v>246</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -4648,10 +4654,10 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B185" t="s">
-        <v>250</v>
+        <v>96</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -4659,68 +4665,68 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B186" t="s">
-        <v>15</v>
+        <v>249</v>
       </c>
       <c r="C186" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B187" t="s">
-        <v>253</v>
+        <v>14</v>
       </c>
       <c r="C187" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>550</v>
+        <v>251</v>
       </c>
       <c r="B188" t="s">
-        <v>15</v>
+        <v>252</v>
       </c>
       <c r="C188" t="s">
-        <v>2</v>
-      </c>
-      <c r="D188" t="s">
-        <v>542</v>
+        <v>5</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>254</v>
+        <v>549</v>
       </c>
       <c r="B189" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C189" t="s">
         <v>2</v>
+      </c>
+      <c r="D189" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B190" t="s">
-        <v>256</v>
+        <v>14</v>
       </c>
       <c r="C190" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B191" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -4728,87 +4734,87 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B192" t="s">
-        <v>15</v>
+        <v>257</v>
       </c>
       <c r="C192" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B193" t="s">
-        <v>261</v>
+        <v>14</v>
       </c>
       <c r="C193" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B194" t="s">
-        <v>11</v>
+        <v>260</v>
       </c>
       <c r="C194" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B195" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="C195" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B196" t="s">
-        <v>265</v>
+        <v>85</v>
       </c>
       <c r="C196" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B197" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C197" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B198" t="s">
-        <v>15</v>
+        <v>266</v>
       </c>
       <c r="C198" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B199" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C199" t="s">
         <v>2</v>
@@ -4816,10 +4822,10 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B200" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C200" t="s">
         <v>2</v>
@@ -4827,32 +4833,32 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B201" t="s">
-        <v>272</v>
+        <v>18</v>
       </c>
       <c r="C201" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B202" t="s">
-        <v>15</v>
+        <v>271</v>
       </c>
       <c r="C202" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B203" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C203" t="s">
         <v>2</v>
@@ -4860,10 +4866,10 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B204" t="s">
-        <v>276</v>
+        <v>14</v>
       </c>
       <c r="C204" t="s">
         <v>2</v>
@@ -4871,10 +4877,10 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B205" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C205" t="s">
         <v>2</v>
@@ -4882,93 +4888,93 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B206" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C206" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B207" t="s">
-        <v>19</v>
+        <v>279</v>
       </c>
       <c r="C207" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B208" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C208" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B209" t="s">
-        <v>284</v>
+        <v>26</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
-      </c>
-      <c r="D209" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B210" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
+      </c>
+      <c r="D210" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B211" t="s">
-        <v>15</v>
+        <v>285</v>
       </c>
       <c r="C211" t="s">
-        <v>2</v>
-      </c>
-      <c r="D211" t="s">
-        <v>542</v>
+        <v>5</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B212" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C212" t="s">
         <v>2</v>
+      </c>
+      <c r="D212" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B213" t="s">
-        <v>290</v>
+        <v>14</v>
       </c>
       <c r="C213" t="s">
         <v>2</v>
@@ -4976,10 +4982,10 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B214" t="s">
-        <v>19</v>
+        <v>289</v>
       </c>
       <c r="C214" t="s">
         <v>2</v>
@@ -4987,10 +4993,10 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B215" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C215" t="s">
         <v>2</v>
@@ -4998,10 +5004,10 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B216" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C216" t="s">
         <v>2</v>
@@ -5009,21 +5015,21 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B217" t="s">
-        <v>256</v>
+        <v>14</v>
       </c>
       <c r="C217" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B218" t="s">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -5031,35 +5037,35 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B219" t="s">
-        <v>69</v>
+        <v>279</v>
       </c>
       <c r="C219" t="s">
-        <v>2</v>
-      </c>
-      <c r="D219" t="s">
-        <v>542</v>
+        <v>5</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>549</v>
+        <v>295</v>
       </c>
       <c r="B220" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="C220" t="s">
         <v>2</v>
+      </c>
+      <c r="D220" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>297</v>
+        <v>548</v>
       </c>
       <c r="B221" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C221" t="s">
         <v>2</v>
@@ -5067,21 +5073,21 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B222" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="C222" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B223" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
@@ -5089,21 +5095,21 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B224" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="C224" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B225" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C225" t="s">
         <v>2</v>
@@ -5111,46 +5117,46 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B226" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C226" t="s">
         <v>2</v>
-      </c>
-      <c r="D226" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B227" t="s">
-        <v>304</v>
+        <v>18</v>
       </c>
       <c r="C227" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="D227" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B228" t="s">
-        <v>15</v>
+        <v>303</v>
       </c>
       <c r="C228" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B229" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C229" t="s">
         <v>2</v>
@@ -5158,10 +5164,10 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B230" t="s">
-        <v>118</v>
+        <v>14</v>
       </c>
       <c r="C230" t="s">
         <v>2</v>
@@ -5169,35 +5175,35 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B231" t="s">
-        <v>15</v>
+        <v>117</v>
       </c>
       <c r="C231" t="s">
         <v>2</v>
-      </c>
-      <c r="D231" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B232" t="s">
-        <v>310</v>
+        <v>14</v>
       </c>
       <c r="C232" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="D232" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B233" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
@@ -5205,21 +5211,21 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B234" t="s">
-        <v>15</v>
+        <v>311</v>
       </c>
       <c r="C234" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B235" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C235" t="s">
         <v>2</v>
@@ -5227,10 +5233,10 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B236" t="s">
-        <v>316</v>
+        <v>14</v>
       </c>
       <c r="C236" t="s">
         <v>2</v>
@@ -5238,10 +5244,10 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B237" t="s">
-        <v>15</v>
+        <v>315</v>
       </c>
       <c r="C237" t="s">
         <v>2</v>
@@ -5249,10 +5255,10 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B238" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C238" t="s">
         <v>2</v>
@@ -5260,10 +5266,10 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B239" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C239" t="s">
         <v>2</v>
@@ -5271,21 +5277,21 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B240" t="s">
-        <v>321</v>
+        <v>18</v>
       </c>
       <c r="C240" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B241" t="s">
-        <v>131</v>
+        <v>320</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
@@ -5293,10 +5299,10 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B242" t="s">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
@@ -5304,21 +5310,24 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>324</v>
+        <v>555</v>
       </c>
       <c r="B243" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
       <c r="C243" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="D243" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B244" t="s">
-        <v>327</v>
+        <v>49</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
@@ -5326,10 +5335,10 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B245" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
@@ -5337,46 +5346,46 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>553</v>
+        <v>325</v>
       </c>
       <c r="B246" t="s">
-        <v>15</v>
+        <v>326</v>
       </c>
       <c r="C246" t="s">
-        <v>2</v>
-      </c>
-      <c r="D246" t="s">
-        <v>542</v>
+        <v>5</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B247" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="C247" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>331</v>
+        <v>552</v>
       </c>
       <c r="B248" t="s">
-        <v>332</v>
+        <v>14</v>
       </c>
       <c r="C248" t="s">
         <v>2</v>
+      </c>
+      <c r="D248" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B249" t="s">
-        <v>19</v>
+        <v>315</v>
       </c>
       <c r="C249" t="s">
         <v>2</v>
@@ -5384,54 +5393,54 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B250" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C250" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B251" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="C251" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B252" t="s">
-        <v>15</v>
+        <v>334</v>
       </c>
       <c r="C252" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B253" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C253" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B254" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C254" t="s">
         <v>2</v>
@@ -5439,10 +5448,10 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B255" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="C255" t="s">
         <v>2</v>
@@ -5450,21 +5459,21 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B256" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="C256" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B257" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="C257" t="s">
         <v>2</v>
@@ -5472,21 +5481,21 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B258" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C258" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B259" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="C259" t="s">
         <v>2</v>
@@ -5494,10 +5503,10 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B260" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="C260" t="s">
         <v>2</v>
@@ -5505,43 +5514,43 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B261" t="s">
-        <v>347</v>
+        <v>14</v>
       </c>
       <c r="C261" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B262" t="s">
-        <v>349</v>
+        <v>18</v>
       </c>
       <c r="C262" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B263" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C263" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B264" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C264" t="s">
         <v>5</v>
@@ -5549,10 +5558,10 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B265" t="s">
-        <v>71</v>
+        <v>350</v>
       </c>
       <c r="C265" t="s">
         <v>2</v>
@@ -5560,21 +5569,21 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B266" t="s">
-        <v>15</v>
+        <v>352</v>
       </c>
       <c r="C266" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B267" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="C267" t="s">
         <v>2</v>
@@ -5582,10 +5591,10 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B268" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C268" t="s">
         <v>2</v>
@@ -5593,10 +5602,10 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B269" t="s">
-        <v>316</v>
+        <v>18</v>
       </c>
       <c r="C269" t="s">
         <v>2</v>
@@ -5604,10 +5613,10 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B270" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C270" t="s">
         <v>2</v>
@@ -5615,10 +5624,10 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B271" t="s">
-        <v>101</v>
+        <v>315</v>
       </c>
       <c r="C271" t="s">
         <v>2</v>
@@ -5626,10 +5635,10 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B272" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C272" t="s">
         <v>2</v>
@@ -5637,10 +5646,10 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B273" t="s">
-        <v>177</v>
+        <v>100</v>
       </c>
       <c r="C273" t="s">
         <v>2</v>
@@ -5648,10 +5657,10 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B274" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C274" t="s">
         <v>2</v>
@@ -5659,10 +5668,10 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B275" t="s">
-        <v>15</v>
+        <v>176</v>
       </c>
       <c r="C275" t="s">
         <v>2</v>
@@ -5670,10 +5679,10 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B276" t="s">
-        <v>316</v>
+        <v>14</v>
       </c>
       <c r="C276" t="s">
         <v>2</v>
@@ -5681,21 +5690,21 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B277" t="s">
-        <v>353</v>
+        <v>14</v>
       </c>
       <c r="C277" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B278" t="s">
-        <v>15</v>
+        <v>315</v>
       </c>
       <c r="C278" t="s">
         <v>2</v>
@@ -5703,32 +5712,32 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B279" t="s">
-        <v>19</v>
+        <v>352</v>
       </c>
       <c r="C279" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B280" t="s">
-        <v>370</v>
+        <v>14</v>
       </c>
       <c r="C280" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B281" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C281" t="s">
         <v>2</v>
@@ -5736,10 +5745,10 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B282" t="s">
-        <v>24</v>
+        <v>369</v>
       </c>
       <c r="C282" t="s">
         <v>5</v>
@@ -5747,10 +5756,10 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B283" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C283" t="s">
         <v>2</v>
@@ -5758,10 +5767,10 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B284" t="s">
-        <v>375</v>
+        <v>23</v>
       </c>
       <c r="C284" t="s">
         <v>5</v>
@@ -5769,10 +5778,10 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B285" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C285" t="s">
         <v>2</v>
@@ -5780,10 +5789,10 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B286" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C286" t="s">
         <v>5</v>
@@ -5791,68 +5800,68 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B287" t="s">
-        <v>380</v>
+        <v>14</v>
       </c>
       <c r="C287" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B288" t="s">
-        <v>71</v>
+        <v>377</v>
       </c>
       <c r="C288" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B289" t="s">
-        <v>129</v>
+        <v>379</v>
       </c>
       <c r="C289" t="s">
         <v>5</v>
-      </c>
-      <c r="D289" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B290" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="C290" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B291" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="C291" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="D291" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B292" t="s">
-        <v>312</v>
+        <v>98</v>
       </c>
       <c r="C292" t="s">
         <v>5</v>
@@ -5860,21 +5869,21 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B293" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="C293" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B294" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C294" t="s">
         <v>5</v>
@@ -5882,21 +5891,21 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B295" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="C295" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B296" t="s">
-        <v>390</v>
+        <v>311</v>
       </c>
       <c r="C296" t="s">
         <v>5</v>
@@ -5904,10 +5913,10 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B297" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C297" t="s">
         <v>2</v>
@@ -5915,10 +5924,10 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B298" t="s">
-        <v>312</v>
+        <v>389</v>
       </c>
       <c r="C298" t="s">
         <v>5</v>
@@ -5926,10 +5935,10 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B299" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C299" t="s">
         <v>2</v>
@@ -5937,21 +5946,21 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B300" t="s">
-        <v>19</v>
+        <v>311</v>
       </c>
       <c r="C300" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B301" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C301" t="s">
         <v>2</v>
@@ -5959,10 +5968,10 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B302" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="C302" t="s">
         <v>2</v>
@@ -5970,10 +5979,10 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B303" t="s">
-        <v>398</v>
+        <v>14</v>
       </c>
       <c r="C303" t="s">
         <v>2</v>
@@ -5981,21 +5990,21 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B304" t="s">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="C304" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B305" t="s">
-        <v>19</v>
+        <v>397</v>
       </c>
       <c r="C305" t="s">
         <v>2</v>
@@ -6003,21 +6012,21 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B306" t="s">
-        <v>19</v>
+        <v>399</v>
       </c>
       <c r="C306" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B307" t="s">
-        <v>405</v>
+        <v>18</v>
       </c>
       <c r="C307" t="s">
         <v>2</v>
@@ -6025,10 +6034,10 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B308" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C308" t="s">
         <v>2</v>
@@ -6036,10 +6045,10 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B309" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C309" t="s">
         <v>2</v>
@@ -6047,10 +6056,10 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B310" t="s">
-        <v>177</v>
+        <v>14</v>
       </c>
       <c r="C310" t="s">
         <v>2</v>
@@ -6058,10 +6067,10 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B311" t="s">
-        <v>115</v>
+        <v>407</v>
       </c>
       <c r="C311" t="s">
         <v>2</v>
@@ -6069,21 +6078,21 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B312" t="s">
-        <v>412</v>
+        <v>176</v>
       </c>
       <c r="C312" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B313" t="s">
-        <v>414</v>
+        <v>114</v>
       </c>
       <c r="C313" t="s">
         <v>2</v>
@@ -6091,21 +6100,21 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B314" t="s">
-        <v>115</v>
+        <v>411</v>
       </c>
       <c r="C314" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B315" t="s">
-        <v>37</v>
+        <v>413</v>
       </c>
       <c r="C315" t="s">
         <v>2</v>
@@ -6113,10 +6122,10 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B316" t="s">
-        <v>418</v>
+        <v>114</v>
       </c>
       <c r="C316" t="s">
         <v>2</v>
@@ -6124,10 +6133,10 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B317" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C317" t="s">
         <v>2</v>
@@ -6135,21 +6144,21 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B318" t="s">
-        <v>27</v>
+        <v>417</v>
       </c>
       <c r="C318" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B319" t="s">
-        <v>418</v>
+        <v>14</v>
       </c>
       <c r="C319" t="s">
         <v>2</v>
@@ -6157,32 +6166,32 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B320" t="s">
-        <v>423</v>
+        <v>26</v>
       </c>
       <c r="C320" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B321" t="s">
-        <v>27</v>
+        <v>417</v>
       </c>
       <c r="C321" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B322" t="s">
-        <v>19</v>
+        <v>422</v>
       </c>
       <c r="C322" t="s">
         <v>2</v>
@@ -6190,32 +6199,32 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B323" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C323" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B324" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C324" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B325" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C325" t="s">
         <v>2</v>
@@ -6223,21 +6232,21 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B326" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C326" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B327" t="s">
-        <v>423</v>
+        <v>11</v>
       </c>
       <c r="C327" t="s">
         <v>2</v>
@@ -6245,10 +6254,10 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B328" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C328" t="s">
         <v>2</v>
@@ -6256,10 +6265,10 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B329" t="s">
-        <v>15</v>
+        <v>422</v>
       </c>
       <c r="C329" t="s">
         <v>2</v>
@@ -6267,21 +6276,21 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B330" t="s">
-        <v>310</v>
+        <v>14</v>
       </c>
       <c r="C330" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B331" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C331" t="s">
         <v>2</v>
@@ -6289,10 +6298,10 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B332" t="s">
-        <v>91</v>
+        <v>309</v>
       </c>
       <c r="C332" t="s">
         <v>5</v>
@@ -6300,21 +6309,21 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B333" t="s">
-        <v>437</v>
+        <v>14</v>
       </c>
       <c r="C333" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B334" t="s">
-        <v>439</v>
+        <v>90</v>
       </c>
       <c r="C334" t="s">
         <v>5</v>
@@ -6322,82 +6331,82 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B335" t="s">
-        <v>15</v>
+        <v>436</v>
       </c>
       <c r="C335" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B336" t="s">
-        <v>19</v>
+        <v>438</v>
       </c>
       <c r="C336" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>554</v>
+        <v>439</v>
       </c>
       <c r="B337" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C337" t="s">
         <v>2</v>
-      </c>
-      <c r="D337" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>547</v>
+        <v>440</v>
       </c>
       <c r="B338" t="s">
-        <v>423</v>
+        <v>18</v>
       </c>
       <c r="C338" t="s">
         <v>2</v>
-      </c>
-      <c r="D338" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>442</v>
+        <v>553</v>
       </c>
       <c r="B339" t="s">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="C339" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="D339" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>443</v>
+        <v>546</v>
       </c>
       <c r="B340" t="s">
-        <v>312</v>
+        <v>422</v>
       </c>
       <c r="C340" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="D340" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B341" t="s">
-        <v>445</v>
+        <v>130</v>
       </c>
       <c r="C341" t="s">
         <v>5</v>
@@ -6405,32 +6414,32 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B342" t="s">
-        <v>19</v>
+        <v>311</v>
       </c>
       <c r="C342" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B343" t="s">
-        <v>17</v>
+        <v>444</v>
       </c>
       <c r="C343" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B344" t="s">
-        <v>408</v>
+        <v>18</v>
       </c>
       <c r="C344" t="s">
         <v>2</v>
@@ -6438,10 +6447,10 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B345" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C345" t="s">
         <v>2</v>
@@ -6449,10 +6458,10 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B346" t="s">
-        <v>15</v>
+        <v>407</v>
       </c>
       <c r="C346" t="s">
         <v>2</v>
@@ -6460,10 +6469,10 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B347" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C347" t="s">
         <v>2</v>
@@ -6471,10 +6480,10 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B348" t="s">
-        <v>177</v>
+        <v>14</v>
       </c>
       <c r="C348" t="s">
         <v>2</v>
@@ -6482,21 +6491,21 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B349" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="C349" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B350" t="s">
-        <v>402</v>
+        <v>176</v>
       </c>
       <c r="C350" t="s">
         <v>2</v>
@@ -6504,10 +6513,10 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B351" t="s">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="C351" t="s">
         <v>5</v>
@@ -6515,10 +6524,10 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B352" t="s">
-        <v>19</v>
+        <v>401</v>
       </c>
       <c r="C352" t="s">
         <v>2</v>
@@ -6526,10 +6535,10 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B353" t="s">
-        <v>458</v>
+        <v>23</v>
       </c>
       <c r="C353" t="s">
         <v>5</v>
@@ -6537,24 +6546,21 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B354" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C354" t="s">
-        <v>5</v>
-      </c>
-      <c r="D354" t="s">
-        <v>542</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B355" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C355" t="s">
         <v>5</v>
@@ -6562,21 +6568,24 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B356" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C356" t="s">
         <v>5</v>
+      </c>
+      <c r="D356" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B357" t="s">
-        <v>105</v>
+        <v>460</v>
       </c>
       <c r="C357" t="s">
         <v>5</v>
@@ -6584,32 +6593,32 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B358" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C358" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B359" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="C359" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B360" t="s">
-        <v>467</v>
+        <v>18</v>
       </c>
       <c r="C360" t="s">
         <v>2</v>
@@ -6617,68 +6626,68 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B361" t="s">
-        <v>312</v>
+        <v>14</v>
       </c>
       <c r="C361" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B362" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C362" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B363" t="s">
-        <v>408</v>
+        <v>311</v>
       </c>
       <c r="C363" t="s">
-        <v>2</v>
-      </c>
-      <c r="D363" t="s">
-        <v>542</v>
+        <v>5</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B364" t="s">
-        <v>19</v>
+        <v>469</v>
       </c>
       <c r="C364" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B365" t="s">
-        <v>474</v>
+        <v>407</v>
       </c>
       <c r="C365" t="s">
         <v>2</v>
+      </c>
+      <c r="D365" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B366" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C366" t="s">
         <v>2</v>
@@ -6686,10 +6695,10 @@
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B367" t="s">
-        <v>15</v>
+        <v>473</v>
       </c>
       <c r="C367" t="s">
         <v>2</v>
@@ -6697,10 +6706,10 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B368" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C368" t="s">
         <v>2</v>
@@ -6708,10 +6717,10 @@
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B369" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C369" t="s">
         <v>2</v>
@@ -6719,10 +6728,10 @@
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B370" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C370" t="s">
         <v>2</v>
@@ -6730,10 +6739,10 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B371" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C371" t="s">
         <v>2</v>
@@ -6741,10 +6750,10 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B372" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C372" t="s">
         <v>2</v>
@@ -6752,10 +6761,10 @@
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B373" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C373" t="s">
         <v>2</v>
@@ -6763,21 +6772,21 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B374" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="C374" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B375" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C375" t="s">
         <v>2</v>
@@ -6785,32 +6794,32 @@
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B376" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="C376" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B377" t="s">
-        <v>487</v>
+        <v>14</v>
       </c>
       <c r="C377" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B378" t="s">
-        <v>489</v>
+        <v>14</v>
       </c>
       <c r="C378" t="s">
         <v>2</v>
@@ -6818,57 +6827,57 @@
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="B379" t="s">
-        <v>19</v>
+        <v>486</v>
       </c>
       <c r="C379" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B380" t="s">
-        <v>7</v>
+        <v>488</v>
       </c>
       <c r="C380" t="s">
-        <v>5</v>
-      </c>
-      <c r="D380" t="s">
-        <v>542</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B381" t="s">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="C381" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B382" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C382" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="D382" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B383" t="s">
-        <v>495</v>
+        <v>130</v>
       </c>
       <c r="C383" t="s">
         <v>5</v>
@@ -6876,21 +6885,21 @@
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B384" t="s">
-        <v>129</v>
+        <v>18</v>
       </c>
       <c r="C384" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B385" t="s">
-        <v>50</v>
+        <v>494</v>
       </c>
       <c r="C385" t="s">
         <v>5</v>
@@ -6898,32 +6907,32 @@
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B386" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="C386" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B387" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="C387" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B388" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C388" t="s">
         <v>2</v>
@@ -6931,21 +6940,21 @@
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B389" t="s">
-        <v>353</v>
+        <v>16</v>
       </c>
       <c r="C389" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>543</v>
+        <v>499</v>
       </c>
       <c r="B390" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C390" t="s">
         <v>2</v>
@@ -6953,10 +6962,10 @@
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B391" t="s">
-        <v>503</v>
+        <v>352</v>
       </c>
       <c r="C391" t="s">
         <v>5</v>
@@ -6964,10 +6973,10 @@
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>504</v>
+        <v>542</v>
       </c>
       <c r="B392" t="s">
-        <v>505</v>
+        <v>18</v>
       </c>
       <c r="C392" t="s">
         <v>2</v>
@@ -6975,10 +6984,10 @@
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="B393" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C393" t="s">
         <v>5</v>
@@ -6986,10 +6995,10 @@
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="B394" t="s">
-        <v>71</v>
+        <v>504</v>
       </c>
       <c r="C394" t="s">
         <v>2</v>
@@ -6997,32 +7006,32 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B395" t="s">
-        <v>19</v>
+        <v>506</v>
       </c>
       <c r="C395" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B396" t="s">
-        <v>511</v>
+        <v>70</v>
       </c>
       <c r="C396" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B397" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C397" t="s">
         <v>2</v>
@@ -7030,32 +7039,32 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B398" t="s">
-        <v>177</v>
+        <v>510</v>
       </c>
       <c r="C398" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B399" t="s">
-        <v>515</v>
+        <v>14</v>
       </c>
       <c r="C399" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="B400" t="s">
-        <v>332</v>
+        <v>176</v>
       </c>
       <c r="C400" t="s">
         <v>2</v>
@@ -7063,35 +7072,32 @@
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B401" t="s">
-        <v>15</v>
+        <v>514</v>
       </c>
       <c r="C401" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B402" t="s">
-        <v>19</v>
+        <v>331</v>
       </c>
       <c r="C402" t="s">
         <v>2</v>
-      </c>
-      <c r="D402" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B403" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C403" t="s">
         <v>2</v>
@@ -7099,54 +7105,57 @@
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B404" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="C404" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="D404" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B405" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C405" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B406" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="C406" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B407" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C407" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B408" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C408" t="s">
         <v>2</v>
@@ -7154,10 +7163,10 @@
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B409" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C409" t="s">
         <v>2</v>
@@ -7165,10 +7174,10 @@
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B410" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C410" t="s">
         <v>2</v>
@@ -7176,24 +7185,21 @@
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B411" t="s">
-        <v>528</v>
+        <v>14</v>
       </c>
       <c r="C411" t="s">
-        <v>5</v>
-      </c>
-      <c r="D411" t="s">
-        <v>542</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B412" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C412" t="s">
         <v>2</v>
@@ -7201,21 +7207,24 @@
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="B413" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C413" t="s">
         <v>5</v>
+      </c>
+      <c r="D413" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B414" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C414" t="s">
         <v>2</v>
@@ -7223,21 +7232,21 @@
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B415" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C415" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B416" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C416" t="s">
         <v>2</v>
@@ -7245,18 +7254,40 @@
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B417" t="s">
-        <v>19</v>
+        <v>533</v>
       </c>
       <c r="C417" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>534</v>
+      </c>
+      <c r="B418" t="s">
+        <v>14</v>
+      </c>
+      <c r="C418" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>535</v>
+      </c>
+      <c r="B419" t="s">
+        <v>18</v>
+      </c>
+      <c r="C419" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1" xr:uid="{8F56ED3D-A3F2-450D-9EAE-1214C3EA2069}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D417">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D419">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>

--- a/assets/guncel_deneme_bonuslari_listesi.xlsx
+++ b/assets/guncel_deneme_bonuslari_listesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cengi\Desktop\test\Deneme Bonusu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB1BC90-A1AD-47A6-9E41-E1D6633F354A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC230E8-8CB6-469D-894E-1B9FEDADD3A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CD7B2693-F8D1-429F-9AB3-DB64ACA5183F}"/>
   </bookViews>
@@ -23,10 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="556">
-  <si>
-    <t>1king</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="588">
   <si>
     <t>maks 750tl çekim</t>
   </si>
@@ -34,12 +31,6 @@
     <t>yatırımsız</t>
   </si>
   <si>
-    <t>acrobet</t>
-  </si>
-  <si>
-    <t>250tl yatırımlı. Maks 5k çekim</t>
-  </si>
-  <si>
     <t>yatırımlı</t>
   </si>
   <si>
@@ -115,9 +106,6 @@
     <t>bahibom</t>
   </si>
   <si>
-    <t>bahis1000</t>
-  </si>
-  <si>
     <t>bahisabi</t>
   </si>
   <si>
@@ -157,9 +145,6 @@
     <t>1 yatırımlı. Maks 1.5k çekim</t>
   </si>
   <si>
-    <t>bahispal</t>
-  </si>
-  <si>
     <t>bahisvebahis</t>
   </si>
   <si>
@@ -190,18 +175,12 @@
     <t>baywin</t>
   </si>
   <si>
-    <t>300tl yatırımlı. Maks 500tl çekim. Ana para kalıyor.</t>
-  </si>
-  <si>
     <t>beinwon</t>
   </si>
   <si>
     <t>bekabet</t>
   </si>
   <si>
-    <t>benebet</t>
-  </si>
-  <si>
     <t>200tl yatırımlı. Maks 1k çekim</t>
   </si>
   <si>
@@ -247,9 +226,6 @@
     <t>betbom</t>
   </si>
   <si>
-    <t>Yatırım kadar deneme min-maks 10 katı çekim</t>
-  </si>
-  <si>
     <t>betbox</t>
   </si>
   <si>
@@ -286,9 +262,6 @@
     <t>betgar</t>
   </si>
   <si>
-    <t>100tl yatırımlı. Maks 1k çekim</t>
-  </si>
-  <si>
     <t>betgaranti</t>
   </si>
   <si>
@@ -301,9 +274,6 @@
     <t>betgross</t>
   </si>
   <si>
-    <t>500tl yatırımlı. Maks 700tl çekim</t>
-  </si>
-  <si>
     <t>bethand</t>
   </si>
   <si>
@@ -316,9 +286,6 @@
     <t>250tl yatırımlı. Maks 500tl çekim</t>
   </si>
   <si>
-    <t>betiton</t>
-  </si>
-  <si>
     <t>1k yatırımlı. Maks 5k çekim</t>
   </si>
   <si>
@@ -358,9 +325,6 @@
     <t>betmabet</t>
   </si>
   <si>
-    <t>betmarino</t>
-  </si>
-  <si>
     <t>betmatik</t>
   </si>
   <si>
@@ -379,18 +343,6 @@
     <t>maks 500tl çekim</t>
   </si>
   <si>
-    <t>betofbahis</t>
-  </si>
-  <si>
-    <t>200tl yatırım maks 500tl çekim</t>
-  </si>
-  <si>
-    <t>betoffice</t>
-  </si>
-  <si>
-    <t>Min 500tl maks sınırsız çekim</t>
-  </si>
-  <si>
     <t>betokeys</t>
   </si>
   <si>
@@ -403,18 +355,12 @@
     <t>betorder</t>
   </si>
   <si>
-    <t>2fa bonusu. Yatırımsız bonus tutarının maks 25 katı çekim</t>
-  </si>
-  <si>
     <t>betosfer</t>
   </si>
   <si>
     <t>100tl yatırımlı. Maks 250tl çekim</t>
   </si>
   <si>
-    <t>betovis</t>
-  </si>
-  <si>
     <t>500tl yatırımlı. Maks 1.5k çekim</t>
   </si>
   <si>
@@ -493,12 +439,6 @@
     <t>betsobet</t>
   </si>
   <si>
-    <t>betspin</t>
-  </si>
-  <si>
-    <t>400tl yatırımlı maks çekim sınırı yok.</t>
-  </si>
-  <si>
     <t>betticket</t>
   </si>
   <si>
@@ -574,9 +514,6 @@
     <t>casinobest</t>
   </si>
   <si>
-    <t>300tl yatırımlı. Min 3k maks sınır yok</t>
-  </si>
-  <si>
     <t>casinoburada</t>
   </si>
   <si>
@@ -613,9 +550,6 @@
     <t>cedabet</t>
   </si>
   <si>
-    <t>500tl yatırımlı. Min 500 maks sınırsız çekim</t>
-  </si>
-  <si>
     <t>celtabet</t>
   </si>
   <si>
@@ -634,9 +568,6 @@
     <t>damabet</t>
   </si>
   <si>
-    <t>100tl yatırımlı. Maks 600tl çekim</t>
-  </si>
-  <si>
     <t>dedebet</t>
   </si>
   <si>
@@ -667,9 +598,6 @@
     <t>efsino</t>
   </si>
   <si>
-    <t>300tl yatırım. Maks 600tl çekim</t>
-  </si>
-  <si>
     <t>elexbet</t>
   </si>
   <si>
@@ -697,27 +625,15 @@
     <t>extrabet</t>
   </si>
   <si>
-    <t>eyfelcasino</t>
-  </si>
-  <si>
-    <t>150tl yatırımlı. Maks 300 çekim</t>
-  </si>
-  <si>
     <t>favoribahis</t>
   </si>
   <si>
-    <t>favorisen</t>
-  </si>
-  <si>
     <t>favorislot</t>
   </si>
   <si>
     <t>%10 kadar sınırsız çekim</t>
   </si>
   <si>
-    <t>fenomenbet</t>
-  </si>
-  <si>
     <t>festwin</t>
   </si>
   <si>
@@ -757,15 +673,9 @@
     <t>ganobet</t>
   </si>
   <si>
-    <t>gettobet</t>
-  </si>
-  <si>
     <t>goatbahis</t>
   </si>
   <si>
-    <t>200tl yatırımlı. Maks 400tl çekim</t>
-  </si>
-  <si>
     <t>gobahis</t>
   </si>
   <si>
@@ -781,9 +691,6 @@
     <t>goldenbahis</t>
   </si>
   <si>
-    <t>1k yatırılımlı. Maks 5k çekim</t>
-  </si>
-  <si>
     <t>golegol</t>
   </si>
   <si>
@@ -796,18 +703,12 @@
     <t>grandoperabet</t>
   </si>
   <si>
-    <t>250tl yatırılım. Maks 500tl çekim</t>
-  </si>
-  <si>
     <t>grandpashabet</t>
   </si>
   <si>
     <t>grbets</t>
   </si>
   <si>
-    <t>100 yatırımlı. Maks 250tl çekim. Anapara ile devam</t>
-  </si>
-  <si>
     <t>hanedanbet</t>
   </si>
   <si>
@@ -817,15 +718,9 @@
     <t>havanabet</t>
   </si>
   <si>
-    <t>maks 250tl çekim</t>
-  </si>
-  <si>
     <t>hayalbahis</t>
   </si>
   <si>
-    <t>250tl yatırımlı. Maks 1000tl çekim</t>
-  </si>
-  <si>
     <t>hepyek</t>
   </si>
   <si>
@@ -856,9 +751,6 @@
     <t>hititbet</t>
   </si>
   <si>
-    <t>Telegram bonusu fs kazancının maks 25katı çekim</t>
-  </si>
-  <si>
     <t>hizlibahis</t>
   </si>
   <si>
@@ -874,9 +766,6 @@
     <t>hugobet</t>
   </si>
   <si>
-    <t>2.5k yatırımlı. Maks 5k çekim</t>
-  </si>
-  <si>
     <t>hullbet</t>
   </si>
   <si>
@@ -919,9 +808,6 @@
     <t>jackbom</t>
   </si>
   <si>
-    <t>janticasino</t>
-  </si>
-  <si>
     <t>jojova</t>
   </si>
   <si>
@@ -985,9 +871,6 @@
     <t>kuponbet</t>
   </si>
   <si>
-    <t>500tl yatırımlı. 1k çekim.</t>
-  </si>
-  <si>
     <t>kuzeycasino</t>
   </si>
   <si>
@@ -1024,12 +907,6 @@
     <t>lukscasino</t>
   </si>
   <si>
-    <t>luluslot</t>
-  </si>
-  <si>
-    <t>100tl yatırım. Maks 250tl çekim</t>
-  </si>
-  <si>
     <t>luxbet</t>
   </si>
   <si>
@@ -1078,15 +955,9 @@
     <t>Telegram bonusu. Maks 5k çekim</t>
   </si>
   <si>
-    <t>maskebet</t>
-  </si>
-  <si>
     <t>250tl yatırım. Maks 500tl çekim</t>
   </si>
   <si>
-    <t>masterbetting</t>
-  </si>
-  <si>
     <t>matadorbet</t>
   </si>
   <si>
@@ -1117,9 +988,6 @@
     <t>meritlimancasino</t>
   </si>
   <si>
-    <t>meritslot</t>
-  </si>
-  <si>
     <t>merkezbahis</t>
   </si>
   <si>
@@ -1135,9 +1003,6 @@
     <t>300tl yatırımlı. Maks 1.5k çekim</t>
   </si>
   <si>
-    <t>milosbet</t>
-  </si>
-  <si>
     <t>misliwin</t>
   </si>
   <si>
@@ -1162,9 +1027,6 @@
     <t>mrgamb</t>
   </si>
   <si>
-    <t>Min 250tl yatırım. Yatırım kadar çekim sınırsız</t>
-  </si>
-  <si>
     <t>napolibet</t>
   </si>
   <si>
@@ -1210,9 +1072,6 @@
     <t>onwin</t>
   </si>
   <si>
-    <t>oslobet</t>
-  </si>
-  <si>
     <t>otobet</t>
   </si>
   <si>
@@ -1222,9 +1081,6 @@
     <t>palacebet</t>
   </si>
   <si>
-    <t>200tl yatırımlı. Maks 850tl çekim</t>
-  </si>
-  <si>
     <t>palazzobet</t>
   </si>
   <si>
@@ -1240,9 +1096,6 @@
     <t>Telegram bonusu. Maks 500tl çekim</t>
   </si>
   <si>
-    <t>pasacasino</t>
-  </si>
-  <si>
     <t>pashagaming</t>
   </si>
   <si>
@@ -1285,9 +1138,6 @@
     <t>portobet</t>
   </si>
   <si>
-    <t>pradabet</t>
-  </si>
-  <si>
     <t>prensbet</t>
   </si>
   <si>
@@ -1333,33 +1183,18 @@
     <t>retrobet</t>
   </si>
   <si>
-    <t>100tl yatırım. Maks 1200tl çekim</t>
-  </si>
-  <si>
-    <t>reynabet</t>
-  </si>
-  <si>
-    <t>250tl yatırım. Maks 500 çekim</t>
-  </si>
-  <si>
     <t>rinabet</t>
   </si>
   <si>
     <t>risebet</t>
   </si>
   <si>
-    <t>roketbahis</t>
-  </si>
-  <si>
     <t>roketbet</t>
   </si>
   <si>
     <t>romabet</t>
   </si>
   <si>
-    <t>250tl yatırım. Maks 1250tl çekim</t>
-  </si>
-  <si>
     <t>ronabet</t>
   </si>
   <si>
@@ -1393,21 +1228,12 @@
     <t>slotday</t>
   </si>
   <si>
-    <t>slotdünyası</t>
-  </si>
-  <si>
     <t>Min 1 adet yatırım. Maks 500tl çekim</t>
   </si>
   <si>
     <t>slotella</t>
   </si>
   <si>
-    <t>slotpin</t>
-  </si>
-  <si>
-    <t>250 yatırımlı. Maks 1k çekim</t>
-  </si>
-  <si>
     <t>slotsaray</t>
   </si>
   <si>
@@ -1432,9 +1258,6 @@
     <t>spinco</t>
   </si>
   <si>
-    <t>100tl yatırım. Maks 1k çekim</t>
-  </si>
-  <si>
     <t>spinvbet</t>
   </si>
   <si>
@@ -1447,9 +1270,6 @@
     <t>Maks 750tl çekim</t>
   </si>
   <si>
-    <t>stonebahis</t>
-  </si>
-  <si>
     <t>superbet</t>
   </si>
   <si>
@@ -1462,9 +1282,6 @@
     <t>tambet</t>
   </si>
   <si>
-    <t>tarabet</t>
-  </si>
-  <si>
     <t>tarafbet</t>
   </si>
   <si>
@@ -1489,9 +1306,6 @@
     <t>tiosbet</t>
   </si>
   <si>
-    <t>Maks 20k çekim</t>
-  </si>
-  <si>
     <t>tipobet</t>
   </si>
   <si>
@@ -1510,9 +1324,6 @@
     <t>500tl yatırımlı. Maks 1k çelim</t>
   </si>
   <si>
-    <t>totembet</t>
-  </si>
-  <si>
     <t>trinkbet</t>
   </si>
   <si>
@@ -1531,15 +1342,9 @@
     <t>ultrabet</t>
   </si>
   <si>
-    <t>1k yatırım maks 5k çekim</t>
-  </si>
-  <si>
     <t>ultraslot</t>
   </si>
   <si>
-    <t>Maks 150$ çekim</t>
-  </si>
-  <si>
     <t>vegabet</t>
   </si>
   <si>
@@ -1555,9 +1360,6 @@
     <t>verabet</t>
   </si>
   <si>
-    <t>500tl yatırımlım. Maks 1k çekim</t>
-  </si>
-  <si>
     <t>vevobahis</t>
   </si>
   <si>
@@ -1567,9 +1369,6 @@
     <t>virabet</t>
   </si>
   <si>
-    <t>1k yatırımlı. Anapara çevrimi sonrası sınırsız</t>
-  </si>
-  <si>
     <t>vitrinbet</t>
   </si>
   <si>
@@ -1606,9 +1405,6 @@
     <t>yoncabet</t>
   </si>
   <si>
-    <t>500tl yatırımlı. Maks 750tl çekim</t>
-  </si>
-  <si>
     <t>zbahis</t>
   </si>
   <si>
@@ -1621,12 +1417,6 @@
     <t>zenbet</t>
   </si>
   <si>
-    <t>zenginsin</t>
-  </si>
-  <si>
-    <t>Maks 15k çekim</t>
-  </si>
-  <si>
     <t>zirvebet</t>
   </si>
   <si>
@@ -1691,6 +1481,312 @@
   </si>
   <si>
     <t>leograndbet</t>
+  </si>
+  <si>
+    <t>ajaxbet</t>
+  </si>
+  <si>
+    <t>alevcasino</t>
+  </si>
+  <si>
+    <t>almanbahis</t>
+  </si>
+  <si>
+    <t>2k yatırım. Maks 5k çekim</t>
+  </si>
+  <si>
+    <t>antikbet</t>
+  </si>
+  <si>
+    <t>anubisbet</t>
+  </si>
+  <si>
+    <t>500tl yatırımlı. Maks 3k çekim</t>
+  </si>
+  <si>
+    <t>bahix</t>
+  </si>
+  <si>
+    <t>barbibet</t>
+  </si>
+  <si>
+    <t>bayspin</t>
+  </si>
+  <si>
+    <t>250tl yatırımlı. Maks 500tl çekim. Ana para ile devam.</t>
+  </si>
+  <si>
+    <t>benjaminsbet</t>
+  </si>
+  <si>
+    <t>betador</t>
+  </si>
+  <si>
+    <t>betenerji</t>
+  </si>
+  <si>
+    <t>1k yatırımlı. Maks 10k çekim</t>
+  </si>
+  <si>
+    <t>Çekim tutarının yarısı kadar yatırım. Maks 10k çekim</t>
+  </si>
+  <si>
+    <t>2.5k yatırımlı Maks 3.5k çekim</t>
+  </si>
+  <si>
+    <t>betgamon</t>
+  </si>
+  <si>
+    <t>100tl yatırımlı. Maks 500tl çekim. Ana para ile devam.</t>
+  </si>
+  <si>
+    <t>betifa</t>
+  </si>
+  <si>
+    <t>betine</t>
+  </si>
+  <si>
+    <t>betiveria</t>
+  </si>
+  <si>
+    <t>300tl yatırımlı. Maks 500tl çekim</t>
+  </si>
+  <si>
+    <t>betlesene</t>
+  </si>
+  <si>
+    <t>betlist</t>
+  </si>
+  <si>
+    <t>2fa bonusu. Bonus tutarının maks 25 katı çekim</t>
+  </si>
+  <si>
+    <t>betorspin</t>
+  </si>
+  <si>
+    <t>300tl yatırımlı. Maks 500tl çekim. Anapara ile devam</t>
+  </si>
+  <si>
+    <t>betplay</t>
+  </si>
+  <si>
+    <t>%2 si kadar yatırım. 5k ve katlarında %10 çekim</t>
+  </si>
+  <si>
+    <t>betrout</t>
+  </si>
+  <si>
+    <t>bircasino</t>
+  </si>
+  <si>
+    <t>bydcasino</t>
+  </si>
+  <si>
+    <t>1k yatırımlı. Min anaparanın 10 katı maks sınır yok</t>
+  </si>
+  <si>
+    <t>casinocadde</t>
+  </si>
+  <si>
+    <t>500tl yatırımlı. Min anaparanın 10 katı maks sınır yok</t>
+  </si>
+  <si>
+    <t>cassinojuno</t>
+  </si>
+  <si>
+    <t>500tl yatırımlı. Maks 2k çekim</t>
+  </si>
+  <si>
+    <t>min 500tl maks 1k yatırımlı. Maks 2k çekim</t>
+  </si>
+  <si>
+    <t>casipot</t>
+  </si>
+  <si>
+    <t>casivera</t>
+  </si>
+  <si>
+    <t>Maks 600tl çekim</t>
+  </si>
+  <si>
+    <t>darkbet</t>
+  </si>
+  <si>
+    <t>500tl yatırımlı. Maks 500tl çekim. Ana para ile devam</t>
+  </si>
+  <si>
+    <t>ebitbet</t>
+  </si>
+  <si>
+    <t>Çekim miktarının yarısı kadar yatırım. Maks sınır yok.</t>
+  </si>
+  <si>
+    <t>eforbet</t>
+  </si>
+  <si>
+    <t>efsanebahis</t>
+  </si>
+  <si>
+    <t>1k yatırımlı. Maks 1k çekim. Ana para ile devam.</t>
+  </si>
+  <si>
+    <t>fashionbet</t>
+  </si>
+  <si>
+    <t>galabet</t>
+  </si>
+  <si>
+    <t>galacasino</t>
+  </si>
+  <si>
+    <t>1k yatırımlı. Maks çekim sınırı yok.</t>
+  </si>
+  <si>
+    <t>galaxybetting</t>
+  </si>
+  <si>
+    <t>gambi</t>
+  </si>
+  <si>
+    <t>500tl yatırımlı. Maks 750tl çekim. Anapara kazanç sınırı yok.</t>
+  </si>
+  <si>
+    <t>hepbet</t>
+  </si>
+  <si>
+    <t>Telegram ve 2fa bonusu fs kazancının maks 25katı çekim</t>
+  </si>
+  <si>
+    <t>ilkbahis</t>
+  </si>
+  <si>
+    <t>inbahis</t>
+  </si>
+  <si>
+    <t>jasminbet</t>
+  </si>
+  <si>
+    <t>kalebet</t>
+  </si>
+  <si>
+    <t>lasvegas</t>
+  </si>
+  <si>
+    <t>maxroyalcasino</t>
+  </si>
+  <si>
+    <t>meritroyalcasino</t>
+  </si>
+  <si>
+    <t>meritwin</t>
+  </si>
+  <si>
+    <t>milyonluk</t>
+  </si>
+  <si>
+    <t>Min 500tl yatırım. Maks 1k çekim</t>
+  </si>
+  <si>
+    <t>napolyonbet</t>
+  </si>
+  <si>
+    <t>2k yatırımlı. Maks 5k çekim</t>
+  </si>
+  <si>
+    <t>noktabet</t>
+  </si>
+  <si>
+    <t>norabahis</t>
+  </si>
+  <si>
+    <t>Sms aktifleştirme bonusu. Maks 1k çekim</t>
+  </si>
+  <si>
+    <t>orisbet</t>
+  </si>
+  <si>
+    <t>350tl yatırımlı. Maks 650tl çekim</t>
+  </si>
+  <si>
+    <t>pekinbet</t>
+  </si>
+  <si>
+    <t>100tlk yatırımlı. Maks 300tl çekim</t>
+  </si>
+  <si>
+    <t>1k yatırımlı. Maks kazanç sınırı yok.</t>
+  </si>
+  <si>
+    <t>250tl yatırımlı. Maks 1k çekim. Anapara ile devam.</t>
+  </si>
+  <si>
+    <t>100tl yatırım. Maks 200tl çekim. Anapara ile devam</t>
+  </si>
+  <si>
+    <t>royalgardenbet</t>
+  </si>
+  <si>
+    <t>sefirbet</t>
+  </si>
+  <si>
+    <t>3k yatırımlı. Maks 3k+anapara çekim</t>
+  </si>
+  <si>
+    <t>sheratonking</t>
+  </si>
+  <si>
+    <t>slotbaba</t>
+  </si>
+  <si>
+    <t>200tl yatırımlı 500tl çekim. Anapara ile devam</t>
+  </si>
+  <si>
+    <t>slotdunyası</t>
+  </si>
+  <si>
+    <t>slotin</t>
+  </si>
+  <si>
+    <t>250tl yatırımlı. Maks 750tl çekim</t>
+  </si>
+  <si>
+    <t>superbetin</t>
+  </si>
+  <si>
+    <t>suprabahis</t>
+  </si>
+  <si>
+    <t>1.5k yatırımlı. Maks 2k çekim</t>
+  </si>
+  <si>
+    <t>Çekim miktarı kadar yatırımlı. Maks 20k çekim</t>
+  </si>
+  <si>
+    <t>tofasbet</t>
+  </si>
+  <si>
+    <t>trbet</t>
+  </si>
+  <si>
+    <t>5k yatırımlı. Maks 5k+anapara çekim</t>
+  </si>
+  <si>
+    <t>Çekim kadar yatırımlı. Maks 3k çekim</t>
+  </si>
+  <si>
+    <t>Çekim kadar yatırımlı. Maks 2k çekim</t>
+  </si>
+  <si>
+    <t>1k yatırımlı. Maks sınırı yok.</t>
+  </si>
+  <si>
+    <t>voinbet</t>
+  </si>
+  <si>
+    <t>zlot</t>
+  </si>
+  <si>
+    <t>250tl yatırımlı. 500tl çekim. Anapara ile devam</t>
   </si>
 </sst>
 </file>
@@ -2569,40 +2665,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F56ED3D-A3F2-450D-9EAE-1214C3EA2069}">
-  <dimension ref="A1:D419"/>
+  <dimension ref="A1:D450"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E403" sqref="E403"/>
+      <pane ySplit="1" topLeftCell="A434" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B446" sqref="B446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="56.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>536</v>
+        <v>466</v>
       </c>
       <c r="B1" t="s">
-        <v>537</v>
+        <v>467</v>
       </c>
       <c r="C1" t="s">
-        <v>538</v>
+        <v>468</v>
       </c>
       <c r="D1" t="s">
-        <v>540</v>
+        <v>470</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>486</v>
       </c>
       <c r="B2" t="s">
-        <v>473</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -2616,40 +2712,40 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>487</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>541</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>488</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>489</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
@@ -2657,145 +2753,142 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>490</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>491</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" t="s">
-        <v>541</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
         <v>2</v>
@@ -2803,54 +2896,57 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
         <v>2</v>
@@ -2858,21 +2954,21 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>492</v>
       </c>
       <c r="C26" t="s">
         <v>2</v>
@@ -2880,54 +2976,54 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="C27" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C31" t="s">
         <v>2</v>
@@ -2935,299 +3031,299 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>493</v>
+      </c>
+      <c r="B33" t="s">
+        <v>112</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>494</v>
+      </c>
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>47</v>
       </c>
-      <c r="B32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B38" t="s">
         <v>48</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>495</v>
+      </c>
+      <c r="B39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>49</v>
       </c>
-      <c r="C33" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B40" t="s">
+        <v>496</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>50</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>51</v>
       </c>
-      <c r="C34" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>52</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="B42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>53</v>
       </c>
-      <c r="C35" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="B43" t="s">
         <v>54</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>497</v>
+      </c>
+      <c r="B44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>55</v>
       </c>
-      <c r="C36" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="B45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>56</v>
       </c>
-      <c r="B37" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="B46" t="s">
         <v>57</v>
       </c>
-      <c r="B38" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="C46" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>58</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B47" t="s">
         <v>59</v>
       </c>
-      <c r="C39" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>60</v>
-      </c>
-      <c r="B40" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>62</v>
-      </c>
-      <c r="B41" t="s">
-        <v>14</v>
-      </c>
-      <c r="C41" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>63</v>
-      </c>
-      <c r="B42" t="s">
-        <v>64</v>
-      </c>
-      <c r="C42" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>65</v>
-      </c>
-      <c r="B43" t="s">
-        <v>66</v>
-      </c>
-      <c r="C43" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>67</v>
-      </c>
-      <c r="B44" t="s">
-        <v>68</v>
-      </c>
-      <c r="C44" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>69</v>
-      </c>
-      <c r="B45" t="s">
-        <v>70</v>
-      </c>
-      <c r="C45" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>71</v>
-      </c>
-      <c r="B46" t="s">
-        <v>26</v>
-      </c>
-      <c r="C46" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>72</v>
-      </c>
-      <c r="B47" t="s">
-        <v>14</v>
-      </c>
       <c r="C47" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>73</v>
+        <v>498</v>
       </c>
       <c r="B48" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="C48" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="D48" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B49" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="C49" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B50" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="C50" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B51" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="C51" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="B52" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="B53" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="C53" t="s">
         <v>2</v>
-      </c>
-      <c r="D53" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B54" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="B55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B56" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C56" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="B57" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C57" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>88</v>
+        <v>499</v>
       </c>
       <c r="B58" t="s">
-        <v>18</v>
+        <v>500</v>
       </c>
       <c r="C58" t="s">
         <v>2</v>
@@ -3235,90 +3331,90 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="B59" t="s">
-        <v>90</v>
+        <v>501</v>
       </c>
       <c r="C59" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="D59" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="B60" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="C60" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="B61" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="C61" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="B62" t="s">
-        <v>96</v>
+        <v>502</v>
       </c>
       <c r="C62" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>97</v>
+        <v>503</v>
       </c>
       <c r="B63" t="s">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="C63" t="s">
-        <v>5</v>
-      </c>
-      <c r="D63" t="s">
-        <v>541</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="B64" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="C64" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="B65" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C65" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="B66" t="s">
-        <v>14</v>
+        <v>504</v>
       </c>
       <c r="C66" t="s">
         <v>2</v>
@@ -3326,32 +3422,32 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="B67" t="s">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="C67" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="B68" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="C68" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>106</v>
+        <v>505</v>
       </c>
       <c r="B69" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="C69" t="s">
         <v>2</v>
@@ -3359,10 +3455,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="B70" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="C70" t="s">
         <v>2</v>
@@ -3370,10 +3466,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>108</v>
+        <v>506</v>
       </c>
       <c r="B71" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="C71" t="s">
         <v>2</v>
@@ -3381,10 +3477,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>109</v>
+        <v>507</v>
       </c>
       <c r="B72" t="s">
-        <v>14</v>
+        <v>508</v>
       </c>
       <c r="C72" t="s">
         <v>2</v>
@@ -3392,43 +3488,43 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="B73" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="C73" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="B74" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C74" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="B75" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="C75" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="B76" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="C76" t="s">
         <v>2</v>
@@ -3436,120 +3532,120 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="B77" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C77" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="B78" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C78" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="B79" t="s">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="C79" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>120</v>
+        <v>509</v>
       </c>
       <c r="B80" t="s">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c r="C80" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="B81" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="C81" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>123</v>
+        <v>510</v>
       </c>
       <c r="B82" t="s">
-        <v>124</v>
+        <v>11</v>
       </c>
       <c r="C82" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="B83" t="s">
-        <v>126</v>
+        <v>11</v>
       </c>
       <c r="C83" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="B84" t="s">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="C84" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="B85" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="C85" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="B86" t="s">
-        <v>132</v>
+        <v>11</v>
       </c>
       <c r="C86" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="B87" t="s">
-        <v>18</v>
+        <v>332</v>
       </c>
       <c r="C87" t="s">
         <v>2</v>
@@ -3557,21 +3653,21 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="B88" t="s">
-        <v>135</v>
+        <v>15</v>
       </c>
       <c r="C88" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="B89" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="C89" t="s">
         <v>2</v>
@@ -3579,10 +3675,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="B90" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="C90" t="s">
         <v>2</v>
@@ -3590,21 +3686,21 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="B91" t="s">
-        <v>140</v>
+        <v>511</v>
       </c>
       <c r="C91" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>141</v>
+        <v>512</v>
       </c>
       <c r="B92" t="s">
-        <v>18</v>
+        <v>513</v>
       </c>
       <c r="C92" t="s">
         <v>2</v>
@@ -3612,43 +3708,43 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="B93" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="C93" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="B94" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="C94" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="B95" t="s">
-        <v>145</v>
+        <v>15</v>
       </c>
       <c r="C95" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="B96" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="C96" t="s">
         <v>2</v>
@@ -3656,32 +3752,32 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="B97" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C97" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="B98" t="s">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="C98" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="B99" t="s">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="C99" t="s">
         <v>2</v>
@@ -3689,10 +3785,10 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>151</v>
+        <v>514</v>
       </c>
       <c r="B100" t="s">
-        <v>80</v>
+        <v>515</v>
       </c>
       <c r="C100" t="s">
         <v>2</v>
@@ -3700,24 +3796,21 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="B101" t="s">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="C101" t="s">
-        <v>5</v>
-      </c>
-      <c r="D101" t="s">
-        <v>541</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="B102" t="s">
-        <v>154</v>
+        <v>81</v>
       </c>
       <c r="C102" t="s">
         <v>2</v>
@@ -3725,10 +3818,10 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="B103" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="C103" t="s">
         <v>2</v>
@@ -3736,21 +3829,21 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>156</v>
+        <v>516</v>
       </c>
       <c r="B104" t="s">
-        <v>157</v>
+        <v>489</v>
       </c>
       <c r="C104" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="B105" t="s">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="C105" t="s">
         <v>2</v>
@@ -3758,211 +3851,211 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="B106" t="s">
-        <v>16</v>
+        <v>129</v>
       </c>
       <c r="C106" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="B107" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C107" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="B108" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C108" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="B109" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C109" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="B110" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C110" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="B111" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="C111" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="D111" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="B112" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="C112" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="B113" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C113" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="B114" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C114" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="B115" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="C115" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>545</v>
+        <v>140</v>
       </c>
       <c r="B116" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C116" t="s">
-        <v>2</v>
-      </c>
-      <c r="D116" t="s">
-        <v>541</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="B117" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C117" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="B118" t="s">
-        <v>171</v>
+        <v>23</v>
       </c>
       <c r="C118" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="B119" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="C119" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="B120" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C120" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="B121" t="s">
-        <v>132</v>
+        <v>11</v>
       </c>
       <c r="C121" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="B122" t="s">
-        <v>176</v>
+        <v>15</v>
       </c>
       <c r="C122" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="B123" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="C123" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="B124" t="s">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="C124" t="s">
         <v>2</v>
@@ -3970,21 +4063,24 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>179</v>
+        <v>475</v>
       </c>
       <c r="B125" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="C125" t="s">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="D125" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>180</v>
+        <v>517</v>
       </c>
       <c r="B126" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="C126" t="s">
         <v>2</v>
@@ -3992,24 +4088,21 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>554</v>
+        <v>149</v>
       </c>
       <c r="B127" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C127" t="s">
-        <v>2</v>
-      </c>
-      <c r="D127" t="s">
-        <v>541</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="B128" t="s">
-        <v>18</v>
+        <v>151</v>
       </c>
       <c r="C128" t="s">
         <v>2</v>
@@ -4017,21 +4110,21 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="B129" t="s">
-        <v>183</v>
+        <v>11</v>
       </c>
       <c r="C129" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>184</v>
+        <v>153</v>
       </c>
       <c r="B130" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="C130" t="s">
         <v>2</v>
@@ -4039,10 +4132,10 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>185</v>
+        <v>154</v>
       </c>
       <c r="B131" t="s">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="C131" t="s">
         <v>2</v>
@@ -4050,60 +4143,54 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>186</v>
+        <v>518</v>
       </c>
       <c r="B132" t="s">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="C132" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>187</v>
+        <v>155</v>
       </c>
       <c r="B133" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="C133" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>543</v>
+        <v>157</v>
       </c>
       <c r="B134" t="s">
-        <v>18</v>
+        <v>156</v>
       </c>
       <c r="C134" t="s">
-        <v>2</v>
-      </c>
-      <c r="D134" t="s">
-        <v>541</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="B135" t="s">
-        <v>26</v>
+        <v>156</v>
       </c>
       <c r="C135" t="s">
-        <v>5</v>
-      </c>
-      <c r="D135" t="s">
-        <v>541</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="B136" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="C136" t="s">
         <v>2</v>
@@ -4111,49 +4198,46 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>191</v>
+        <v>160</v>
       </c>
       <c r="B137" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="C137" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>539</v>
+        <v>484</v>
       </c>
       <c r="B138" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C138" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D138" t="s">
-        <v>541</v>
+        <v>471</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>544</v>
+        <v>161</v>
       </c>
       <c r="B139" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C139" t="s">
-        <v>2</v>
-      </c>
-      <c r="D139" t="s">
-        <v>541</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="B140" t="s">
-        <v>18</v>
+        <v>519</v>
       </c>
       <c r="C140" t="s">
         <v>2</v>
@@ -4161,115 +4245,118 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="B141" t="s">
-        <v>194</v>
+        <v>15</v>
       </c>
       <c r="C141" t="s">
-        <v>5</v>
-      </c>
-      <c r="D141" t="s">
-        <v>541</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>195</v>
+        <v>520</v>
       </c>
       <c r="B142" t="s">
-        <v>196</v>
+        <v>521</v>
       </c>
       <c r="C142" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>197</v>
+        <v>164</v>
       </c>
       <c r="B143" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C143" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>198</v>
+        <v>522</v>
       </c>
       <c r="B144" t="s">
-        <v>199</v>
+        <v>15</v>
       </c>
       <c r="C144" t="s">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="D144" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>200</v>
+        <v>165</v>
       </c>
       <c r="B145" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C145" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>547</v>
+        <v>166</v>
       </c>
       <c r="B146" t="s">
-        <v>39</v>
+        <v>167</v>
       </c>
       <c r="C146" t="s">
         <v>2</v>
-      </c>
-      <c r="D146" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>201</v>
+        <v>473</v>
       </c>
       <c r="B147" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C147" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D147" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>202</v>
+        <v>168</v>
       </c>
       <c r="B148" t="s">
-        <v>203</v>
+        <v>524</v>
       </c>
       <c r="C148" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="D148" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>204</v>
+        <v>169</v>
       </c>
       <c r="B149" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C149" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>205</v>
+        <v>170</v>
       </c>
       <c r="B150" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="C150" t="s">
         <v>2</v>
@@ -4277,98 +4364,107 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>206</v>
+        <v>525</v>
       </c>
       <c r="B151" t="s">
-        <v>114</v>
+        <v>11</v>
       </c>
       <c r="C151" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>207</v>
+        <v>469</v>
       </c>
       <c r="B152" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C152" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D152" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>208</v>
+        <v>474</v>
       </c>
       <c r="B153" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C153" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D153" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>209</v>
+        <v>171</v>
       </c>
       <c r="B154" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C154" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>210</v>
+        <v>526</v>
       </c>
       <c r="B155" t="s">
-        <v>211</v>
+        <v>11</v>
       </c>
       <c r="C155" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="B156" t="s">
-        <v>14</v>
+        <v>173</v>
       </c>
       <c r="C156" t="s">
         <v>2</v>
+      </c>
+      <c r="D156" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="B157" t="s">
-        <v>214</v>
+        <v>285</v>
       </c>
       <c r="C157" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>215</v>
+        <v>175</v>
       </c>
       <c r="B158" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C158" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>216</v>
+        <v>176</v>
       </c>
       <c r="B159" t="s">
-        <v>18</v>
+        <v>177</v>
       </c>
       <c r="C159" t="s">
         <v>2</v>
@@ -4376,10 +4472,10 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>217</v>
+        <v>178</v>
       </c>
       <c r="B160" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C160" t="s">
         <v>2</v>
@@ -4387,131 +4483,140 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>218</v>
+        <v>477</v>
       </c>
       <c r="B161" t="s">
-        <v>219</v>
+        <v>35</v>
       </c>
       <c r="C161" t="s">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="D161" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="B162" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C162" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>221</v>
+        <v>180</v>
       </c>
       <c r="B163" t="s">
-        <v>49</v>
+        <v>527</v>
       </c>
       <c r="C163" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>222</v>
+        <v>528</v>
       </c>
       <c r="B164" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C164" t="s">
         <v>2</v>
+      </c>
+      <c r="D164" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>223</v>
+        <v>181</v>
       </c>
       <c r="B165" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C165" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>224</v>
+        <v>184</v>
       </c>
       <c r="B166" t="s">
-        <v>225</v>
+        <v>529</v>
       </c>
       <c r="C166" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="D166" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>226</v>
+        <v>182</v>
       </c>
       <c r="B167" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="C167" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>227</v>
+        <v>183</v>
       </c>
       <c r="B168" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="C168" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>228</v>
+        <v>184</v>
       </c>
       <c r="B169" t="s">
-        <v>229</v>
+        <v>13</v>
       </c>
       <c r="C169" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>230</v>
+        <v>185</v>
       </c>
       <c r="B170" t="s">
-        <v>96</v>
+        <v>15</v>
       </c>
       <c r="C170" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>231</v>
+        <v>186</v>
       </c>
       <c r="B171" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C171" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>232</v>
+        <v>530</v>
       </c>
       <c r="B172" t="s">
-        <v>18</v>
+        <v>531</v>
       </c>
       <c r="C172" t="s">
         <v>2</v>
@@ -4519,10 +4624,10 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>233</v>
+        <v>187</v>
       </c>
       <c r="B173" t="s">
-        <v>18</v>
+        <v>188</v>
       </c>
       <c r="C173" t="s">
         <v>2</v>
@@ -4530,90 +4635,90 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>550</v>
+        <v>189</v>
       </c>
       <c r="B174" t="s">
-        <v>551</v>
+        <v>11</v>
       </c>
       <c r="C174" t="s">
-        <v>2</v>
-      </c>
-      <c r="D174" t="s">
-        <v>541</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>234</v>
+        <v>532</v>
       </c>
       <c r="B175" t="s">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="C175" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>235</v>
+        <v>533</v>
       </c>
       <c r="B176" t="s">
-        <v>14</v>
+        <v>534</v>
       </c>
       <c r="C176" t="s">
         <v>2</v>
+      </c>
+      <c r="D176" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>236</v>
+        <v>190</v>
       </c>
       <c r="B177" t="s">
-        <v>237</v>
+        <v>15</v>
       </c>
       <c r="C177" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>238</v>
+        <v>191</v>
       </c>
       <c r="B178" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C178" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>239</v>
+        <v>192</v>
       </c>
       <c r="B179" t="s">
-        <v>240</v>
+        <v>15</v>
       </c>
       <c r="C179" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>241</v>
+        <v>193</v>
       </c>
       <c r="B180" t="s">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="C180" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>242</v>
+        <v>194</v>
       </c>
       <c r="B181" t="s">
-        <v>39</v>
+        <v>195</v>
       </c>
       <c r="C181" t="s">
         <v>2</v>
@@ -4621,21 +4726,21 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>243</v>
+        <v>196</v>
       </c>
       <c r="B182" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C182" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>244</v>
+        <v>197</v>
       </c>
       <c r="B183" t="s">
-        <v>229</v>
+        <v>44</v>
       </c>
       <c r="C183" t="s">
         <v>2</v>
@@ -4643,338 +4748,338 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>245</v>
+        <v>198</v>
       </c>
       <c r="B184" t="s">
-        <v>246</v>
+        <v>372</v>
       </c>
       <c r="C184" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>247</v>
+        <v>199</v>
       </c>
       <c r="B185" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="C185" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>248</v>
+        <v>535</v>
       </c>
       <c r="B186" t="s">
-        <v>249</v>
+        <v>11</v>
       </c>
       <c r="C186" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="B187" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="C187" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="B188" t="s">
-        <v>252</v>
+        <v>202</v>
       </c>
       <c r="C188" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>549</v>
+        <v>203</v>
       </c>
       <c r="B189" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>2</v>
-      </c>
-      <c r="D189" t="s">
-        <v>541</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>253</v>
+        <v>204</v>
       </c>
       <c r="B190" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C190" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>254</v>
+        <v>205</v>
       </c>
       <c r="B191" t="s">
-        <v>255</v>
+        <v>15</v>
       </c>
       <c r="C191" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>256</v>
+        <v>480</v>
       </c>
       <c r="B192" t="s">
-        <v>257</v>
+        <v>481</v>
       </c>
       <c r="C192" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D192" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>258</v>
+        <v>206</v>
       </c>
       <c r="B193" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="C193" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>259</v>
+        <v>207</v>
       </c>
       <c r="B194" t="s">
-        <v>260</v>
+        <v>11</v>
       </c>
       <c r="C194" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>261</v>
+        <v>208</v>
       </c>
       <c r="B195" t="s">
-        <v>11</v>
+        <v>209</v>
       </c>
       <c r="C195" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>262</v>
+        <v>536</v>
       </c>
       <c r="B196" t="s">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="C196" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>263</v>
+        <v>537</v>
       </c>
       <c r="B197" t="s">
-        <v>264</v>
+        <v>538</v>
       </c>
       <c r="C197" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>265</v>
+        <v>539</v>
       </c>
       <c r="B198" t="s">
-        <v>266</v>
+        <v>11</v>
       </c>
       <c r="C198" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D198" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>267</v>
+        <v>210</v>
       </c>
       <c r="B199" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C199" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>268</v>
+        <v>211</v>
       </c>
       <c r="B200" t="s">
-        <v>14</v>
+        <v>212</v>
       </c>
       <c r="C200" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>269</v>
+        <v>540</v>
       </c>
       <c r="B201" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C201" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>270</v>
+        <v>213</v>
       </c>
       <c r="B202" t="s">
-        <v>271</v>
+        <v>86</v>
       </c>
       <c r="C202" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>272</v>
+        <v>214</v>
       </c>
       <c r="B203" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C203" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>273</v>
+        <v>215</v>
       </c>
       <c r="B204" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C204" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>274</v>
+        <v>216</v>
       </c>
       <c r="B205" t="s">
-        <v>275</v>
+        <v>23</v>
       </c>
       <c r="C205" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>276</v>
+        <v>217</v>
       </c>
       <c r="B206" t="s">
-        <v>277</v>
+        <v>86</v>
       </c>
       <c r="C206" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>278</v>
+        <v>218</v>
       </c>
       <c r="B207" t="s">
-        <v>279</v>
+        <v>219</v>
       </c>
       <c r="C207" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="B208" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C208" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>281</v>
+        <v>221</v>
       </c>
       <c r="B209" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="C209" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>282</v>
+        <v>479</v>
       </c>
       <c r="B210" t="s">
-        <v>283</v>
+        <v>44</v>
       </c>
       <c r="C210" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D210" t="s">
-        <v>541</v>
+        <v>471</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>284</v>
+        <v>222</v>
       </c>
       <c r="B211" t="s">
-        <v>285</v>
+        <v>11</v>
       </c>
       <c r="C211" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>286</v>
+        <v>223</v>
       </c>
       <c r="B212" t="s">
-        <v>14</v>
+        <v>224</v>
       </c>
       <c r="C212" t="s">
         <v>2</v>
-      </c>
-      <c r="D212" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>287</v>
+        <v>225</v>
       </c>
       <c r="B213" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="C213" t="s">
         <v>2</v>
@@ -4982,21 +5087,21 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>288</v>
+        <v>226</v>
       </c>
       <c r="B214" t="s">
-        <v>289</v>
+        <v>11</v>
       </c>
       <c r="C214" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>290</v>
+        <v>227</v>
       </c>
       <c r="B215" t="s">
-        <v>18</v>
+        <v>541</v>
       </c>
       <c r="C215" t="s">
         <v>2</v>
@@ -5004,21 +5109,21 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>291</v>
+        <v>228</v>
       </c>
       <c r="B216" t="s">
-        <v>14</v>
+        <v>292</v>
       </c>
       <c r="C216" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>292</v>
+        <v>229</v>
       </c>
       <c r="B217" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="C217" t="s">
         <v>2</v>
@@ -5026,137 +5131,131 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>293</v>
+        <v>230</v>
       </c>
       <c r="B218" t="s">
-        <v>255</v>
+        <v>105</v>
       </c>
       <c r="C218" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>294</v>
+        <v>231</v>
       </c>
       <c r="B219" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="C219" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>295</v>
+        <v>542</v>
       </c>
       <c r="B220" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="C220" t="s">
-        <v>2</v>
-      </c>
-      <c r="D220" t="s">
-        <v>541</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>548</v>
+        <v>232</v>
       </c>
       <c r="B221" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C221" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>296</v>
+        <v>233</v>
       </c>
       <c r="B222" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C222" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>297</v>
+        <v>234</v>
       </c>
       <c r="B223" t="s">
-        <v>96</v>
+        <v>15</v>
       </c>
       <c r="C223" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>298</v>
+        <v>235</v>
       </c>
       <c r="B224" t="s">
-        <v>90</v>
+        <v>236</v>
       </c>
       <c r="C224" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>299</v>
+        <v>237</v>
       </c>
       <c r="B225" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C225" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>300</v>
+        <v>238</v>
       </c>
       <c r="B226" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C226" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>301</v>
+        <v>239</v>
       </c>
       <c r="B227" t="s">
-        <v>18</v>
+        <v>240</v>
       </c>
       <c r="C227" t="s">
-        <v>2</v>
-      </c>
-      <c r="D227" t="s">
-        <v>541</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>302</v>
+        <v>241</v>
       </c>
       <c r="B228" t="s">
-        <v>303</v>
+        <v>543</v>
       </c>
       <c r="C228" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>304</v>
+        <v>242</v>
       </c>
       <c r="B229" t="s">
-        <v>14</v>
+        <v>243</v>
       </c>
       <c r="C229" t="s">
         <v>2</v>
@@ -5164,21 +5263,21 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>305</v>
+        <v>244</v>
       </c>
       <c r="B230" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C230" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>306</v>
+        <v>245</v>
       </c>
       <c r="B231" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="C231" t="s">
         <v>2</v>
@@ -5186,90 +5285,93 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>307</v>
+        <v>246</v>
       </c>
       <c r="B232" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="C232" t="s">
         <v>2</v>
       </c>
       <c r="D232" t="s">
-        <v>541</v>
+        <v>471</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>308</v>
+        <v>247</v>
       </c>
       <c r="B233" t="s">
-        <v>309</v>
+        <v>248</v>
       </c>
       <c r="C233" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>310</v>
+        <v>249</v>
       </c>
       <c r="B234" t="s">
-        <v>311</v>
+        <v>11</v>
       </c>
       <c r="C234" t="s">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="D234" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>312</v>
+        <v>250</v>
       </c>
       <c r="B235" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C235" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>313</v>
+        <v>251</v>
       </c>
       <c r="B236" t="s">
-        <v>14</v>
+        <v>252</v>
       </c>
       <c r="C236" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>314</v>
+        <v>253</v>
       </c>
       <c r="B237" t="s">
-        <v>315</v>
+        <v>15</v>
       </c>
       <c r="C237" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>316</v>
+        <v>254</v>
       </c>
       <c r="B238" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C238" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>317</v>
+        <v>544</v>
       </c>
       <c r="B239" t="s">
-        <v>18</v>
+        <v>224</v>
       </c>
       <c r="C239" t="s">
         <v>2</v>
@@ -5277,921 +5379,930 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>318</v>
+        <v>255</v>
       </c>
       <c r="B240" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C240" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>319</v>
+        <v>545</v>
       </c>
       <c r="B241" t="s">
-        <v>320</v>
+        <v>11</v>
       </c>
       <c r="C241" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>321</v>
+        <v>256</v>
       </c>
       <c r="B242" t="s">
-        <v>130</v>
+        <v>224</v>
       </c>
       <c r="C242" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>555</v>
+        <v>257</v>
       </c>
       <c r="B243" t="s">
-        <v>14</v>
+        <v>243</v>
       </c>
       <c r="C243" t="s">
         <v>2</v>
-      </c>
-      <c r="D243" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>322</v>
+        <v>258</v>
       </c>
       <c r="B244" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C244" t="s">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="D244" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>323</v>
+        <v>478</v>
       </c>
       <c r="B245" t="s">
-        <v>324</v>
+        <v>15</v>
       </c>
       <c r="C245" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>325</v>
+        <v>259</v>
       </c>
       <c r="B246" t="s">
-        <v>326</v>
+        <v>15</v>
       </c>
       <c r="C246" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>327</v>
+        <v>260</v>
       </c>
       <c r="B247" t="s">
-        <v>328</v>
+        <v>86</v>
       </c>
       <c r="C247" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="B248" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C248" t="s">
-        <v>2</v>
-      </c>
-      <c r="D248" t="s">
-        <v>541</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>329</v>
+        <v>261</v>
       </c>
       <c r="B249" t="s">
-        <v>315</v>
+        <v>11</v>
       </c>
       <c r="C249" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>330</v>
+        <v>262</v>
       </c>
       <c r="B250" t="s">
-        <v>331</v>
+        <v>13</v>
       </c>
       <c r="C250" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>332</v>
+        <v>263</v>
       </c>
       <c r="B251" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C251" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D251" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>333</v>
+        <v>547</v>
       </c>
       <c r="B252" t="s">
-        <v>334</v>
+        <v>11</v>
       </c>
       <c r="C252" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>335</v>
+        <v>264</v>
       </c>
       <c r="B253" t="s">
-        <v>85</v>
+        <v>265</v>
       </c>
       <c r="C253" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>336</v>
+        <v>266</v>
       </c>
       <c r="B254" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C254" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>337</v>
+        <v>267</v>
       </c>
       <c r="B255" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="C255" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
+        <v>268</v>
+      </c>
+      <c r="B256" t="s">
+        <v>105</v>
+      </c>
+      <c r="C256" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>269</v>
+      </c>
+      <c r="B257" t="s">
+        <v>11</v>
+      </c>
+      <c r="C257" t="s">
+        <v>1</v>
+      </c>
+      <c r="D257" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>270</v>
+      </c>
+      <c r="B258" t="s">
+        <v>271</v>
+      </c>
+      <c r="C258" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>272</v>
+      </c>
+      <c r="B259" t="s">
+        <v>273</v>
+      </c>
+      <c r="C259" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>274</v>
+      </c>
+      <c r="B260" t="s">
+        <v>11</v>
+      </c>
+      <c r="C260" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>275</v>
+      </c>
+      <c r="B261" t="s">
+        <v>63</v>
+      </c>
+      <c r="C261" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>276</v>
+      </c>
+      <c r="B262" t="s">
+        <v>277</v>
+      </c>
+      <c r="C262" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>278</v>
+      </c>
+      <c r="B263" t="s">
+        <v>11</v>
+      </c>
+      <c r="C263" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>279</v>
+      </c>
+      <c r="B264" t="s">
+        <v>15</v>
+      </c>
+      <c r="C264" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>280</v>
+      </c>
+      <c r="B265" t="s">
+        <v>15</v>
+      </c>
+      <c r="C265" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>281</v>
+      </c>
+      <c r="B266" t="s">
+        <v>127</v>
+      </c>
+      <c r="C266" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>282</v>
+      </c>
+      <c r="B267" t="s">
+        <v>112</v>
+      </c>
+      <c r="C267" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>548</v>
+      </c>
+      <c r="B268" t="s">
+        <v>11</v>
+      </c>
+      <c r="C268" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>485</v>
+      </c>
+      <c r="B269" t="s">
+        <v>11</v>
+      </c>
+      <c r="C269" t="s">
+        <v>1</v>
+      </c>
+      <c r="D269" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>283</v>
+      </c>
+      <c r="B270" t="s">
+        <v>44</v>
+      </c>
+      <c r="C270" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>284</v>
+      </c>
+      <c r="B271" t="s">
+        <v>285</v>
+      </c>
+      <c r="C271" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>286</v>
+      </c>
+      <c r="B272" t="s">
+        <v>287</v>
+      </c>
+      <c r="C272" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>288</v>
+      </c>
+      <c r="B273" t="s">
+        <v>289</v>
+      </c>
+      <c r="C273" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>482</v>
+      </c>
+      <c r="B274" t="s">
+        <v>11</v>
+      </c>
+      <c r="C274" t="s">
+        <v>1</v>
+      </c>
+      <c r="D274" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>290</v>
+      </c>
+      <c r="B275" t="s">
+        <v>15</v>
+      </c>
+      <c r="C275" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>291</v>
+      </c>
+      <c r="B276" t="s">
+        <v>15</v>
+      </c>
+      <c r="C276" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>293</v>
+      </c>
+      <c r="B277" t="s">
+        <v>15</v>
+      </c>
+      <c r="C277" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>294</v>
+      </c>
+      <c r="B278" t="s">
+        <v>77</v>
+      </c>
+      <c r="C278" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>295</v>
+      </c>
+      <c r="B279" t="s">
+        <v>11</v>
+      </c>
+      <c r="C279" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>296</v>
+      </c>
+      <c r="B280" t="s">
+        <v>72</v>
+      </c>
+      <c r="C280" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>297</v>
+      </c>
+      <c r="B281" t="s">
+        <v>11</v>
+      </c>
+      <c r="C281" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>298</v>
+      </c>
+      <c r="B282" t="s">
+        <v>8</v>
+      </c>
+      <c r="C282" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>299</v>
+      </c>
+      <c r="B283" t="s">
+        <v>87</v>
+      </c>
+      <c r="C283" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>300</v>
+      </c>
+      <c r="B284" t="s">
+        <v>63</v>
+      </c>
+      <c r="C284" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>301</v>
+      </c>
+      <c r="B285" t="s">
+        <v>11</v>
+      </c>
+      <c r="C285" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>302</v>
+      </c>
+      <c r="B286" t="s">
+        <v>11</v>
+      </c>
+      <c r="C286" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>303</v>
+      </c>
+      <c r="B287" t="s">
+        <v>15</v>
+      </c>
+      <c r="C287" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>304</v>
+      </c>
+      <c r="B288" t="s">
+        <v>305</v>
+      </c>
+      <c r="C288" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>306</v>
+      </c>
+      <c r="B289" t="s">
+        <v>307</v>
+      </c>
+      <c r="C289" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>308</v>
+      </c>
+      <c r="B290" t="s">
+        <v>309</v>
+      </c>
+      <c r="C290" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>311</v>
+      </c>
+      <c r="B291" t="s">
+        <v>11</v>
+      </c>
+      <c r="C291" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>312</v>
+      </c>
+      <c r="B292" t="s">
+        <v>15</v>
+      </c>
+      <c r="C292" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>549</v>
+      </c>
+      <c r="B293" t="s">
+        <v>86</v>
+      </c>
+      <c r="C293" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>313</v>
+      </c>
+      <c r="B294" t="s">
+        <v>11</v>
+      </c>
+      <c r="C294" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>314</v>
+      </c>
+      <c r="B295" t="s">
+        <v>11</v>
+      </c>
+      <c r="C295" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>315</v>
+      </c>
+      <c r="B296" t="s">
+        <v>11</v>
+      </c>
+      <c r="C296" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>316</v>
+      </c>
+      <c r="B297" t="s">
+        <v>89</v>
+      </c>
+      <c r="C297" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>317</v>
+      </c>
+      <c r="B298" t="s">
+        <v>11</v>
+      </c>
+      <c r="C298" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>318</v>
+      </c>
+      <c r="B299" t="s">
+        <v>156</v>
+      </c>
+      <c r="C299" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>319</v>
+      </c>
+      <c r="B300" t="s">
+        <v>11</v>
+      </c>
+      <c r="C300" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>320</v>
+      </c>
+      <c r="B301" t="s">
+        <v>11</v>
+      </c>
+      <c r="C301" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>550</v>
+      </c>
+      <c r="B302" t="s">
+        <v>523</v>
+      </c>
+      <c r="C302" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>551</v>
+      </c>
+      <c r="B303" t="s">
+        <v>23</v>
+      </c>
+      <c r="C303" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>321</v>
+      </c>
+      <c r="B304" t="s">
+        <v>310</v>
+      </c>
+      <c r="C304" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>322</v>
+      </c>
+      <c r="B305" t="s">
+        <v>11</v>
+      </c>
+      <c r="C305" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>323</v>
+      </c>
+      <c r="B306" t="s">
+        <v>15</v>
+      </c>
+      <c r="C306" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>324</v>
+      </c>
+      <c r="B307" t="s">
+        <v>325</v>
+      </c>
+      <c r="C307" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>552</v>
+      </c>
+      <c r="B308" t="s">
+        <v>15</v>
+      </c>
+      <c r="C308" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>326</v>
+      </c>
+      <c r="B309" t="s">
+        <v>20</v>
+      </c>
+      <c r="C309" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>327</v>
+      </c>
+      <c r="B310" t="s">
+        <v>15</v>
+      </c>
+      <c r="C310" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>328</v>
+      </c>
+      <c r="B311" t="s">
+        <v>329</v>
+      </c>
+      <c r="C311" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>330</v>
+      </c>
+      <c r="B312" t="s">
+        <v>11</v>
+      </c>
+      <c r="C312" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>331</v>
+      </c>
+      <c r="B313" t="s">
+        <v>332</v>
+      </c>
+      <c r="C313" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>333</v>
+      </c>
+      <c r="B314" t="s">
+        <v>553</v>
+      </c>
+      <c r="C314" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>334</v>
+      </c>
+      <c r="B315" t="s">
+        <v>63</v>
+      </c>
+      <c r="C315" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>554</v>
+      </c>
+      <c r="B316" t="s">
+        <v>555</v>
+      </c>
+      <c r="C316" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>335</v>
+      </c>
+      <c r="B317" t="s">
+        <v>111</v>
+      </c>
+      <c r="C317" t="s">
+        <v>2</v>
+      </c>
+      <c r="D317" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>336</v>
+      </c>
+      <c r="B318" t="s">
+        <v>63</v>
+      </c>
+      <c r="C318" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>337</v>
+      </c>
+      <c r="B319" t="s">
+        <v>15</v>
+      </c>
+      <c r="C319" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
         <v>338</v>
       </c>
-      <c r="B256" t="s">
-        <v>14</v>
-      </c>
-      <c r="C256" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
-        <v>339</v>
-      </c>
-      <c r="B257" t="s">
-        <v>11</v>
-      </c>
-      <c r="C257" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
-        <v>340</v>
-      </c>
-      <c r="B258" t="s">
-        <v>98</v>
-      </c>
-      <c r="C258" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
-        <v>341</v>
-      </c>
-      <c r="B259" t="s">
-        <v>70</v>
-      </c>
-      <c r="C259" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
-        <v>342</v>
-      </c>
-      <c r="B260" t="s">
-        <v>100</v>
-      </c>
-      <c r="C260" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
-        <v>343</v>
-      </c>
-      <c r="B261" t="s">
-        <v>14</v>
-      </c>
-      <c r="C261" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
-        <v>344</v>
-      </c>
-      <c r="B262" t="s">
-        <v>18</v>
-      </c>
-      <c r="C262" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
-        <v>345</v>
-      </c>
-      <c r="B263" t="s">
-        <v>346</v>
-      </c>
-      <c r="C263" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
-        <v>347</v>
-      </c>
-      <c r="B264" t="s">
-        <v>348</v>
-      </c>
-      <c r="C264" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
-        <v>349</v>
-      </c>
-      <c r="B265" t="s">
-        <v>350</v>
-      </c>
-      <c r="C265" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
-        <v>351</v>
-      </c>
-      <c r="B266" t="s">
-        <v>352</v>
-      </c>
-      <c r="C266" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
-        <v>353</v>
-      </c>
-      <c r="B267" t="s">
-        <v>70</v>
-      </c>
-      <c r="C267" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
-        <v>354</v>
-      </c>
-      <c r="B268" t="s">
-        <v>14</v>
-      </c>
-      <c r="C268" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
-        <v>355</v>
-      </c>
-      <c r="B269" t="s">
-        <v>18</v>
-      </c>
-      <c r="C269" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
-        <v>356</v>
-      </c>
-      <c r="B270" t="s">
-        <v>14</v>
-      </c>
-      <c r="C270" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
-        <v>357</v>
-      </c>
-      <c r="B271" t="s">
-        <v>315</v>
-      </c>
-      <c r="C271" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
-        <v>358</v>
-      </c>
-      <c r="B272" t="s">
-        <v>14</v>
-      </c>
-      <c r="C272" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
-        <v>359</v>
-      </c>
-      <c r="B273" t="s">
-        <v>100</v>
-      </c>
-      <c r="C273" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
-        <v>360</v>
-      </c>
-      <c r="B274" t="s">
-        <v>14</v>
-      </c>
-      <c r="C274" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
-        <v>361</v>
-      </c>
-      <c r="B275" t="s">
-        <v>176</v>
-      </c>
-      <c r="C275" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
-        <v>362</v>
-      </c>
-      <c r="B276" t="s">
-        <v>14</v>
-      </c>
-      <c r="C276" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
-        <v>363</v>
-      </c>
-      <c r="B277" t="s">
-        <v>14</v>
-      </c>
-      <c r="C277" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
-        <v>364</v>
-      </c>
-      <c r="B278" t="s">
-        <v>315</v>
-      </c>
-      <c r="C278" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
-        <v>365</v>
-      </c>
-      <c r="B279" t="s">
-        <v>352</v>
-      </c>
-      <c r="C279" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
-        <v>366</v>
-      </c>
-      <c r="B280" t="s">
-        <v>14</v>
-      </c>
-      <c r="C280" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
-        <v>367</v>
-      </c>
-      <c r="B281" t="s">
-        <v>18</v>
-      </c>
-      <c r="C281" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
-        <v>368</v>
-      </c>
-      <c r="B282" t="s">
-        <v>369</v>
-      </c>
-      <c r="C282" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
-        <v>370</v>
-      </c>
-      <c r="B283" t="s">
-        <v>18</v>
-      </c>
-      <c r="C283" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
-        <v>371</v>
-      </c>
-      <c r="B284" t="s">
-        <v>23</v>
-      </c>
-      <c r="C284" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
-        <v>372</v>
-      </c>
-      <c r="B285" t="s">
-        <v>18</v>
-      </c>
-      <c r="C285" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
-        <v>373</v>
-      </c>
-      <c r="B286" t="s">
-        <v>374</v>
-      </c>
-      <c r="C286" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
-        <v>375</v>
-      </c>
-      <c r="B287" t="s">
-        <v>14</v>
-      </c>
-      <c r="C287" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
-        <v>376</v>
-      </c>
-      <c r="B288" t="s">
-        <v>377</v>
-      </c>
-      <c r="C288" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
-        <v>378</v>
-      </c>
-      <c r="B289" t="s">
-        <v>379</v>
-      </c>
-      <c r="C289" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
-        <v>380</v>
-      </c>
-      <c r="B290" t="s">
-        <v>70</v>
-      </c>
-      <c r="C290" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
-        <v>381</v>
-      </c>
-      <c r="B291" t="s">
-        <v>128</v>
-      </c>
-      <c r="C291" t="s">
-        <v>5</v>
-      </c>
-      <c r="D291" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
-        <v>382</v>
-      </c>
-      <c r="B292" t="s">
-        <v>98</v>
-      </c>
-      <c r="C292" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
-        <v>383</v>
-      </c>
-      <c r="B293" t="s">
-        <v>16</v>
-      </c>
-      <c r="C293" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A294" t="s">
-        <v>384</v>
-      </c>
-      <c r="B294" t="s">
-        <v>311</v>
-      </c>
-      <c r="C294" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A295" t="s">
-        <v>385</v>
-      </c>
-      <c r="B295" t="s">
-        <v>98</v>
-      </c>
-      <c r="C295" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A296" t="s">
-        <v>386</v>
-      </c>
-      <c r="B296" t="s">
-        <v>311</v>
-      </c>
-      <c r="C296" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A297" t="s">
-        <v>387</v>
-      </c>
-      <c r="B297" t="s">
-        <v>18</v>
-      </c>
-      <c r="C297" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A298" t="s">
-        <v>388</v>
-      </c>
-      <c r="B298" t="s">
-        <v>389</v>
-      </c>
-      <c r="C298" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A299" t="s">
-        <v>390</v>
-      </c>
-      <c r="B299" t="s">
-        <v>14</v>
-      </c>
-      <c r="C299" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A300" t="s">
-        <v>391</v>
-      </c>
-      <c r="B300" t="s">
-        <v>311</v>
-      </c>
-      <c r="C300" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A301" t="s">
-        <v>392</v>
-      </c>
-      <c r="B301" t="s">
-        <v>14</v>
-      </c>
-      <c r="C301" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A302" t="s">
-        <v>393</v>
-      </c>
-      <c r="B302" t="s">
-        <v>18</v>
-      </c>
-      <c r="C302" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A303" t="s">
-        <v>394</v>
-      </c>
-      <c r="B303" t="s">
-        <v>14</v>
-      </c>
-      <c r="C303" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A304" t="s">
-        <v>395</v>
-      </c>
-      <c r="B304" t="s">
-        <v>100</v>
-      </c>
-      <c r="C304" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A305" t="s">
-        <v>396</v>
-      </c>
-      <c r="B305" t="s">
-        <v>397</v>
-      </c>
-      <c r="C305" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A306" t="s">
-        <v>398</v>
-      </c>
-      <c r="B306" t="s">
-        <v>399</v>
-      </c>
-      <c r="C306" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A307" t="s">
-        <v>400</v>
-      </c>
-      <c r="B307" t="s">
-        <v>18</v>
-      </c>
-      <c r="C307" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A308" t="s">
-        <v>402</v>
-      </c>
-      <c r="B308" t="s">
-        <v>18</v>
-      </c>
-      <c r="C308" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A309" t="s">
-        <v>403</v>
-      </c>
-      <c r="B309" t="s">
-        <v>404</v>
-      </c>
-      <c r="C309" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A310" t="s">
-        <v>405</v>
-      </c>
-      <c r="B310" t="s">
-        <v>14</v>
-      </c>
-      <c r="C310" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A311" t="s">
-        <v>406</v>
-      </c>
-      <c r="B311" t="s">
-        <v>407</v>
-      </c>
-      <c r="C311" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A312" t="s">
-        <v>408</v>
-      </c>
-      <c r="B312" t="s">
-        <v>176</v>
-      </c>
-      <c r="C312" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A313" t="s">
-        <v>409</v>
-      </c>
-      <c r="B313" t="s">
-        <v>114</v>
-      </c>
-      <c r="C313" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A314" t="s">
-        <v>410</v>
-      </c>
-      <c r="B314" t="s">
-        <v>411</v>
-      </c>
-      <c r="C314" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A315" t="s">
-        <v>412</v>
-      </c>
-      <c r="B315" t="s">
-        <v>413</v>
-      </c>
-      <c r="C315" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A316" t="s">
-        <v>414</v>
-      </c>
-      <c r="B316" t="s">
-        <v>114</v>
-      </c>
-      <c r="C316" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A317" t="s">
-        <v>415</v>
-      </c>
-      <c r="B317" t="s">
-        <v>36</v>
-      </c>
-      <c r="C317" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A318" t="s">
-        <v>416</v>
-      </c>
-      <c r="B318" t="s">
-        <v>417</v>
-      </c>
-      <c r="C318" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A319" t="s">
-        <v>418</v>
-      </c>
-      <c r="B319" t="s">
-        <v>14</v>
-      </c>
-      <c r="C319" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A320" t="s">
-        <v>419</v>
-      </c>
       <c r="B320" t="s">
-        <v>26</v>
+        <v>273</v>
       </c>
       <c r="C320" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>420</v>
+        <v>339</v>
       </c>
       <c r="B321" t="s">
-        <v>417</v>
+        <v>63</v>
       </c>
       <c r="C321" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>421</v>
+        <v>340</v>
       </c>
       <c r="B322" t="s">
-        <v>422</v>
+        <v>273</v>
       </c>
       <c r="C322" t="s">
         <v>2</v>
@@ -6199,65 +6310,65 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>423</v>
+        <v>341</v>
       </c>
       <c r="B323" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C323" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>424</v>
+        <v>556</v>
       </c>
       <c r="B324" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C324" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>425</v>
+        <v>557</v>
       </c>
       <c r="B325" t="s">
-        <v>1</v>
+        <v>558</v>
       </c>
       <c r="C325" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>426</v>
+        <v>342</v>
       </c>
       <c r="B326" t="s">
-        <v>9</v>
+        <v>343</v>
       </c>
       <c r="C326" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>427</v>
+        <v>344</v>
       </c>
       <c r="B327" t="s">
         <v>11</v>
       </c>
       <c r="C327" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>428</v>
+        <v>345</v>
       </c>
       <c r="B328" t="s">
-        <v>18</v>
+        <v>273</v>
       </c>
       <c r="C328" t="s">
         <v>2</v>
@@ -6265,225 +6376,222 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>429</v>
+        <v>346</v>
       </c>
       <c r="B329" t="s">
-        <v>422</v>
+        <v>11</v>
       </c>
       <c r="C329" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>430</v>
+        <v>347</v>
       </c>
       <c r="B330" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C330" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>431</v>
+        <v>348</v>
       </c>
       <c r="B331" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C331" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>432</v>
+        <v>559</v>
       </c>
       <c r="B332" t="s">
-        <v>309</v>
+        <v>558</v>
       </c>
       <c r="C332" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>433</v>
+        <v>349</v>
       </c>
       <c r="B333" t="s">
-        <v>14</v>
+        <v>350</v>
       </c>
       <c r="C333" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>434</v>
+        <v>351</v>
       </c>
       <c r="B334" t="s">
-        <v>90</v>
+        <v>560</v>
       </c>
       <c r="C334" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>435</v>
+        <v>352</v>
       </c>
       <c r="B335" t="s">
-        <v>436</v>
+        <v>15</v>
       </c>
       <c r="C335" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>437</v>
+        <v>354</v>
       </c>
       <c r="B336" t="s">
-        <v>438</v>
+        <v>15</v>
       </c>
       <c r="C336" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>439</v>
+        <v>355</v>
       </c>
       <c r="B337" t="s">
-        <v>14</v>
+        <v>356</v>
       </c>
       <c r="C337" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>440</v>
+        <v>357</v>
       </c>
       <c r="B338" t="s">
-        <v>18</v>
+        <v>358</v>
       </c>
       <c r="C338" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="B339" t="s">
-        <v>18</v>
+        <v>562</v>
       </c>
       <c r="C339" t="s">
         <v>2</v>
       </c>
       <c r="D339" t="s">
-        <v>541</v>
+        <v>471</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>546</v>
+        <v>359</v>
       </c>
       <c r="B340" t="s">
-        <v>422</v>
+        <v>156</v>
       </c>
       <c r="C340" t="s">
-        <v>2</v>
-      </c>
-      <c r="D340" t="s">
-        <v>541</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>441</v>
+        <v>360</v>
       </c>
       <c r="B341" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="C341" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>442</v>
+        <v>361</v>
       </c>
       <c r="B342" t="s">
-        <v>311</v>
+        <v>362</v>
       </c>
       <c r="C342" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>443</v>
+        <v>363</v>
       </c>
       <c r="B343" t="s">
-        <v>444</v>
+        <v>364</v>
       </c>
       <c r="C343" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>445</v>
+        <v>365</v>
       </c>
       <c r="B344" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="C344" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>446</v>
+        <v>366</v>
       </c>
       <c r="B345" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C345" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>447</v>
+        <v>367</v>
       </c>
       <c r="B346" t="s">
-        <v>407</v>
+        <v>368</v>
       </c>
       <c r="C346" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>448</v>
+        <v>369</v>
       </c>
       <c r="B347" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C347" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>449</v>
+        <v>370</v>
       </c>
       <c r="B348" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C348" t="s">
         <v>2</v>
@@ -6491,10 +6599,10 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>450</v>
+        <v>371</v>
       </c>
       <c r="B349" t="s">
-        <v>16</v>
+        <v>563</v>
       </c>
       <c r="C349" t="s">
         <v>2</v>
@@ -6502,10 +6610,10 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>451</v>
+        <v>373</v>
       </c>
       <c r="B350" t="s">
-        <v>176</v>
+        <v>23</v>
       </c>
       <c r="C350" t="s">
         <v>2</v>
@@ -6513,123 +6621,120 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>452</v>
+        <v>374</v>
       </c>
       <c r="B351" t="s">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="C351" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>453</v>
+        <v>375</v>
       </c>
       <c r="B352" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="C352" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>454</v>
+        <v>376</v>
       </c>
       <c r="B353" t="s">
-        <v>23</v>
+        <v>564</v>
       </c>
       <c r="C353" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>455</v>
+        <v>377</v>
       </c>
       <c r="B354" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C354" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>456</v>
+        <v>378</v>
       </c>
       <c r="B355" t="s">
-        <v>457</v>
+        <v>15</v>
       </c>
       <c r="C355" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>458</v>
+        <v>379</v>
       </c>
       <c r="B356" t="s">
-        <v>26</v>
+        <v>372</v>
       </c>
       <c r="C356" t="s">
-        <v>5</v>
-      </c>
-      <c r="D356" t="s">
-        <v>541</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>459</v>
+        <v>380</v>
       </c>
       <c r="B357" t="s">
-        <v>460</v>
+        <v>11</v>
       </c>
       <c r="C357" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>461</v>
+        <v>381</v>
       </c>
       <c r="B358" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C358" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>462</v>
+        <v>382</v>
       </c>
       <c r="B359" t="s">
-        <v>104</v>
+        <v>271</v>
       </c>
       <c r="C359" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>463</v>
+        <v>383</v>
       </c>
       <c r="B360" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C360" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>464</v>
+        <v>384</v>
       </c>
       <c r="B361" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="C361" t="s">
         <v>2</v>
@@ -6637,10 +6742,10 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>465</v>
+        <v>385</v>
       </c>
       <c r="B362" t="s">
-        <v>466</v>
+        <v>565</v>
       </c>
       <c r="C362" t="s">
         <v>2</v>
@@ -6648,57 +6753,60 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>467</v>
+        <v>386</v>
       </c>
       <c r="B363" t="s">
-        <v>311</v>
+        <v>11</v>
       </c>
       <c r="C363" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>468</v>
+        <v>387</v>
       </c>
       <c r="B364" t="s">
-        <v>469</v>
+        <v>15</v>
       </c>
       <c r="C364" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="B365" t="s">
-        <v>407</v>
+        <v>15</v>
       </c>
       <c r="C365" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D365" t="s">
-        <v>541</v>
+        <v>471</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
+        <v>476</v>
+      </c>
+      <c r="B366" t="s">
+        <v>372</v>
+      </c>
+      <c r="C366" t="s">
+        <v>1</v>
+      </c>
+      <c r="D366" t="s">
         <v>471</v>
-      </c>
-      <c r="B366" t="s">
-        <v>18</v>
-      </c>
-      <c r="C366" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>472</v>
+        <v>388</v>
       </c>
       <c r="B367" t="s">
-        <v>473</v>
+        <v>273</v>
       </c>
       <c r="C367" t="s">
         <v>2</v>
@@ -6706,10 +6814,10 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>474</v>
+        <v>389</v>
       </c>
       <c r="B368" t="s">
-        <v>14</v>
+        <v>224</v>
       </c>
       <c r="C368" t="s">
         <v>2</v>
@@ -6717,109 +6825,115 @@
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>475</v>
+        <v>390</v>
       </c>
       <c r="B369" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C369" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>476</v>
+        <v>391</v>
       </c>
       <c r="B370" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C370" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>477</v>
+        <v>392</v>
       </c>
       <c r="B371" t="s">
-        <v>14</v>
+        <v>358</v>
       </c>
       <c r="C371" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>478</v>
+        <v>566</v>
       </c>
       <c r="B372" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="C372" t="s">
         <v>2</v>
+      </c>
+      <c r="D372" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>479</v>
+        <v>393</v>
       </c>
       <c r="B373" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C373" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>480</v>
+        <v>394</v>
       </c>
       <c r="B374" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C374" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>481</v>
+        <v>395</v>
       </c>
       <c r="B375" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C375" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>482</v>
+        <v>396</v>
       </c>
       <c r="B376" t="s">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="C376" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>483</v>
+        <v>567</v>
       </c>
       <c r="B377" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C377" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D377" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>484</v>
+        <v>397</v>
       </c>
       <c r="B378" t="s">
-        <v>14</v>
+        <v>568</v>
       </c>
       <c r="C378" t="s">
         <v>2</v>
@@ -6827,32 +6941,35 @@
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>485</v>
+        <v>398</v>
       </c>
       <c r="B379" t="s">
-        <v>486</v>
+        <v>353</v>
       </c>
       <c r="C379" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>487</v>
+        <v>569</v>
       </c>
       <c r="B380" t="s">
-        <v>488</v>
+        <v>44</v>
       </c>
       <c r="C380" t="s">
         <v>2</v>
+      </c>
+      <c r="D380" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>489</v>
+        <v>399</v>
       </c>
       <c r="B381" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C381" t="s">
         <v>2</v>
@@ -6860,302 +6977,308 @@
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>490</v>
+        <v>570</v>
       </c>
       <c r="B382" t="s">
-        <v>7</v>
+        <v>571</v>
       </c>
       <c r="C382" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D382" t="s">
-        <v>541</v>
+        <v>471</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>491</v>
+        <v>400</v>
       </c>
       <c r="B383" t="s">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="C383" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>492</v>
+        <v>572</v>
       </c>
       <c r="B384" t="s">
-        <v>18</v>
+        <v>401</v>
       </c>
       <c r="C384" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>493</v>
+        <v>402</v>
       </c>
       <c r="B385" t="s">
-        <v>494</v>
+        <v>23</v>
       </c>
       <c r="C385" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D385" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>495</v>
+        <v>573</v>
       </c>
       <c r="B386" t="s">
-        <v>128</v>
+        <v>81</v>
       </c>
       <c r="C386" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>496</v>
+        <v>403</v>
       </c>
       <c r="B387" t="s">
-        <v>49</v>
+        <v>574</v>
       </c>
       <c r="C387" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>497</v>
+        <v>404</v>
       </c>
       <c r="B388" t="s">
-        <v>18</v>
+        <v>568</v>
       </c>
       <c r="C388" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>498</v>
+        <v>405</v>
       </c>
       <c r="B389" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C389" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>499</v>
+        <v>406</v>
       </c>
       <c r="B390" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C390" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>500</v>
+        <v>407</v>
       </c>
       <c r="B391" t="s">
-        <v>352</v>
+        <v>408</v>
       </c>
       <c r="C391" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>542</v>
+        <v>409</v>
       </c>
       <c r="B392" t="s">
-        <v>18</v>
+        <v>273</v>
       </c>
       <c r="C392" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>501</v>
+        <v>410</v>
       </c>
       <c r="B393" t="s">
-        <v>502</v>
+        <v>23</v>
       </c>
       <c r="C393" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>503</v>
+        <v>411</v>
       </c>
       <c r="B394" t="s">
-        <v>504</v>
+        <v>63</v>
       </c>
       <c r="C394" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D394" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>505</v>
+        <v>412</v>
       </c>
       <c r="B395" t="s">
-        <v>506</v>
+        <v>15</v>
       </c>
       <c r="C395" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>507</v>
+        <v>413</v>
       </c>
       <c r="B396" t="s">
-        <v>70</v>
+        <v>414</v>
       </c>
       <c r="C396" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>508</v>
+        <v>415</v>
       </c>
       <c r="B397" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C397" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>509</v>
+        <v>575</v>
       </c>
       <c r="B398" t="s">
-        <v>510</v>
+        <v>15</v>
       </c>
       <c r="C398" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>511</v>
+        <v>416</v>
       </c>
       <c r="B399" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C399" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>512</v>
+        <v>576</v>
       </c>
       <c r="B400" t="s">
-        <v>176</v>
+        <v>577</v>
       </c>
       <c r="C400" t="s">
         <v>2</v>
+      </c>
+      <c r="D400" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>513</v>
+        <v>417</v>
       </c>
       <c r="B401" t="s">
-        <v>514</v>
+        <v>11</v>
       </c>
       <c r="C401" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>515</v>
+        <v>418</v>
       </c>
       <c r="B402" t="s">
-        <v>331</v>
+        <v>11</v>
       </c>
       <c r="C402" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>516</v>
+        <v>419</v>
       </c>
       <c r="B403" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C403" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>517</v>
+        <v>420</v>
       </c>
       <c r="B404" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C404" t="s">
-        <v>2</v>
-      </c>
-      <c r="D404" t="s">
-        <v>541</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>518</v>
+        <v>421</v>
       </c>
       <c r="B405" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C405" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>519</v>
+        <v>422</v>
       </c>
       <c r="B406" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="C406" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>520</v>
+        <v>423</v>
       </c>
       <c r="B407" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C407" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>521</v>
+        <v>424</v>
       </c>
       <c r="B408" t="s">
-        <v>18</v>
+        <v>425</v>
       </c>
       <c r="C408" t="s">
         <v>2</v>
@@ -7163,10 +7286,10 @@
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>522</v>
+        <v>426</v>
       </c>
       <c r="B409" t="s">
-        <v>36</v>
+        <v>578</v>
       </c>
       <c r="C409" t="s">
         <v>2</v>
@@ -7174,32 +7297,35 @@
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>523</v>
+        <v>427</v>
       </c>
       <c r="B410" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C410" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>524</v>
+        <v>428</v>
       </c>
       <c r="B411" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C411" t="s">
         <v>2</v>
+      </c>
+      <c r="D411" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>525</v>
+        <v>429</v>
       </c>
       <c r="B412" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="C412" t="s">
         <v>2</v>
@@ -7207,46 +7333,46 @@
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>526</v>
+        <v>430</v>
       </c>
       <c r="B413" t="s">
-        <v>527</v>
+        <v>11</v>
       </c>
       <c r="C413" t="s">
-        <v>5</v>
-      </c>
-      <c r="D413" t="s">
-        <v>541</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>528</v>
+        <v>579</v>
       </c>
       <c r="B414" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C414" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D414" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>529</v>
+        <v>431</v>
       </c>
       <c r="B415" t="s">
-        <v>530</v>
+        <v>432</v>
       </c>
       <c r="C415" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>531</v>
+        <v>580</v>
       </c>
       <c r="B416" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="C416" t="s">
         <v>2</v>
@@ -7254,10 +7380,10 @@
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>532</v>
+        <v>433</v>
       </c>
       <c r="B417" t="s">
-        <v>533</v>
+        <v>44</v>
       </c>
       <c r="C417" t="s">
         <v>2</v>
@@ -7265,24 +7391,371 @@
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>534</v>
+        <v>434</v>
       </c>
       <c r="B418" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C418" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>535</v>
+        <v>435</v>
       </c>
       <c r="B419" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C419" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>436</v>
+      </c>
+      <c r="B420" t="s">
+        <v>11</v>
+      </c>
+      <c r="C420" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>437</v>
+      </c>
+      <c r="B421" t="s">
+        <v>577</v>
+      </c>
+      <c r="C421" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>472</v>
+      </c>
+      <c r="B422" t="s">
+        <v>15</v>
+      </c>
+      <c r="C422" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>438</v>
+      </c>
+      <c r="B423" t="s">
+        <v>581</v>
+      </c>
+      <c r="C423" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>439</v>
+      </c>
+      <c r="B424" t="s">
+        <v>582</v>
+      </c>
+      <c r="C424" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>440</v>
+      </c>
+      <c r="B425" t="s">
+        <v>441</v>
+      </c>
+      <c r="C425" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>442</v>
+      </c>
+      <c r="B426" t="s">
+        <v>63</v>
+      </c>
+      <c r="C426" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>443</v>
+      </c>
+      <c r="B427" t="s">
+        <v>11</v>
+      </c>
+      <c r="C427" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>444</v>
+      </c>
+      <c r="B428" t="s">
+        <v>583</v>
+      </c>
+      <c r="C428" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>445</v>
+      </c>
+      <c r="B429" t="s">
+        <v>11</v>
+      </c>
+      <c r="C429" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>446</v>
+      </c>
+      <c r="B430" t="s">
+        <v>156</v>
+      </c>
+      <c r="C430" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>447</v>
+      </c>
+      <c r="B431" t="s">
+        <v>584</v>
+      </c>
+      <c r="C431" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>448</v>
+      </c>
+      <c r="B432" t="s">
+        <v>292</v>
+      </c>
+      <c r="C432" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>449</v>
+      </c>
+      <c r="B433" t="s">
+        <v>11</v>
+      </c>
+      <c r="C433" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>450</v>
+      </c>
+      <c r="B434" t="s">
+        <v>13</v>
+      </c>
+      <c r="C434" t="s">
+        <v>1</v>
+      </c>
+      <c r="D434" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>585</v>
+      </c>
+      <c r="B435" t="s">
+        <v>77</v>
+      </c>
+      <c r="C435" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>451</v>
+      </c>
+      <c r="B436" t="s">
+        <v>11</v>
+      </c>
+      <c r="C436" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>452</v>
+      </c>
+      <c r="B437" t="s">
+        <v>44</v>
+      </c>
+      <c r="C437" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>453</v>
+      </c>
+      <c r="B438" t="s">
+        <v>44</v>
+      </c>
+      <c r="C438" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>454</v>
+      </c>
+      <c r="B439" t="s">
+        <v>15</v>
+      </c>
+      <c r="C439" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>455</v>
+      </c>
+      <c r="B440" t="s">
+        <v>32</v>
+      </c>
+      <c r="C440" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>456</v>
+      </c>
+      <c r="B441" t="s">
+        <v>11</v>
+      </c>
+      <c r="C441" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>457</v>
+      </c>
+      <c r="B442" t="s">
+        <v>11</v>
+      </c>
+      <c r="C442" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>458</v>
+      </c>
+      <c r="B443" t="s">
+        <v>11</v>
+      </c>
+      <c r="C443" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>459</v>
+      </c>
+      <c r="B444" t="s">
+        <v>44</v>
+      </c>
+      <c r="C444" t="s">
+        <v>2</v>
+      </c>
+      <c r="D444" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>460</v>
+      </c>
+      <c r="B445" t="s">
+        <v>15</v>
+      </c>
+      <c r="C445" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>461</v>
+      </c>
+      <c r="B446" t="s">
+        <v>462</v>
+      </c>
+      <c r="C446" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>463</v>
+      </c>
+      <c r="B447" t="s">
+        <v>11</v>
+      </c>
+      <c r="C447" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>464</v>
+      </c>
+      <c r="B448" t="s">
+        <v>11</v>
+      </c>
+      <c r="C448" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>586</v>
+      </c>
+      <c r="B449" t="s">
+        <v>587</v>
+      </c>
+      <c r="C449" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>465</v>
+      </c>
+      <c r="B450" t="s">
+        <v>15</v>
+      </c>
+      <c r="C450" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/assets/guncel_deneme_bonuslari_listesi.xlsx
+++ b/assets/guncel_deneme_bonuslari_listesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cengi\Desktop\test\Deneme Bonusu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC230E8-8CB6-469D-894E-1B9FEDADD3A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B598F9-4516-4BFB-BA49-9635BF487DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CD7B2693-F8D1-429F-9AB3-DB64ACA5183F}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="592">
   <si>
     <t>maks 750tl çekim</t>
   </si>
@@ -1787,6 +1787,18 @@
   </si>
   <si>
     <t>250tl yatırımlı. 500tl çekim. Anapara ile devam</t>
+  </si>
+  <si>
+    <t>casineıon</t>
+  </si>
+  <si>
+    <t>serispin</t>
+  </si>
+  <si>
+    <t>betpro</t>
+  </si>
+  <si>
+    <t>betlora</t>
   </si>
 </sst>
 </file>
@@ -2335,7 +2347,18 @@
     <cellStyle name="Vurgu5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Vurgu6" xfId="38" builtinId="49" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2665,11 +2688,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F56ED3D-A3F2-450D-9EAE-1214C3EA2069}">
-  <dimension ref="A1:D450"/>
+  <dimension ref="A1:D453"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A434" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B446" sqref="B446"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3574,7 +3597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>97</v>
       </c>
@@ -3585,7 +3608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>510</v>
       </c>
@@ -3596,7 +3619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>98</v>
       </c>
@@ -3607,166 +3630,169 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>591</v>
+      </c>
+      <c r="B84" t="s">
+        <v>86</v>
+      </c>
+      <c r="C84" t="s">
+        <v>2</v>
+      </c>
+      <c r="D84" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>99</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B85" t="s">
         <v>15</v>
       </c>
-      <c r="C84" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="C85" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>100</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B86" t="s">
         <v>81</v>
       </c>
-      <c r="C85" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="C86" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>101</v>
       </c>
-      <c r="B86" t="s">
-        <v>11</v>
-      </c>
-      <c r="C86" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="B87" t="s">
+        <v>11</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>103</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B88" t="s">
         <v>332</v>
       </c>
-      <c r="C87" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="C88" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>104</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B89" t="s">
         <v>15</v>
       </c>
-      <c r="C88" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="C89" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>106</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B90" t="s">
         <v>86</v>
       </c>
-      <c r="C89" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="C90" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>107</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B91" t="s">
         <v>108</v>
       </c>
-      <c r="C90" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="C91" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>109</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B92" t="s">
         <v>511</v>
       </c>
-      <c r="C91" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="C92" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>512</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B93" t="s">
         <v>513</v>
       </c>
-      <c r="C92" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="C93" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>110</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B94" t="s">
         <v>111</v>
       </c>
-      <c r="C93" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="C94" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>113</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B95" t="s">
         <v>114</v>
       </c>
-      <c r="C94" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="C95" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>115</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B96" t="s">
         <v>15</v>
       </c>
-      <c r="C95" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>116</v>
-      </c>
-      <c r="B96" t="s">
-        <v>117</v>
-      </c>
       <c r="C96" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B97" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="C97" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B98" t="s">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="C98" t="s">
         <v>1</v>
@@ -3774,21 +3800,21 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B99" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C99" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>514</v>
+        <v>121</v>
       </c>
       <c r="B100" t="s">
-        <v>515</v>
+        <v>122</v>
       </c>
       <c r="C100" t="s">
         <v>2</v>
@@ -3796,43 +3822,46 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>123</v>
+        <v>514</v>
       </c>
       <c r="B101" t="s">
-        <v>15</v>
+        <v>515</v>
       </c>
       <c r="C101" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>124</v>
+        <v>590</v>
       </c>
       <c r="B102" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="C102" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D102" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B103" t="s">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="C103" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>516</v>
+        <v>124</v>
       </c>
       <c r="B104" t="s">
-        <v>489</v>
+        <v>81</v>
       </c>
       <c r="C104" t="s">
         <v>2</v>
@@ -3840,10 +3869,10 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B105" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="C105" t="s">
         <v>2</v>
@@ -3851,32 +3880,32 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>128</v>
+        <v>516</v>
       </c>
       <c r="B106" t="s">
-        <v>129</v>
+        <v>489</v>
       </c>
       <c r="C106" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B107" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="C107" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B108" t="s">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="C108" t="s">
         <v>1</v>
@@ -3884,10 +3913,10 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B109" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C109" t="s">
         <v>1</v>
@@ -3895,10 +3924,10 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B110" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="C110" t="s">
         <v>1</v>
@@ -3906,24 +3935,21 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B111" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="C111" t="s">
-        <v>2</v>
-      </c>
-      <c r="D111" t="s">
-        <v>471</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B112" t="s">
-        <v>136</v>
+        <v>72</v>
       </c>
       <c r="C112" t="s">
         <v>1</v>
@@ -3931,21 +3957,24 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B113" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="C113" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D113" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B114" t="s">
-        <v>15</v>
+        <v>136</v>
       </c>
       <c r="C114" t="s">
         <v>1</v>
@@ -3953,10 +3982,10 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B115" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C115" t="s">
         <v>1</v>
@@ -3964,10 +3993,10 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B116" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C116" t="s">
         <v>1</v>
@@ -3975,7 +4004,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B117" t="s">
         <v>13</v>
@@ -3986,21 +4015,21 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B118" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C118" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B119" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="C119" t="s">
         <v>1</v>
@@ -4008,10 +4037,10 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B120" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C120" t="s">
         <v>2</v>
@@ -4019,10 +4048,10 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B121" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="C121" t="s">
         <v>1</v>
@@ -4030,21 +4059,21 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B122" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="C122" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B123" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C123" t="s">
         <v>1</v>
@@ -4052,35 +4081,32 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B124" t="s">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="C124" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>475</v>
+        <v>147</v>
       </c>
       <c r="B125" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C125" t="s">
         <v>1</v>
-      </c>
-      <c r="D125" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>517</v>
+        <v>148</v>
       </c>
       <c r="B126" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="C126" t="s">
         <v>2</v>
@@ -4088,21 +4114,24 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>149</v>
+        <v>475</v>
       </c>
       <c r="B127" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C127" t="s">
         <v>1</v>
+      </c>
+      <c r="D127" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>150</v>
+        <v>517</v>
       </c>
       <c r="B128" t="s">
-        <v>151</v>
+        <v>52</v>
       </c>
       <c r="C128" t="s">
         <v>2</v>
@@ -4110,10 +4139,10 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B129" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C129" t="s">
         <v>1</v>
@@ -4121,10 +4150,10 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B130" t="s">
-        <v>44</v>
+        <v>151</v>
       </c>
       <c r="C130" t="s">
         <v>2</v>
@@ -4132,43 +4161,43 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B131" t="s">
-        <v>114</v>
+        <v>11</v>
       </c>
       <c r="C131" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>518</v>
+        <v>153</v>
       </c>
       <c r="B132" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C132" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B133" t="s">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="C133" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>157</v>
+        <v>518</v>
       </c>
       <c r="B134" t="s">
-        <v>156</v>
+        <v>13</v>
       </c>
       <c r="C134" t="s">
         <v>1</v>
@@ -4176,7 +4205,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B135" t="s">
         <v>156</v>
@@ -4187,21 +4216,21 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B136" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="C136" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B137" t="s">
-        <v>15</v>
+        <v>156</v>
       </c>
       <c r="C137" t="s">
         <v>1</v>
@@ -4209,21 +4238,18 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>484</v>
+        <v>159</v>
       </c>
       <c r="B138" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="C138" t="s">
-        <v>1</v>
-      </c>
-      <c r="D138" t="s">
-        <v>471</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B139" t="s">
         <v>15</v>
@@ -4234,51 +4260,57 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>162</v>
+        <v>484</v>
       </c>
       <c r="B140" t="s">
-        <v>519</v>
+        <v>13</v>
       </c>
       <c r="C140" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D140" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>163</v>
+        <v>588</v>
       </c>
       <c r="B141" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C141" t="s">
         <v>1</v>
+      </c>
+      <c r="D141" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>520</v>
+        <v>161</v>
       </c>
       <c r="B142" t="s">
-        <v>521</v>
+        <v>15</v>
       </c>
       <c r="C142" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B143" t="s">
-        <v>15</v>
+        <v>519</v>
       </c>
       <c r="C143" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>522</v>
+        <v>163</v>
       </c>
       <c r="B144" t="s">
         <v>15</v>
@@ -4286,16 +4318,13 @@
       <c r="C144" t="s">
         <v>1</v>
       </c>
-      <c r="D144" t="s">
-        <v>471</v>
-      </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>165</v>
+        <v>520</v>
       </c>
       <c r="B145" t="s">
-        <v>86</v>
+        <v>521</v>
       </c>
       <c r="C145" t="s">
         <v>2</v>
@@ -4303,68 +4332,68 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B146" t="s">
-        <v>167</v>
+        <v>15</v>
       </c>
       <c r="C146" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>473</v>
+        <v>165</v>
       </c>
       <c r="B147" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="C147" t="s">
-        <v>1</v>
-      </c>
-      <c r="D147" t="s">
-        <v>471</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B148" t="s">
-        <v>524</v>
+        <v>167</v>
       </c>
       <c r="C148" t="s">
         <v>2</v>
-      </c>
-      <c r="D148" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>169</v>
+        <v>473</v>
       </c>
       <c r="B149" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C149" t="s">
         <v>1</v>
+      </c>
+      <c r="D149" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B150" t="s">
-        <v>44</v>
+        <v>524</v>
       </c>
       <c r="C150" t="s">
         <v>2</v>
+      </c>
+      <c r="D150" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>525</v>
+        <v>169</v>
       </c>
       <c r="B151" t="s">
         <v>11</v>
@@ -4375,35 +4404,29 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>469</v>
+        <v>170</v>
       </c>
       <c r="B152" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="C152" t="s">
-        <v>1</v>
-      </c>
-      <c r="D152" t="s">
-        <v>471</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>474</v>
+        <v>525</v>
       </c>
       <c r="B153" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C153" t="s">
         <v>1</v>
-      </c>
-      <c r="D153" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>171</v>
+        <v>469</v>
       </c>
       <c r="B154" t="s">
         <v>15</v>
@@ -4411,46 +4434,49 @@
       <c r="C154" t="s">
         <v>1</v>
       </c>
+      <c r="D154" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>526</v>
+        <v>474</v>
       </c>
       <c r="B155" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C155" t="s">
         <v>1</v>
+      </c>
+      <c r="D155" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B156" t="s">
-        <v>173</v>
+        <v>15</v>
       </c>
       <c r="C156" t="s">
-        <v>2</v>
-      </c>
-      <c r="D156" t="s">
-        <v>471</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>174</v>
+        <v>526</v>
       </c>
       <c r="B157" t="s">
-        <v>285</v>
+        <v>11</v>
       </c>
       <c r="C157" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>175</v>
+        <v>522</v>
       </c>
       <c r="B158" t="s">
         <v>15</v>
@@ -4458,24 +4484,30 @@
       <c r="C158" t="s">
         <v>1</v>
       </c>
+      <c r="D158" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B159" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C159" t="s">
         <v>2</v>
+      </c>
+      <c r="D159" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B160" t="s">
-        <v>23</v>
+        <v>285</v>
       </c>
       <c r="C160" t="s">
         <v>2</v>
@@ -4483,49 +4515,46 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>477</v>
+        <v>175</v>
       </c>
       <c r="B161" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C161" t="s">
         <v>1</v>
-      </c>
-      <c r="D161" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B162" t="s">
-        <v>11</v>
+        <v>177</v>
       </c>
       <c r="C162" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B163" t="s">
-        <v>527</v>
+        <v>23</v>
       </c>
       <c r="C163" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>528</v>
+        <v>477</v>
       </c>
       <c r="B164" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C164" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D164" t="s">
         <v>471</v>
@@ -4533,10 +4562,10 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B165" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C165" t="s">
         <v>1</v>
@@ -4544,35 +4573,35 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B166" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C166" t="s">
-        <v>2</v>
-      </c>
-      <c r="D166" t="s">
-        <v>471</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>182</v>
+        <v>528</v>
       </c>
       <c r="B167" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C167" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D167" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B168" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="C168" t="s">
         <v>1</v>
@@ -4580,10 +4609,10 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B169" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C169" t="s">
         <v>1</v>
@@ -4591,10 +4620,10 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B170" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="C170" t="s">
         <v>1</v>
@@ -4602,79 +4631,79 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B171" t="s">
-        <v>15</v>
+        <v>529</v>
       </c>
       <c r="C171" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D171" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>530</v>
+        <v>185</v>
       </c>
       <c r="B172" t="s">
-        <v>531</v>
+        <v>15</v>
       </c>
       <c r="C172" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B173" t="s">
-        <v>188</v>
+        <v>15</v>
       </c>
       <c r="C173" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>189</v>
+        <v>530</v>
       </c>
       <c r="B174" t="s">
-        <v>11</v>
+        <v>531</v>
       </c>
       <c r="C174" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>532</v>
+        <v>187</v>
       </c>
       <c r="B175" t="s">
-        <v>13</v>
+        <v>188</v>
       </c>
       <c r="C175" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>533</v>
+        <v>189</v>
       </c>
       <c r="B176" t="s">
-        <v>534</v>
+        <v>11</v>
       </c>
       <c r="C176" t="s">
-        <v>2</v>
-      </c>
-      <c r="D176" t="s">
-        <v>471</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>190</v>
+        <v>532</v>
       </c>
       <c r="B177" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C177" t="s">
         <v>1</v>
@@ -4682,18 +4711,21 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>191</v>
+        <v>533</v>
       </c>
       <c r="B178" t="s">
-        <v>11</v>
+        <v>534</v>
       </c>
       <c r="C178" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D178" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B179" t="s">
         <v>15</v>
@@ -4704,10 +4736,10 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B180" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C180" t="s">
         <v>1</v>
@@ -4715,21 +4747,21 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B181" t="s">
-        <v>195</v>
+        <v>15</v>
       </c>
       <c r="C181" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B182" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C182" t="s">
         <v>1</v>
@@ -4737,10 +4769,10 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B183" t="s">
-        <v>44</v>
+        <v>195</v>
       </c>
       <c r="C183" t="s">
         <v>2</v>
@@ -4748,10 +4780,10 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B184" t="s">
-        <v>372</v>
+        <v>11</v>
       </c>
       <c r="C184" t="s">
         <v>1</v>
@@ -4759,21 +4791,21 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B185" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="C185" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>535</v>
+        <v>198</v>
       </c>
       <c r="B186" t="s">
-        <v>11</v>
+        <v>372</v>
       </c>
       <c r="C186" t="s">
         <v>1</v>
@@ -4781,10 +4813,10 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B187" t="s">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="C187" t="s">
         <v>1</v>
@@ -4792,10 +4824,10 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>201</v>
+        <v>535</v>
       </c>
       <c r="B188" t="s">
-        <v>202</v>
+        <v>11</v>
       </c>
       <c r="C188" t="s">
         <v>1</v>
@@ -4803,10 +4835,10 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="C189" t="s">
         <v>1</v>
@@ -4814,10 +4846,10 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B190" t="s">
-        <v>15</v>
+        <v>202</v>
       </c>
       <c r="C190" t="s">
         <v>1</v>
@@ -4825,10 +4857,10 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B191" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
         <v>1</v>
@@ -4836,46 +4868,46 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>480</v>
+        <v>204</v>
       </c>
       <c r="B192" t="s">
-        <v>481</v>
+        <v>15</v>
       </c>
       <c r="C192" t="s">
         <v>1</v>
-      </c>
-      <c r="D192" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B193" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="C193" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>207</v>
+        <v>480</v>
       </c>
       <c r="B194" t="s">
-        <v>11</v>
+        <v>481</v>
       </c>
       <c r="C194" t="s">
         <v>1</v>
+      </c>
+      <c r="D194" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B195" t="s">
-        <v>209</v>
+        <v>86</v>
       </c>
       <c r="C195" t="s">
         <v>2</v>
@@ -4883,7 +4915,7 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>536</v>
+        <v>207</v>
       </c>
       <c r="B196" t="s">
         <v>11</v>
@@ -4894,10 +4926,10 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>537</v>
+        <v>208</v>
       </c>
       <c r="B197" t="s">
-        <v>538</v>
+        <v>209</v>
       </c>
       <c r="C197" t="s">
         <v>2</v>
@@ -4905,57 +4937,57 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B198" t="s">
         <v>11</v>
       </c>
       <c r="C198" t="s">
         <v>1</v>
-      </c>
-      <c r="D198" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>210</v>
+        <v>537</v>
       </c>
       <c r="B199" t="s">
-        <v>15</v>
+        <v>538</v>
       </c>
       <c r="C199" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>211</v>
+        <v>539</v>
       </c>
       <c r="B200" t="s">
-        <v>212</v>
+        <v>11</v>
       </c>
       <c r="C200" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D200" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>540</v>
+        <v>210</v>
       </c>
       <c r="B201" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C201" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B202" t="s">
-        <v>86</v>
+        <v>212</v>
       </c>
       <c r="C202" t="s">
         <v>2</v>
@@ -4963,54 +4995,54 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>214</v>
+        <v>540</v>
       </c>
       <c r="B203" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C203" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B204" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="C204" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B205" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C205" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B206" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="C206" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B207" t="s">
-        <v>219</v>
+        <v>23</v>
       </c>
       <c r="C207" t="s">
         <v>2</v>
@@ -5018,46 +5050,43 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B208" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="C208" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B209" t="s">
-        <v>63</v>
+        <v>219</v>
       </c>
       <c r="C209" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>479</v>
+        <v>220</v>
       </c>
       <c r="B210" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="C210" t="s">
-        <v>2</v>
-      </c>
-      <c r="D210" t="s">
-        <v>471</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B211" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="C211" t="s">
         <v>1</v>
@@ -5065,43 +5094,46 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>223</v>
+        <v>479</v>
       </c>
       <c r="B212" t="s">
-        <v>224</v>
+        <v>44</v>
       </c>
       <c r="C212" t="s">
         <v>2</v>
+      </c>
+      <c r="D212" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B213" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="C213" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B214" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="C214" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B215" t="s">
-        <v>541</v>
+        <v>44</v>
       </c>
       <c r="C215" t="s">
         <v>2</v>
@@ -5109,10 +5141,10 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B216" t="s">
-        <v>292</v>
+        <v>11</v>
       </c>
       <c r="C216" t="s">
         <v>1</v>
@@ -5120,10 +5152,10 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B217" t="s">
-        <v>77</v>
+        <v>541</v>
       </c>
       <c r="C217" t="s">
         <v>2</v>
@@ -5131,10 +5163,10 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B218" t="s">
-        <v>105</v>
+        <v>292</v>
       </c>
       <c r="C218" t="s">
         <v>1</v>
@@ -5142,10 +5174,10 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B219" t="s">
-        <v>289</v>
+        <v>77</v>
       </c>
       <c r="C219" t="s">
         <v>2</v>
@@ -5153,10 +5185,10 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>542</v>
+        <v>230</v>
       </c>
       <c r="B220" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="C220" t="s">
         <v>1</v>
@@ -5164,18 +5196,18 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B221" t="s">
-        <v>11</v>
+        <v>289</v>
       </c>
       <c r="C221" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>233</v>
+        <v>542</v>
       </c>
       <c r="B222" t="s">
         <v>11</v>
@@ -5186,10 +5218,10 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B223" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C223" t="s">
         <v>1</v>
@@ -5197,21 +5229,21 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B224" t="s">
-        <v>236</v>
+        <v>11</v>
       </c>
       <c r="C224" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B225" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C225" t="s">
         <v>1</v>
@@ -5219,21 +5251,21 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B226" t="s">
-        <v>15</v>
+        <v>236</v>
       </c>
       <c r="C226" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B227" t="s">
-        <v>240</v>
+        <v>11</v>
       </c>
       <c r="C227" t="s">
         <v>1</v>
@@ -5241,10 +5273,10 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B228" t="s">
-        <v>543</v>
+        <v>15</v>
       </c>
       <c r="C228" t="s">
         <v>1</v>
@@ -5252,21 +5284,21 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B229" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C229" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B230" t="s">
-        <v>15</v>
+        <v>543</v>
       </c>
       <c r="C230" t="s">
         <v>1</v>
@@ -5274,10 +5306,10 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B231" t="s">
-        <v>23</v>
+        <v>243</v>
       </c>
       <c r="C231" t="s">
         <v>2</v>
@@ -5285,24 +5317,21 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B232" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="C232" t="s">
-        <v>2</v>
-      </c>
-      <c r="D232" t="s">
-        <v>471</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B233" t="s">
-        <v>248</v>
+        <v>23</v>
       </c>
       <c r="C233" t="s">
         <v>2</v>
@@ -5310,13 +5339,13 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B234" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="C234" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D234" t="s">
         <v>471</v>
@@ -5324,32 +5353,35 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B235" t="s">
-        <v>11</v>
+        <v>248</v>
       </c>
       <c r="C235" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B236" t="s">
-        <v>252</v>
+        <v>11</v>
       </c>
       <c r="C236" t="s">
         <v>1</v>
+      </c>
+      <c r="D236" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B237" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C237" t="s">
         <v>1</v>
@@ -5357,10 +5389,10 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B238" t="s">
-        <v>11</v>
+        <v>252</v>
       </c>
       <c r="C238" t="s">
         <v>1</v>
@@ -5368,18 +5400,18 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>544</v>
+        <v>253</v>
       </c>
       <c r="B239" t="s">
-        <v>224</v>
+        <v>15</v>
       </c>
       <c r="C239" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B240" t="s">
         <v>11</v>
@@ -5390,90 +5422,90 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B241" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="C241" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B242" t="s">
-        <v>224</v>
+        <v>11</v>
       </c>
       <c r="C242" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>257</v>
+        <v>545</v>
       </c>
       <c r="B243" t="s">
-        <v>243</v>
+        <v>11</v>
       </c>
       <c r="C243" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B244" t="s">
-        <v>61</v>
+        <v>224</v>
       </c>
       <c r="C244" t="s">
-        <v>1</v>
-      </c>
-      <c r="D244" t="s">
-        <v>471</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>478</v>
+        <v>257</v>
       </c>
       <c r="B245" t="s">
-        <v>15</v>
+        <v>243</v>
       </c>
       <c r="C245" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B246" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="C246" t="s">
         <v>1</v>
+      </c>
+      <c r="D246" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>260</v>
+        <v>478</v>
       </c>
       <c r="B247" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="C247" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>546</v>
+        <v>259</v>
       </c>
       <c r="B248" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C248" t="s">
         <v>1</v>
@@ -5481,21 +5513,21 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B249" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="C249" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>262</v>
+        <v>546</v>
       </c>
       <c r="B250" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C250" t="s">
         <v>1</v>
@@ -5503,24 +5535,21 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B251" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C251" t="s">
         <v>1</v>
-      </c>
-      <c r="D251" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>547</v>
+        <v>262</v>
       </c>
       <c r="B252" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C252" t="s">
         <v>1</v>
@@ -5528,21 +5557,24 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B253" t="s">
-        <v>265</v>
+        <v>15</v>
       </c>
       <c r="C253" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D253" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>266</v>
+        <v>547</v>
       </c>
       <c r="B254" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C254" t="s">
         <v>1</v>
@@ -5550,21 +5582,21 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B255" t="s">
-        <v>11</v>
+        <v>265</v>
       </c>
       <c r="C255" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B256" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="C256" t="s">
         <v>1</v>
@@ -5572,68 +5604,68 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B257" t="s">
         <v>11</v>
       </c>
       <c r="C257" t="s">
         <v>1</v>
-      </c>
-      <c r="D257" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B258" t="s">
-        <v>271</v>
+        <v>105</v>
       </c>
       <c r="C258" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B259" t="s">
-        <v>273</v>
+        <v>11</v>
       </c>
       <c r="C259" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D259" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B260" t="s">
-        <v>11</v>
+        <v>271</v>
       </c>
       <c r="C260" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B261" t="s">
-        <v>63</v>
+        <v>273</v>
       </c>
       <c r="C261" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B262" t="s">
-        <v>277</v>
+        <v>11</v>
       </c>
       <c r="C262" t="s">
         <v>1</v>
@@ -5641,10 +5673,10 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B263" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="C263" t="s">
         <v>1</v>
@@ -5652,10 +5684,10 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B264" t="s">
-        <v>15</v>
+        <v>277</v>
       </c>
       <c r="C264" t="s">
         <v>1</v>
@@ -5663,10 +5695,10 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B265" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C265" t="s">
         <v>1</v>
@@ -5674,79 +5706,79 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B266" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="C266" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B267" t="s">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c r="C267" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>548</v>
+        <v>281</v>
       </c>
       <c r="B268" t="s">
-        <v>11</v>
+        <v>127</v>
       </c>
       <c r="C268" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>485</v>
+        <v>282</v>
       </c>
       <c r="B269" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="C269" t="s">
-        <v>1</v>
-      </c>
-      <c r="D269" t="s">
-        <v>471</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>283</v>
+        <v>548</v>
       </c>
       <c r="B270" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="C270" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>284</v>
+        <v>485</v>
       </c>
       <c r="B271" t="s">
-        <v>285</v>
+        <v>11</v>
       </c>
       <c r="C271" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D271" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B272" t="s">
-        <v>287</v>
+        <v>44</v>
       </c>
       <c r="C272" t="s">
         <v>2</v>
@@ -5754,10 +5786,10 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B273" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C273" t="s">
         <v>2</v>
@@ -5765,43 +5797,43 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>482</v>
+        <v>286</v>
       </c>
       <c r="B274" t="s">
-        <v>11</v>
+        <v>287</v>
       </c>
       <c r="C274" t="s">
-        <v>1</v>
-      </c>
-      <c r="D274" t="s">
-        <v>471</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B275" t="s">
-        <v>15</v>
+        <v>289</v>
       </c>
       <c r="C275" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>291</v>
+        <v>482</v>
       </c>
       <c r="B276" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C276" t="s">
         <v>1</v>
+      </c>
+      <c r="D276" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B277" t="s">
         <v>15</v>
@@ -5812,21 +5844,21 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B278" t="s">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="C278" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B279" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C279" t="s">
         <v>1</v>
@@ -5834,18 +5866,18 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B280" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C280" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B281" t="s">
         <v>11</v>
@@ -5856,10 +5888,10 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B282" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="C282" t="s">
         <v>1</v>
@@ -5867,21 +5899,21 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B283" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="C283" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B284" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="C284" t="s">
         <v>1</v>
@@ -5889,21 +5921,21 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B285" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="C285" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B286" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="C286" t="s">
         <v>1</v>
@@ -5911,10 +5943,10 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B287" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C287" t="s">
         <v>1</v>
@@ -5922,54 +5954,54 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B288" t="s">
-        <v>305</v>
+        <v>11</v>
       </c>
       <c r="C288" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B289" t="s">
-        <v>307</v>
+        <v>15</v>
       </c>
       <c r="C289" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B290" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C290" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B291" t="s">
-        <v>11</v>
+        <v>307</v>
       </c>
       <c r="C291" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B292" t="s">
-        <v>15</v>
+        <v>309</v>
       </c>
       <c r="C292" t="s">
         <v>1</v>
@@ -5977,21 +6009,21 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>549</v>
+        <v>311</v>
       </c>
       <c r="B293" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="C293" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B294" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C294" t="s">
         <v>1</v>
@@ -5999,18 +6031,18 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>314</v>
+        <v>549</v>
       </c>
       <c r="B295" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="C295" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B296" t="s">
         <v>11</v>
@@ -6021,10 +6053,10 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B297" t="s">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="C297" t="s">
         <v>1</v>
@@ -6032,7 +6064,7 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B298" t="s">
         <v>11</v>
@@ -6043,10 +6075,10 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B299" t="s">
-        <v>156</v>
+        <v>89</v>
       </c>
       <c r="C299" t="s">
         <v>1</v>
@@ -6054,7 +6086,7 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B300" t="s">
         <v>11</v>
@@ -6065,10 +6097,10 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B301" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="C301" t="s">
         <v>1</v>
@@ -6076,32 +6108,32 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>550</v>
+        <v>319</v>
       </c>
       <c r="B302" t="s">
-        <v>523</v>
+        <v>11</v>
       </c>
       <c r="C302" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>551</v>
+        <v>320</v>
       </c>
       <c r="B303" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C303" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>321</v>
+        <v>550</v>
       </c>
       <c r="B304" t="s">
-        <v>310</v>
+        <v>523</v>
       </c>
       <c r="C304" t="s">
         <v>2</v>
@@ -6109,40 +6141,40 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>322</v>
+        <v>551</v>
       </c>
       <c r="B305" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C305" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B306" t="s">
-        <v>15</v>
+        <v>310</v>
       </c>
       <c r="C306" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B307" t="s">
-        <v>325</v>
+        <v>11</v>
       </c>
       <c r="C307" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>552</v>
+        <v>323</v>
       </c>
       <c r="B308" t="s">
         <v>15</v>
@@ -6153,10 +6185,10 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B309" t="s">
-        <v>20</v>
+        <v>325</v>
       </c>
       <c r="C309" t="s">
         <v>2</v>
@@ -6164,7 +6196,7 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>327</v>
+        <v>552</v>
       </c>
       <c r="B310" t="s">
         <v>15</v>
@@ -6175,10 +6207,10 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B311" t="s">
-        <v>329</v>
+        <v>20</v>
       </c>
       <c r="C311" t="s">
         <v>2</v>
@@ -6186,10 +6218,10 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B312" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C312" t="s">
         <v>1</v>
@@ -6197,10 +6229,10 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B313" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C313" t="s">
         <v>2</v>
@@ -6208,32 +6240,32 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B314" t="s">
-        <v>553</v>
+        <v>11</v>
       </c>
       <c r="C314" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B315" t="s">
-        <v>63</v>
+        <v>332</v>
       </c>
       <c r="C315" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>554</v>
+        <v>333</v>
       </c>
       <c r="B316" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C316" t="s">
         <v>2</v>
@@ -6241,57 +6273,57 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B317" t="s">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="C317" t="s">
-        <v>2</v>
-      </c>
-      <c r="D317" t="s">
-        <v>471</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>336</v>
+        <v>554</v>
       </c>
       <c r="B318" t="s">
-        <v>63</v>
+        <v>555</v>
       </c>
       <c r="C318" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B319" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="C319" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D319" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B320" t="s">
-        <v>273</v>
+        <v>63</v>
       </c>
       <c r="C320" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B321" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="C321" t="s">
         <v>1</v>
@@ -6299,7 +6331,7 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B322" t="s">
         <v>273</v>
@@ -6310,10 +6342,10 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B323" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="C323" t="s">
         <v>1</v>
@@ -6321,21 +6353,21 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>556</v>
+        <v>340</v>
       </c>
       <c r="B324" t="s">
-        <v>11</v>
+        <v>273</v>
       </c>
       <c r="C324" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>557</v>
+        <v>341</v>
       </c>
       <c r="B325" t="s">
-        <v>558</v>
+        <v>15</v>
       </c>
       <c r="C325" t="s">
         <v>1</v>
@@ -6343,21 +6375,21 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>342</v>
+        <v>556</v>
       </c>
       <c r="B326" t="s">
-        <v>343</v>
+        <v>11</v>
       </c>
       <c r="C326" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>344</v>
+        <v>557</v>
       </c>
       <c r="B327" t="s">
-        <v>11</v>
+        <v>558</v>
       </c>
       <c r="C327" t="s">
         <v>1</v>
@@ -6365,10 +6397,10 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B328" t="s">
-        <v>273</v>
+        <v>343</v>
       </c>
       <c r="C328" t="s">
         <v>2</v>
@@ -6376,7 +6408,7 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B329" t="s">
         <v>11</v>
@@ -6387,18 +6419,18 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B330" t="s">
-        <v>15</v>
+        <v>273</v>
       </c>
       <c r="C330" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B331" t="s">
         <v>11</v>
@@ -6409,10 +6441,10 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>559</v>
+        <v>347</v>
       </c>
       <c r="B332" t="s">
-        <v>558</v>
+        <v>15</v>
       </c>
       <c r="C332" t="s">
         <v>1</v>
@@ -6420,10 +6452,10 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B333" t="s">
-        <v>350</v>
+        <v>11</v>
       </c>
       <c r="C333" t="s">
         <v>1</v>
@@ -6431,21 +6463,21 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>351</v>
+        <v>559</v>
       </c>
       <c r="B334" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C334" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B335" t="s">
-        <v>15</v>
+        <v>350</v>
       </c>
       <c r="C335" t="s">
         <v>1</v>
@@ -6453,21 +6485,21 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B336" t="s">
-        <v>15</v>
+        <v>560</v>
       </c>
       <c r="C336" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B337" t="s">
-        <v>356</v>
+        <v>15</v>
       </c>
       <c r="C337" t="s">
         <v>1</v>
@@ -6475,10 +6507,10 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B338" t="s">
-        <v>358</v>
+        <v>15</v>
       </c>
       <c r="C338" t="s">
         <v>1</v>
@@ -6486,24 +6518,21 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>561</v>
+        <v>355</v>
       </c>
       <c r="B339" t="s">
-        <v>562</v>
+        <v>356</v>
       </c>
       <c r="C339" t="s">
-        <v>2</v>
-      </c>
-      <c r="D339" t="s">
-        <v>471</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B340" t="s">
-        <v>156</v>
+        <v>358</v>
       </c>
       <c r="C340" t="s">
         <v>1</v>
@@ -6511,32 +6540,35 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>360</v>
+        <v>561</v>
       </c>
       <c r="B341" t="s">
-        <v>102</v>
+        <v>562</v>
       </c>
       <c r="C341" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D341" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B342" t="s">
-        <v>362</v>
+        <v>156</v>
       </c>
       <c r="C342" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B343" t="s">
-        <v>364</v>
+        <v>102</v>
       </c>
       <c r="C343" t="s">
         <v>1</v>
@@ -6544,21 +6576,21 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B344" t="s">
-        <v>102</v>
+        <v>362</v>
       </c>
       <c r="C344" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B345" t="s">
-        <v>32</v>
+        <v>364</v>
       </c>
       <c r="C345" t="s">
         <v>1</v>
@@ -6566,10 +6598,10 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B346" t="s">
-        <v>368</v>
+        <v>102</v>
       </c>
       <c r="C346" t="s">
         <v>1</v>
@@ -6577,10 +6609,10 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B347" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C347" t="s">
         <v>1</v>
@@ -6588,29 +6620,29 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B348" t="s">
-        <v>23</v>
+        <v>368</v>
       </c>
       <c r="C348" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B349" t="s">
-        <v>563</v>
+        <v>11</v>
       </c>
       <c r="C349" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B350" t="s">
         <v>23</v>
@@ -6621,43 +6653,43 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B351" t="s">
-        <v>15</v>
+        <v>563</v>
       </c>
       <c r="C351" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B352" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C352" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B353" t="s">
-        <v>564</v>
+        <v>15</v>
       </c>
       <c r="C353" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B354" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C354" t="s">
         <v>1</v>
@@ -6665,21 +6697,21 @@
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B355" t="s">
-        <v>15</v>
+        <v>564</v>
       </c>
       <c r="C355" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B356" t="s">
-        <v>372</v>
+        <v>8</v>
       </c>
       <c r="C356" t="s">
         <v>1</v>
@@ -6687,10 +6719,10 @@
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B357" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C357" t="s">
         <v>1</v>
@@ -6698,10 +6730,10 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B358" t="s">
-        <v>11</v>
+        <v>372</v>
       </c>
       <c r="C358" t="s">
         <v>1</v>
@@ -6709,18 +6741,18 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B359" t="s">
-        <v>271</v>
+        <v>11</v>
       </c>
       <c r="C359" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B360" t="s">
         <v>11</v>
@@ -6731,10 +6763,10 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B361" t="s">
-        <v>81</v>
+        <v>271</v>
       </c>
       <c r="C361" t="s">
         <v>2</v>
@@ -6742,115 +6774,115 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B362" t="s">
-        <v>565</v>
+        <v>11</v>
       </c>
       <c r="C362" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B363" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="C363" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B364" t="s">
-        <v>15</v>
+        <v>565</v>
       </c>
       <c r="C364" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>483</v>
+        <v>386</v>
       </c>
       <c r="B365" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C365" t="s">
         <v>1</v>
-      </c>
-      <c r="D365" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>476</v>
+        <v>387</v>
       </c>
       <c r="B366" t="s">
-        <v>372</v>
+        <v>15</v>
       </c>
       <c r="C366" t="s">
         <v>1</v>
-      </c>
-      <c r="D366" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>388</v>
+        <v>483</v>
       </c>
       <c r="B367" t="s">
-        <v>273</v>
+        <v>15</v>
       </c>
       <c r="C367" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D367" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>389</v>
+        <v>476</v>
       </c>
       <c r="B368" t="s">
-        <v>224</v>
+        <v>372</v>
       </c>
       <c r="C368" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D368" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B369" t="s">
-        <v>11</v>
+        <v>273</v>
       </c>
       <c r="C369" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B370" t="s">
-        <v>13</v>
+        <v>224</v>
       </c>
       <c r="C370" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B371" t="s">
-        <v>358</v>
+        <v>11</v>
       </c>
       <c r="C371" t="s">
         <v>1</v>
@@ -6858,24 +6890,21 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>566</v>
+        <v>391</v>
       </c>
       <c r="B372" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="C372" t="s">
-        <v>2</v>
-      </c>
-      <c r="D372" t="s">
-        <v>471</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B373" t="s">
-        <v>11</v>
+        <v>358</v>
       </c>
       <c r="C373" t="s">
         <v>1</v>
@@ -6883,21 +6912,24 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>394</v>
+        <v>566</v>
       </c>
       <c r="B374" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="C374" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D374" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B375" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C375" t="s">
         <v>1</v>
@@ -6905,10 +6937,10 @@
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B376" t="s">
-        <v>156</v>
+        <v>11</v>
       </c>
       <c r="C376" t="s">
         <v>1</v>
@@ -6916,43 +6948,43 @@
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>567</v>
+        <v>395</v>
       </c>
       <c r="B377" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C377" t="s">
         <v>1</v>
-      </c>
-      <c r="D377" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B378" t="s">
-        <v>568</v>
+        <v>156</v>
       </c>
       <c r="C378" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>398</v>
+        <v>567</v>
       </c>
       <c r="B379" t="s">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="C379" t="s">
         <v>1</v>
+      </c>
+      <c r="D379" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>569</v>
+        <v>589</v>
       </c>
       <c r="B380" t="s">
         <v>44</v>
@@ -6966,10 +6998,10 @@
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B381" t="s">
-        <v>20</v>
+        <v>568</v>
       </c>
       <c r="C381" t="s">
         <v>2</v>
@@ -6977,35 +7009,35 @@
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>570</v>
+        <v>398</v>
       </c>
       <c r="B382" t="s">
-        <v>571</v>
+        <v>353</v>
       </c>
       <c r="C382" t="s">
-        <v>2</v>
-      </c>
-      <c r="D382" t="s">
-        <v>471</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>400</v>
+        <v>569</v>
       </c>
       <c r="B383" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="C383" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D383" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>572</v>
+        <v>399</v>
       </c>
       <c r="B384" t="s">
-        <v>401</v>
+        <v>20</v>
       </c>
       <c r="C384" t="s">
         <v>2</v>
@@ -7013,10 +7045,10 @@
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>402</v>
+        <v>570</v>
       </c>
       <c r="B385" t="s">
-        <v>23</v>
+        <v>571</v>
       </c>
       <c r="C385" t="s">
         <v>2</v>
@@ -7027,21 +7059,21 @@
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>573</v>
+        <v>400</v>
       </c>
       <c r="B386" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="C386" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>403</v>
+        <v>572</v>
       </c>
       <c r="B387" t="s">
-        <v>574</v>
+        <v>401</v>
       </c>
       <c r="C387" t="s">
         <v>2</v>
@@ -7049,120 +7081,123 @@
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B388" t="s">
-        <v>568</v>
+        <v>23</v>
       </c>
       <c r="C388" t="s">
         <v>2</v>
+      </c>
+      <c r="D388" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>405</v>
+        <v>573</v>
       </c>
       <c r="B389" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="C389" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B390" t="s">
-        <v>11</v>
+        <v>574</v>
       </c>
       <c r="C390" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B391" t="s">
-        <v>408</v>
+        <v>568</v>
       </c>
       <c r="C391" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B392" t="s">
-        <v>273</v>
+        <v>15</v>
       </c>
       <c r="C392" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B393" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C393" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B394" t="s">
-        <v>63</v>
+        <v>408</v>
       </c>
       <c r="C394" t="s">
         <v>1</v>
-      </c>
-      <c r="D394" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B395" t="s">
-        <v>15</v>
+        <v>273</v>
       </c>
       <c r="C395" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B396" t="s">
-        <v>414</v>
+        <v>23</v>
       </c>
       <c r="C396" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B397" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="C397" t="s">
         <v>1</v>
+      </c>
+      <c r="D397" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>575</v>
+        <v>412</v>
       </c>
       <c r="B398" t="s">
         <v>15</v>
@@ -7173,10 +7208,10 @@
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B399" t="s">
-        <v>11</v>
+        <v>414</v>
       </c>
       <c r="C399" t="s">
         <v>1</v>
@@ -7184,24 +7219,21 @@
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>576</v>
+        <v>415</v>
       </c>
       <c r="B400" t="s">
-        <v>577</v>
+        <v>11</v>
       </c>
       <c r="C400" t="s">
-        <v>2</v>
-      </c>
-      <c r="D400" t="s">
-        <v>471</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>417</v>
+        <v>575</v>
       </c>
       <c r="B401" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C401" t="s">
         <v>1</v>
@@ -7209,7 +7241,7 @@
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B402" t="s">
         <v>11</v>
@@ -7220,18 +7252,21 @@
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>419</v>
+        <v>576</v>
       </c>
       <c r="B403" t="s">
-        <v>15</v>
+        <v>577</v>
       </c>
       <c r="C403" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D403" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B404" t="s">
         <v>11</v>
@@ -7242,10 +7277,10 @@
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B405" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C405" t="s">
         <v>1</v>
@@ -7253,10 +7288,10 @@
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B406" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C406" t="s">
         <v>1</v>
@@ -7264,7 +7299,7 @@
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B407" t="s">
         <v>11</v>
@@ -7275,32 +7310,32 @@
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B408" t="s">
-        <v>425</v>
+        <v>15</v>
       </c>
       <c r="C408" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B409" t="s">
-        <v>578</v>
+        <v>11</v>
       </c>
       <c r="C409" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B410" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C410" t="s">
         <v>1</v>
@@ -7308,24 +7343,21 @@
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B411" t="s">
-        <v>4</v>
+        <v>425</v>
       </c>
       <c r="C411" t="s">
         <v>2</v>
-      </c>
-      <c r="D411" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B412" t="s">
-        <v>86</v>
+        <v>578</v>
       </c>
       <c r="C412" t="s">
         <v>2</v>
@@ -7333,10 +7365,10 @@
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B413" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C413" t="s">
         <v>1</v>
@@ -7344,13 +7376,13 @@
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>579</v>
+        <v>428</v>
       </c>
       <c r="B414" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C414" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D414" t="s">
         <v>471</v>
@@ -7358,10 +7390,10 @@
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B415" t="s">
-        <v>432</v>
+        <v>86</v>
       </c>
       <c r="C415" t="s">
         <v>2</v>
@@ -7369,186 +7401,189 @@
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
+        <v>430</v>
+      </c>
+      <c r="B416" t="s">
+        <v>11</v>
+      </c>
+      <c r="C416" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>579</v>
+      </c>
+      <c r="B417" t="s">
+        <v>13</v>
+      </c>
+      <c r="C417" t="s">
+        <v>1</v>
+      </c>
+      <c r="D417" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>431</v>
+      </c>
+      <c r="B418" t="s">
+        <v>432</v>
+      </c>
+      <c r="C418" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
         <v>580</v>
       </c>
-      <c r="B416" t="s">
+      <c r="B419" t="s">
         <v>52</v>
       </c>
-      <c r="C416" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A417" t="s">
+      <c r="C419" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
         <v>433</v>
       </c>
-      <c r="B417" t="s">
+      <c r="B420" t="s">
         <v>44</v>
       </c>
-      <c r="C417" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A418" t="s">
+      <c r="C420" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
         <v>434</v>
       </c>
-      <c r="B418" t="s">
-        <v>11</v>
-      </c>
-      <c r="C418" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A419" t="s">
+      <c r="B421" t="s">
+        <v>11</v>
+      </c>
+      <c r="C421" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
         <v>435</v>
       </c>
-      <c r="B419" t="s">
+      <c r="B422" t="s">
         <v>13</v>
       </c>
-      <c r="C419" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A420" t="s">
+      <c r="C422" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
         <v>436</v>
       </c>
-      <c r="B420" t="s">
-        <v>11</v>
-      </c>
-      <c r="C420" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A421" t="s">
+      <c r="B423" t="s">
+        <v>11</v>
+      </c>
+      <c r="C423" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
         <v>437</v>
       </c>
-      <c r="B421" t="s">
+      <c r="B424" t="s">
         <v>577</v>
       </c>
-      <c r="C421" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A422" t="s">
+      <c r="C424" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
         <v>472</v>
       </c>
-      <c r="B422" t="s">
+      <c r="B425" t="s">
         <v>15</v>
       </c>
-      <c r="C422" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A423" t="s">
+      <c r="C425" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
         <v>438</v>
       </c>
-      <c r="B423" t="s">
+      <c r="B426" t="s">
         <v>581</v>
       </c>
-      <c r="C423" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A424" t="s">
+      <c r="C426" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
         <v>439</v>
       </c>
-      <c r="B424" t="s">
+      <c r="B427" t="s">
         <v>582</v>
       </c>
-      <c r="C424" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A425" t="s">
+      <c r="C427" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
         <v>440</v>
       </c>
-      <c r="B425" t="s">
+      <c r="B428" t="s">
         <v>441</v>
       </c>
-      <c r="C425" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A426" t="s">
+      <c r="C428" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
         <v>442</v>
       </c>
-      <c r="B426" t="s">
+      <c r="B429" t="s">
         <v>63</v>
       </c>
-      <c r="C426" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A427" t="s">
+      <c r="C429" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
         <v>443</v>
       </c>
-      <c r="B427" t="s">
-        <v>11</v>
-      </c>
-      <c r="C427" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A428" t="s">
+      <c r="B430" t="s">
+        <v>11</v>
+      </c>
+      <c r="C430" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
         <v>444</v>
       </c>
-      <c r="B428" t="s">
+      <c r="B431" t="s">
         <v>583</v>
       </c>
-      <c r="C428" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A429" t="s">
+      <c r="C431" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
         <v>445</v>
       </c>
-      <c r="B429" t="s">
-        <v>11</v>
-      </c>
-      <c r="C429" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A430" t="s">
-        <v>446</v>
-      </c>
-      <c r="B430" t="s">
-        <v>156</v>
-      </c>
-      <c r="C430" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A431" t="s">
-        <v>447</v>
-      </c>
-      <c r="B431" t="s">
-        <v>584</v>
-      </c>
-      <c r="C431" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A432" t="s">
-        <v>448</v>
-      </c>
       <c r="B432" t="s">
-        <v>292</v>
+        <v>11</v>
       </c>
       <c r="C432" t="s">
         <v>1</v>
@@ -7556,10 +7591,10 @@
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B433" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="C433" t="s">
         <v>1</v>
@@ -7567,32 +7602,29 @@
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B434" t="s">
-        <v>13</v>
+        <v>584</v>
       </c>
       <c r="C434" t="s">
-        <v>1</v>
-      </c>
-      <c r="D434" t="s">
-        <v>471</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>585</v>
+        <v>448</v>
       </c>
       <c r="B435" t="s">
-        <v>77</v>
+        <v>292</v>
       </c>
       <c r="C435" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B436" t="s">
         <v>11</v>
@@ -7603,21 +7635,24 @@
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B437" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="C437" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D437" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>453</v>
+        <v>585</v>
       </c>
       <c r="B438" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="C438" t="s">
         <v>2</v>
@@ -7625,10 +7660,10 @@
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B439" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C439" t="s">
         <v>1</v>
@@ -7636,32 +7671,32 @@
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B440" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C440" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B441" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="C441" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B442" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C442" t="s">
         <v>1</v>
@@ -7669,10 +7704,10 @@
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B443" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C443" t="s">
         <v>1</v>
@@ -7680,24 +7715,21 @@
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B444" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="C444" t="s">
-        <v>2</v>
-      </c>
-      <c r="D444" t="s">
-        <v>471</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B445" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C445" t="s">
         <v>1</v>
@@ -7705,32 +7737,35 @@
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B446" t="s">
-        <v>462</v>
+        <v>11</v>
       </c>
       <c r="C446" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B447" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="C447" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D447" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B448" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C448" t="s">
         <v>1</v>
@@ -7738,10 +7773,10 @@
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>586</v>
+        <v>461</v>
       </c>
       <c r="B449" t="s">
-        <v>587</v>
+        <v>462</v>
       </c>
       <c r="C449" t="s">
         <v>2</v>
@@ -7749,21 +7784,57 @@
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
+        <v>463</v>
+      </c>
+      <c r="B450" t="s">
+        <v>11</v>
+      </c>
+      <c r="C450" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>464</v>
+      </c>
+      <c r="B451" t="s">
+        <v>11</v>
+      </c>
+      <c r="C451" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>586</v>
+      </c>
+      <c r="B452" t="s">
+        <v>587</v>
+      </c>
+      <c r="C452" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
         <v>465</v>
       </c>
-      <c r="B450" t="s">
+      <c r="B453" t="s">
         <v>15</v>
       </c>
-      <c r="C450" t="s">
+      <c r="C453" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1" xr:uid="{8F56ED3D-A3F2-450D-9EAE-1214C3EA2069}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D419">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D453">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/assets/guncel_deneme_bonuslari_listesi.xlsx
+++ b/assets/guncel_deneme_bonuslari_listesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cengi\Desktop\test\Deneme Bonusu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B598F9-4516-4BFB-BA49-9635BF487DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F31E2A-55C6-4832-B8BF-346342AD59B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CD7B2693-F8D1-429F-9AB3-DB64ACA5183F}"/>
   </bookViews>
@@ -1789,9 +1789,6 @@
     <t>250tl yatırımlı. 500tl çekim. Anapara ile devam</t>
   </si>
   <si>
-    <t>casineıon</t>
-  </si>
-  <si>
     <t>serispin</t>
   </si>
   <si>
@@ -1799,6 +1796,9 @@
   </si>
   <si>
     <t>betlora</t>
+  </si>
+  <si>
+    <t>casineon</t>
   </si>
 </sst>
 </file>
@@ -2691,8 +2691,8 @@
   <dimension ref="A1:D453"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A142" sqref="A142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3632,7 +3632,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B84" t="s">
         <v>86</v>
@@ -3833,7 +3833,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B102" t="s">
         <v>102</v>
@@ -4274,7 +4274,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="B141" t="s">
         <v>11</v>
@@ -6984,7 +6984,7 @@
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B380" t="s">
         <v>44</v>

--- a/assets/guncel_deneme_bonuslari_listesi.xlsx
+++ b/assets/guncel_deneme_bonuslari_listesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cengi\Desktop\test\Deneme Bonusu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F31E2A-55C6-4832-B8BF-346342AD59B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59DBFDC-1822-479F-91D3-DCE9FB463F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CD7B2693-F8D1-429F-9AB3-DB64ACA5183F}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="593">
   <si>
     <t>maks 750tl çekim</t>
   </si>
@@ -1799,6 +1799,9 @@
   </si>
   <si>
     <t>casineon</t>
+  </si>
+  <si>
+    <t>nimacasino</t>
   </si>
 </sst>
 </file>
@@ -2688,11 +2691,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F56ED3D-A3F2-450D-9EAE-1214C3EA2069}">
-  <dimension ref="A1:D453"/>
+  <dimension ref="A1:D454"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A142" sqref="A142"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6318,7 +6321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>337</v>
       </c>
@@ -6329,7 +6332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>338</v>
       </c>
@@ -6340,7 +6343,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>339</v>
       </c>
@@ -6351,163 +6354,166 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
+        <v>592</v>
+      </c>
+      <c r="B324" t="s">
+        <v>11</v>
+      </c>
+      <c r="C324" t="s">
+        <v>1</v>
+      </c>
+      <c r="D324" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
         <v>340</v>
       </c>
-      <c r="B324" t="s">
+      <c r="B325" t="s">
         <v>273</v>
       </c>
-      <c r="C324" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A325" t="s">
+      <c r="C325" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
         <v>341</v>
       </c>
-      <c r="B325" t="s">
+      <c r="B326" t="s">
         <v>15</v>
       </c>
-      <c r="C325" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A326" t="s">
+      <c r="C326" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
         <v>556</v>
       </c>
-      <c r="B326" t="s">
-        <v>11</v>
-      </c>
-      <c r="C326" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A327" t="s">
+      <c r="B327" t="s">
+        <v>11</v>
+      </c>
+      <c r="C327" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
         <v>557</v>
       </c>
-      <c r="B327" t="s">
+      <c r="B328" t="s">
         <v>558</v>
       </c>
-      <c r="C327" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A328" t="s">
+      <c r="C328" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
         <v>342</v>
       </c>
-      <c r="B328" t="s">
+      <c r="B329" t="s">
         <v>343</v>
       </c>
-      <c r="C328" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A329" t="s">
+      <c r="C329" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
         <v>344</v>
       </c>
-      <c r="B329" t="s">
-        <v>11</v>
-      </c>
-      <c r="C329" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A330" t="s">
+      <c r="B330" t="s">
+        <v>11</v>
+      </c>
+      <c r="C330" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
         <v>345</v>
       </c>
-      <c r="B330" t="s">
+      <c r="B331" t="s">
         <v>273</v>
       </c>
-      <c r="C330" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A331" t="s">
+      <c r="C331" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
         <v>346</v>
       </c>
-      <c r="B331" t="s">
-        <v>11</v>
-      </c>
-      <c r="C331" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A332" t="s">
+      <c r="B332" t="s">
+        <v>11</v>
+      </c>
+      <c r="C332" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
         <v>347</v>
       </c>
-      <c r="B332" t="s">
+      <c r="B333" t="s">
         <v>15</v>
       </c>
-      <c r="C332" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A333" t="s">
+      <c r="C333" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
         <v>348</v>
       </c>
-      <c r="B333" t="s">
-        <v>11</v>
-      </c>
-      <c r="C333" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A334" t="s">
+      <c r="B334" t="s">
+        <v>11</v>
+      </c>
+      <c r="C334" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
         <v>559</v>
       </c>
-      <c r="B334" t="s">
+      <c r="B335" t="s">
         <v>558</v>
       </c>
-      <c r="C334" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A335" t="s">
+      <c r="C335" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
         <v>349</v>
       </c>
-      <c r="B335" t="s">
+      <c r="B336" t="s">
         <v>350</v>
       </c>
-      <c r="C335" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A336" t="s">
-        <v>351</v>
-      </c>
-      <c r="B336" t="s">
-        <v>560</v>
-      </c>
       <c r="C336" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B337" t="s">
-        <v>15</v>
+        <v>560</v>
       </c>
       <c r="C337" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B338" t="s">
         <v>15</v>
@@ -6518,10 +6524,10 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B339" t="s">
-        <v>356</v>
+        <v>15</v>
       </c>
       <c r="C339" t="s">
         <v>1</v>
@@ -6529,10 +6535,10 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B340" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C340" t="s">
         <v>1</v>
@@ -6540,35 +6546,35 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>561</v>
+        <v>357</v>
       </c>
       <c r="B341" t="s">
-        <v>562</v>
+        <v>358</v>
       </c>
       <c r="C341" t="s">
-        <v>2</v>
-      </c>
-      <c r="D341" t="s">
-        <v>471</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>359</v>
+        <v>561</v>
       </c>
       <c r="B342" t="s">
-        <v>156</v>
+        <v>562</v>
       </c>
       <c r="C342" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D342" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B343" t="s">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c r="C343" t="s">
         <v>1</v>
@@ -6576,32 +6582,32 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B344" t="s">
-        <v>362</v>
+        <v>102</v>
       </c>
       <c r="C344" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B345" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C345" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B346" t="s">
-        <v>102</v>
+        <v>364</v>
       </c>
       <c r="C346" t="s">
         <v>1</v>
@@ -6609,10 +6615,10 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B347" t="s">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="C347" t="s">
         <v>1</v>
@@ -6620,10 +6626,10 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B348" t="s">
-        <v>368</v>
+        <v>32</v>
       </c>
       <c r="C348" t="s">
         <v>1</v>
@@ -6631,10 +6637,10 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B349" t="s">
-        <v>11</v>
+        <v>368</v>
       </c>
       <c r="C349" t="s">
         <v>1</v>
@@ -6642,21 +6648,21 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B350" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C350" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B351" t="s">
-        <v>563</v>
+        <v>23</v>
       </c>
       <c r="C351" t="s">
         <v>2</v>
@@ -6664,10 +6670,10 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B352" t="s">
-        <v>23</v>
+        <v>563</v>
       </c>
       <c r="C352" t="s">
         <v>2</v>
@@ -6675,21 +6681,21 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B353" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C353" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B354" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C354" t="s">
         <v>1</v>
@@ -6697,32 +6703,32 @@
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B355" t="s">
-        <v>564</v>
+        <v>0</v>
       </c>
       <c r="C355" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B356" t="s">
-        <v>8</v>
+        <v>564</v>
       </c>
       <c r="C356" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B357" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C357" t="s">
         <v>1</v>
@@ -6730,10 +6736,10 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B358" t="s">
-        <v>372</v>
+        <v>15</v>
       </c>
       <c r="C358" t="s">
         <v>1</v>
@@ -6741,10 +6747,10 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B359" t="s">
-        <v>11</v>
+        <v>372</v>
       </c>
       <c r="C359" t="s">
         <v>1</v>
@@ -6752,7 +6758,7 @@
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B360" t="s">
         <v>11</v>
@@ -6763,43 +6769,43 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B361" t="s">
-        <v>271</v>
+        <v>11</v>
       </c>
       <c r="C361" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B362" t="s">
-        <v>11</v>
+        <v>271</v>
       </c>
       <c r="C362" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B363" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="C363" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B364" t="s">
-        <v>565</v>
+        <v>81</v>
       </c>
       <c r="C364" t="s">
         <v>2</v>
@@ -6807,21 +6813,21 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B365" t="s">
-        <v>11</v>
+        <v>565</v>
       </c>
       <c r="C365" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B366" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C366" t="s">
         <v>1</v>
@@ -6829,7 +6835,7 @@
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>483</v>
+        <v>387</v>
       </c>
       <c r="B367" t="s">
         <v>15</v>
@@ -6837,16 +6843,13 @@
       <c r="C367" t="s">
         <v>1</v>
       </c>
-      <c r="D367" t="s">
-        <v>471</v>
-      </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="B368" t="s">
-        <v>372</v>
+        <v>15</v>
       </c>
       <c r="C368" t="s">
         <v>1</v>
@@ -6857,21 +6860,24 @@
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>388</v>
+        <v>476</v>
       </c>
       <c r="B369" t="s">
-        <v>273</v>
+        <v>372</v>
       </c>
       <c r="C369" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D369" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B370" t="s">
-        <v>224</v>
+        <v>273</v>
       </c>
       <c r="C370" t="s">
         <v>2</v>
@@ -6879,21 +6885,21 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B371" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="C371" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B372" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C372" t="s">
         <v>1</v>
@@ -6901,10 +6907,10 @@
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B373" t="s">
-        <v>358</v>
+        <v>13</v>
       </c>
       <c r="C373" t="s">
         <v>1</v>
@@ -6912,32 +6918,32 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>566</v>
+        <v>392</v>
       </c>
       <c r="B374" t="s">
-        <v>81</v>
+        <v>358</v>
       </c>
       <c r="C374" t="s">
-        <v>2</v>
-      </c>
-      <c r="D374" t="s">
-        <v>471</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>393</v>
+        <v>566</v>
       </c>
       <c r="B375" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="C375" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D375" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B376" t="s">
         <v>11</v>
@@ -6948,10 +6954,10 @@
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B377" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C377" t="s">
         <v>1</v>
@@ -6959,10 +6965,10 @@
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B378" t="s">
-        <v>156</v>
+        <v>13</v>
       </c>
       <c r="C378" t="s">
         <v>1</v>
@@ -6970,27 +6976,24 @@
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>567</v>
+        <v>396</v>
       </c>
       <c r="B379" t="s">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="C379" t="s">
         <v>1</v>
-      </c>
-      <c r="D379" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>588</v>
+        <v>567</v>
       </c>
       <c r="B380" t="s">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="C380" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D380" t="s">
         <v>471</v>
@@ -6998,118 +7001,121 @@
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>397</v>
+        <v>588</v>
       </c>
       <c r="B381" t="s">
-        <v>568</v>
+        <v>44</v>
       </c>
       <c r="C381" t="s">
         <v>2</v>
+      </c>
+      <c r="D381" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B382" t="s">
-        <v>353</v>
+        <v>568</v>
       </c>
       <c r="C382" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>569</v>
+        <v>398</v>
       </c>
       <c r="B383" t="s">
-        <v>44</v>
+        <v>353</v>
       </c>
       <c r="C383" t="s">
-        <v>2</v>
-      </c>
-      <c r="D383" t="s">
-        <v>471</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>399</v>
+        <v>569</v>
       </c>
       <c r="B384" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="C384" t="s">
         <v>2</v>
+      </c>
+      <c r="D384" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>570</v>
+        <v>399</v>
       </c>
       <c r="B385" t="s">
-        <v>571</v>
+        <v>20</v>
       </c>
       <c r="C385" t="s">
         <v>2</v>
-      </c>
-      <c r="D385" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>400</v>
+        <v>570</v>
       </c>
       <c r="B386" t="s">
-        <v>15</v>
+        <v>571</v>
       </c>
       <c r="C386" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D386" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>572</v>
+        <v>400</v>
       </c>
       <c r="B387" t="s">
-        <v>401</v>
+        <v>15</v>
       </c>
       <c r="C387" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>402</v>
+        <v>572</v>
       </c>
       <c r="B388" t="s">
-        <v>23</v>
+        <v>401</v>
       </c>
       <c r="C388" t="s">
         <v>2</v>
-      </c>
-      <c r="D388" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>573</v>
+        <v>402</v>
       </c>
       <c r="B389" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="C389" t="s">
         <v>2</v>
+      </c>
+      <c r="D389" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>403</v>
+        <v>573</v>
       </c>
       <c r="B390" t="s">
-        <v>574</v>
+        <v>81</v>
       </c>
       <c r="C390" t="s">
         <v>2</v>
@@ -7117,10 +7123,10 @@
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B391" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="C391" t="s">
         <v>2</v>
@@ -7128,21 +7134,21 @@
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B392" t="s">
-        <v>15</v>
+        <v>568</v>
       </c>
       <c r="C392" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B393" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C393" t="s">
         <v>1</v>
@@ -7150,10 +7156,10 @@
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B394" t="s">
-        <v>408</v>
+        <v>11</v>
       </c>
       <c r="C394" t="s">
         <v>1</v>
@@ -7161,21 +7167,21 @@
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B395" t="s">
-        <v>273</v>
+        <v>408</v>
       </c>
       <c r="C395" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B396" t="s">
-        <v>23</v>
+        <v>273</v>
       </c>
       <c r="C396" t="s">
         <v>2</v>
@@ -7183,35 +7189,35 @@
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B397" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="C397" t="s">
-        <v>1</v>
-      </c>
-      <c r="D397" t="s">
-        <v>471</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B398" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="C398" t="s">
         <v>1</v>
+      </c>
+      <c r="D398" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B399" t="s">
-        <v>414</v>
+        <v>15</v>
       </c>
       <c r="C399" t="s">
         <v>1</v>
@@ -7219,10 +7225,10 @@
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B400" t="s">
-        <v>11</v>
+        <v>414</v>
       </c>
       <c r="C400" t="s">
         <v>1</v>
@@ -7230,10 +7236,10 @@
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>575</v>
+        <v>415</v>
       </c>
       <c r="B401" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C401" t="s">
         <v>1</v>
@@ -7241,10 +7247,10 @@
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>416</v>
+        <v>575</v>
       </c>
       <c r="B402" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C402" t="s">
         <v>1</v>
@@ -7252,32 +7258,32 @@
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>576</v>
+        <v>416</v>
       </c>
       <c r="B403" t="s">
-        <v>577</v>
+        <v>11</v>
       </c>
       <c r="C403" t="s">
-        <v>2</v>
-      </c>
-      <c r="D403" t="s">
-        <v>471</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>417</v>
+        <v>576</v>
       </c>
       <c r="B404" t="s">
-        <v>11</v>
+        <v>577</v>
       </c>
       <c r="C404" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D404" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B405" t="s">
         <v>11</v>
@@ -7288,10 +7294,10 @@
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B406" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C406" t="s">
         <v>1</v>
@@ -7299,10 +7305,10 @@
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B407" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C407" t="s">
         <v>1</v>
@@ -7310,10 +7316,10 @@
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B408" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C408" t="s">
         <v>1</v>
@@ -7321,10 +7327,10 @@
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B409" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C409" t="s">
         <v>1</v>
@@ -7332,7 +7338,7 @@
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B410" t="s">
         <v>11</v>
@@ -7343,21 +7349,21 @@
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B411" t="s">
-        <v>425</v>
+        <v>11</v>
       </c>
       <c r="C411" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B412" t="s">
-        <v>578</v>
+        <v>425</v>
       </c>
       <c r="C412" t="s">
         <v>2</v>
@@ -7365,82 +7371,82 @@
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B413" t="s">
-        <v>15</v>
+        <v>578</v>
       </c>
       <c r="C413" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B414" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C414" t="s">
-        <v>2</v>
-      </c>
-      <c r="D414" t="s">
-        <v>471</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B415" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C415" t="s">
         <v>2</v>
+      </c>
+      <c r="D415" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B416" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="C416" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>579</v>
+        <v>430</v>
       </c>
       <c r="B417" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C417" t="s">
         <v>1</v>
-      </c>
-      <c r="D417" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>431</v>
+        <v>579</v>
       </c>
       <c r="B418" t="s">
-        <v>432</v>
+        <v>13</v>
       </c>
       <c r="C418" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D418" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>580</v>
+        <v>431</v>
       </c>
       <c r="B419" t="s">
-        <v>52</v>
+        <v>432</v>
       </c>
       <c r="C419" t="s">
         <v>2</v>
@@ -7448,10 +7454,10 @@
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>433</v>
+        <v>580</v>
       </c>
       <c r="B420" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C420" t="s">
         <v>2</v>
@@ -7459,21 +7465,21 @@
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B421" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="C421" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B422" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C422" t="s">
         <v>1</v>
@@ -7481,10 +7487,10 @@
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B423" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C423" t="s">
         <v>1</v>
@@ -7492,43 +7498,43 @@
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B424" t="s">
-        <v>577</v>
+        <v>11</v>
       </c>
       <c r="C424" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>472</v>
+        <v>437</v>
       </c>
       <c r="B425" t="s">
-        <v>15</v>
+        <v>577</v>
       </c>
       <c r="C425" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>438</v>
+        <v>472</v>
       </c>
       <c r="B426" t="s">
-        <v>581</v>
+        <v>15</v>
       </c>
       <c r="C426" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B427" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C427" t="s">
         <v>2</v>
@@ -7536,10 +7542,10 @@
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B428" t="s">
-        <v>441</v>
+        <v>582</v>
       </c>
       <c r="C428" t="s">
         <v>2</v>
@@ -7547,21 +7553,21 @@
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B429" t="s">
-        <v>63</v>
+        <v>441</v>
       </c>
       <c r="C429" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B430" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="C430" t="s">
         <v>1</v>
@@ -7569,32 +7575,32 @@
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B431" t="s">
-        <v>583</v>
+        <v>11</v>
       </c>
       <c r="C431" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B432" t="s">
-        <v>11</v>
+        <v>583</v>
       </c>
       <c r="C432" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B433" t="s">
-        <v>156</v>
+        <v>11</v>
       </c>
       <c r="C433" t="s">
         <v>1</v>
@@ -7602,32 +7608,32 @@
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B434" t="s">
-        <v>584</v>
+        <v>156</v>
       </c>
       <c r="C434" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B435" t="s">
-        <v>292</v>
+        <v>584</v>
       </c>
       <c r="C435" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B436" t="s">
-        <v>11</v>
+        <v>292</v>
       </c>
       <c r="C436" t="s">
         <v>1</v>
@@ -7635,54 +7641,54 @@
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B437" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C437" t="s">
         <v>1</v>
-      </c>
-      <c r="D437" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>585</v>
+        <v>450</v>
       </c>
       <c r="B438" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="C438" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D438" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>451</v>
+        <v>585</v>
       </c>
       <c r="B439" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="C439" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B440" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="C440" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B441" t="s">
         <v>44</v>
@@ -7693,21 +7699,21 @@
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B442" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="C442" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B443" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C443" t="s">
         <v>1</v>
@@ -7715,10 +7721,10 @@
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B444" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C444" t="s">
         <v>1</v>
@@ -7726,7 +7732,7 @@
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B445" t="s">
         <v>11</v>
@@ -7737,7 +7743,7 @@
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B446" t="s">
         <v>11</v>
@@ -7748,54 +7754,54 @@
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B447" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="C447" t="s">
-        <v>2</v>
-      </c>
-      <c r="D447" t="s">
-        <v>471</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B448" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="C448" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D448" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B449" t="s">
-        <v>462</v>
+        <v>15</v>
       </c>
       <c r="C449" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B450" t="s">
-        <v>11</v>
+        <v>462</v>
       </c>
       <c r="C450" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B451" t="s">
         <v>11</v>
@@ -7806,29 +7812,40 @@
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>586</v>
+        <v>464</v>
       </c>
       <c r="B452" t="s">
-        <v>587</v>
+        <v>11</v>
       </c>
       <c r="C452" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
+        <v>586</v>
+      </c>
+      <c r="B453" t="s">
+        <v>587</v>
+      </c>
+      <c r="C453" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
         <v>465</v>
       </c>
-      <c r="B453" t="s">
+      <c r="B454" t="s">
         <v>15</v>
       </c>
-      <c r="C453" t="s">
+      <c r="C454" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1" xr:uid="{8F56ED3D-A3F2-450D-9EAE-1214C3EA2069}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D453">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D454">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
